--- a/13_WBSガントチャート(修正).xlsx
+++ b/13_WBSガントチャート(修正).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5071642-24C6-471D-B01B-3428BBAF964F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D856F8-3F65-4A1B-9BEB-8E20A74888FE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -546,7 +546,7 @@
     <t>メトリクス評価</t>
   </si>
   <si>
-    <t>徳竹、林、北田、金、琴、鈴木</t>
+    <t>徳竹、林、北田</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1519,40 +1519,49 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1560,13 +1569,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1587,10 +1593,127 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1598,129 +1721,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2319,7 +2319,7 @@
       <pane xSplit="4" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q99" sqref="Q99"/>
+      <selection pane="bottomRight" activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2338,120 +2338,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="81" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="82"/>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="101" t="s">
+      <c r="A1" s="105" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="100" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="101" t="s">
+      <c r="F1" s="100" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="82" t="s">
+      <c r="G1" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="101" t="s">
+      <c r="H1" s="100" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="101" t="s">
+      <c r="I1" s="100" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="101" t="s">
+      <c r="J1" s="100" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="106" t="s">
+      <c r="K1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="111">
+      <c r="L1" s="80">
         <v>43984</v>
       </c>
-      <c r="M1" s="112"/>
-      <c r="N1" s="111">
+      <c r="M1" s="81"/>
+      <c r="N1" s="80">
         <v>43985</v>
       </c>
-      <c r="O1" s="112"/>
-      <c r="P1" s="111">
+      <c r="O1" s="81"/>
+      <c r="P1" s="80">
         <v>43986</v>
       </c>
-      <c r="Q1" s="112"/>
-      <c r="R1" s="111">
+      <c r="Q1" s="81"/>
+      <c r="R1" s="80">
         <v>43987</v>
       </c>
-      <c r="S1" s="112"/>
+      <c r="S1" s="81"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="83"/>
-      <c r="B2" s="84"/>
-      <c r="C2" s="84"/>
-      <c r="D2" s="84"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="102"/>
-      <c r="J2" s="102"/>
-      <c r="K2" s="107"/>
-      <c r="L2" s="115" t="s">
+      <c r="A2" s="106"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="101"/>
+      <c r="F2" s="101"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="103"/>
+      <c r="I2" s="101"/>
+      <c r="J2" s="101"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="114"/>
-      <c r="N2" s="113" t="s">
+      <c r="M2" s="83"/>
+      <c r="N2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="113"/>
-      <c r="P2" s="116" t="s">
+      <c r="O2" s="82"/>
+      <c r="P2" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="114"/>
-      <c r="R2" s="113" t="s">
+      <c r="Q2" s="83"/>
+      <c r="R2" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="114"/>
+      <c r="S2" s="83"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="83"/>
-      <c r="B3" s="84"/>
-      <c r="C3" s="84"/>
-      <c r="D3" s="84"/>
-      <c r="E3" s="102"/>
-      <c r="F3" s="102"/>
-      <c r="G3" s="84"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="102"/>
-      <c r="J3" s="102"/>
-      <c r="K3" s="107"/>
-      <c r="L3" s="119" t="s">
+      <c r="A3" s="106"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="101"/>
+      <c r="F3" s="101"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="103"/>
+      <c r="I3" s="101"/>
+      <c r="J3" s="101"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="118"/>
-      <c r="N3" s="117" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="118"/>
-      <c r="P3" s="117" t="s">
+      <c r="O3" s="87"/>
+      <c r="P3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="118"/>
-      <c r="R3" s="120" t="s">
+      <c r="Q3" s="87"/>
+      <c r="R3" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="120"/>
+      <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="85"/>
-      <c r="B4" s="86"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
-      <c r="E4" s="103"/>
-      <c r="F4" s="103"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="105"/>
-      <c r="I4" s="103"/>
-      <c r="J4" s="103"/>
-      <c r="K4" s="108"/>
+      <c r="A4" s="107"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="102"/>
+      <c r="F4" s="102"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="104"/>
+      <c r="I4" s="102"/>
+      <c r="J4" s="102"/>
+      <c r="K4" s="92"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2478,15 +2478,15 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="87" t="s">
+      <c r="A5" s="108" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="89"/>
-      <c r="E5" s="93"/>
-      <c r="F5" s="93"/>
-      <c r="G5" s="109"/>
+      <c r="B5" s="109"/>
+      <c r="C5" s="109"/>
+      <c r="D5" s="110"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="96"/>
       <c r="H5" s="16" t="s">
         <v>19</v>
       </c>
@@ -2494,7 +2494,7 @@
       <c r="J5" s="17"/>
       <c r="K5" s="45">
         <f t="shared" ref="K5:S5" si="0">SUM(K7,K23,K41,K57,K75,K83,K97)</f>
-        <v>119.5</v>
+        <v>122</v>
       </c>
       <c r="L5" s="27">
         <f>SUM(L7,L23,L41,L57,L75,L83,L97)</f>
@@ -2528,13 +2528,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="90"/>
-      <c r="B6" s="91"/>
-      <c r="C6" s="91"/>
-      <c r="D6" s="92"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="94"/>
-      <c r="G6" s="110"/>
+      <c r="A6" s="111"/>
+      <c r="B6" s="112"/>
+      <c r="C6" s="112"/>
+      <c r="D6" s="113"/>
+      <c r="E6" s="99"/>
+      <c r="F6" s="99"/>
+      <c r="G6" s="97"/>
       <c r="H6" s="18" t="s">
         <v>20</v>
       </c>
@@ -2578,26 +2578,25 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="95" t="s">
+      <c r="A7" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="96"/>
-      <c r="C7" s="96"/>
-      <c r="D7" s="97"/>
-      <c r="E7" s="100"/>
-      <c r="F7" s="100"/>
-      <c r="G7" s="98"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="117"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="14">
-        <f>SUMPRODUCT((MOD(ROW(K$9:K$22),2)=1)*K$9:K$22)</f>
-        <v>25.5</v>
-      </c>
-      <c r="L7" s="40" cm="1">
-        <f t="array" ref="L7">SUMPRODUCT((MOD(ROW(L$9:L$22),2)=1)*L$9:L$22)</f>
+        <v>26.5</v>
+      </c>
+      <c r="L7" s="40">
+        <f>SUMPRODUCT((MOD(ROW(L$9:L$22),2)=1)*L$9:L$22)</f>
         <v>12</v>
       </c>
       <c r="M7" s="28">
@@ -2630,13 +2629,13 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="74"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="99"/>
+      <c r="A8" s="76"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="118"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2680,21 +2679,21 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="56">
+      <c r="A9" s="66">
         <v>1</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="64" t="s">
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="66"/>
+      <c r="G9" s="69"/>
       <c r="H9" s="23" t="str">
         <f>IF(E9="","","予定")</f>
         <v>予定</v>
@@ -2712,13 +2711,13 @@
       <c r="S9" s="31"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="57"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="67"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="70"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
         <v>実績</v>
@@ -2736,21 +2735,21 @@
       <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="56"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="69" t="s">
+      <c r="D11" s="62"/>
+      <c r="E11" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="69" t="s">
+      <c r="F11" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="54"/>
+      <c r="G11" s="56"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2777,13 +2776,13 @@
       <c r="S11" s="31"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="57"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="55"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="57"/>
       <c r="H12" s="52" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -2804,21 +2803,21 @@
       <c r="S12" s="32"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="56"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="69" t="s">
+      <c r="D13" s="62"/>
+      <c r="E13" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="69" t="s">
+      <c r="F13" s="54" t="s">
         <v>30</v>
       </c>
-      <c r="G13" s="54"/>
+      <c r="G13" s="56"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2844,13 +2843,13 @@
       <c r="S13" s="31"/>
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="57"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="55"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="57"/>
       <c r="H14" s="52" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2871,19 +2870,19 @@
       <c r="S14" s="32"/>
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="56">
+      <c r="A15" s="66">
         <v>2</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="64" t="s">
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="F15" s="64"/>
-      <c r="G15" s="66"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="69"/>
       <c r="H15" s="23" t="str">
         <f>IF(E15="","","予定")</f>
         <v>予定</v>
@@ -2901,13 +2900,13 @@
       <c r="S15" s="31"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="57"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="67"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="70"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
         <v>実績</v>
@@ -2925,19 +2924,19 @@
       <c r="S16" s="32"/>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="56"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="69" t="s">
+      <c r="D17" s="62"/>
+      <c r="E17" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="F17" s="69"/>
-      <c r="G17" s="54"/>
+      <c r="F17" s="54"/>
+      <c r="G17" s="56"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -2963,13 +2962,13 @@
       <c r="S17" s="31"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="57"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="55"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="57"/>
       <c r="H18" s="52" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -2990,19 +2989,19 @@
       <c r="S18" s="32"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="56"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="D19" s="60"/>
-      <c r="E19" s="69" t="s">
+      <c r="D19" s="62"/>
+      <c r="E19" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="69"/>
-      <c r="G19" s="54"/>
+      <c r="F19" s="54"/>
+      <c r="G19" s="56"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3028,13 +3027,13 @@
       <c r="S19" s="31"/>
     </row>
     <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="57"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="55"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="57"/>
       <c r="H20" s="52" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -3055,19 +3054,19 @@
       <c r="S20" s="32"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="56"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="69" t="s">
+      <c r="D21" s="62"/>
+      <c r="E21" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="69"/>
-      <c r="G21" s="54"/>
+      <c r="F21" s="54"/>
+      <c r="G21" s="56"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3093,13 +3092,13 @@
       <c r="S21" s="31"/>
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="57"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="55"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="57"/>
       <c r="H22" s="52" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3120,15 +3119,15 @@
       <c r="S22" s="32"/>
     </row>
     <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="73" t="s">
         <v>37</v>
       </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="79"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="120"/>
       <c r="H23" s="20" t="s">
         <v>19</v>
       </c>
@@ -3172,13 +3171,13 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="74"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="80"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="121"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
@@ -3222,19 +3221,19 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="56">
+      <c r="A25" s="66">
         <v>1</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="64" t="s">
+      <c r="C25" s="61"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="64"/>
-      <c r="G25" s="66"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="69"/>
       <c r="H25" s="23" t="str">
         <f>IF(E25="","","予定")</f>
         <v>予定</v>
@@ -3252,13 +3251,13 @@
       <c r="S25" s="31"/>
     </row>
     <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="57"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="67"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="70"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
         <v>実績</v>
@@ -3276,19 +3275,19 @@
       <c r="S26" s="32"/>
     </row>
     <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="56"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="60" t="s">
         <v>39</v>
       </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="69" t="s">
+      <c r="D27" s="62"/>
+      <c r="E27" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="69"/>
-      <c r="G27" s="54"/>
+      <c r="F27" s="54"/>
+      <c r="G27" s="56"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -3317,13 +3316,13 @@
       <c r="S27" s="31"/>
     </row>
     <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="57"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="55"/>
+      <c r="A28" s="67"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="57"/>
       <c r="H28" s="52" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3344,19 +3343,19 @@
       <c r="S28" s="32"/>
     </row>
     <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="56"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="69" t="s">
+      <c r="D29" s="62"/>
+      <c r="E29" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="69"/>
-      <c r="G29" s="54"/>
+      <c r="F29" s="54"/>
+      <c r="G29" s="56"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3383,13 +3382,13 @@
       <c r="S29" s="31"/>
     </row>
     <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="57"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="55"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="57"/>
       <c r="H30" s="52" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3410,19 +3409,19 @@
       <c r="S30" s="32"/>
     </row>
     <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="56"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="60"/>
-      <c r="E31" s="69" t="s">
+      <c r="D31" s="62"/>
+      <c r="E31" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="69"/>
-      <c r="G31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="56"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3449,13 +3448,13 @@
       <c r="S31" s="31"/>
     </row>
     <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="57"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="55"/>
+      <c r="A32" s="67"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="57"/>
       <c r="H32" s="52" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3476,19 +3475,19 @@
       <c r="S32" s="32"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="56">
+      <c r="A33" s="66">
         <v>2</v>
       </c>
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="64" t="s">
+      <c r="C33" s="61"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="F33" s="64"/>
-      <c r="G33" s="66"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="69"/>
       <c r="H33" s="23" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
@@ -3506,13 +3505,13 @@
       <c r="S33" s="31"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="57"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="67"/>
+      <c r="A34" s="67"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="70"/>
       <c r="H34" s="24" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3530,19 +3529,19 @@
       <c r="S34" s="32"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="56"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="58" t="s">
+      <c r="C35" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="60"/>
-      <c r="E35" s="69" t="s">
+      <c r="D35" s="62"/>
+      <c r="E35" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="F35" s="69"/>
-      <c r="G35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="56"/>
       <c r="H35" s="8" t="str">
         <f>IF(E35="","","予定")</f>
         <v>予定</v>
@@ -3569,13 +3568,13 @@
       <c r="S35" s="31"/>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="57"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="55"/>
+      <c r="A36" s="67"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="57"/>
       <c r="H36" s="52" t="str">
         <f>IF(E35="","","実績")</f>
         <v>実績</v>
@@ -3596,19 +3595,19 @@
       <c r="S36" s="32"/>
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="56"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="58" t="s">
+      <c r="C37" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="60"/>
-      <c r="E37" s="69" t="s">
+      <c r="D37" s="62"/>
+      <c r="E37" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="69"/>
-      <c r="G37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="56"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3635,13 +3634,13 @@
       <c r="S37" s="31"/>
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="57"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="55"/>
+      <c r="A38" s="67"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="57"/>
       <c r="H38" s="52" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
@@ -3662,19 +3661,19 @@
       <c r="S38" s="32"/>
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="56"/>
+      <c r="A39" s="66"/>
       <c r="B39" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="C39" s="58" t="s">
+      <c r="C39" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="D39" s="60"/>
-      <c r="E39" s="69" t="s">
+      <c r="D39" s="62"/>
+      <c r="E39" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="69"/>
-      <c r="G39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="56"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3701,13 +3700,13 @@
       <c r="S39" s="31"/>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="57"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="55"/>
+      <c r="A40" s="67"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="57"/>
       <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -3728,15 +3727,15 @@
       <c r="S40" s="32"/>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="71" t="s">
+      <c r="A41" s="73" t="s">
         <v>46</v>
       </c>
-      <c r="B41" s="72"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="79"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="120"/>
       <c r="H41" s="20" t="s">
         <v>19</v>
       </c>
@@ -3780,13 +3779,13 @@
       </c>
     </row>
     <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="74"/>
-      <c r="B42" s="75"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="80"/>
+      <c r="A42" s="76"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="121"/>
       <c r="H42" s="7" t="s">
         <v>20</v>
       </c>
@@ -3830,19 +3829,19 @@
       </c>
     </row>
     <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="56">
+      <c r="A43" s="66">
         <v>1</v>
       </c>
-      <c r="B43" s="58" t="s">
+      <c r="B43" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="64" t="s">
+      <c r="C43" s="61"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="64"/>
-      <c r="G43" s="66"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="69"/>
       <c r="H43" s="23" t="str">
         <f>IF(E43="","","予定")</f>
         <v>予定</v>
@@ -3860,13 +3859,13 @@
       <c r="S43" s="31"/>
     </row>
     <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="57"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="67"/>
+      <c r="A44" s="67"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="70"/>
       <c r="H44" s="24" t="str">
         <f>IF(E43="","","実績")</f>
         <v>実績</v>
@@ -3884,19 +3883,19 @@
       <c r="S44" s="32"/>
     </row>
     <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="56"/>
+      <c r="A45" s="66"/>
       <c r="B45" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="58" t="s">
+      <c r="C45" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="D45" s="60"/>
-      <c r="E45" s="69" t="s">
+      <c r="D45" s="62"/>
+      <c r="E45" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="69"/>
-      <c r="G45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="56"/>
       <c r="H45" s="8" t="str">
         <f>IF(E45="","","予定")</f>
         <v>予定</v>
@@ -3925,13 +3924,13 @@
       <c r="S45" s="31"/>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="57"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="61"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="55"/>
+      <c r="A46" s="67"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="57"/>
       <c r="H46" s="52" t="str">
         <f>IF(E45="","","実績")</f>
         <v>実績</v>
@@ -3952,19 +3951,19 @@
       <c r="S46" s="32"/>
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="56"/>
+      <c r="A47" s="66"/>
       <c r="B47" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="58" t="s">
+      <c r="C47" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="D47" s="60"/>
-      <c r="E47" s="69" t="s">
+      <c r="D47" s="62"/>
+      <c r="E47" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="69"/>
-      <c r="G47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="56"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -3991,13 +3990,13 @@
       <c r="S47" s="31"/>
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="57"/>
-      <c r="B48" s="55"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="55"/>
+      <c r="A48" s="67"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="57"/>
       <c r="H48" s="52" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -4018,19 +4017,19 @@
       <c r="S48" s="32"/>
     </row>
     <row r="49" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="56">
+      <c r="A49" s="66">
         <v>2</v>
       </c>
-      <c r="B49" s="58" t="s">
+      <c r="B49" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="59"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="64" t="s">
+      <c r="C49" s="61"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="F49" s="64"/>
-      <c r="G49" s="66"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="69"/>
       <c r="H49" s="23" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4048,13 +4047,13 @@
       <c r="S49" s="31"/>
     </row>
     <row r="50" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="57"/>
-      <c r="B50" s="61"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="67"/>
+      <c r="A50" s="67"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="70"/>
       <c r="H50" s="24" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -4072,19 +4071,19 @@
       <c r="S50" s="32"/>
     </row>
     <row r="51" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="56"/>
+      <c r="A51" s="66"/>
       <c r="B51" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="58" t="s">
+      <c r="C51" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="60"/>
-      <c r="E51" s="69" t="s">
+      <c r="D51" s="62"/>
+      <c r="E51" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="F51" s="69"/>
-      <c r="G51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="56"/>
       <c r="H51" s="8" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -4111,13 +4110,13 @@
       <c r="S51" s="31"/>
     </row>
     <row r="52" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="57"/>
-      <c r="B52" s="55"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="55"/>
+      <c r="A52" s="67"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="57"/>
       <c r="H52" s="52" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -4138,19 +4137,19 @@
       <c r="S52" s="32"/>
     </row>
     <row r="53" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="56"/>
+      <c r="A53" s="66"/>
       <c r="B53" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C53" s="58" t="s">
+      <c r="C53" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="D53" s="60"/>
-      <c r="E53" s="69" t="s">
+      <c r="D53" s="62"/>
+      <c r="E53" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F53" s="69"/>
-      <c r="G53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="56"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v>予定</v>
@@ -4178,13 +4177,13 @@
       <c r="T53" s="31"/>
     </row>
     <row r="54" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="57"/>
-      <c r="B54" s="55"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="63"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="55"/>
+      <c r="A54" s="67"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="57"/>
       <c r="H54" s="52" t="str">
         <f>IF(E53="","","実績")</f>
         <v>実績</v>
@@ -4205,19 +4204,19 @@
       <c r="S54" s="32"/>
     </row>
     <row r="55" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="56"/>
+      <c r="A55" s="66"/>
       <c r="B55" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="C55" s="58" t="s">
+      <c r="C55" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="D55" s="60"/>
-      <c r="E55" s="69" t="s">
+      <c r="D55" s="62"/>
+      <c r="E55" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F55" s="69"/>
-      <c r="G55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="56"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4245,13 +4244,13 @@
       <c r="T55" s="31"/>
     </row>
     <row r="56" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="57"/>
-      <c r="B56" s="55"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="55"/>
+      <c r="A56" s="67"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="57"/>
       <c r="H56" s="52" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
@@ -4272,15 +4271,15 @@
       <c r="S56" s="44"/>
     </row>
     <row r="57" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="71" t="s">
+      <c r="A57" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="B57" s="72"/>
-      <c r="C57" s="72"/>
-      <c r="D57" s="73"/>
-      <c r="E57" s="77"/>
-      <c r="F57" s="77"/>
-      <c r="G57" s="79"/>
+      <c r="B57" s="74"/>
+      <c r="C57" s="74"/>
+      <c r="D57" s="75"/>
+      <c r="E57" s="71"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="120"/>
       <c r="H57" s="20" t="s">
         <v>19</v>
       </c>
@@ -4321,13 +4320,13 @@
       </c>
     </row>
     <row r="58" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="74"/>
-      <c r="B58" s="75"/>
-      <c r="C58" s="75"/>
-      <c r="D58" s="76"/>
-      <c r="E58" s="78"/>
-      <c r="F58" s="78"/>
-      <c r="G58" s="80"/>
+      <c r="A58" s="76"/>
+      <c r="B58" s="77"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="72"/>
+      <c r="F58" s="72"/>
+      <c r="G58" s="121"/>
       <c r="H58" s="7" t="s">
         <v>20</v>
       </c>
@@ -4371,19 +4370,19 @@
       </c>
     </row>
     <row r="59" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="56">
+      <c r="A59" s="66">
         <v>1</v>
       </c>
-      <c r="B59" s="58" t="s">
+      <c r="B59" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="C59" s="59"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="64" t="s">
+      <c r="C59" s="61"/>
+      <c r="D59" s="62"/>
+      <c r="E59" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F59" s="64"/>
-      <c r="G59" s="66"/>
+      <c r="F59" s="58"/>
+      <c r="G59" s="69"/>
       <c r="H59" s="23" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
@@ -4401,13 +4400,13 @@
       <c r="S59" s="31"/>
     </row>
     <row r="60" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="57"/>
-      <c r="B60" s="61"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="63"/>
-      <c r="E60" s="65"/>
-      <c r="F60" s="65"/>
-      <c r="G60" s="67"/>
+      <c r="A60" s="67"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="70"/>
       <c r="H60" s="24" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
@@ -4425,19 +4424,19 @@
       <c r="S60" s="32"/>
     </row>
     <row r="61" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="56"/>
+      <c r="A61" s="66"/>
       <c r="B61" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C61" s="58" t="s">
+      <c r="C61" s="60" t="s">
         <v>47</v>
       </c>
-      <c r="D61" s="60"/>
-      <c r="E61" s="69" t="s">
+      <c r="D61" s="62"/>
+      <c r="E61" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F61" s="69"/>
-      <c r="G61" s="54"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="56"/>
       <c r="H61" s="8" t="str">
         <f>IF(E61="","","予定")</f>
         <v>予定</v>
@@ -4465,13 +4464,13 @@
       <c r="S61" s="31"/>
     </row>
     <row r="62" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="57"/>
-      <c r="B62" s="55"/>
-      <c r="C62" s="61"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="70"/>
-      <c r="F62" s="70"/>
-      <c r="G62" s="55"/>
+      <c r="A62" s="67"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="65"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="57"/>
       <c r="H62" s="52" t="str">
         <f>IF(E61="","","実績")</f>
         <v>実績</v>
@@ -4492,19 +4491,19 @@
       <c r="S62" s="32"/>
     </row>
     <row r="63" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="56"/>
+      <c r="A63" s="66"/>
       <c r="B63" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="58" t="s">
+      <c r="C63" s="60" t="s">
         <v>48</v>
       </c>
-      <c r="D63" s="60"/>
-      <c r="E63" s="69" t="s">
+      <c r="D63" s="62"/>
+      <c r="E63" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F63" s="69"/>
-      <c r="G63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="56"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v>予定</v>
@@ -4531,13 +4530,13 @@
       <c r="S63" s="31"/>
     </row>
     <row r="64" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="57"/>
-      <c r="B64" s="55"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="55"/>
+      <c r="A64" s="67"/>
+      <c r="B64" s="57"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="55"/>
+      <c r="F64" s="55"/>
+      <c r="G64" s="57"/>
       <c r="H64" s="52" t="str">
         <f>IF(E63="","","実績")</f>
         <v>実績</v>
@@ -4558,19 +4557,19 @@
       <c r="S64" s="32"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="56"/>
+      <c r="A65" s="66"/>
       <c r="B65" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="C65" s="58" t="s">
+      <c r="C65" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="D65" s="60"/>
-      <c r="E65" s="69" t="s">
+      <c r="D65" s="62"/>
+      <c r="E65" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F65" s="69"/>
-      <c r="G65" s="54"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="56"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4597,13 +4596,13 @@
       <c r="S65" s="31"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="57"/>
-      <c r="B66" s="55"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="63"/>
-      <c r="E66" s="70"/>
-      <c r="F66" s="70"/>
-      <c r="G66" s="55"/>
+      <c r="A66" s="67"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="55"/>
+      <c r="G66" s="57"/>
       <c r="H66" s="52" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -4624,19 +4623,19 @@
       <c r="S66" s="32"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="56">
+      <c r="A67" s="66">
         <v>2</v>
       </c>
-      <c r="B67" s="58" t="s">
+      <c r="B67" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="59"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="64" t="s">
+      <c r="C67" s="61"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="F67" s="64"/>
-      <c r="G67" s="66"/>
+      <c r="F67" s="58"/>
+      <c r="G67" s="69"/>
       <c r="H67" s="23" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4654,13 +4653,13 @@
       <c r="S67" s="31"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="57"/>
-      <c r="B68" s="61"/>
-      <c r="C68" s="62"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="67"/>
+      <c r="A68" s="67"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="59"/>
+      <c r="G68" s="70"/>
       <c r="H68" s="24" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -4678,19 +4677,19 @@
       <c r="S68" s="32"/>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="56"/>
+      <c r="A69" s="66"/>
       <c r="B69" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C69" s="58" t="s">
+      <c r="C69" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D69" s="60"/>
-      <c r="E69" s="69" t="s">
+      <c r="D69" s="62"/>
+      <c r="E69" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="F69" s="69"/>
-      <c r="G69" s="54"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="56"/>
       <c r="H69" s="8" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
@@ -4717,13 +4716,13 @@
       <c r="S69" s="31"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="57"/>
-      <c r="B70" s="55"/>
-      <c r="C70" s="61"/>
-      <c r="D70" s="63"/>
-      <c r="E70" s="70"/>
-      <c r="F70" s="70"/>
-      <c r="G70" s="55"/>
+      <c r="A70" s="67"/>
+      <c r="B70" s="57"/>
+      <c r="C70" s="63"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="55"/>
+      <c r="F70" s="55"/>
+      <c r="G70" s="57"/>
       <c r="H70" s="52" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
@@ -4744,19 +4743,19 @@
       <c r="S70" s="32"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="56"/>
+      <c r="A71" s="66"/>
       <c r="B71" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="58" t="s">
+      <c r="C71" s="60" t="s">
         <v>44</v>
       </c>
-      <c r="D71" s="60"/>
-      <c r="E71" s="69" t="s">
+      <c r="D71" s="62"/>
+      <c r="E71" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="F71" s="69"/>
-      <c r="G71" s="54"/>
+      <c r="F71" s="54"/>
+      <c r="G71" s="56"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v>予定</v>
@@ -4783,13 +4782,13 @@
       <c r="S71" s="31"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="57"/>
-      <c r="B72" s="55"/>
-      <c r="C72" s="61"/>
-      <c r="D72" s="63"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="55"/>
+      <c r="A72" s="67"/>
+      <c r="B72" s="57"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="55"/>
+      <c r="F72" s="55"/>
+      <c r="G72" s="57"/>
       <c r="H72" s="52" t="str">
         <f>IF(E71="","","実績")</f>
         <v>実績</v>
@@ -4810,19 +4809,19 @@
       <c r="S72" s="32"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="56"/>
+      <c r="A73" s="66"/>
       <c r="B73" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="C73" s="58" t="s">
+      <c r="C73" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="D73" s="60"/>
-      <c r="E73" s="69" t="s">
+      <c r="D73" s="62"/>
+      <c r="E73" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="F73" s="69"/>
-      <c r="G73" s="54"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="56"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -4849,13 +4848,13 @@
       <c r="S73" s="31"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="57"/>
-      <c r="B74" s="55"/>
-      <c r="C74" s="61"/>
-      <c r="D74" s="63"/>
-      <c r="E74" s="70"/>
-      <c r="F74" s="70"/>
-      <c r="G74" s="55"/>
+      <c r="A74" s="67"/>
+      <c r="B74" s="57"/>
+      <c r="C74" s="63"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="55"/>
+      <c r="F74" s="55"/>
+      <c r="G74" s="57"/>
       <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -4876,15 +4875,15 @@
       <c r="S74" s="44"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="71" t="s">
+      <c r="A75" s="73" t="s">
         <v>53</v>
       </c>
-      <c r="B75" s="72"/>
-      <c r="C75" s="72"/>
-      <c r="D75" s="73"/>
-      <c r="E75" s="77"/>
-      <c r="F75" s="77"/>
-      <c r="G75" s="79"/>
+      <c r="B75" s="74"/>
+      <c r="C75" s="74"/>
+      <c r="D75" s="75"/>
+      <c r="E75" s="71"/>
+      <c r="F75" s="71"/>
+      <c r="G75" s="120"/>
       <c r="H75" s="20" t="s">
         <v>19</v>
       </c>
@@ -4921,13 +4920,13 @@
       </c>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="74"/>
-      <c r="B76" s="75"/>
-      <c r="C76" s="75"/>
-      <c r="D76" s="76"/>
-      <c r="E76" s="78"/>
-      <c r="F76" s="78"/>
-      <c r="G76" s="80"/>
+      <c r="A76" s="76"/>
+      <c r="B76" s="77"/>
+      <c r="C76" s="77"/>
+      <c r="D76" s="78"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72"/>
+      <c r="G76" s="121"/>
       <c r="H76" s="7" t="s">
         <v>20</v>
       </c>
@@ -4971,17 +4970,17 @@
       </c>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="56">
+      <c r="A77" s="66">
         <v>1</v>
       </c>
-      <c r="B77" s="58" t="s">
+      <c r="B77" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="C77" s="59"/>
-      <c r="D77" s="60"/>
-      <c r="E77" s="64"/>
-      <c r="F77" s="64"/>
-      <c r="G77" s="66"/>
+      <c r="C77" s="61"/>
+      <c r="D77" s="62"/>
+      <c r="E77" s="58"/>
+      <c r="F77" s="58"/>
+      <c r="G77" s="69"/>
       <c r="H77" s="23" t="str">
         <f>IF(E77="","","予定")</f>
         <v/>
@@ -4999,13 +4998,13 @@
       <c r="S77" s="31"/>
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="57"/>
-      <c r="B78" s="61"/>
-      <c r="C78" s="62"/>
-      <c r="D78" s="63"/>
-      <c r="E78" s="65"/>
-      <c r="F78" s="65"/>
-      <c r="G78" s="67"/>
+      <c r="A78" s="67"/>
+      <c r="B78" s="63"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="65"/>
+      <c r="E78" s="59"/>
+      <c r="F78" s="59"/>
+      <c r="G78" s="70"/>
       <c r="H78" s="24" t="str">
         <f>IF(E77="","","実績")</f>
         <v/>
@@ -5023,19 +5022,19 @@
       <c r="S78" s="32"/>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="56"/>
+      <c r="A79" s="66"/>
       <c r="B79" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C79" s="58" t="s">
+      <c r="C79" s="60" t="s">
         <v>54</v>
       </c>
-      <c r="D79" s="60"/>
-      <c r="E79" s="69" t="s">
+      <c r="D79" s="62"/>
+      <c r="E79" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F79" s="69"/>
-      <c r="G79" s="54"/>
+      <c r="F79" s="54"/>
+      <c r="G79" s="56"/>
       <c r="H79" s="8" t="str">
         <f>IF(E79="","","予定")</f>
         <v>予定</v>
@@ -5062,13 +5061,13 @@
       <c r="S79" s="31"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="57"/>
-      <c r="B80" s="55"/>
-      <c r="C80" s="61"/>
-      <c r="D80" s="63"/>
-      <c r="E80" s="70"/>
-      <c r="F80" s="70"/>
-      <c r="G80" s="55"/>
+      <c r="A80" s="67"/>
+      <c r="B80" s="57"/>
+      <c r="C80" s="63"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="55"/>
+      <c r="F80" s="55"/>
+      <c r="G80" s="57"/>
       <c r="H80" s="52" t="str">
         <f>IF(E79="","","実績")</f>
         <v>実績</v>
@@ -5089,19 +5088,19 @@
       <c r="S80" s="32"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="56"/>
+      <c r="A81" s="66"/>
       <c r="B81" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="58" t="s">
+      <c r="C81" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="D81" s="60"/>
-      <c r="E81" s="69" t="s">
+      <c r="D81" s="62"/>
+      <c r="E81" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F81" s="69"/>
-      <c r="G81" s="54"/>
+      <c r="F81" s="54"/>
+      <c r="G81" s="56"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5128,13 +5127,13 @@
       <c r="S81" s="31"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="57"/>
-      <c r="B82" s="55"/>
-      <c r="C82" s="61"/>
-      <c r="D82" s="63"/>
-      <c r="E82" s="70"/>
-      <c r="F82" s="70"/>
-      <c r="G82" s="55"/>
+      <c r="A82" s="67"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="63"/>
+      <c r="D82" s="65"/>
+      <c r="E82" s="55"/>
+      <c r="F82" s="55"/>
+      <c r="G82" s="57"/>
       <c r="H82" s="52" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
@@ -5155,23 +5154,22 @@
       <c r="S82" s="32"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="71" t="s">
+      <c r="A83" s="73" t="s">
         <v>56</v>
       </c>
-      <c r="B83" s="72"/>
-      <c r="C83" s="72"/>
-      <c r="D83" s="73"/>
-      <c r="E83" s="77"/>
-      <c r="F83" s="77"/>
-      <c r="G83" s="79"/>
+      <c r="B83" s="74"/>
+      <c r="C83" s="74"/>
+      <c r="D83" s="75"/>
+      <c r="E83" s="71"/>
+      <c r="F83" s="71"/>
+      <c r="G83" s="120"/>
       <c r="H83" s="20" t="s">
         <v>19</v>
       </c>
       <c r="I83" s="20"/>
       <c r="J83" s="20"/>
       <c r="K83" s="21">
-        <f>SUMPRODUCT((MOD(ROW(K$85:K$96),2)=1)*K$85:K$96)</f>
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="L83" s="35">
         <f t="shared" ref="L83:P83" si="21">SUMPRODUCT((MOD(ROW(L$85:L$96),2)=1)*L$85:L$96)</f>
@@ -5206,13 +5204,13 @@
       </c>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="74"/>
-      <c r="B84" s="75"/>
-      <c r="C84" s="75"/>
-      <c r="D84" s="76"/>
-      <c r="E84" s="78"/>
-      <c r="F84" s="78"/>
-      <c r="G84" s="80"/>
+      <c r="A84" s="76"/>
+      <c r="B84" s="77"/>
+      <c r="C84" s="77"/>
+      <c r="D84" s="78"/>
+      <c r="E84" s="72"/>
+      <c r="F84" s="72"/>
+      <c r="G84" s="121"/>
       <c r="H84" s="7" t="s">
         <v>20</v>
       </c>
@@ -5256,17 +5254,17 @@
       </c>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="56">
+      <c r="A85" s="66">
         <v>1</v>
       </c>
-      <c r="B85" s="58" t="s">
+      <c r="B85" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="C85" s="59"/>
-      <c r="D85" s="60"/>
-      <c r="E85" s="64"/>
-      <c r="F85" s="64"/>
-      <c r="G85" s="66"/>
+      <c r="C85" s="61"/>
+      <c r="D85" s="62"/>
+      <c r="E85" s="58"/>
+      <c r="F85" s="58"/>
+      <c r="G85" s="69"/>
       <c r="H85" s="23" t="str">
         <f>IF(E85="","","予定")</f>
         <v/>
@@ -5284,13 +5282,13 @@
       <c r="S85" s="31"/>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="57"/>
-      <c r="B86" s="61"/>
-      <c r="C86" s="62"/>
-      <c r="D86" s="63"/>
-      <c r="E86" s="65"/>
-      <c r="F86" s="65"/>
-      <c r="G86" s="67"/>
+      <c r="A86" s="67"/>
+      <c r="B86" s="63"/>
+      <c r="C86" s="64"/>
+      <c r="D86" s="65"/>
+      <c r="E86" s="59"/>
+      <c r="F86" s="59"/>
+      <c r="G86" s="70"/>
       <c r="H86" s="24" t="str">
         <f>IF(E85="","","実績")</f>
         <v/>
@@ -5308,19 +5306,19 @@
       <c r="S86" s="32"/>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="56"/>
+      <c r="A87" s="66"/>
       <c r="B87" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C87" s="58" t="s">
+      <c r="C87" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="D87" s="60"/>
-      <c r="E87" s="69" t="s">
+      <c r="D87" s="62"/>
+      <c r="E87" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F87" s="69"/>
-      <c r="G87" s="54"/>
+      <c r="F87" s="54"/>
+      <c r="G87" s="56"/>
       <c r="H87" s="8" t="str">
         <f>IF(E87="","","予定")</f>
         <v>予定</v>
@@ -5347,13 +5345,13 @@
       <c r="S87" s="31"/>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="57"/>
-      <c r="B88" s="55"/>
-      <c r="C88" s="61"/>
-      <c r="D88" s="63"/>
-      <c r="E88" s="70"/>
-      <c r="F88" s="70"/>
-      <c r="G88" s="55"/>
+      <c r="A88" s="67"/>
+      <c r="B88" s="57"/>
+      <c r="C88" s="63"/>
+      <c r="D88" s="65"/>
+      <c r="E88" s="55"/>
+      <c r="F88" s="55"/>
+      <c r="G88" s="57"/>
       <c r="H88" s="52" t="str">
         <f>IF(E87="","","実績")</f>
         <v>実績</v>
@@ -5374,19 +5372,19 @@
       <c r="S88" s="32"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="56"/>
+      <c r="A89" s="66"/>
       <c r="B89" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C89" s="121" t="s">
+      <c r="C89" s="79" t="s">
         <v>59</v>
       </c>
-      <c r="D89" s="60"/>
-      <c r="E89" s="69" t="s">
+      <c r="D89" s="62"/>
+      <c r="E89" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F89" s="69"/>
-      <c r="G89" s="54"/>
+      <c r="F89" s="54"/>
+      <c r="G89" s="56"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -5413,13 +5411,13 @@
       <c r="S89" s="31"/>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="57"/>
-      <c r="B90" s="55"/>
-      <c r="C90" s="61"/>
-      <c r="D90" s="63"/>
-      <c r="E90" s="70"/>
-      <c r="F90" s="70"/>
-      <c r="G90" s="55"/>
+      <c r="A90" s="67"/>
+      <c r="B90" s="57"/>
+      <c r="C90" s="63"/>
+      <c r="D90" s="65"/>
+      <c r="E90" s="55"/>
+      <c r="F90" s="55"/>
+      <c r="G90" s="57"/>
       <c r="H90" s="52" t="str">
         <f>IF(E89="","","実績")</f>
         <v>実績</v>
@@ -5440,17 +5438,17 @@
       <c r="S90" s="32"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="56">
+      <c r="A91" s="66">
         <v>2</v>
       </c>
-      <c r="B91" s="58" t="s">
+      <c r="B91" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C91" s="59"/>
-      <c r="D91" s="60"/>
-      <c r="E91" s="64"/>
-      <c r="F91" s="64"/>
-      <c r="G91" s="66"/>
+      <c r="C91" s="61"/>
+      <c r="D91" s="62"/>
+      <c r="E91" s="58"/>
+      <c r="F91" s="58"/>
+      <c r="G91" s="69"/>
       <c r="H91" s="23" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -5470,13 +5468,13 @@
       <c r="S91" s="31"/>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="57"/>
-      <c r="B92" s="61"/>
-      <c r="C92" s="62"/>
-      <c r="D92" s="63"/>
-      <c r="E92" s="65"/>
-      <c r="F92" s="65"/>
-      <c r="G92" s="67"/>
+      <c r="A92" s="67"/>
+      <c r="B92" s="63"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="65"/>
+      <c r="E92" s="59"/>
+      <c r="F92" s="59"/>
+      <c r="G92" s="70"/>
       <c r="H92" s="24" t="str">
         <f>IF(E91="","","実績")</f>
         <v/>
@@ -5494,19 +5492,19 @@
       <c r="S92" s="32"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="56"/>
+      <c r="A93" s="66"/>
       <c r="B93" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C93" s="58" t="s">
+      <c r="C93" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D93" s="60"/>
-      <c r="E93" s="69" t="s">
+      <c r="D93" s="62"/>
+      <c r="E93" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="F93" s="69"/>
-      <c r="G93" s="54"/>
+      <c r="F93" s="54"/>
+      <c r="G93" s="56"/>
       <c r="H93" s="8" t="str">
         <f>IF(E93="","","予定")</f>
         <v>予定</v>
@@ -5533,13 +5531,13 @@
       <c r="S93" s="31"/>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="57"/>
-      <c r="B94" s="55"/>
-      <c r="C94" s="61"/>
-      <c r="D94" s="63"/>
-      <c r="E94" s="70"/>
-      <c r="F94" s="70"/>
-      <c r="G94" s="55"/>
+      <c r="A94" s="67"/>
+      <c r="B94" s="57"/>
+      <c r="C94" s="63"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="55"/>
+      <c r="F94" s="55"/>
+      <c r="G94" s="57"/>
       <c r="H94" s="52" t="str">
         <f>IF(E93="","","実績")</f>
         <v>実績</v>
@@ -5560,19 +5558,19 @@
       <c r="S94" s="32"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="56"/>
+      <c r="A95" s="66"/>
       <c r="B95" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C95" s="58" t="s">
+      <c r="C95" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="D95" s="60"/>
-      <c r="E95" s="69" t="s">
+      <c r="D95" s="62"/>
+      <c r="E95" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="F95" s="69"/>
-      <c r="G95" s="54"/>
+      <c r="F95" s="54"/>
+      <c r="G95" s="56"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v>予定</v>
@@ -5599,13 +5597,13 @@
       <c r="S95" s="31"/>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="57"/>
-      <c r="B96" s="55"/>
-      <c r="C96" s="61"/>
-      <c r="D96" s="63"/>
-      <c r="E96" s="70"/>
-      <c r="F96" s="70"/>
-      <c r="G96" s="55"/>
+      <c r="A96" s="67"/>
+      <c r="B96" s="57"/>
+      <c r="C96" s="63"/>
+      <c r="D96" s="65"/>
+      <c r="E96" s="55"/>
+      <c r="F96" s="55"/>
+      <c r="G96" s="57"/>
       <c r="H96" s="52" t="str">
         <f>IF(E95="","","実績")</f>
         <v>実績</v>
@@ -5626,15 +5624,15 @@
       <c r="S96" s="44"/>
     </row>
     <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="71" t="s">
+      <c r="A97" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="B97" s="72"/>
-      <c r="C97" s="72"/>
-      <c r="D97" s="73"/>
-      <c r="E97" s="77"/>
-      <c r="F97" s="77"/>
-      <c r="G97" s="79"/>
+      <c r="B97" s="74"/>
+      <c r="C97" s="74"/>
+      <c r="D97" s="75"/>
+      <c r="E97" s="71"/>
+      <c r="F97" s="71"/>
+      <c r="G97" s="120"/>
       <c r="H97" s="20" t="s">
         <v>19</v>
       </c>
@@ -5677,13 +5675,13 @@
       </c>
     </row>
     <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="74"/>
-      <c r="B98" s="75"/>
-      <c r="C98" s="75"/>
-      <c r="D98" s="76"/>
-      <c r="E98" s="78"/>
-      <c r="F98" s="78"/>
-      <c r="G98" s="80"/>
+      <c r="A98" s="76"/>
+      <c r="B98" s="77"/>
+      <c r="C98" s="77"/>
+      <c r="D98" s="78"/>
+      <c r="E98" s="72"/>
+      <c r="F98" s="72"/>
+      <c r="G98" s="121"/>
       <c r="H98" s="7" t="s">
         <v>20</v>
       </c>
@@ -5727,19 +5725,19 @@
       </c>
     </row>
     <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="56">
+      <c r="A99" s="66">
         <v>1</v>
       </c>
-      <c r="B99" s="58" t="s">
+      <c r="B99" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="C99" s="59"/>
-      <c r="D99" s="60"/>
-      <c r="E99" s="64" t="s">
+      <c r="C99" s="61"/>
+      <c r="D99" s="62"/>
+      <c r="E99" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F99" s="64"/>
-      <c r="G99" s="66"/>
+      <c r="F99" s="58"/>
+      <c r="G99" s="69"/>
       <c r="H99" s="23" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
@@ -5757,13 +5755,13 @@
       <c r="S99" s="31"/>
     </row>
     <row r="100" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="57"/>
-      <c r="B100" s="61"/>
-      <c r="C100" s="62"/>
-      <c r="D100" s="63"/>
-      <c r="E100" s="65"/>
-      <c r="F100" s="65"/>
-      <c r="G100" s="67"/>
+      <c r="A100" s="67"/>
+      <c r="B100" s="63"/>
+      <c r="C100" s="64"/>
+      <c r="D100" s="65"/>
+      <c r="E100" s="59"/>
+      <c r="F100" s="59"/>
+      <c r="G100" s="70"/>
       <c r="H100" s="24" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
@@ -5781,19 +5779,19 @@
       <c r="S100" s="32"/>
     </row>
     <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="56"/>
+      <c r="A101" s="66"/>
       <c r="B101" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C101" s="58" t="s">
+      <c r="C101" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="D101" s="60"/>
-      <c r="E101" s="69" t="s">
+      <c r="D101" s="62"/>
+      <c r="E101" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F101" s="69"/>
-      <c r="G101" s="54"/>
+      <c r="F101" s="54"/>
+      <c r="G101" s="56"/>
       <c r="H101" s="8" t="str">
         <f>IF(E101="","","予定")</f>
         <v>予定</v>
@@ -5819,13 +5817,13 @@
       <c r="S101" s="31"/>
     </row>
     <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="57"/>
-      <c r="B102" s="55"/>
-      <c r="C102" s="61"/>
-      <c r="D102" s="63"/>
-      <c r="E102" s="70"/>
-      <c r="F102" s="70"/>
-      <c r="G102" s="55"/>
+      <c r="A102" s="67"/>
+      <c r="B102" s="57"/>
+      <c r="C102" s="63"/>
+      <c r="D102" s="65"/>
+      <c r="E102" s="55"/>
+      <c r="F102" s="55"/>
+      <c r="G102" s="57"/>
       <c r="H102" s="52" t="str">
         <f>IF(E101="","","実績")</f>
         <v>実績</v>
@@ -5846,19 +5844,19 @@
       <c r="S102" s="32"/>
     </row>
     <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="56"/>
+      <c r="A103" s="66"/>
       <c r="B103" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C103" s="58" t="s">
+      <c r="C103" s="60" t="s">
         <v>63</v>
       </c>
-      <c r="D103" s="60"/>
-      <c r="E103" s="69" t="s">
+      <c r="D103" s="62"/>
+      <c r="E103" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F103" s="69"/>
-      <c r="G103" s="54"/>
+      <c r="F103" s="54"/>
+      <c r="G103" s="56"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -5884,13 +5882,13 @@
       <c r="S103" s="31"/>
     </row>
     <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="57"/>
-      <c r="B104" s="55"/>
-      <c r="C104" s="61"/>
-      <c r="D104" s="63"/>
-      <c r="E104" s="70"/>
-      <c r="F104" s="70"/>
-      <c r="G104" s="55"/>
+      <c r="A104" s="67"/>
+      <c r="B104" s="57"/>
+      <c r="C104" s="63"/>
+      <c r="D104" s="65"/>
+      <c r="E104" s="55"/>
+      <c r="F104" s="55"/>
+      <c r="G104" s="57"/>
       <c r="H104" s="52" t="str">
         <f>IF(E103="","","実績")</f>
         <v>実績</v>
@@ -5911,19 +5909,19 @@
       <c r="S104" s="32"/>
     </row>
     <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="56">
+      <c r="A105" s="66">
         <v>2</v>
       </c>
-      <c r="B105" s="58" t="s">
+      <c r="B105" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="C105" s="59"/>
-      <c r="D105" s="60"/>
-      <c r="E105" s="64" t="s">
+      <c r="C105" s="61"/>
+      <c r="D105" s="62"/>
+      <c r="E105" s="58" t="s">
         <v>32</v>
       </c>
-      <c r="F105" s="64"/>
-      <c r="G105" s="66"/>
+      <c r="F105" s="58"/>
+      <c r="G105" s="69"/>
       <c r="H105" s="23" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -5941,13 +5939,13 @@
       <c r="S105" s="31"/>
     </row>
     <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="57"/>
-      <c r="B106" s="61"/>
-      <c r="C106" s="62"/>
-      <c r="D106" s="63"/>
-      <c r="E106" s="65"/>
-      <c r="F106" s="65"/>
-      <c r="G106" s="67"/>
+      <c r="A106" s="67"/>
+      <c r="B106" s="63"/>
+      <c r="C106" s="64"/>
+      <c r="D106" s="65"/>
+      <c r="E106" s="59"/>
+      <c r="F106" s="59"/>
+      <c r="G106" s="70"/>
       <c r="H106" s="24" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
@@ -5965,19 +5963,19 @@
       <c r="S106" s="32"/>
     </row>
     <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="56"/>
+      <c r="A107" s="66"/>
       <c r="B107" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C107" s="58" t="s">
+      <c r="C107" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D107" s="60"/>
-      <c r="E107" s="69" t="s">
+      <c r="D107" s="62"/>
+      <c r="E107" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F107" s="69"/>
-      <c r="G107" s="54"/>
+      <c r="F107" s="54"/>
+      <c r="G107" s="56"/>
       <c r="H107" s="8" t="str">
         <f>IF(E107="","","予定")</f>
         <v>予定</v>
@@ -6003,13 +6001,13 @@
       <c r="S107" s="31"/>
     </row>
     <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="57"/>
-      <c r="B108" s="55"/>
-      <c r="C108" s="61"/>
-      <c r="D108" s="63"/>
-      <c r="E108" s="70"/>
-      <c r="F108" s="70"/>
-      <c r="G108" s="55"/>
+      <c r="A108" s="67"/>
+      <c r="B108" s="57"/>
+      <c r="C108" s="63"/>
+      <c r="D108" s="65"/>
+      <c r="E108" s="55"/>
+      <c r="F108" s="55"/>
+      <c r="G108" s="57"/>
       <c r="H108" s="52" t="str">
         <f>IF(E107="","","実績")</f>
         <v>実績</v>
@@ -6030,19 +6028,19 @@
       <c r="S108" s="32"/>
     </row>
     <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="56"/>
+      <c r="A109" s="66"/>
       <c r="B109" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C109" s="58" t="s">
+      <c r="C109" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="D109" s="60"/>
-      <c r="E109" s="69" t="s">
+      <c r="D109" s="62"/>
+      <c r="E109" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F109" s="69"/>
-      <c r="G109" s="54"/>
+      <c r="F109" s="54"/>
+      <c r="G109" s="56"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v>予定</v>
@@ -6068,13 +6066,13 @@
       <c r="S109" s="31"/>
     </row>
     <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="57"/>
-      <c r="B110" s="55"/>
-      <c r="C110" s="61"/>
-      <c r="D110" s="63"/>
-      <c r="E110" s="70"/>
-      <c r="F110" s="70"/>
-      <c r="G110" s="55"/>
+      <c r="A110" s="67"/>
+      <c r="B110" s="57"/>
+      <c r="C110" s="63"/>
+      <c r="D110" s="65"/>
+      <c r="E110" s="55"/>
+      <c r="F110" s="55"/>
+      <c r="G110" s="57"/>
       <c r="H110" s="52" t="str">
         <f>IF(E109="","","実績")</f>
         <v>実績</v>
@@ -6110,16 +6108,281 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="309">
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="B105:D106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:D68"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="B49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B33:D34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="B43:D44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:D100"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:D80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="C39:D40"/>
     <mergeCell ref="E39:E40"/>
@@ -6144,281 +6407,16 @@
     <mergeCell ref="B101:B102"/>
     <mergeCell ref="C101:D102"/>
     <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:D100"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:D80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="B49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B33:D34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B43:D44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:D68"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="A75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="B105:D106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="E109:E110"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L85:S96 L99:S110 L25:S34 L43:S52 L54:S54 L56:S56 L9:S12 M13:S13 L14:S18 L53:T53 L55:T55">
@@ -6514,6 +6512,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6697,15 +6704,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
   <ds:schemaRefs>
@@ -6716,6 +6714,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89F0FFFF-D441-4664-93A0-244B234195EC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6731,12 +6737,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/13_WBSガントチャート(修正).xlsx
+++ b/13_WBSガントチャート(修正).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82D856F8-3F65-4A1B-9BEB-8E20A74888FE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803385C5-6103-4908-A1C9-CE2AB90BA5AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="66">
   <si>
     <t>タスク/ワークパッケージ</t>
     <phoneticPr fontId="1"/>
@@ -323,17 +323,11 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>着手</t>
-  </si>
-  <si>
     <t>レビュー</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>レビュー参加</t>
-  </si>
-  <si>
-    <t>徳竹、鈴木</t>
   </si>
   <si>
     <t>レビュー指摘修正</t>
@@ -549,6 +543,18 @@
     <t>徳竹、林、北田</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>徳竹、林、北田、金、琴、鈴木</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>徳竹、鈴木</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1519,54 +1525,72 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1575,152 +1599,134 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2316,10 +2322,10 @@
   <dimension ref="A1:T111"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="I5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q9" sqref="Q9"/>
+      <selection pane="bottomRight" activeCell="N30" sqref="N30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2338,120 +2344,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="105" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="100" t="s">
+      <c r="A1" s="86" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="100" t="s">
+      <c r="F1" s="81" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="93" t="s">
+      <c r="G1" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="100" t="s">
+      <c r="H1" s="81" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="100" t="s">
+      <c r="I1" s="81" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="100" t="s">
+      <c r="J1" s="81" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="90" t="s">
+      <c r="K1" s="116" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="80">
+      <c r="L1" s="106">
         <v>43984</v>
       </c>
-      <c r="M1" s="81"/>
-      <c r="N1" s="80">
+      <c r="M1" s="107"/>
+      <c r="N1" s="106">
         <v>43985</v>
       </c>
-      <c r="O1" s="81"/>
-      <c r="P1" s="80">
+      <c r="O1" s="107"/>
+      <c r="P1" s="106">
         <v>43986</v>
       </c>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="80">
+      <c r="Q1" s="107"/>
+      <c r="R1" s="106">
         <v>43987</v>
       </c>
-      <c r="S1" s="81"/>
+      <c r="S1" s="107"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="106"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="101"/>
-      <c r="F2" s="101"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="103"/>
-      <c r="I2" s="101"/>
-      <c r="J2" s="101"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="84" t="s">
+      <c r="A2" s="88"/>
+      <c r="B2" s="89"/>
+      <c r="C2" s="89"/>
+      <c r="D2" s="89"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="82"/>
+      <c r="G2" s="89"/>
+      <c r="H2" s="84"/>
+      <c r="I2" s="82"/>
+      <c r="J2" s="82"/>
+      <c r="K2" s="117"/>
+      <c r="L2" s="110" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="83"/>
-      <c r="N2" s="82" t="s">
+      <c r="M2" s="109"/>
+      <c r="N2" s="108" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="82"/>
-      <c r="P2" s="85" t="s">
+      <c r="O2" s="108"/>
+      <c r="P2" s="111" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="82" t="s">
+      <c r="Q2" s="109"/>
+      <c r="R2" s="108" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="83"/>
+      <c r="S2" s="109"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="106"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="101"/>
-      <c r="F3" s="101"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="103"/>
-      <c r="I3" s="101"/>
-      <c r="J3" s="101"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="88" t="s">
+      <c r="A3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="89"/>
+      <c r="D3" s="89"/>
+      <c r="E3" s="82"/>
+      <c r="F3" s="82"/>
+      <c r="G3" s="89"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="82"/>
+      <c r="K3" s="117"/>
+      <c r="L3" s="114" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="87"/>
-      <c r="N3" s="86" t="s">
+      <c r="M3" s="113"/>
+      <c r="N3" s="112" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="87"/>
-      <c r="P3" s="86" t="s">
+      <c r="O3" s="113"/>
+      <c r="P3" s="112" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="89" t="s">
+      <c r="Q3" s="113"/>
+      <c r="R3" s="115" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="89"/>
+      <c r="S3" s="115"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="107"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="102"/>
-      <c r="F4" s="102"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="104"/>
-      <c r="I4" s="102"/>
-      <c r="J4" s="102"/>
-      <c r="K4" s="92"/>
+      <c r="A4" s="90"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="91"/>
+      <c r="E4" s="83"/>
+      <c r="F4" s="83"/>
+      <c r="G4" s="91"/>
+      <c r="H4" s="85"/>
+      <c r="I4" s="83"/>
+      <c r="J4" s="83"/>
+      <c r="K4" s="118"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2478,15 +2484,15 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="108" t="s">
+      <c r="A5" s="92" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="109"/>
-      <c r="C5" s="109"/>
-      <c r="D5" s="110"/>
+      <c r="B5" s="93"/>
+      <c r="C5" s="93"/>
+      <c r="D5" s="94"/>
       <c r="E5" s="98"/>
       <c r="F5" s="98"/>
-      <c r="G5" s="96"/>
+      <c r="G5" s="119"/>
       <c r="H5" s="16" t="s">
         <v>19</v>
       </c>
@@ -2528,13 +2534,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="111"/>
-      <c r="B6" s="112"/>
-      <c r="C6" s="112"/>
-      <c r="D6" s="113"/>
+      <c r="A6" s="95"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="97"/>
       <c r="E6" s="99"/>
       <c r="F6" s="99"/>
-      <c r="G6" s="97"/>
+      <c r="G6" s="120"/>
       <c r="H6" s="18" t="s">
         <v>20</v>
       </c>
@@ -2542,11 +2548,11 @@
       <c r="J6" s="19"/>
       <c r="K6" s="47">
         <f t="shared" ref="K6:S6" si="1">SUM(L8,L24,L42,L58,L76,L84)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L6" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>20.5</v>
       </c>
       <c r="M6" s="47">
         <f t="shared" si="1"/>
@@ -2578,15 +2584,15 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="100" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="117"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="102"/>
+      <c r="E7" s="105"/>
+      <c r="F7" s="105"/>
+      <c r="G7" s="103"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2629,13 +2635,13 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="76"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="118"/>
+      <c r="A8" s="74"/>
+      <c r="B8" s="75"/>
+      <c r="C8" s="75"/>
+      <c r="D8" s="76"/>
+      <c r="E8" s="78"/>
+      <c r="F8" s="78"/>
+      <c r="G8" s="104"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2643,15 +2649,15 @@
       <c r="J8" s="7"/>
       <c r="K8" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$9:K$22),2)=0)*K$9:K$22)</f>
-        <v>0</v>
+        <v>26.5</v>
       </c>
       <c r="L8" s="38">
         <f t="shared" ref="L8:S8" si="3">SUMPRODUCT((MOD(ROW(L$9:L$22),2)=0)*L$9:L$22)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="M8" s="29">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>14.5</v>
       </c>
       <c r="N8" s="29">
         <f t="shared" si="3"/>
@@ -2679,21 +2685,21 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="66">
+      <c r="A9" s="56">
         <v>1</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="58" t="s">
+      <c r="C9" s="59"/>
+      <c r="D9" s="60"/>
+      <c r="E9" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="64" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="69"/>
+      <c r="G9" s="66"/>
       <c r="H9" s="23" t="str">
         <f>IF(E9="","","予定")</f>
         <v>予定</v>
@@ -2711,13 +2717,13 @@
       <c r="S9" s="31"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="67"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="70"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="62"/>
+      <c r="D10" s="63"/>
+      <c r="E10" s="65"/>
+      <c r="F10" s="65"/>
+      <c r="G10" s="67"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
         <v>実績</v>
@@ -2735,27 +2741,27 @@
       <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="66"/>
+      <c r="A11" s="56"/>
       <c r="B11" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="54" t="s">
+      <c r="D11" s="60"/>
+      <c r="E11" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="54" t="s">
+      <c r="F11" s="69" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="56"/>
+      <c r="G11" s="54"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I11" s="8" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="J11" s="8">
         <v>6</v>
@@ -2776,24 +2782,30 @@
       <c r="S11" s="31"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="67"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="57"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="63"/>
+      <c r="E12" s="70"/>
+      <c r="F12" s="70"/>
+      <c r="G12" s="55"/>
       <c r="H12" s="52" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
+      <c r="I12" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="J12" s="52">
+        <v>6</v>
+      </c>
       <c r="K12" s="10">
         <f>SUM(L12:S12)</f>
-        <v>0</v>
-      </c>
-      <c r="L12" s="53"/>
+        <v>12</v>
+      </c>
+      <c r="L12" s="53">
+        <v>12</v>
+      </c>
       <c r="M12" s="32"/>
       <c r="N12" s="32"/>
       <c r="O12" s="32"/>
@@ -2803,21 +2815,21 @@
       <c r="S12" s="32"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="66"/>
+      <c r="A13" s="56"/>
       <c r="B13" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="58" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="54" t="s">
+      <c r="D13" s="60"/>
+      <c r="E13" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="54" t="s">
-        <v>30</v>
-      </c>
-      <c r="G13" s="56"/>
+      <c r="F13" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" s="54"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2843,25 +2855,31 @@
       <c r="S13" s="31"/>
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="67"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="57"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="63"/>
+      <c r="E14" s="70"/>
+      <c r="F14" s="70"/>
+      <c r="G14" s="55"/>
       <c r="H14" s="52" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I14" s="52"/>
-      <c r="J14" s="52"/>
+      <c r="I14" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="J14" s="52">
+        <v>6</v>
+      </c>
       <c r="K14" s="10">
         <f>SUM(L14:S14)</f>
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="L14" s="33"/>
-      <c r="M14" s="32"/>
+      <c r="M14" s="32">
+        <v>12</v>
+      </c>
       <c r="N14" s="32"/>
       <c r="O14" s="32"/>
       <c r="P14" s="32"/>
@@ -2870,19 +2888,19 @@
       <c r="S14" s="32"/>
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="66">
+      <c r="A15" s="56">
         <v>2</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="59"/>
+      <c r="D15" s="60"/>
+      <c r="E15" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="F15" s="58"/>
-      <c r="G15" s="69"/>
+      <c r="F15" s="64"/>
+      <c r="G15" s="66"/>
       <c r="H15" s="23" t="str">
         <f>IF(E15="","","予定")</f>
         <v>予定</v>
@@ -2900,13 +2918,13 @@
       <c r="S15" s="31"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="67"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="70"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="62"/>
+      <c r="D16" s="63"/>
+      <c r="E16" s="65"/>
+      <c r="F16" s="65"/>
+      <c r="G16" s="67"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
         <v>実績</v>
@@ -2924,25 +2942,27 @@
       <c r="S16" s="32"/>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="66"/>
+      <c r="A17" s="56"/>
       <c r="B17" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D17" s="60"/>
+      <c r="E17" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="F17" s="54"/>
-      <c r="G17" s="56"/>
+      <c r="F17" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="G17" s="54"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I17" s="8" t="s">
-        <v>33</v>
+        <v>64</v>
       </c>
       <c r="J17" s="8">
         <v>2</v>
@@ -2962,25 +2982,31 @@
       <c r="S17" s="31"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="67"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="57"/>
+      <c r="A18" s="57"/>
+      <c r="B18" s="55"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="70"/>
+      <c r="F18" s="70"/>
+      <c r="G18" s="55"/>
       <c r="H18" s="52" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I18" s="52"/>
-      <c r="J18" s="52"/>
+      <c r="I18" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="J18" s="52">
+        <v>2</v>
+      </c>
       <c r="K18" s="10">
         <f t="shared" ref="K18:K22" si="4">SUM(L18:S18)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L18" s="41"/>
-      <c r="M18" s="32"/>
+      <c r="M18" s="32">
+        <v>0.5</v>
+      </c>
       <c r="N18" s="32"/>
       <c r="O18" s="32"/>
       <c r="P18" s="32"/>
@@ -2989,25 +3015,27 @@
       <c r="S18" s="32"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="66"/>
+      <c r="A19" s="56"/>
       <c r="B19" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="60" t="s">
-        <v>34</v>
-      </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="54" t="s">
+      <c r="C19" s="58" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="60"/>
+      <c r="E19" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="54"/>
-      <c r="G19" s="56"/>
+      <c r="F19" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="54"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I19" s="8" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="J19" s="8">
         <v>6</v>
@@ -3027,25 +3055,31 @@
       <c r="S19" s="31"/>
     </row>
     <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="67"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="57"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="55"/>
+      <c r="C20" s="61"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="70"/>
+      <c r="F20" s="70"/>
+      <c r="G20" s="55"/>
       <c r="H20" s="52" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I20" s="52"/>
-      <c r="J20" s="52"/>
+      <c r="I20" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="J20" s="52">
+        <v>6</v>
+      </c>
       <c r="K20" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L20" s="41"/>
-      <c r="M20" s="32"/>
+      <c r="M20" s="32">
+        <v>1.5</v>
+      </c>
       <c r="N20" s="32"/>
       <c r="O20" s="32"/>
       <c r="P20" s="32"/>
@@ -3054,25 +3088,27 @@
       <c r="S20" s="32"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="66"/>
+      <c r="A21" s="56"/>
       <c r="B21" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="C21" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="62"/>
-      <c r="E21" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="58" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="60"/>
+      <c r="E21" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="54"/>
-      <c r="G21" s="56"/>
+      <c r="F21" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="G21" s="54"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I21" s="8" t="s">
-        <v>11</v>
+        <v>65</v>
       </c>
       <c r="J21" s="8">
         <v>1</v>
@@ -3092,25 +3128,31 @@
       <c r="S21" s="31"/>
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="67"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="57"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="55"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="70"/>
+      <c r="G22" s="55"/>
       <c r="H22" s="52" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I22" s="52"/>
-      <c r="J22" s="52"/>
+      <c r="I22" s="52" t="s">
+        <v>65</v>
+      </c>
+      <c r="J22" s="52">
+        <v>1</v>
+      </c>
       <c r="K22" s="10">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L22" s="41"/>
-      <c r="M22" s="32"/>
+      <c r="M22" s="32">
+        <v>0.5</v>
+      </c>
       <c r="N22" s="32"/>
       <c r="O22" s="32"/>
       <c r="P22" s="32"/>
@@ -3119,15 +3161,15 @@
       <c r="S22" s="32"/>
     </row>
     <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="120"/>
+      <c r="A23" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="73"/>
+      <c r="E23" s="77"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="79"/>
       <c r="H23" s="20" t="s">
         <v>19</v>
       </c>
@@ -3171,13 +3213,13 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="76"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="121"/>
+      <c r="A24" s="74"/>
+      <c r="B24" s="75"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="76"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="78"/>
+      <c r="G24" s="80"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
@@ -3185,7 +3227,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="15">
         <f t="shared" ref="K24:S24" si="6">SUMPRODUCT((MOD(ROW(K$25:K$40),2)=0)*K$25:K$40)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L24" s="42">
         <f t="shared" si="6"/>
@@ -3193,7 +3235,7 @@
       </c>
       <c r="M24" s="36">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="N24" s="36">
         <f t="shared" si="6"/>
@@ -3221,19 +3263,19 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="66">
+      <c r="A25" s="56">
         <v>1</v>
       </c>
-      <c r="B25" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="58" t="s">
+      <c r="B25" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" s="59"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="58"/>
-      <c r="G25" s="69"/>
+      <c r="F25" s="64"/>
+      <c r="G25" s="66"/>
       <c r="H25" s="23" t="str">
         <f>IF(E25="","","予定")</f>
         <v>予定</v>
@@ -3251,13 +3293,13 @@
       <c r="S25" s="31"/>
     </row>
     <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="67"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="70"/>
+      <c r="A26" s="57"/>
+      <c r="B26" s="61"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="67"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
         <v>実績</v>
@@ -3275,40 +3317,40 @@
       <c r="S26" s="32"/>
     </row>
     <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="66"/>
+      <c r="A27" s="56"/>
       <c r="B27" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="60" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="62"/>
-      <c r="E27" s="54" t="s">
+      <c r="C27" s="58" t="s">
+        <v>37</v>
+      </c>
+      <c r="D27" s="60"/>
+      <c r="E27" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="54"/>
-      <c r="G27" s="56"/>
+      <c r="F27" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="G27" s="54"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I27" s="8" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="J27" s="8">
         <v>6</v>
       </c>
       <c r="K27" s="9">
         <f>SUM(L27:S27)</f>
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="L27" s="30"/>
       <c r="M27" s="31">
         <v>6</v>
       </c>
-      <c r="N27" s="31">
-        <v>3</v>
-      </c>
+      <c r="N27" s="31"/>
       <c r="O27" s="31"/>
       <c r="P27" s="31"/>
       <c r="Q27" s="31"/>
@@ -3316,25 +3358,31 @@
       <c r="S27" s="31"/>
     </row>
     <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="67"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="57"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="70"/>
+      <c r="F28" s="70"/>
+      <c r="G28" s="55"/>
       <c r="H28" s="52" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I28" s="52"/>
-      <c r="J28" s="52"/>
+      <c r="I28" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="J28" s="52">
+        <v>6</v>
+      </c>
       <c r="K28" s="10">
         <f t="shared" ref="K28:K32" si="7">SUM(L28:S28)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L28" s="48"/>
-      <c r="M28" s="49"/>
+      <c r="M28" s="49">
+        <v>6</v>
+      </c>
       <c r="N28" s="32"/>
       <c r="O28" s="32"/>
       <c r="P28" s="32"/>
@@ -3343,25 +3391,27 @@
       <c r="S28" s="32"/>
     </row>
     <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="66"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="D29" s="62"/>
-      <c r="E29" s="54" t="s">
+      <c r="C29" s="58" t="s">
+        <v>38</v>
+      </c>
+      <c r="D29" s="60"/>
+      <c r="E29" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="54"/>
-      <c r="G29" s="56"/>
+      <c r="F29" s="69" t="s">
+        <v>24</v>
+      </c>
+      <c r="G29" s="54"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I29" s="8" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="J29" s="8">
         <v>6</v>
@@ -3382,19 +3432,23 @@
       <c r="S29" s="31"/>
     </row>
     <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="67"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="57"/>
+      <c r="A30" s="57"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="70"/>
+      <c r="F30" s="70"/>
+      <c r="G30" s="55"/>
       <c r="H30" s="52" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I30" s="52"/>
-      <c r="J30" s="52"/>
+      <c r="I30" s="52" t="s">
+        <v>63</v>
+      </c>
+      <c r="J30" s="52">
+        <v>6</v>
+      </c>
       <c r="K30" s="10">
         <f t="shared" si="7"/>
         <v>0</v>
@@ -3409,19 +3463,19 @@
       <c r="S30" s="32"/>
     </row>
     <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="66"/>
+      <c r="A31" s="56"/>
       <c r="B31" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="60" t="s">
-        <v>42</v>
-      </c>
-      <c r="D31" s="62"/>
-      <c r="E31" s="54" t="s">
+        <v>39</v>
+      </c>
+      <c r="C31" s="58" t="s">
+        <v>40</v>
+      </c>
+      <c r="D31" s="60"/>
+      <c r="E31" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="54"/>
-      <c r="G31" s="56"/>
+      <c r="F31" s="69"/>
+      <c r="G31" s="54"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3434,12 +3488,12 @@
       </c>
       <c r="K31" s="9">
         <f t="shared" si="7"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="L31" s="30"/>
       <c r="M31" s="31"/>
       <c r="N31" s="31">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="O31" s="31"/>
       <c r="P31" s="31"/>
@@ -3448,13 +3502,13 @@
       <c r="S31" s="31"/>
     </row>
     <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="67"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="57"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="55"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="70"/>
+      <c r="F32" s="70"/>
+      <c r="G32" s="55"/>
       <c r="H32" s="52" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3475,19 +3529,19 @@
       <c r="S32" s="32"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="66">
+      <c r="A33" s="56">
         <v>2</v>
       </c>
-      <c r="B33" s="60" t="s">
+      <c r="B33" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C33" s="59"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="F33" s="58"/>
-      <c r="G33" s="69"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="66"/>
       <c r="H33" s="23" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
@@ -3505,13 +3559,13 @@
       <c r="S33" s="31"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="67"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="70"/>
+      <c r="A34" s="57"/>
+      <c r="B34" s="61"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="65"/>
+      <c r="F34" s="65"/>
+      <c r="G34" s="67"/>
       <c r="H34" s="24" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3529,25 +3583,25 @@
       <c r="S34" s="32"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="66"/>
+      <c r="A35" s="56"/>
       <c r="B35" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="60" t="s">
+      <c r="C35" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D35" s="60"/>
+      <c r="E35" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="D35" s="62"/>
-      <c r="E35" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="F35" s="54"/>
-      <c r="G35" s="56"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="54"/>
       <c r="H35" s="8" t="str">
         <f>IF(E35="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I35" s="52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="J35" s="52">
         <v>3</v>
@@ -3568,13 +3622,13 @@
       <c r="S35" s="31"/>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="67"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="57"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="55"/>
+      <c r="C36" s="61"/>
+      <c r="D36" s="63"/>
+      <c r="E36" s="70"/>
+      <c r="F36" s="70"/>
+      <c r="G36" s="55"/>
       <c r="H36" s="52" t="str">
         <f>IF(E35="","","実績")</f>
         <v>実績</v>
@@ -3595,19 +3649,19 @@
       <c r="S36" s="32"/>
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="66"/>
+      <c r="A37" s="56"/>
       <c r="B37" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="D37" s="62"/>
-      <c r="E37" s="54" t="s">
+      <c r="C37" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="D37" s="60"/>
+      <c r="E37" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="54"/>
-      <c r="G37" s="56"/>
+      <c r="F37" s="69"/>
+      <c r="G37" s="54"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3634,13 +3688,13 @@
       <c r="S37" s="31"/>
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="67"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="57"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="55"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="70"/>
+      <c r="F38" s="70"/>
+      <c r="G38" s="55"/>
       <c r="H38" s="52" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
@@ -3661,19 +3715,19 @@
       <c r="S38" s="32"/>
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="66"/>
+      <c r="A39" s="56"/>
       <c r="B39" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="C39" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="D39" s="62"/>
-      <c r="E39" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" s="60"/>
+      <c r="E39" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="54"/>
-      <c r="G39" s="56"/>
+      <c r="F39" s="69"/>
+      <c r="G39" s="54"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3700,13 +3754,13 @@
       <c r="S39" s="31"/>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="67"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="57"/>
+      <c r="A40" s="57"/>
+      <c r="B40" s="55"/>
+      <c r="C40" s="61"/>
+      <c r="D40" s="63"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="55"/>
       <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -3727,15 +3781,15 @@
       <c r="S40" s="32"/>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="73" t="s">
-        <v>46</v>
-      </c>
-      <c r="B41" s="74"/>
-      <c r="C41" s="74"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="120"/>
+      <c r="A41" s="71" t="s">
+        <v>44</v>
+      </c>
+      <c r="B41" s="72"/>
+      <c r="C41" s="72"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="77"/>
+      <c r="F41" s="77"/>
+      <c r="G41" s="79"/>
       <c r="H41" s="20" t="s">
         <v>19</v>
       </c>
@@ -3779,13 +3833,13 @@
       </c>
     </row>
     <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="76"/>
-      <c r="B42" s="77"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="121"/>
+      <c r="A42" s="74"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="75"/>
+      <c r="D42" s="76"/>
+      <c r="E42" s="78"/>
+      <c r="F42" s="78"/>
+      <c r="G42" s="80"/>
       <c r="H42" s="7" t="s">
         <v>20</v>
       </c>
@@ -3829,19 +3883,19 @@
       </c>
     </row>
     <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="66">
+      <c r="A43" s="56">
         <v>1</v>
       </c>
-      <c r="B43" s="60" t="s">
+      <c r="B43" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="61"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="58" t="s">
+      <c r="C43" s="59"/>
+      <c r="D43" s="60"/>
+      <c r="E43" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="58"/>
-      <c r="G43" s="69"/>
+      <c r="F43" s="64"/>
+      <c r="G43" s="66"/>
       <c r="H43" s="23" t="str">
         <f>IF(E43="","","予定")</f>
         <v>予定</v>
@@ -3859,13 +3913,13 @@
       <c r="S43" s="31"/>
     </row>
     <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="67"/>
-      <c r="B44" s="63"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="70"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="61"/>
+      <c r="C44" s="62"/>
+      <c r="D44" s="63"/>
+      <c r="E44" s="65"/>
+      <c r="F44" s="65"/>
+      <c r="G44" s="67"/>
       <c r="H44" s="24" t="str">
         <f>IF(E43="","","実績")</f>
         <v>実績</v>
@@ -3883,19 +3937,19 @@
       <c r="S44" s="32"/>
     </row>
     <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="66"/>
+      <c r="A45" s="56"/>
       <c r="B45" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="D45" s="62"/>
-      <c r="E45" s="54" t="s">
+      <c r="C45" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D45" s="60"/>
+      <c r="E45" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="54"/>
-      <c r="G45" s="56"/>
+      <c r="F45" s="69"/>
+      <c r="G45" s="54"/>
       <c r="H45" s="8" t="str">
         <f>IF(E45="","","予定")</f>
         <v>予定</v>
@@ -3924,13 +3978,13 @@
       <c r="S45" s="31"/>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="67"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="57"/>
+      <c r="A46" s="57"/>
+      <c r="B46" s="55"/>
+      <c r="C46" s="61"/>
+      <c r="D46" s="63"/>
+      <c r="E46" s="70"/>
+      <c r="F46" s="70"/>
+      <c r="G46" s="55"/>
       <c r="H46" s="52" t="str">
         <f>IF(E45="","","実績")</f>
         <v>実績</v>
@@ -3951,19 +4005,19 @@
       <c r="S46" s="32"/>
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="66"/>
+      <c r="A47" s="56"/>
       <c r="B47" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="D47" s="62"/>
-      <c r="E47" s="54" t="s">
+      <c r="C47" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="D47" s="60"/>
+      <c r="E47" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="54"/>
-      <c r="G47" s="56"/>
+      <c r="F47" s="69"/>
+      <c r="G47" s="54"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -3990,13 +4044,13 @@
       <c r="S47" s="31"/>
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="67"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="57"/>
+      <c r="A48" s="57"/>
+      <c r="B48" s="55"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="63"/>
+      <c r="E48" s="70"/>
+      <c r="F48" s="70"/>
+      <c r="G48" s="55"/>
       <c r="H48" s="52" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -4017,19 +4071,19 @@
       <c r="S48" s="32"/>
     </row>
     <row r="49" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="66">
+      <c r="A49" s="56">
         <v>2</v>
       </c>
-      <c r="B49" s="60" t="s">
+      <c r="B49" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C49" s="59"/>
+      <c r="D49" s="60"/>
+      <c r="E49" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C49" s="61"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="F49" s="58"/>
-      <c r="G49" s="69"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="66"/>
       <c r="H49" s="23" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4047,13 +4101,13 @@
       <c r="S49" s="31"/>
     </row>
     <row r="50" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="67"/>
-      <c r="B50" s="63"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="70"/>
+      <c r="A50" s="57"/>
+      <c r="B50" s="61"/>
+      <c r="C50" s="62"/>
+      <c r="D50" s="63"/>
+      <c r="E50" s="65"/>
+      <c r="F50" s="65"/>
+      <c r="G50" s="67"/>
       <c r="H50" s="24" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -4071,25 +4125,25 @@
       <c r="S50" s="32"/>
     </row>
     <row r="51" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="66"/>
+      <c r="A51" s="56"/>
       <c r="B51" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="60" t="s">
+      <c r="C51" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="60"/>
+      <c r="E51" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="D51" s="62"/>
-      <c r="E51" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="F51" s="54"/>
-      <c r="G51" s="56"/>
+      <c r="F51" s="69"/>
+      <c r="G51" s="54"/>
       <c r="H51" s="8" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I51" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J51" s="8">
         <v>5</v>
@@ -4110,13 +4164,13 @@
       <c r="S51" s="31"/>
     </row>
     <row r="52" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="67"/>
-      <c r="B52" s="57"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="57"/>
+      <c r="A52" s="57"/>
+      <c r="B52" s="55"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="63"/>
+      <c r="E52" s="70"/>
+      <c r="F52" s="70"/>
+      <c r="G52" s="55"/>
       <c r="H52" s="52" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -4137,25 +4191,25 @@
       <c r="S52" s="32"/>
     </row>
     <row r="53" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="66"/>
+      <c r="A53" s="56"/>
       <c r="B53" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C53" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="D53" s="62"/>
-      <c r="E53" s="54" t="s">
+      <c r="C53" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="D53" s="60"/>
+      <c r="E53" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="F53" s="54"/>
-      <c r="G53" s="56"/>
+      <c r="F53" s="69"/>
+      <c r="G53" s="54"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I53" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J53" s="8">
         <v>5</v>
@@ -4177,13 +4231,13 @@
       <c r="T53" s="31"/>
     </row>
     <row r="54" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="67"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="63"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="55"/>
-      <c r="G54" s="57"/>
+      <c r="A54" s="57"/>
+      <c r="B54" s="55"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="63"/>
+      <c r="E54" s="70"/>
+      <c r="F54" s="70"/>
+      <c r="G54" s="55"/>
       <c r="H54" s="52" t="str">
         <f>IF(E53="","","実績")</f>
         <v>実績</v>
@@ -4204,25 +4258,25 @@
       <c r="S54" s="32"/>
     </row>
     <row r="55" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="66"/>
+      <c r="A55" s="56"/>
       <c r="B55" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="C55" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="D55" s="62"/>
-      <c r="E55" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="D55" s="60"/>
+      <c r="E55" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="F55" s="54"/>
-      <c r="G55" s="56"/>
+      <c r="F55" s="69"/>
+      <c r="G55" s="54"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I55" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J55" s="8">
         <v>1</v>
@@ -4244,13 +4298,13 @@
       <c r="T55" s="31"/>
     </row>
     <row r="56" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="67"/>
-      <c r="B56" s="57"/>
-      <c r="C56" s="63"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="57"/>
+      <c r="A56" s="57"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="63"/>
+      <c r="E56" s="70"/>
+      <c r="F56" s="70"/>
+      <c r="G56" s="55"/>
       <c r="H56" s="52" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
@@ -4271,15 +4325,15 @@
       <c r="S56" s="44"/>
     </row>
     <row r="57" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="73" t="s">
-        <v>51</v>
-      </c>
-      <c r="B57" s="74"/>
-      <c r="C57" s="74"/>
-      <c r="D57" s="75"/>
-      <c r="E57" s="71"/>
-      <c r="F57" s="71"/>
-      <c r="G57" s="120"/>
+      <c r="A57" s="71" t="s">
+        <v>49</v>
+      </c>
+      <c r="B57" s="72"/>
+      <c r="C57" s="72"/>
+      <c r="D57" s="73"/>
+      <c r="E57" s="77"/>
+      <c r="F57" s="77"/>
+      <c r="G57" s="79"/>
       <c r="H57" s="20" t="s">
         <v>19</v>
       </c>
@@ -4320,13 +4374,13 @@
       </c>
     </row>
     <row r="58" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="76"/>
-      <c r="B58" s="77"/>
-      <c r="C58" s="77"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="72"/>
-      <c r="F58" s="72"/>
-      <c r="G58" s="121"/>
+      <c r="A58" s="74"/>
+      <c r="B58" s="75"/>
+      <c r="C58" s="75"/>
+      <c r="D58" s="76"/>
+      <c r="E58" s="78"/>
+      <c r="F58" s="78"/>
+      <c r="G58" s="80"/>
       <c r="H58" s="7" t="s">
         <v>20</v>
       </c>
@@ -4370,19 +4424,19 @@
       </c>
     </row>
     <row r="59" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="66">
+      <c r="A59" s="56">
         <v>1</v>
       </c>
-      <c r="B59" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="C59" s="61"/>
-      <c r="D59" s="62"/>
-      <c r="E59" s="58" t="s">
+      <c r="B59" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="C59" s="59"/>
+      <c r="D59" s="60"/>
+      <c r="E59" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="F59" s="58"/>
-      <c r="G59" s="69"/>
+      <c r="F59" s="64"/>
+      <c r="G59" s="66"/>
       <c r="H59" s="23" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
@@ -4400,13 +4454,13 @@
       <c r="S59" s="31"/>
     </row>
     <row r="60" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="67"/>
-      <c r="B60" s="63"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="65"/>
-      <c r="E60" s="59"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="70"/>
+      <c r="A60" s="57"/>
+      <c r="B60" s="61"/>
+      <c r="C60" s="62"/>
+      <c r="D60" s="63"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="67"/>
       <c r="H60" s="24" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
@@ -4424,19 +4478,19 @@
       <c r="S60" s="32"/>
     </row>
     <row r="61" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="66"/>
+      <c r="A61" s="56"/>
       <c r="B61" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C61" s="60" t="s">
-        <v>47</v>
-      </c>
-      <c r="D61" s="62"/>
-      <c r="E61" s="54" t="s">
+      <c r="C61" s="58" t="s">
+        <v>45</v>
+      </c>
+      <c r="D61" s="60"/>
+      <c r="E61" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="F61" s="54"/>
-      <c r="G61" s="56"/>
+      <c r="F61" s="69"/>
+      <c r="G61" s="54"/>
       <c r="H61" s="8" t="str">
         <f>IF(E61="","","予定")</f>
         <v>予定</v>
@@ -4464,13 +4518,13 @@
       <c r="S61" s="31"/>
     </row>
     <row r="62" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="67"/>
-      <c r="B62" s="57"/>
-      <c r="C62" s="63"/>
-      <c r="D62" s="65"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="55"/>
-      <c r="G62" s="57"/>
+      <c r="A62" s="57"/>
+      <c r="B62" s="55"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="63"/>
+      <c r="E62" s="70"/>
+      <c r="F62" s="70"/>
+      <c r="G62" s="55"/>
       <c r="H62" s="52" t="str">
         <f>IF(E61="","","実績")</f>
         <v>実績</v>
@@ -4491,19 +4545,19 @@
       <c r="S62" s="32"/>
     </row>
     <row r="63" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="66"/>
+      <c r="A63" s="56"/>
       <c r="B63" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="60" t="s">
-        <v>48</v>
-      </c>
-      <c r="D63" s="62"/>
-      <c r="E63" s="54" t="s">
+      <c r="C63" s="58" t="s">
+        <v>46</v>
+      </c>
+      <c r="D63" s="60"/>
+      <c r="E63" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="F63" s="54"/>
-      <c r="G63" s="56"/>
+      <c r="F63" s="69"/>
+      <c r="G63" s="54"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v>予定</v>
@@ -4530,13 +4584,13 @@
       <c r="S63" s="31"/>
     </row>
     <row r="64" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="67"/>
-      <c r="B64" s="57"/>
-      <c r="C64" s="63"/>
-      <c r="D64" s="65"/>
-      <c r="E64" s="55"/>
-      <c r="F64" s="55"/>
-      <c r="G64" s="57"/>
+      <c r="A64" s="57"/>
+      <c r="B64" s="55"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="63"/>
+      <c r="E64" s="70"/>
+      <c r="F64" s="70"/>
+      <c r="G64" s="55"/>
       <c r="H64" s="52" t="str">
         <f>IF(E63="","","実績")</f>
         <v>実績</v>
@@ -4557,19 +4611,19 @@
       <c r="S64" s="32"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="66"/>
+      <c r="A65" s="56"/>
       <c r="B65" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="C65" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="D65" s="62"/>
-      <c r="E65" s="54" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" s="58" t="s">
+        <v>50</v>
+      </c>
+      <c r="D65" s="60"/>
+      <c r="E65" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="F65" s="54"/>
-      <c r="G65" s="56"/>
+      <c r="F65" s="69"/>
+      <c r="G65" s="54"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4596,13 +4650,13 @@
       <c r="S65" s="31"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="67"/>
-      <c r="B66" s="57"/>
-      <c r="C66" s="63"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="55"/>
-      <c r="G66" s="57"/>
+      <c r="A66" s="57"/>
+      <c r="B66" s="55"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="63"/>
+      <c r="E66" s="70"/>
+      <c r="F66" s="70"/>
+      <c r="G66" s="55"/>
       <c r="H66" s="52" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -4623,19 +4677,19 @@
       <c r="S66" s="32"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="66">
+      <c r="A67" s="56">
         <v>2</v>
       </c>
-      <c r="B67" s="60" t="s">
+      <c r="B67" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67" s="59"/>
+      <c r="D67" s="60"/>
+      <c r="E67" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C67" s="61"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="F67" s="58"/>
-      <c r="G67" s="69"/>
+      <c r="F67" s="64"/>
+      <c r="G67" s="66"/>
       <c r="H67" s="23" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4653,13 +4707,13 @@
       <c r="S67" s="31"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="67"/>
-      <c r="B68" s="63"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="59"/>
-      <c r="F68" s="59"/>
-      <c r="G68" s="70"/>
+      <c r="A68" s="57"/>
+      <c r="B68" s="61"/>
+      <c r="C68" s="62"/>
+      <c r="D68" s="63"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="67"/>
       <c r="H68" s="24" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -4677,25 +4731,25 @@
       <c r="S68" s="32"/>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="66"/>
+      <c r="A69" s="56"/>
       <c r="B69" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C69" s="60" t="s">
+      <c r="C69" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D69" s="60"/>
+      <c r="E69" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="D69" s="62"/>
-      <c r="E69" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="F69" s="54"/>
-      <c r="G69" s="56"/>
+      <c r="F69" s="69"/>
+      <c r="G69" s="54"/>
       <c r="H69" s="8" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I69" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J69" s="8">
         <v>5</v>
@@ -4716,13 +4770,13 @@
       <c r="S69" s="31"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="67"/>
-      <c r="B70" s="57"/>
-      <c r="C70" s="63"/>
-      <c r="D70" s="65"/>
-      <c r="E70" s="55"/>
-      <c r="F70" s="55"/>
-      <c r="G70" s="57"/>
+      <c r="A70" s="57"/>
+      <c r="B70" s="55"/>
+      <c r="C70" s="61"/>
+      <c r="D70" s="63"/>
+      <c r="E70" s="70"/>
+      <c r="F70" s="70"/>
+      <c r="G70" s="55"/>
       <c r="H70" s="52" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
@@ -4743,25 +4797,25 @@
       <c r="S70" s="32"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="66"/>
+      <c r="A71" s="56"/>
       <c r="B71" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="60" t="s">
-        <v>44</v>
-      </c>
-      <c r="D71" s="62"/>
-      <c r="E71" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="F71" s="54"/>
-      <c r="G71" s="56"/>
+      <c r="C71" s="58" t="s">
+        <v>42</v>
+      </c>
+      <c r="D71" s="60"/>
+      <c r="E71" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="F71" s="69"/>
+      <c r="G71" s="54"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="J71" s="8">
         <v>5</v>
@@ -4782,13 +4836,13 @@
       <c r="S71" s="31"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="67"/>
-      <c r="B72" s="57"/>
-      <c r="C72" s="63"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="55"/>
-      <c r="F72" s="55"/>
-      <c r="G72" s="57"/>
+      <c r="A72" s="57"/>
+      <c r="B72" s="55"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="63"/>
+      <c r="E72" s="70"/>
+      <c r="F72" s="70"/>
+      <c r="G72" s="55"/>
       <c r="H72" s="52" t="str">
         <f>IF(E71="","","実績")</f>
         <v>実績</v>
@@ -4809,25 +4863,25 @@
       <c r="S72" s="32"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="66"/>
+      <c r="A73" s="56"/>
       <c r="B73" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="C73" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="D73" s="62"/>
-      <c r="E73" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="F73" s="54"/>
-      <c r="G73" s="56"/>
+        <v>33</v>
+      </c>
+      <c r="C73" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="D73" s="60"/>
+      <c r="E73" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="F73" s="69"/>
+      <c r="G73" s="54"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I73" s="8" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="J73" s="8">
         <v>1</v>
@@ -4848,13 +4902,13 @@
       <c r="S73" s="31"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="67"/>
-      <c r="B74" s="57"/>
-      <c r="C74" s="63"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="55"/>
-      <c r="F74" s="55"/>
-      <c r="G74" s="57"/>
+      <c r="A74" s="57"/>
+      <c r="B74" s="55"/>
+      <c r="C74" s="61"/>
+      <c r="D74" s="63"/>
+      <c r="E74" s="70"/>
+      <c r="F74" s="70"/>
+      <c r="G74" s="55"/>
       <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -4875,15 +4929,15 @@
       <c r="S74" s="44"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="73" t="s">
-        <v>53</v>
-      </c>
-      <c r="B75" s="74"/>
-      <c r="C75" s="74"/>
-      <c r="D75" s="75"/>
-      <c r="E75" s="71"/>
-      <c r="F75" s="71"/>
-      <c r="G75" s="120"/>
+      <c r="A75" s="71" t="s">
+        <v>51</v>
+      </c>
+      <c r="B75" s="72"/>
+      <c r="C75" s="72"/>
+      <c r="D75" s="73"/>
+      <c r="E75" s="77"/>
+      <c r="F75" s="77"/>
+      <c r="G75" s="79"/>
       <c r="H75" s="20" t="s">
         <v>19</v>
       </c>
@@ -4920,13 +4974,13 @@
       </c>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="76"/>
-      <c r="B76" s="77"/>
-      <c r="C76" s="77"/>
-      <c r="D76" s="78"/>
-      <c r="E76" s="72"/>
-      <c r="F76" s="72"/>
-      <c r="G76" s="121"/>
+      <c r="A76" s="74"/>
+      <c r="B76" s="75"/>
+      <c r="C76" s="75"/>
+      <c r="D76" s="76"/>
+      <c r="E76" s="78"/>
+      <c r="F76" s="78"/>
+      <c r="G76" s="80"/>
       <c r="H76" s="7" t="s">
         <v>20</v>
       </c>
@@ -4970,17 +5024,17 @@
       </c>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="66">
+      <c r="A77" s="56">
         <v>1</v>
       </c>
-      <c r="B77" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="C77" s="61"/>
-      <c r="D77" s="62"/>
-      <c r="E77" s="58"/>
-      <c r="F77" s="58"/>
-      <c r="G77" s="69"/>
+      <c r="B77" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="C77" s="59"/>
+      <c r="D77" s="60"/>
+      <c r="E77" s="64"/>
+      <c r="F77" s="64"/>
+      <c r="G77" s="66"/>
       <c r="H77" s="23" t="str">
         <f>IF(E77="","","予定")</f>
         <v/>
@@ -4998,13 +5052,13 @@
       <c r="S77" s="31"/>
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="67"/>
-      <c r="B78" s="63"/>
-      <c r="C78" s="64"/>
-      <c r="D78" s="65"/>
-      <c r="E78" s="59"/>
-      <c r="F78" s="59"/>
-      <c r="G78" s="70"/>
+      <c r="A78" s="57"/>
+      <c r="B78" s="61"/>
+      <c r="C78" s="62"/>
+      <c r="D78" s="63"/>
+      <c r="E78" s="65"/>
+      <c r="F78" s="65"/>
+      <c r="G78" s="67"/>
       <c r="H78" s="24" t="str">
         <f>IF(E77="","","実績")</f>
         <v/>
@@ -5022,19 +5076,19 @@
       <c r="S78" s="32"/>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="66"/>
+      <c r="A79" s="56"/>
       <c r="B79" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C79" s="60" t="s">
-        <v>54</v>
-      </c>
-      <c r="D79" s="62"/>
-      <c r="E79" s="54" t="s">
+      <c r="C79" s="58" t="s">
+        <v>52</v>
+      </c>
+      <c r="D79" s="60"/>
+      <c r="E79" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="F79" s="54"/>
-      <c r="G79" s="56"/>
+      <c r="F79" s="69"/>
+      <c r="G79" s="54"/>
       <c r="H79" s="8" t="str">
         <f>IF(E79="","","予定")</f>
         <v>予定</v>
@@ -5061,13 +5115,13 @@
       <c r="S79" s="31"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="67"/>
-      <c r="B80" s="57"/>
-      <c r="C80" s="63"/>
-      <c r="D80" s="65"/>
-      <c r="E80" s="55"/>
-      <c r="F80" s="55"/>
-      <c r="G80" s="57"/>
+      <c r="A80" s="57"/>
+      <c r="B80" s="55"/>
+      <c r="C80" s="61"/>
+      <c r="D80" s="63"/>
+      <c r="E80" s="70"/>
+      <c r="F80" s="70"/>
+      <c r="G80" s="55"/>
       <c r="H80" s="52" t="str">
         <f>IF(E79="","","実績")</f>
         <v>実績</v>
@@ -5088,19 +5142,19 @@
       <c r="S80" s="32"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="66"/>
+      <c r="A81" s="56"/>
       <c r="B81" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="D81" s="62"/>
-      <c r="E81" s="54" t="s">
+      <c r="C81" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="D81" s="60"/>
+      <c r="E81" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="F81" s="54"/>
-      <c r="G81" s="56"/>
+      <c r="F81" s="69"/>
+      <c r="G81" s="54"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5127,13 +5181,13 @@
       <c r="S81" s="31"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="67"/>
-      <c r="B82" s="57"/>
-      <c r="C82" s="63"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="55"/>
-      <c r="F82" s="55"/>
-      <c r="G82" s="57"/>
+      <c r="A82" s="57"/>
+      <c r="B82" s="55"/>
+      <c r="C82" s="61"/>
+      <c r="D82" s="63"/>
+      <c r="E82" s="70"/>
+      <c r="F82" s="70"/>
+      <c r="G82" s="55"/>
       <c r="H82" s="52" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
@@ -5154,15 +5208,15 @@
       <c r="S82" s="32"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="73" t="s">
-        <v>56</v>
-      </c>
-      <c r="B83" s="74"/>
-      <c r="C83" s="74"/>
-      <c r="D83" s="75"/>
-      <c r="E83" s="71"/>
-      <c r="F83" s="71"/>
-      <c r="G83" s="120"/>
+      <c r="A83" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="B83" s="72"/>
+      <c r="C83" s="72"/>
+      <c r="D83" s="73"/>
+      <c r="E83" s="77"/>
+      <c r="F83" s="77"/>
+      <c r="G83" s="79"/>
       <c r="H83" s="20" t="s">
         <v>19</v>
       </c>
@@ -5204,13 +5258,13 @@
       </c>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="76"/>
-      <c r="B84" s="77"/>
-      <c r="C84" s="77"/>
-      <c r="D84" s="78"/>
-      <c r="E84" s="72"/>
-      <c r="F84" s="72"/>
-      <c r="G84" s="121"/>
+      <c r="A84" s="74"/>
+      <c r="B84" s="75"/>
+      <c r="C84" s="75"/>
+      <c r="D84" s="76"/>
+      <c r="E84" s="78"/>
+      <c r="F84" s="78"/>
+      <c r="G84" s="80"/>
       <c r="H84" s="7" t="s">
         <v>20</v>
       </c>
@@ -5254,17 +5308,17 @@
       </c>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="66">
+      <c r="A85" s="56">
         <v>1</v>
       </c>
-      <c r="B85" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="C85" s="61"/>
-      <c r="D85" s="62"/>
-      <c r="E85" s="58"/>
-      <c r="F85" s="58"/>
-      <c r="G85" s="69"/>
+      <c r="B85" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="C85" s="59"/>
+      <c r="D85" s="60"/>
+      <c r="E85" s="64"/>
+      <c r="F85" s="64"/>
+      <c r="G85" s="66"/>
       <c r="H85" s="23" t="str">
         <f>IF(E85="","","予定")</f>
         <v/>
@@ -5282,13 +5336,13 @@
       <c r="S85" s="31"/>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="67"/>
-      <c r="B86" s="63"/>
-      <c r="C86" s="64"/>
-      <c r="D86" s="65"/>
-      <c r="E86" s="59"/>
-      <c r="F86" s="59"/>
-      <c r="G86" s="70"/>
+      <c r="A86" s="57"/>
+      <c r="B86" s="61"/>
+      <c r="C86" s="62"/>
+      <c r="D86" s="63"/>
+      <c r="E86" s="65"/>
+      <c r="F86" s="65"/>
+      <c r="G86" s="67"/>
       <c r="H86" s="24" t="str">
         <f>IF(E85="","","実績")</f>
         <v/>
@@ -5306,25 +5360,25 @@
       <c r="S86" s="32"/>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="66"/>
+      <c r="A87" s="56"/>
       <c r="B87" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C87" s="60" t="s">
-        <v>57</v>
-      </c>
-      <c r="D87" s="62"/>
-      <c r="E87" s="54" t="s">
+      <c r="C87" s="58" t="s">
+        <v>55</v>
+      </c>
+      <c r="D87" s="60"/>
+      <c r="E87" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="F87" s="54"/>
-      <c r="G87" s="56"/>
+      <c r="F87" s="69"/>
+      <c r="G87" s="54"/>
       <c r="H87" s="8" t="str">
         <f>IF(E87="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I87" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J87" s="8">
         <v>5</v>
@@ -5345,13 +5399,13 @@
       <c r="S87" s="31"/>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="67"/>
-      <c r="B88" s="57"/>
-      <c r="C88" s="63"/>
-      <c r="D88" s="65"/>
-      <c r="E88" s="55"/>
-      <c r="F88" s="55"/>
-      <c r="G88" s="57"/>
+      <c r="A88" s="57"/>
+      <c r="B88" s="55"/>
+      <c r="C88" s="61"/>
+      <c r="D88" s="63"/>
+      <c r="E88" s="70"/>
+      <c r="F88" s="70"/>
+      <c r="G88" s="55"/>
       <c r="H88" s="52" t="str">
         <f>IF(E87="","","実績")</f>
         <v>実績</v>
@@ -5372,25 +5426,25 @@
       <c r="S88" s="32"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="66"/>
+      <c r="A89" s="56"/>
       <c r="B89" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C89" s="79" t="s">
-        <v>59</v>
-      </c>
-      <c r="D89" s="62"/>
-      <c r="E89" s="54" t="s">
+      <c r="C89" s="121" t="s">
+        <v>57</v>
+      </c>
+      <c r="D89" s="60"/>
+      <c r="E89" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="F89" s="54"/>
-      <c r="G89" s="56"/>
+      <c r="F89" s="69"/>
+      <c r="G89" s="54"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I89" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J89" s="8">
         <v>1</v>
@@ -5411,13 +5465,13 @@
       <c r="S89" s="31"/>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="67"/>
-      <c r="B90" s="57"/>
-      <c r="C90" s="63"/>
-      <c r="D90" s="65"/>
-      <c r="E90" s="55"/>
-      <c r="F90" s="55"/>
-      <c r="G90" s="57"/>
+      <c r="A90" s="57"/>
+      <c r="B90" s="55"/>
+      <c r="C90" s="61"/>
+      <c r="D90" s="63"/>
+      <c r="E90" s="70"/>
+      <c r="F90" s="70"/>
+      <c r="G90" s="55"/>
       <c r="H90" s="52" t="str">
         <f>IF(E89="","","実績")</f>
         <v>実績</v>
@@ -5438,17 +5492,17 @@
       <c r="S90" s="32"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="66">
+      <c r="A91" s="56">
         <v>2</v>
       </c>
-      <c r="B91" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="C91" s="61"/>
-      <c r="D91" s="62"/>
-      <c r="E91" s="58"/>
-      <c r="F91" s="58"/>
-      <c r="G91" s="69"/>
+      <c r="B91" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C91" s="59"/>
+      <c r="D91" s="60"/>
+      <c r="E91" s="64"/>
+      <c r="F91" s="64"/>
+      <c r="G91" s="66"/>
       <c r="H91" s="23" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -5468,13 +5522,13 @@
       <c r="S91" s="31"/>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="67"/>
-      <c r="B92" s="63"/>
-      <c r="C92" s="64"/>
-      <c r="D92" s="65"/>
-      <c r="E92" s="59"/>
-      <c r="F92" s="59"/>
-      <c r="G92" s="70"/>
+      <c r="A92" s="57"/>
+      <c r="B92" s="61"/>
+      <c r="C92" s="62"/>
+      <c r="D92" s="63"/>
+      <c r="E92" s="65"/>
+      <c r="F92" s="65"/>
+      <c r="G92" s="67"/>
       <c r="H92" s="24" t="str">
         <f>IF(E91="","","実績")</f>
         <v/>
@@ -5492,25 +5546,25 @@
       <c r="S92" s="32"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="66"/>
+      <c r="A93" s="56"/>
       <c r="B93" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C93" s="60" t="s">
+      <c r="C93" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D93" s="60"/>
+      <c r="E93" s="69" t="s">
         <v>31</v>
       </c>
-      <c r="D93" s="62"/>
-      <c r="E93" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="F93" s="54"/>
-      <c r="G93" s="56"/>
+      <c r="F93" s="69"/>
+      <c r="G93" s="54"/>
       <c r="H93" s="8" t="str">
         <f>IF(E93="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I93" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J93" s="8">
         <v>5</v>
@@ -5531,13 +5585,13 @@
       <c r="S93" s="31"/>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="67"/>
-      <c r="B94" s="57"/>
-      <c r="C94" s="63"/>
-      <c r="D94" s="65"/>
-      <c r="E94" s="55"/>
-      <c r="F94" s="55"/>
-      <c r="G94" s="57"/>
+      <c r="A94" s="57"/>
+      <c r="B94" s="55"/>
+      <c r="C94" s="61"/>
+      <c r="D94" s="63"/>
+      <c r="E94" s="70"/>
+      <c r="F94" s="70"/>
+      <c r="G94" s="55"/>
       <c r="H94" s="52" t="str">
         <f>IF(E93="","","実績")</f>
         <v>実績</v>
@@ -5558,25 +5612,25 @@
       <c r="S94" s="32"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="66"/>
+      <c r="A95" s="56"/>
       <c r="B95" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C95" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="D95" s="62"/>
-      <c r="E95" s="54" t="s">
-        <v>32</v>
-      </c>
-      <c r="F95" s="54"/>
-      <c r="G95" s="56"/>
+      <c r="C95" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="D95" s="60"/>
+      <c r="E95" s="69" t="s">
+        <v>31</v>
+      </c>
+      <c r="F95" s="69"/>
+      <c r="G95" s="54"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I95" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J95" s="8">
         <v>1</v>
@@ -5597,13 +5651,13 @@
       <c r="S95" s="31"/>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="67"/>
-      <c r="B96" s="57"/>
-      <c r="C96" s="63"/>
-      <c r="D96" s="65"/>
-      <c r="E96" s="55"/>
-      <c r="F96" s="55"/>
-      <c r="G96" s="57"/>
+      <c r="A96" s="57"/>
+      <c r="B96" s="55"/>
+      <c r="C96" s="61"/>
+      <c r="D96" s="63"/>
+      <c r="E96" s="70"/>
+      <c r="F96" s="70"/>
+      <c r="G96" s="55"/>
       <c r="H96" s="52" t="str">
         <f>IF(E95="","","実績")</f>
         <v>実績</v>
@@ -5624,15 +5678,15 @@
       <c r="S96" s="44"/>
     </row>
     <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="73" t="s">
-        <v>61</v>
-      </c>
-      <c r="B97" s="74"/>
-      <c r="C97" s="74"/>
-      <c r="D97" s="75"/>
-      <c r="E97" s="71"/>
-      <c r="F97" s="71"/>
-      <c r="G97" s="120"/>
+      <c r="A97" s="71" t="s">
+        <v>59</v>
+      </c>
+      <c r="B97" s="72"/>
+      <c r="C97" s="72"/>
+      <c r="D97" s="73"/>
+      <c r="E97" s="77"/>
+      <c r="F97" s="77"/>
+      <c r="G97" s="79"/>
       <c r="H97" s="20" t="s">
         <v>19</v>
       </c>
@@ -5675,13 +5729,13 @@
       </c>
     </row>
     <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="76"/>
-      <c r="B98" s="77"/>
-      <c r="C98" s="77"/>
-      <c r="D98" s="78"/>
-      <c r="E98" s="72"/>
-      <c r="F98" s="72"/>
-      <c r="G98" s="121"/>
+      <c r="A98" s="74"/>
+      <c r="B98" s="75"/>
+      <c r="C98" s="75"/>
+      <c r="D98" s="76"/>
+      <c r="E98" s="78"/>
+      <c r="F98" s="78"/>
+      <c r="G98" s="80"/>
       <c r="H98" s="7" t="s">
         <v>20</v>
       </c>
@@ -5725,19 +5779,19 @@
       </c>
     </row>
     <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="66">
+      <c r="A99" s="56">
         <v>1</v>
       </c>
-      <c r="B99" s="60" t="s">
-        <v>38</v>
-      </c>
-      <c r="C99" s="61"/>
-      <c r="D99" s="62"/>
-      <c r="E99" s="58" t="s">
+      <c r="B99" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="C99" s="59"/>
+      <c r="D99" s="60"/>
+      <c r="E99" s="64" t="s">
         <v>23</v>
       </c>
-      <c r="F99" s="58"/>
-      <c r="G99" s="69"/>
+      <c r="F99" s="64"/>
+      <c r="G99" s="66"/>
       <c r="H99" s="23" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
@@ -5755,13 +5809,13 @@
       <c r="S99" s="31"/>
     </row>
     <row r="100" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="67"/>
-      <c r="B100" s="63"/>
-      <c r="C100" s="64"/>
-      <c r="D100" s="65"/>
-      <c r="E100" s="59"/>
-      <c r="F100" s="59"/>
-      <c r="G100" s="70"/>
+      <c r="A100" s="57"/>
+      <c r="B100" s="61"/>
+      <c r="C100" s="62"/>
+      <c r="D100" s="63"/>
+      <c r="E100" s="65"/>
+      <c r="F100" s="65"/>
+      <c r="G100" s="67"/>
       <c r="H100" s="24" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
@@ -5779,19 +5833,19 @@
       <c r="S100" s="32"/>
     </row>
     <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="66"/>
+      <c r="A101" s="56"/>
       <c r="B101" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C101" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="D101" s="62"/>
-      <c r="E101" s="54" t="s">
+      <c r="C101" s="58" t="s">
+        <v>60</v>
+      </c>
+      <c r="D101" s="60"/>
+      <c r="E101" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="F101" s="54"/>
-      <c r="G101" s="56"/>
+      <c r="F101" s="69"/>
+      <c r="G101" s="54"/>
       <c r="H101" s="8" t="str">
         <f>IF(E101="","","予定")</f>
         <v>予定</v>
@@ -5817,13 +5871,13 @@
       <c r="S101" s="31"/>
     </row>
     <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="67"/>
-      <c r="B102" s="57"/>
-      <c r="C102" s="63"/>
-      <c r="D102" s="65"/>
-      <c r="E102" s="55"/>
-      <c r="F102" s="55"/>
-      <c r="G102" s="57"/>
+      <c r="A102" s="57"/>
+      <c r="B102" s="55"/>
+      <c r="C102" s="61"/>
+      <c r="D102" s="63"/>
+      <c r="E102" s="70"/>
+      <c r="F102" s="70"/>
+      <c r="G102" s="55"/>
       <c r="H102" s="52" t="str">
         <f>IF(E101="","","実績")</f>
         <v>実績</v>
@@ -5844,25 +5898,25 @@
       <c r="S102" s="32"/>
     </row>
     <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="66"/>
+      <c r="A103" s="56"/>
       <c r="B103" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C103" s="60" t="s">
-        <v>63</v>
-      </c>
-      <c r="D103" s="62"/>
-      <c r="E103" s="54" t="s">
+      <c r="C103" s="58" t="s">
+        <v>61</v>
+      </c>
+      <c r="D103" s="60"/>
+      <c r="E103" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="F103" s="54"/>
-      <c r="G103" s="56"/>
+      <c r="F103" s="69"/>
+      <c r="G103" s="54"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I103" s="8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="J103" s="8">
         <v>3</v>
@@ -5882,13 +5936,13 @@
       <c r="S103" s="31"/>
     </row>
     <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="67"/>
-      <c r="B104" s="57"/>
-      <c r="C104" s="63"/>
-      <c r="D104" s="65"/>
-      <c r="E104" s="55"/>
-      <c r="F104" s="55"/>
-      <c r="G104" s="57"/>
+      <c r="A104" s="57"/>
+      <c r="B104" s="55"/>
+      <c r="C104" s="61"/>
+      <c r="D104" s="63"/>
+      <c r="E104" s="70"/>
+      <c r="F104" s="70"/>
+      <c r="G104" s="55"/>
       <c r="H104" s="52" t="str">
         <f>IF(E103="","","実績")</f>
         <v>実績</v>
@@ -5909,19 +5963,19 @@
       <c r="S104" s="32"/>
     </row>
     <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="66">
+      <c r="A105" s="56">
         <v>2</v>
       </c>
-      <c r="B105" s="60" t="s">
+      <c r="B105" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="C105" s="59"/>
+      <c r="D105" s="60"/>
+      <c r="E105" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="C105" s="61"/>
-      <c r="D105" s="62"/>
-      <c r="E105" s="58" t="s">
-        <v>32</v>
-      </c>
-      <c r="F105" s="58"/>
-      <c r="G105" s="69"/>
+      <c r="F105" s="64"/>
+      <c r="G105" s="66"/>
       <c r="H105" s="23" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -5939,13 +5993,13 @@
       <c r="S105" s="31"/>
     </row>
     <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="67"/>
-      <c r="B106" s="63"/>
-      <c r="C106" s="64"/>
-      <c r="D106" s="65"/>
-      <c r="E106" s="59"/>
-      <c r="F106" s="59"/>
-      <c r="G106" s="70"/>
+      <c r="A106" s="57"/>
+      <c r="B106" s="61"/>
+      <c r="C106" s="62"/>
+      <c r="D106" s="63"/>
+      <c r="E106" s="65"/>
+      <c r="F106" s="65"/>
+      <c r="G106" s="67"/>
       <c r="H106" s="24" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
@@ -5963,25 +6017,25 @@
       <c r="S106" s="32"/>
     </row>
     <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="66"/>
+      <c r="A107" s="56"/>
       <c r="B107" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C107" s="60" t="s">
-        <v>31</v>
-      </c>
-      <c r="D107" s="62"/>
-      <c r="E107" s="54" t="s">
+      <c r="C107" s="58" t="s">
+        <v>30</v>
+      </c>
+      <c r="D107" s="60"/>
+      <c r="E107" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="F107" s="54"/>
-      <c r="G107" s="56"/>
+      <c r="F107" s="69"/>
+      <c r="G107" s="54"/>
       <c r="H107" s="8" t="str">
         <f>IF(E107="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I107" s="8" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J107" s="8">
         <v>5</v>
@@ -6001,13 +6055,13 @@
       <c r="S107" s="31"/>
     </row>
     <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="67"/>
-      <c r="B108" s="57"/>
-      <c r="C108" s="63"/>
-      <c r="D108" s="65"/>
-      <c r="E108" s="55"/>
-      <c r="F108" s="55"/>
-      <c r="G108" s="57"/>
+      <c r="A108" s="57"/>
+      <c r="B108" s="55"/>
+      <c r="C108" s="61"/>
+      <c r="D108" s="63"/>
+      <c r="E108" s="70"/>
+      <c r="F108" s="70"/>
+      <c r="G108" s="55"/>
       <c r="H108" s="52" t="str">
         <f>IF(E107="","","実績")</f>
         <v>実績</v>
@@ -6028,25 +6082,25 @@
       <c r="S108" s="32"/>
     </row>
     <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="66"/>
+      <c r="A109" s="56"/>
       <c r="B109" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C109" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="D109" s="62"/>
-      <c r="E109" s="54" t="s">
+      <c r="C109" s="58" t="s">
+        <v>43</v>
+      </c>
+      <c r="D109" s="60"/>
+      <c r="E109" s="69" t="s">
         <v>23</v>
       </c>
-      <c r="F109" s="54"/>
-      <c r="G109" s="56"/>
+      <c r="F109" s="69"/>
+      <c r="G109" s="54"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I109" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="J109" s="8">
         <v>1</v>
@@ -6066,13 +6120,13 @@
       <c r="S109" s="31"/>
     </row>
     <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="67"/>
-      <c r="B110" s="57"/>
-      <c r="C110" s="63"/>
-      <c r="D110" s="65"/>
-      <c r="E110" s="55"/>
-      <c r="F110" s="55"/>
-      <c r="G110" s="57"/>
+      <c r="A110" s="57"/>
+      <c r="B110" s="55"/>
+      <c r="C110" s="61"/>
+      <c r="D110" s="63"/>
+      <c r="E110" s="70"/>
+      <c r="F110" s="70"/>
+      <c r="G110" s="55"/>
       <c r="H110" s="52" t="str">
         <f>IF(E109="","","実績")</f>
         <v>実績</v>
@@ -6108,44 +6162,253 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="309">
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="B105:D106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="A97:D98"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:D102"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:D100"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:D80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="B49:D50"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B33:D34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="B43:D44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:D68"/>
     <mergeCell ref="E73:E74"/>
     <mergeCell ref="F73:F74"/>
     <mergeCell ref="F71:F72"/>
@@ -6170,253 +6433,44 @@
     <mergeCell ref="C71:D72"/>
     <mergeCell ref="E71:E72"/>
     <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:D68"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="B49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B33:D34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B43:D44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:D100"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:D80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="A97:D98"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:D102"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="B105:D106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L85:S96 L99:S110 L25:S34 L43:S52 L54:S54 L56:S56 L9:S12 M13:S13 L14:S18 L53:T53 L55:T55">
@@ -6512,15 +6566,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6704,6 +6749,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
   <ds:schemaRefs>
@@ -6714,14 +6768,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89F0FFFF-D441-4664-93A0-244B234195EC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6737,4 +6783,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/13_WBSガントチャート(修正).xlsx
+++ b/13_WBSガントチャート(修正).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803385C5-6103-4908-A1C9-CE2AB90BA5AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CB3FACF-8353-45B7-9984-2CCCF29C80FA}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="70">
   <si>
     <t>タスク/ワークパッケージ</t>
     <phoneticPr fontId="1"/>
@@ -553,6 +553,37 @@
   </si>
   <si>
     <t>金</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>琴、北田</t>
+    <rPh sb="2" eb="4">
+      <t>キタダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>琴</t>
+    <rPh sb="0" eb="1">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>林、北田</t>
+    <rPh sb="2" eb="4">
+      <t>キタダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>徳竹、林、北田、金、琴、鈴木</t>
+    <rPh sb="0" eb="1">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>タケ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1525,40 +1556,49 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1566,13 +1606,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1593,10 +1630,127 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1604,129 +1758,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2322,10 +2353,10 @@
   <dimension ref="A1:T111"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H34" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N30" sqref="N30"/>
+      <selection pane="bottomRight" activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2344,120 +2375,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="81" t="s">
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="F1" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="87" t="s">
+      <c r="G1" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="H1" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="81" t="s">
+      <c r="I1" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="81" t="s">
+      <c r="J1" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="116" t="s">
+      <c r="K1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="106">
+      <c r="L1" s="80">
         <v>43984</v>
       </c>
-      <c r="M1" s="107"/>
-      <c r="N1" s="106">
+      <c r="M1" s="81"/>
+      <c r="N1" s="80">
         <v>43985</v>
       </c>
-      <c r="O1" s="107"/>
-      <c r="P1" s="106">
+      <c r="O1" s="81"/>
+      <c r="P1" s="80">
         <v>43986</v>
       </c>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="106">
+      <c r="Q1" s="81"/>
+      <c r="R1" s="80">
         <v>43987</v>
       </c>
-      <c r="S1" s="107"/>
+      <c r="S1" s="81"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="110" t="s">
+      <c r="A2" s="104"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="109"/>
-      <c r="N2" s="108" t="s">
+      <c r="M2" s="83"/>
+      <c r="N2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="108"/>
-      <c r="P2" s="111" t="s">
+      <c r="O2" s="82"/>
+      <c r="P2" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="108" t="s">
+      <c r="Q2" s="83"/>
+      <c r="R2" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="109"/>
+      <c r="S2" s="83"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="88"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="114" t="s">
+      <c r="A3" s="104"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="113"/>
-      <c r="N3" s="112" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="113"/>
-      <c r="P3" s="112" t="s">
+      <c r="O3" s="87"/>
+      <c r="P3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="115" t="s">
+      <c r="Q3" s="87"/>
+      <c r="R3" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="115"/>
+      <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="90"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="118"/>
+      <c r="A4" s="105"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="92"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2484,15 +2515,15 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="119"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="96"/>
       <c r="H5" s="16" t="s">
         <v>19</v>
       </c>
@@ -2534,13 +2565,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="95"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="120"/>
+      <c r="A6" s="109"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="97"/>
       <c r="H6" s="18" t="s">
         <v>20</v>
       </c>
@@ -2556,7 +2587,7 @@
       </c>
       <c r="M6" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="N6" s="47">
         <f t="shared" si="1"/>
@@ -2584,15 +2615,15 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="103"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="117"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2635,13 +2666,13 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="74"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="104"/>
+      <c r="A8" s="76"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="118"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2685,21 +2716,21 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="56">
+      <c r="A9" s="66">
         <v>1</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="64" t="s">
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="66"/>
+      <c r="G9" s="69"/>
       <c r="H9" s="23" t="str">
         <f>IF(E9="","","予定")</f>
         <v>予定</v>
@@ -2717,13 +2748,13 @@
       <c r="S9" s="31"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="57"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="67"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="70"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
         <v>実績</v>
@@ -2741,21 +2772,21 @@
       <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="56"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="69" t="s">
+      <c r="D11" s="62"/>
+      <c r="E11" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="69" t="s">
+      <c r="F11" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="54"/>
+      <c r="G11" s="56"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2782,13 +2813,13 @@
       <c r="S11" s="31"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="57"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="55"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="57"/>
       <c r="H12" s="52" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -2815,21 +2846,21 @@
       <c r="S12" s="32"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="56"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="69" t="s">
+      <c r="D13" s="62"/>
+      <c r="E13" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="69" t="s">
+      <c r="F13" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="54"/>
+      <c r="G13" s="56"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2855,13 +2886,13 @@
       <c r="S13" s="31"/>
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="57"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="55"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="57"/>
       <c r="H14" s="52" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2888,19 +2919,19 @@
       <c r="S14" s="32"/>
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="56">
+      <c r="A15" s="66">
         <v>2</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="64" t="s">
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="64"/>
-      <c r="G15" s="66"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="69"/>
       <c r="H15" s="23" t="str">
         <f>IF(E15="","","予定")</f>
         <v>予定</v>
@@ -2918,13 +2949,13 @@
       <c r="S15" s="31"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="57"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="67"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="70"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
         <v>実績</v>
@@ -2942,21 +2973,21 @@
       <c r="S16" s="32"/>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="56"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="69" t="s">
+      <c r="D17" s="62"/>
+      <c r="E17" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="69" t="s">
+      <c r="F17" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="54"/>
+      <c r="G17" s="56"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -2982,13 +3013,13 @@
       <c r="S17" s="31"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="57"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="55"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="57"/>
       <c r="H18" s="52" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -3015,21 +3046,21 @@
       <c r="S18" s="32"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="56"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="60"/>
-      <c r="E19" s="69" t="s">
+      <c r="D19" s="62"/>
+      <c r="E19" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="69" t="s">
+      <c r="F19" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="54"/>
+      <c r="G19" s="56"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3055,13 +3086,13 @@
       <c r="S19" s="31"/>
     </row>
     <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="57"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="55"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="57"/>
       <c r="H20" s="52" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -3088,21 +3119,21 @@
       <c r="S20" s="32"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="56"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="69" t="s">
+      <c r="D21" s="62"/>
+      <c r="E21" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="69" t="s">
+      <c r="F21" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="54"/>
+      <c r="G21" s="56"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3128,13 +3159,13 @@
       <c r="S21" s="31"/>
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="57"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="55"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="57"/>
       <c r="H22" s="52" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3161,15 +3192,15 @@
       <c r="S22" s="32"/>
     </row>
     <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="79"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="120"/>
       <c r="H23" s="20" t="s">
         <v>19</v>
       </c>
@@ -3213,13 +3244,13 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="74"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="80"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="121"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
@@ -3227,7 +3258,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="15">
         <f t="shared" ref="K24:S24" si="6">SUMPRODUCT((MOD(ROW(K$25:K$40),2)=0)*K$25:K$40)</f>
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="L24" s="42">
         <f t="shared" si="6"/>
@@ -3239,7 +3270,7 @@
       </c>
       <c r="N24" s="36">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="O24" s="36">
         <f t="shared" si="6"/>
@@ -3263,19 +3294,19 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="56">
+      <c r="A25" s="66">
         <v>1</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="64" t="s">
+      <c r="C25" s="61"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="64"/>
-      <c r="G25" s="66"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="69"/>
       <c r="H25" s="23" t="str">
         <f>IF(E25="","","予定")</f>
         <v>予定</v>
@@ -3293,13 +3324,13 @@
       <c r="S25" s="31"/>
     </row>
     <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="57"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="67"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="70"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
         <v>実績</v>
@@ -3317,21 +3348,21 @@
       <c r="S26" s="32"/>
     </row>
     <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="56"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="69" t="s">
+      <c r="D27" s="62"/>
+      <c r="E27" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="69" t="s">
+      <c r="F27" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="54"/>
+      <c r="G27" s="56"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -3358,13 +3389,13 @@
       <c r="S27" s="31"/>
     </row>
     <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="57"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="55"/>
+      <c r="A28" s="67"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="57"/>
       <c r="H28" s="52" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3391,21 +3422,21 @@
       <c r="S28" s="32"/>
     </row>
     <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="56"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="69" t="s">
+      <c r="D29" s="62"/>
+      <c r="E29" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="69" t="s">
+      <c r="F29" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="54"/>
+      <c r="G29" s="56"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3432,30 +3463,32 @@
       <c r="S29" s="31"/>
     </row>
     <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="57"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="55"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="57"/>
       <c r="H30" s="52" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
       </c>
       <c r="I30" s="52" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="J30" s="52">
         <v>6</v>
       </c>
       <c r="K30" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>SUM(L30:S30)</f>
+        <v>6</v>
       </c>
       <c r="L30" s="48"/>
       <c r="M30" s="49"/>
-      <c r="N30" s="32"/>
+      <c r="N30" s="32">
+        <v>6</v>
+      </c>
       <c r="O30" s="32"/>
       <c r="P30" s="32"/>
       <c r="Q30" s="32"/>
@@ -3463,19 +3496,19 @@
       <c r="S30" s="32"/>
     </row>
     <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="56"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="60"/>
-      <c r="E31" s="69" t="s">
+      <c r="D31" s="62"/>
+      <c r="E31" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="69"/>
-      <c r="G31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="56"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3502,26 +3535,32 @@
       <c r="S31" s="31"/>
     </row>
     <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="57"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="55"/>
+      <c r="A32" s="67"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="57"/>
       <c r="H32" s="52" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
+      <c r="I32" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="J32" s="52">
+        <v>2</v>
+      </c>
       <c r="K32" s="10">
-        <f t="shared" si="7"/>
-        <v>0</v>
+        <f>SUM(L32:S32)</f>
+        <v>2</v>
       </c>
       <c r="L32" s="41"/>
       <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
+      <c r="N32" s="32">
+        <v>2</v>
+      </c>
       <c r="O32" s="32"/>
       <c r="P32" s="32"/>
       <c r="Q32" s="32"/>
@@ -3529,19 +3568,19 @@
       <c r="S32" s="32"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="56">
+      <c r="A33" s="66">
         <v>2</v>
       </c>
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="64" t="s">
+      <c r="C33" s="61"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="64"/>
-      <c r="G33" s="66"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="69"/>
       <c r="H33" s="23" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
@@ -3559,13 +3598,13 @@
       <c r="S33" s="31"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="57"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="67"/>
+      <c r="A34" s="67"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="70"/>
       <c r="H34" s="24" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3583,19 +3622,19 @@
       <c r="S34" s="32"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="56"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="58" t="s">
+      <c r="C35" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="60"/>
-      <c r="E35" s="69" t="s">
+      <c r="D35" s="62"/>
+      <c r="E35" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="69"/>
-      <c r="G35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="56"/>
       <c r="H35" s="8" t="str">
         <f>IF(E35="","","予定")</f>
         <v>予定</v>
@@ -3622,26 +3661,32 @@
       <c r="S35" s="31"/>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="57"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="55"/>
+      <c r="A36" s="67"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="57"/>
       <c r="H36" s="52" t="str">
         <f>IF(E35="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
+      <c r="I36" s="52" t="s">
+        <v>68</v>
+      </c>
+      <c r="J36" s="52">
+        <v>2</v>
+      </c>
       <c r="K36" s="10">
         <f>SUM(L36:S36)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L36" s="41"/>
       <c r="M36" s="51"/>
-      <c r="N36" s="50"/>
+      <c r="N36" s="50">
+        <v>1</v>
+      </c>
       <c r="O36" s="32"/>
       <c r="P36" s="32"/>
       <c r="Q36" s="32"/>
@@ -3649,19 +3694,19 @@
       <c r="S36" s="32"/>
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="56"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="58" t="s">
+      <c r="C37" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="60"/>
-      <c r="E37" s="69" t="s">
+      <c r="D37" s="62"/>
+      <c r="E37" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="69"/>
-      <c r="G37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="56"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3688,26 +3733,31 @@
       <c r="S37" s="31"/>
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="57"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="55"/>
+      <c r="A38" s="67"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="57"/>
       <c r="H38" s="52" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
+      <c r="I38" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J38" s="52">
+        <v>6</v>
+      </c>
       <c r="K38" s="10">
-        <f>SUM(L38:M38)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L38" s="48"/>
       <c r="M38" s="50"/>
-      <c r="N38" s="32"/>
+      <c r="N38" s="32">
+        <v>1.5</v>
+      </c>
       <c r="O38" s="32"/>
       <c r="P38" s="32"/>
       <c r="Q38" s="32"/>
@@ -3715,19 +3765,19 @@
       <c r="S38" s="32"/>
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="56"/>
+      <c r="A39" s="66"/>
       <c r="B39" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="58" t="s">
+      <c r="C39" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="60"/>
-      <c r="E39" s="69" t="s">
+      <c r="D39" s="62"/>
+      <c r="E39" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="69"/>
-      <c r="G39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="56"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3754,26 +3804,32 @@
       <c r="S39" s="31"/>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="57"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="55"/>
+      <c r="A40" s="67"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="57"/>
       <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
-      <c r="K40" s="10">
-        <f>SUM(L40:M40)</f>
-        <v>0</v>
+      <c r="I40" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="J40" s="8">
+        <v>1</v>
+      </c>
+      <c r="K40" s="9">
+        <f>SUM(L40:S40)</f>
+        <v>0.5</v>
       </c>
       <c r="L40" s="48"/>
       <c r="M40" s="50"/>
-      <c r="N40" s="32"/>
+      <c r="N40" s="31">
+        <v>0.5</v>
+      </c>
       <c r="O40" s="32"/>
       <c r="P40" s="32"/>
       <c r="Q40" s="32"/>
@@ -3781,15 +3837,15 @@
       <c r="S40" s="32"/>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="71" t="s">
+      <c r="A41" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="72"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="79"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="120"/>
       <c r="H41" s="20" t="s">
         <v>19</v>
       </c>
@@ -3833,13 +3889,13 @@
       </c>
     </row>
     <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="74"/>
-      <c r="B42" s="75"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="80"/>
+      <c r="A42" s="76"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="121"/>
       <c r="H42" s="7" t="s">
         <v>20</v>
       </c>
@@ -3883,19 +3939,19 @@
       </c>
     </row>
     <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="56">
+      <c r="A43" s="66">
         <v>1</v>
       </c>
-      <c r="B43" s="58" t="s">
+      <c r="B43" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="64" t="s">
+      <c r="C43" s="61"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="64"/>
-      <c r="G43" s="66"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="69"/>
       <c r="H43" s="23" t="str">
         <f>IF(E43="","","予定")</f>
         <v>予定</v>
@@ -3913,13 +3969,13 @@
       <c r="S43" s="31"/>
     </row>
     <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="57"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="67"/>
+      <c r="A44" s="67"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="70"/>
       <c r="H44" s="24" t="str">
         <f>IF(E43="","","実績")</f>
         <v>実績</v>
@@ -3937,19 +3993,19 @@
       <c r="S44" s="32"/>
     </row>
     <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="56"/>
+      <c r="A45" s="66"/>
       <c r="B45" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="58" t="s">
+      <c r="C45" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="60"/>
-      <c r="E45" s="69" t="s">
+      <c r="D45" s="62"/>
+      <c r="E45" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="69"/>
-      <c r="G45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="56"/>
       <c r="H45" s="8" t="str">
         <f>IF(E45="","","予定")</f>
         <v>予定</v>
@@ -3978,13 +4034,13 @@
       <c r="S45" s="31"/>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="57"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="61"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="55"/>
+      <c r="A46" s="67"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="57"/>
       <c r="H46" s="52" t="str">
         <f>IF(E45="","","実績")</f>
         <v>実績</v>
@@ -4005,19 +4061,19 @@
       <c r="S46" s="32"/>
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="56"/>
+      <c r="A47" s="66"/>
       <c r="B47" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="58" t="s">
+      <c r="C47" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="60"/>
-      <c r="E47" s="69" t="s">
+      <c r="D47" s="62"/>
+      <c r="E47" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="69"/>
-      <c r="G47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="56"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4044,13 +4100,13 @@
       <c r="S47" s="31"/>
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="57"/>
-      <c r="B48" s="55"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="55"/>
+      <c r="A48" s="67"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="57"/>
       <c r="H48" s="52" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -4071,19 +4127,19 @@
       <c r="S48" s="32"/>
     </row>
     <row r="49" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="56">
+      <c r="A49" s="66">
         <v>2</v>
       </c>
-      <c r="B49" s="58" t="s">
+      <c r="B49" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="59"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="64" t="s">
+      <c r="C49" s="61"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="64"/>
-      <c r="G49" s="66"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="69"/>
       <c r="H49" s="23" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4101,13 +4157,13 @@
       <c r="S49" s="31"/>
     </row>
     <row r="50" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="57"/>
-      <c r="B50" s="61"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="67"/>
+      <c r="A50" s="67"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="70"/>
       <c r="H50" s="24" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -4125,19 +4181,19 @@
       <c r="S50" s="32"/>
     </row>
     <row r="51" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="56"/>
+      <c r="A51" s="66"/>
       <c r="B51" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="58" t="s">
+      <c r="C51" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="60"/>
-      <c r="E51" s="69" t="s">
+      <c r="D51" s="62"/>
+      <c r="E51" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="69"/>
-      <c r="G51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="56"/>
       <c r="H51" s="8" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -4164,13 +4220,13 @@
       <c r="S51" s="31"/>
     </row>
     <row r="52" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="57"/>
-      <c r="B52" s="55"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="55"/>
+      <c r="A52" s="67"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="57"/>
       <c r="H52" s="52" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -4191,19 +4247,19 @@
       <c r="S52" s="32"/>
     </row>
     <row r="53" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="56"/>
+      <c r="A53" s="66"/>
       <c r="B53" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C53" s="58" t="s">
+      <c r="C53" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="60"/>
-      <c r="E53" s="69" t="s">
+      <c r="D53" s="62"/>
+      <c r="E53" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F53" s="69"/>
-      <c r="G53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="56"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v>予定</v>
@@ -4231,13 +4287,13 @@
       <c r="T53" s="31"/>
     </row>
     <row r="54" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="57"/>
-      <c r="B54" s="55"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="63"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="55"/>
+      <c r="A54" s="67"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="57"/>
       <c r="H54" s="52" t="str">
         <f>IF(E53="","","実績")</f>
         <v>実績</v>
@@ -4258,19 +4314,19 @@
       <c r="S54" s="32"/>
     </row>
     <row r="55" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="56"/>
+      <c r="A55" s="66"/>
       <c r="B55" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="58" t="s">
+      <c r="C55" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="D55" s="60"/>
-      <c r="E55" s="69" t="s">
+      <c r="D55" s="62"/>
+      <c r="E55" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F55" s="69"/>
-      <c r="G55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="56"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4298,13 +4354,13 @@
       <c r="T55" s="31"/>
     </row>
     <row r="56" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="57"/>
-      <c r="B56" s="55"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="55"/>
+      <c r="A56" s="67"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="57"/>
       <c r="H56" s="52" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
@@ -4325,15 +4381,15 @@
       <c r="S56" s="44"/>
     </row>
     <row r="57" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="71" t="s">
+      <c r="A57" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="72"/>
-      <c r="C57" s="72"/>
-      <c r="D57" s="73"/>
-      <c r="E57" s="77"/>
-      <c r="F57" s="77"/>
-      <c r="G57" s="79"/>
+      <c r="B57" s="74"/>
+      <c r="C57" s="74"/>
+      <c r="D57" s="75"/>
+      <c r="E57" s="71"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="120"/>
       <c r="H57" s="20" t="s">
         <v>19</v>
       </c>
@@ -4374,13 +4430,13 @@
       </c>
     </row>
     <row r="58" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="74"/>
-      <c r="B58" s="75"/>
-      <c r="C58" s="75"/>
-      <c r="D58" s="76"/>
-      <c r="E58" s="78"/>
-      <c r="F58" s="78"/>
-      <c r="G58" s="80"/>
+      <c r="A58" s="76"/>
+      <c r="B58" s="77"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="72"/>
+      <c r="F58" s="72"/>
+      <c r="G58" s="121"/>
       <c r="H58" s="7" t="s">
         <v>20</v>
       </c>
@@ -4424,19 +4480,19 @@
       </c>
     </row>
     <row r="59" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="56">
+      <c r="A59" s="66">
         <v>1</v>
       </c>
-      <c r="B59" s="58" t="s">
+      <c r="B59" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="59"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="64" t="s">
+      <c r="C59" s="61"/>
+      <c r="D59" s="62"/>
+      <c r="E59" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F59" s="64"/>
-      <c r="G59" s="66"/>
+      <c r="F59" s="58"/>
+      <c r="G59" s="69"/>
       <c r="H59" s="23" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
@@ -4454,13 +4510,13 @@
       <c r="S59" s="31"/>
     </row>
     <row r="60" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="57"/>
-      <c r="B60" s="61"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="63"/>
-      <c r="E60" s="65"/>
-      <c r="F60" s="65"/>
-      <c r="G60" s="67"/>
+      <c r="A60" s="67"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="70"/>
       <c r="H60" s="24" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
@@ -4478,19 +4534,19 @@
       <c r="S60" s="32"/>
     </row>
     <row r="61" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="56"/>
+      <c r="A61" s="66"/>
       <c r="B61" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C61" s="58" t="s">
+      <c r="C61" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="D61" s="60"/>
-      <c r="E61" s="69" t="s">
+      <c r="D61" s="62"/>
+      <c r="E61" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F61" s="69"/>
-      <c r="G61" s="54"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="56"/>
       <c r="H61" s="8" t="str">
         <f>IF(E61="","","予定")</f>
         <v>予定</v>
@@ -4518,13 +4574,13 @@
       <c r="S61" s="31"/>
     </row>
     <row r="62" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="57"/>
-      <c r="B62" s="55"/>
-      <c r="C62" s="61"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="70"/>
-      <c r="F62" s="70"/>
-      <c r="G62" s="55"/>
+      <c r="A62" s="67"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="65"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="57"/>
       <c r="H62" s="52" t="str">
         <f>IF(E61="","","実績")</f>
         <v>実績</v>
@@ -4545,19 +4601,19 @@
       <c r="S62" s="32"/>
     </row>
     <row r="63" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="56"/>
+      <c r="A63" s="66"/>
       <c r="B63" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="58" t="s">
+      <c r="C63" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="D63" s="60"/>
-      <c r="E63" s="69" t="s">
+      <c r="D63" s="62"/>
+      <c r="E63" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F63" s="69"/>
-      <c r="G63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="56"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v>予定</v>
@@ -4584,13 +4640,13 @@
       <c r="S63" s="31"/>
     </row>
     <row r="64" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="57"/>
-      <c r="B64" s="55"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="55"/>
+      <c r="A64" s="67"/>
+      <c r="B64" s="57"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="55"/>
+      <c r="F64" s="55"/>
+      <c r="G64" s="57"/>
       <c r="H64" s="52" t="str">
         <f>IF(E63="","","実績")</f>
         <v>実績</v>
@@ -4611,19 +4667,19 @@
       <c r="S64" s="32"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="56"/>
+      <c r="A65" s="66"/>
       <c r="B65" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C65" s="58" t="s">
+      <c r="C65" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="D65" s="60"/>
-      <c r="E65" s="69" t="s">
+      <c r="D65" s="62"/>
+      <c r="E65" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F65" s="69"/>
-      <c r="G65" s="54"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="56"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4650,13 +4706,13 @@
       <c r="S65" s="31"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="57"/>
-      <c r="B66" s="55"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="63"/>
-      <c r="E66" s="70"/>
-      <c r="F66" s="70"/>
-      <c r="G66" s="55"/>
+      <c r="A66" s="67"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="55"/>
+      <c r="G66" s="57"/>
       <c r="H66" s="52" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -4677,19 +4733,19 @@
       <c r="S66" s="32"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="56">
+      <c r="A67" s="66">
         <v>2</v>
       </c>
-      <c r="B67" s="58" t="s">
+      <c r="B67" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C67" s="59"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="64" t="s">
+      <c r="C67" s="61"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="F67" s="64"/>
-      <c r="G67" s="66"/>
+      <c r="F67" s="58"/>
+      <c r="G67" s="69"/>
       <c r="H67" s="23" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4707,13 +4763,13 @@
       <c r="S67" s="31"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="57"/>
-      <c r="B68" s="61"/>
-      <c r="C68" s="62"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="67"/>
+      <c r="A68" s="67"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="59"/>
+      <c r="G68" s="70"/>
       <c r="H68" s="24" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -4731,19 +4787,19 @@
       <c r="S68" s="32"/>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="56"/>
+      <c r="A69" s="66"/>
       <c r="B69" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C69" s="58" t="s">
+      <c r="C69" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="60"/>
-      <c r="E69" s="69" t="s">
+      <c r="D69" s="62"/>
+      <c r="E69" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="F69" s="69"/>
-      <c r="G69" s="54"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="56"/>
       <c r="H69" s="8" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
@@ -4770,13 +4826,13 @@
       <c r="S69" s="31"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="57"/>
-      <c r="B70" s="55"/>
-      <c r="C70" s="61"/>
-      <c r="D70" s="63"/>
-      <c r="E70" s="70"/>
-      <c r="F70" s="70"/>
-      <c r="G70" s="55"/>
+      <c r="A70" s="67"/>
+      <c r="B70" s="57"/>
+      <c r="C70" s="63"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="55"/>
+      <c r="F70" s="55"/>
+      <c r="G70" s="57"/>
       <c r="H70" s="52" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
@@ -4797,19 +4853,19 @@
       <c r="S70" s="32"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="56"/>
+      <c r="A71" s="66"/>
       <c r="B71" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="58" t="s">
+      <c r="C71" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="D71" s="60"/>
-      <c r="E71" s="69" t="s">
+      <c r="D71" s="62"/>
+      <c r="E71" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="F71" s="69"/>
-      <c r="G71" s="54"/>
+      <c r="F71" s="54"/>
+      <c r="G71" s="56"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v>予定</v>
@@ -4836,13 +4892,13 @@
       <c r="S71" s="31"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="57"/>
-      <c r="B72" s="55"/>
-      <c r="C72" s="61"/>
-      <c r="D72" s="63"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="55"/>
+      <c r="A72" s="67"/>
+      <c r="B72" s="57"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="55"/>
+      <c r="F72" s="55"/>
+      <c r="G72" s="57"/>
       <c r="H72" s="52" t="str">
         <f>IF(E71="","","実績")</f>
         <v>実績</v>
@@ -4863,19 +4919,19 @@
       <c r="S72" s="32"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="56"/>
+      <c r="A73" s="66"/>
       <c r="B73" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C73" s="58" t="s">
+      <c r="C73" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="D73" s="60"/>
-      <c r="E73" s="69" t="s">
+      <c r="D73" s="62"/>
+      <c r="E73" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="F73" s="69"/>
-      <c r="G73" s="54"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="56"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -4902,13 +4958,13 @@
       <c r="S73" s="31"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="57"/>
-      <c r="B74" s="55"/>
-      <c r="C74" s="61"/>
-      <c r="D74" s="63"/>
-      <c r="E74" s="70"/>
-      <c r="F74" s="70"/>
-      <c r="G74" s="55"/>
+      <c r="A74" s="67"/>
+      <c r="B74" s="57"/>
+      <c r="C74" s="63"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="55"/>
+      <c r="F74" s="55"/>
+      <c r="G74" s="57"/>
       <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -4929,15 +4985,15 @@
       <c r="S74" s="44"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="71" t="s">
+      <c r="A75" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="B75" s="72"/>
-      <c r="C75" s="72"/>
-      <c r="D75" s="73"/>
-      <c r="E75" s="77"/>
-      <c r="F75" s="77"/>
-      <c r="G75" s="79"/>
+      <c r="B75" s="74"/>
+      <c r="C75" s="74"/>
+      <c r="D75" s="75"/>
+      <c r="E75" s="71"/>
+      <c r="F75" s="71"/>
+      <c r="G75" s="120"/>
       <c r="H75" s="20" t="s">
         <v>19</v>
       </c>
@@ -4974,13 +5030,13 @@
       </c>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="74"/>
-      <c r="B76" s="75"/>
-      <c r="C76" s="75"/>
-      <c r="D76" s="76"/>
-      <c r="E76" s="78"/>
-      <c r="F76" s="78"/>
-      <c r="G76" s="80"/>
+      <c r="A76" s="76"/>
+      <c r="B76" s="77"/>
+      <c r="C76" s="77"/>
+      <c r="D76" s="78"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72"/>
+      <c r="G76" s="121"/>
       <c r="H76" s="7" t="s">
         <v>20</v>
       </c>
@@ -5024,17 +5080,17 @@
       </c>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="56">
+      <c r="A77" s="66">
         <v>1</v>
       </c>
-      <c r="B77" s="58" t="s">
+      <c r="B77" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C77" s="59"/>
-      <c r="D77" s="60"/>
-      <c r="E77" s="64"/>
-      <c r="F77" s="64"/>
-      <c r="G77" s="66"/>
+      <c r="C77" s="61"/>
+      <c r="D77" s="62"/>
+      <c r="E77" s="58"/>
+      <c r="F77" s="58"/>
+      <c r="G77" s="69"/>
       <c r="H77" s="23" t="str">
         <f>IF(E77="","","予定")</f>
         <v/>
@@ -5052,13 +5108,13 @@
       <c r="S77" s="31"/>
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="57"/>
-      <c r="B78" s="61"/>
-      <c r="C78" s="62"/>
-      <c r="D78" s="63"/>
-      <c r="E78" s="65"/>
-      <c r="F78" s="65"/>
-      <c r="G78" s="67"/>
+      <c r="A78" s="67"/>
+      <c r="B78" s="63"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="65"/>
+      <c r="E78" s="59"/>
+      <c r="F78" s="59"/>
+      <c r="G78" s="70"/>
       <c r="H78" s="24" t="str">
         <f>IF(E77="","","実績")</f>
         <v/>
@@ -5076,19 +5132,19 @@
       <c r="S78" s="32"/>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="56"/>
+      <c r="A79" s="66"/>
       <c r="B79" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C79" s="58" t="s">
+      <c r="C79" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="D79" s="60"/>
-      <c r="E79" s="69" t="s">
+      <c r="D79" s="62"/>
+      <c r="E79" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F79" s="69"/>
-      <c r="G79" s="54"/>
+      <c r="F79" s="54"/>
+      <c r="G79" s="56"/>
       <c r="H79" s="8" t="str">
         <f>IF(E79="","","予定")</f>
         <v>予定</v>
@@ -5115,13 +5171,13 @@
       <c r="S79" s="31"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="57"/>
-      <c r="B80" s="55"/>
-      <c r="C80" s="61"/>
-      <c r="D80" s="63"/>
-      <c r="E80" s="70"/>
-      <c r="F80" s="70"/>
-      <c r="G80" s="55"/>
+      <c r="A80" s="67"/>
+      <c r="B80" s="57"/>
+      <c r="C80" s="63"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="55"/>
+      <c r="F80" s="55"/>
+      <c r="G80" s="57"/>
       <c r="H80" s="52" t="str">
         <f>IF(E79="","","実績")</f>
         <v>実績</v>
@@ -5142,19 +5198,19 @@
       <c r="S80" s="32"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="56"/>
+      <c r="A81" s="66"/>
       <c r="B81" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="58" t="s">
+      <c r="C81" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D81" s="60"/>
-      <c r="E81" s="69" t="s">
+      <c r="D81" s="62"/>
+      <c r="E81" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F81" s="69"/>
-      <c r="G81" s="54"/>
+      <c r="F81" s="54"/>
+      <c r="G81" s="56"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5181,13 +5237,13 @@
       <c r="S81" s="31"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="57"/>
-      <c r="B82" s="55"/>
-      <c r="C82" s="61"/>
-      <c r="D82" s="63"/>
-      <c r="E82" s="70"/>
-      <c r="F82" s="70"/>
-      <c r="G82" s="55"/>
+      <c r="A82" s="67"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="63"/>
+      <c r="D82" s="65"/>
+      <c r="E82" s="55"/>
+      <c r="F82" s="55"/>
+      <c r="G82" s="57"/>
       <c r="H82" s="52" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
@@ -5208,15 +5264,15 @@
       <c r="S82" s="32"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="71" t="s">
+      <c r="A83" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="B83" s="72"/>
-      <c r="C83" s="72"/>
-      <c r="D83" s="73"/>
-      <c r="E83" s="77"/>
-      <c r="F83" s="77"/>
-      <c r="G83" s="79"/>
+      <c r="B83" s="74"/>
+      <c r="C83" s="74"/>
+      <c r="D83" s="75"/>
+      <c r="E83" s="71"/>
+      <c r="F83" s="71"/>
+      <c r="G83" s="120"/>
       <c r="H83" s="20" t="s">
         <v>19</v>
       </c>
@@ -5258,13 +5314,13 @@
       </c>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="74"/>
-      <c r="B84" s="75"/>
-      <c r="C84" s="75"/>
-      <c r="D84" s="76"/>
-      <c r="E84" s="78"/>
-      <c r="F84" s="78"/>
-      <c r="G84" s="80"/>
+      <c r="A84" s="76"/>
+      <c r="B84" s="77"/>
+      <c r="C84" s="77"/>
+      <c r="D84" s="78"/>
+      <c r="E84" s="72"/>
+      <c r="F84" s="72"/>
+      <c r="G84" s="121"/>
       <c r="H84" s="7" t="s">
         <v>20</v>
       </c>
@@ -5308,17 +5364,17 @@
       </c>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="56">
+      <c r="A85" s="66">
         <v>1</v>
       </c>
-      <c r="B85" s="58" t="s">
+      <c r="B85" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C85" s="59"/>
-      <c r="D85" s="60"/>
-      <c r="E85" s="64"/>
-      <c r="F85" s="64"/>
-      <c r="G85" s="66"/>
+      <c r="C85" s="61"/>
+      <c r="D85" s="62"/>
+      <c r="E85" s="58"/>
+      <c r="F85" s="58"/>
+      <c r="G85" s="69"/>
       <c r="H85" s="23" t="str">
         <f>IF(E85="","","予定")</f>
         <v/>
@@ -5336,13 +5392,13 @@
       <c r="S85" s="31"/>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="57"/>
-      <c r="B86" s="61"/>
-      <c r="C86" s="62"/>
-      <c r="D86" s="63"/>
-      <c r="E86" s="65"/>
-      <c r="F86" s="65"/>
-      <c r="G86" s="67"/>
+      <c r="A86" s="67"/>
+      <c r="B86" s="63"/>
+      <c r="C86" s="64"/>
+      <c r="D86" s="65"/>
+      <c r="E86" s="59"/>
+      <c r="F86" s="59"/>
+      <c r="G86" s="70"/>
       <c r="H86" s="24" t="str">
         <f>IF(E85="","","実績")</f>
         <v/>
@@ -5360,19 +5416,19 @@
       <c r="S86" s="32"/>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="56"/>
+      <c r="A87" s="66"/>
       <c r="B87" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C87" s="58" t="s">
+      <c r="C87" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="D87" s="60"/>
-      <c r="E87" s="69" t="s">
+      <c r="D87" s="62"/>
+      <c r="E87" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F87" s="69"/>
-      <c r="G87" s="54"/>
+      <c r="F87" s="54"/>
+      <c r="G87" s="56"/>
       <c r="H87" s="8" t="str">
         <f>IF(E87="","","予定")</f>
         <v>予定</v>
@@ -5399,13 +5455,13 @@
       <c r="S87" s="31"/>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="57"/>
-      <c r="B88" s="55"/>
-      <c r="C88" s="61"/>
-      <c r="D88" s="63"/>
-      <c r="E88" s="70"/>
-      <c r="F88" s="70"/>
-      <c r="G88" s="55"/>
+      <c r="A88" s="67"/>
+      <c r="B88" s="57"/>
+      <c r="C88" s="63"/>
+      <c r="D88" s="65"/>
+      <c r="E88" s="55"/>
+      <c r="F88" s="55"/>
+      <c r="G88" s="57"/>
       <c r="H88" s="52" t="str">
         <f>IF(E87="","","実績")</f>
         <v>実績</v>
@@ -5426,19 +5482,19 @@
       <c r="S88" s="32"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="56"/>
+      <c r="A89" s="66"/>
       <c r="B89" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C89" s="121" t="s">
+      <c r="C89" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="D89" s="60"/>
-      <c r="E89" s="69" t="s">
+      <c r="D89" s="62"/>
+      <c r="E89" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F89" s="69"/>
-      <c r="G89" s="54"/>
+      <c r="F89" s="54"/>
+      <c r="G89" s="56"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -5465,13 +5521,13 @@
       <c r="S89" s="31"/>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="57"/>
-      <c r="B90" s="55"/>
-      <c r="C90" s="61"/>
-      <c r="D90" s="63"/>
-      <c r="E90" s="70"/>
-      <c r="F90" s="70"/>
-      <c r="G90" s="55"/>
+      <c r="A90" s="67"/>
+      <c r="B90" s="57"/>
+      <c r="C90" s="63"/>
+      <c r="D90" s="65"/>
+      <c r="E90" s="55"/>
+      <c r="F90" s="55"/>
+      <c r="G90" s="57"/>
       <c r="H90" s="52" t="str">
         <f>IF(E89="","","実績")</f>
         <v>実績</v>
@@ -5492,17 +5548,17 @@
       <c r="S90" s="32"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="56">
+      <c r="A91" s="66">
         <v>2</v>
       </c>
-      <c r="B91" s="58" t="s">
+      <c r="B91" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C91" s="59"/>
-      <c r="D91" s="60"/>
-      <c r="E91" s="64"/>
-      <c r="F91" s="64"/>
-      <c r="G91" s="66"/>
+      <c r="C91" s="61"/>
+      <c r="D91" s="62"/>
+      <c r="E91" s="58"/>
+      <c r="F91" s="58"/>
+      <c r="G91" s="69"/>
       <c r="H91" s="23" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -5522,13 +5578,13 @@
       <c r="S91" s="31"/>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="57"/>
-      <c r="B92" s="61"/>
-      <c r="C92" s="62"/>
-      <c r="D92" s="63"/>
-      <c r="E92" s="65"/>
-      <c r="F92" s="65"/>
-      <c r="G92" s="67"/>
+      <c r="A92" s="67"/>
+      <c r="B92" s="63"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="65"/>
+      <c r="E92" s="59"/>
+      <c r="F92" s="59"/>
+      <c r="G92" s="70"/>
       <c r="H92" s="24" t="str">
         <f>IF(E91="","","実績")</f>
         <v/>
@@ -5546,19 +5602,19 @@
       <c r="S92" s="32"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="56"/>
+      <c r="A93" s="66"/>
       <c r="B93" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C93" s="58" t="s">
+      <c r="C93" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="D93" s="60"/>
-      <c r="E93" s="69" t="s">
+      <c r="D93" s="62"/>
+      <c r="E93" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="F93" s="69"/>
-      <c r="G93" s="54"/>
+      <c r="F93" s="54"/>
+      <c r="G93" s="56"/>
       <c r="H93" s="8" t="str">
         <f>IF(E93="","","予定")</f>
         <v>予定</v>
@@ -5585,13 +5641,13 @@
       <c r="S93" s="31"/>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="57"/>
-      <c r="B94" s="55"/>
-      <c r="C94" s="61"/>
-      <c r="D94" s="63"/>
-      <c r="E94" s="70"/>
-      <c r="F94" s="70"/>
-      <c r="G94" s="55"/>
+      <c r="A94" s="67"/>
+      <c r="B94" s="57"/>
+      <c r="C94" s="63"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="55"/>
+      <c r="F94" s="55"/>
+      <c r="G94" s="57"/>
       <c r="H94" s="52" t="str">
         <f>IF(E93="","","実績")</f>
         <v>実績</v>
@@ -5612,19 +5668,19 @@
       <c r="S94" s="32"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="56"/>
+      <c r="A95" s="66"/>
       <c r="B95" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C95" s="58" t="s">
+      <c r="C95" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="D95" s="60"/>
-      <c r="E95" s="69" t="s">
+      <c r="D95" s="62"/>
+      <c r="E95" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="F95" s="69"/>
-      <c r="G95" s="54"/>
+      <c r="F95" s="54"/>
+      <c r="G95" s="56"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v>予定</v>
@@ -5651,13 +5707,13 @@
       <c r="S95" s="31"/>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="57"/>
-      <c r="B96" s="55"/>
-      <c r="C96" s="61"/>
-      <c r="D96" s="63"/>
-      <c r="E96" s="70"/>
-      <c r="F96" s="70"/>
-      <c r="G96" s="55"/>
+      <c r="A96" s="67"/>
+      <c r="B96" s="57"/>
+      <c r="C96" s="63"/>
+      <c r="D96" s="65"/>
+      <c r="E96" s="55"/>
+      <c r="F96" s="55"/>
+      <c r="G96" s="57"/>
       <c r="H96" s="52" t="str">
         <f>IF(E95="","","実績")</f>
         <v>実績</v>
@@ -5678,15 +5734,15 @@
       <c r="S96" s="44"/>
     </row>
     <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="71" t="s">
+      <c r="A97" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="B97" s="72"/>
-      <c r="C97" s="72"/>
-      <c r="D97" s="73"/>
-      <c r="E97" s="77"/>
-      <c r="F97" s="77"/>
-      <c r="G97" s="79"/>
+      <c r="B97" s="74"/>
+      <c r="C97" s="74"/>
+      <c r="D97" s="75"/>
+      <c r="E97" s="71"/>
+      <c r="F97" s="71"/>
+      <c r="G97" s="120"/>
       <c r="H97" s="20" t="s">
         <v>19</v>
       </c>
@@ -5729,13 +5785,13 @@
       </c>
     </row>
     <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="74"/>
-      <c r="B98" s="75"/>
-      <c r="C98" s="75"/>
-      <c r="D98" s="76"/>
-      <c r="E98" s="78"/>
-      <c r="F98" s="78"/>
-      <c r="G98" s="80"/>
+      <c r="A98" s="76"/>
+      <c r="B98" s="77"/>
+      <c r="C98" s="77"/>
+      <c r="D98" s="78"/>
+      <c r="E98" s="72"/>
+      <c r="F98" s="72"/>
+      <c r="G98" s="121"/>
       <c r="H98" s="7" t="s">
         <v>20</v>
       </c>
@@ -5779,19 +5835,19 @@
       </c>
     </row>
     <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="56">
+      <c r="A99" s="66">
         <v>1</v>
       </c>
-      <c r="B99" s="58" t="s">
+      <c r="B99" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C99" s="59"/>
-      <c r="D99" s="60"/>
-      <c r="E99" s="64" t="s">
+      <c r="C99" s="61"/>
+      <c r="D99" s="62"/>
+      <c r="E99" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F99" s="64"/>
-      <c r="G99" s="66"/>
+      <c r="F99" s="58"/>
+      <c r="G99" s="69"/>
       <c r="H99" s="23" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
@@ -5809,13 +5865,13 @@
       <c r="S99" s="31"/>
     </row>
     <row r="100" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="57"/>
-      <c r="B100" s="61"/>
-      <c r="C100" s="62"/>
-      <c r="D100" s="63"/>
-      <c r="E100" s="65"/>
-      <c r="F100" s="65"/>
-      <c r="G100" s="67"/>
+      <c r="A100" s="67"/>
+      <c r="B100" s="63"/>
+      <c r="C100" s="64"/>
+      <c r="D100" s="65"/>
+      <c r="E100" s="59"/>
+      <c r="F100" s="59"/>
+      <c r="G100" s="70"/>
       <c r="H100" s="24" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
@@ -5833,19 +5889,19 @@
       <c r="S100" s="32"/>
     </row>
     <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="56"/>
+      <c r="A101" s="66"/>
       <c r="B101" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C101" s="58" t="s">
+      <c r="C101" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="D101" s="60"/>
-      <c r="E101" s="69" t="s">
+      <c r="D101" s="62"/>
+      <c r="E101" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F101" s="69"/>
-      <c r="G101" s="54"/>
+      <c r="F101" s="54"/>
+      <c r="G101" s="56"/>
       <c r="H101" s="8" t="str">
         <f>IF(E101="","","予定")</f>
         <v>予定</v>
@@ -5871,13 +5927,13 @@
       <c r="S101" s="31"/>
     </row>
     <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="57"/>
-      <c r="B102" s="55"/>
-      <c r="C102" s="61"/>
-      <c r="D102" s="63"/>
-      <c r="E102" s="70"/>
-      <c r="F102" s="70"/>
-      <c r="G102" s="55"/>
+      <c r="A102" s="67"/>
+      <c r="B102" s="57"/>
+      <c r="C102" s="63"/>
+      <c r="D102" s="65"/>
+      <c r="E102" s="55"/>
+      <c r="F102" s="55"/>
+      <c r="G102" s="57"/>
       <c r="H102" s="52" t="str">
         <f>IF(E101="","","実績")</f>
         <v>実績</v>
@@ -5898,19 +5954,19 @@
       <c r="S102" s="32"/>
     </row>
     <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="56"/>
+      <c r="A103" s="66"/>
       <c r="B103" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C103" s="58" t="s">
+      <c r="C103" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="D103" s="60"/>
-      <c r="E103" s="69" t="s">
+      <c r="D103" s="62"/>
+      <c r="E103" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F103" s="69"/>
-      <c r="G103" s="54"/>
+      <c r="F103" s="54"/>
+      <c r="G103" s="56"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -5936,13 +5992,13 @@
       <c r="S103" s="31"/>
     </row>
     <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="57"/>
-      <c r="B104" s="55"/>
-      <c r="C104" s="61"/>
-      <c r="D104" s="63"/>
-      <c r="E104" s="70"/>
-      <c r="F104" s="70"/>
-      <c r="G104" s="55"/>
+      <c r="A104" s="67"/>
+      <c r="B104" s="57"/>
+      <c r="C104" s="63"/>
+      <c r="D104" s="65"/>
+      <c r="E104" s="55"/>
+      <c r="F104" s="55"/>
+      <c r="G104" s="57"/>
       <c r="H104" s="52" t="str">
         <f>IF(E103="","","実績")</f>
         <v>実績</v>
@@ -5963,19 +6019,19 @@
       <c r="S104" s="32"/>
     </row>
     <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="56">
+      <c r="A105" s="66">
         <v>2</v>
       </c>
-      <c r="B105" s="58" t="s">
+      <c r="B105" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C105" s="59"/>
-      <c r="D105" s="60"/>
-      <c r="E105" s="64" t="s">
+      <c r="C105" s="61"/>
+      <c r="D105" s="62"/>
+      <c r="E105" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="F105" s="64"/>
-      <c r="G105" s="66"/>
+      <c r="F105" s="58"/>
+      <c r="G105" s="69"/>
       <c r="H105" s="23" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -5993,13 +6049,13 @@
       <c r="S105" s="31"/>
     </row>
     <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="57"/>
-      <c r="B106" s="61"/>
-      <c r="C106" s="62"/>
-      <c r="D106" s="63"/>
-      <c r="E106" s="65"/>
-      <c r="F106" s="65"/>
-      <c r="G106" s="67"/>
+      <c r="A106" s="67"/>
+      <c r="B106" s="63"/>
+      <c r="C106" s="64"/>
+      <c r="D106" s="65"/>
+      <c r="E106" s="59"/>
+      <c r="F106" s="59"/>
+      <c r="G106" s="70"/>
       <c r="H106" s="24" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
@@ -6017,19 +6073,19 @@
       <c r="S106" s="32"/>
     </row>
     <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="56"/>
+      <c r="A107" s="66"/>
       <c r="B107" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C107" s="58" t="s">
+      <c r="C107" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="D107" s="60"/>
-      <c r="E107" s="69" t="s">
+      <c r="D107" s="62"/>
+      <c r="E107" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F107" s="69"/>
-      <c r="G107" s="54"/>
+      <c r="F107" s="54"/>
+      <c r="G107" s="56"/>
       <c r="H107" s="8" t="str">
         <f>IF(E107="","","予定")</f>
         <v>予定</v>
@@ -6055,13 +6111,13 @@
       <c r="S107" s="31"/>
     </row>
     <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="57"/>
-      <c r="B108" s="55"/>
-      <c r="C108" s="61"/>
-      <c r="D108" s="63"/>
-      <c r="E108" s="70"/>
-      <c r="F108" s="70"/>
-      <c r="G108" s="55"/>
+      <c r="A108" s="67"/>
+      <c r="B108" s="57"/>
+      <c r="C108" s="63"/>
+      <c r="D108" s="65"/>
+      <c r="E108" s="55"/>
+      <c r="F108" s="55"/>
+      <c r="G108" s="57"/>
       <c r="H108" s="52" t="str">
         <f>IF(E107="","","実績")</f>
         <v>実績</v>
@@ -6082,19 +6138,19 @@
       <c r="S108" s="32"/>
     </row>
     <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="56"/>
+      <c r="A109" s="66"/>
       <c r="B109" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C109" s="58" t="s">
+      <c r="C109" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="D109" s="60"/>
-      <c r="E109" s="69" t="s">
+      <c r="D109" s="62"/>
+      <c r="E109" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F109" s="69"/>
-      <c r="G109" s="54"/>
+      <c r="F109" s="54"/>
+      <c r="G109" s="56"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v>予定</v>
@@ -6120,13 +6176,13 @@
       <c r="S109" s="31"/>
     </row>
     <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="57"/>
-      <c r="B110" s="55"/>
-      <c r="C110" s="61"/>
-      <c r="D110" s="63"/>
-      <c r="E110" s="70"/>
-      <c r="F110" s="70"/>
-      <c r="G110" s="55"/>
+      <c r="A110" s="67"/>
+      <c r="B110" s="57"/>
+      <c r="C110" s="63"/>
+      <c r="D110" s="65"/>
+      <c r="E110" s="55"/>
+      <c r="F110" s="55"/>
+      <c r="G110" s="57"/>
       <c r="H110" s="52" t="str">
         <f>IF(E109="","","実績")</f>
         <v>実績</v>
@@ -6162,16 +6218,281 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="309">
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="B105:D106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:D68"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="B49:D50"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B33:D34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="B43:D44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:D100"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:D80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="C39:D40"/>
     <mergeCell ref="E39:E40"/>
@@ -6196,281 +6517,16 @@
     <mergeCell ref="B101:B102"/>
     <mergeCell ref="C101:D102"/>
     <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:D100"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:D80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="B49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B33:D34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B43:D44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:D68"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="B105:D106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="E109:E110"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L85:S96 L99:S110 L25:S34 L43:S52 L54:S54 L56:S56 L9:S12 M13:S13 L14:S18 L53:T53 L55:T55">
@@ -6560,12 +6616,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6749,6 +6799,12 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -6759,15 +6815,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89F0FFFF-D441-4664-93A0-244B234195EC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6785,6 +6832,15 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
   <ds:schemaRefs>

--- a/13_WBSガントチャート(修正).xlsx
+++ b/13_WBSガントチャート(修正).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{803385C5-6103-4908-A1C9-CE2AB90BA5AE}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC0F3B8-95D0-41A3-88E8-FBE75E2BAF5D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="66">
   <si>
     <t>タスク/ワークパッケージ</t>
     <phoneticPr fontId="1"/>
@@ -1525,40 +1525,49 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1566,13 +1575,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1593,10 +1599,127 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1604,129 +1727,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2322,10 +2322,10 @@
   <dimension ref="A1:T111"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H38" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="N30" sqref="N30"/>
+      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2344,120 +2344,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="81" t="s">
+      <c r="A1" s="103" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="93"/>
+      <c r="C1" s="93"/>
+      <c r="D1" s="93"/>
+      <c r="E1" s="98" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="81" t="s">
+      <c r="F1" s="98" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="87" t="s">
+      <c r="G1" s="93" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="81" t="s">
+      <c r="H1" s="98" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="81" t="s">
+      <c r="I1" s="98" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="81" t="s">
+      <c r="J1" s="98" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="116" t="s">
+      <c r="K1" s="90" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="106">
+      <c r="L1" s="80">
         <v>43984</v>
       </c>
-      <c r="M1" s="107"/>
-      <c r="N1" s="106">
+      <c r="M1" s="81"/>
+      <c r="N1" s="80">
         <v>43985</v>
       </c>
-      <c r="O1" s="107"/>
-      <c r="P1" s="106">
+      <c r="O1" s="81"/>
+      <c r="P1" s="80">
         <v>43986</v>
       </c>
-      <c r="Q1" s="107"/>
-      <c r="R1" s="106">
+      <c r="Q1" s="81"/>
+      <c r="R1" s="80">
         <v>43987</v>
       </c>
-      <c r="S1" s="107"/>
+      <c r="S1" s="81"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="88"/>
-      <c r="B2" s="89"/>
-      <c r="C2" s="89"/>
-      <c r="D2" s="89"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="82"/>
-      <c r="G2" s="89"/>
-      <c r="H2" s="84"/>
-      <c r="I2" s="82"/>
-      <c r="J2" s="82"/>
-      <c r="K2" s="117"/>
-      <c r="L2" s="110" t="s">
+      <c r="A2" s="104"/>
+      <c r="B2" s="94"/>
+      <c r="C2" s="94"/>
+      <c r="D2" s="94"/>
+      <c r="E2" s="99"/>
+      <c r="F2" s="99"/>
+      <c r="G2" s="94"/>
+      <c r="H2" s="101"/>
+      <c r="I2" s="99"/>
+      <c r="J2" s="99"/>
+      <c r="K2" s="91"/>
+      <c r="L2" s="84" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="109"/>
-      <c r="N2" s="108" t="s">
+      <c r="M2" s="83"/>
+      <c r="N2" s="82" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="108"/>
-      <c r="P2" s="111" t="s">
+      <c r="O2" s="82"/>
+      <c r="P2" s="85" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="108" t="s">
+      <c r="Q2" s="83"/>
+      <c r="R2" s="82" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="109"/>
+      <c r="S2" s="83"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="88"/>
-      <c r="B3" s="89"/>
-      <c r="C3" s="89"/>
-      <c r="D3" s="89"/>
-      <c r="E3" s="82"/>
-      <c r="F3" s="82"/>
-      <c r="G3" s="89"/>
-      <c r="H3" s="84"/>
-      <c r="I3" s="82"/>
-      <c r="J3" s="82"/>
-      <c r="K3" s="117"/>
-      <c r="L3" s="114" t="s">
+      <c r="A3" s="104"/>
+      <c r="B3" s="94"/>
+      <c r="C3" s="94"/>
+      <c r="D3" s="94"/>
+      <c r="E3" s="99"/>
+      <c r="F3" s="99"/>
+      <c r="G3" s="94"/>
+      <c r="H3" s="101"/>
+      <c r="I3" s="99"/>
+      <c r="J3" s="99"/>
+      <c r="K3" s="91"/>
+      <c r="L3" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="113"/>
-      <c r="N3" s="112" t="s">
+      <c r="M3" s="87"/>
+      <c r="N3" s="86" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="113"/>
-      <c r="P3" s="112" t="s">
+      <c r="O3" s="87"/>
+      <c r="P3" s="86" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="113"/>
-      <c r="R3" s="115" t="s">
+      <c r="Q3" s="87"/>
+      <c r="R3" s="89" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="115"/>
+      <c r="S3" s="89"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="90"/>
-      <c r="B4" s="91"/>
-      <c r="C4" s="91"/>
-      <c r="D4" s="91"/>
-      <c r="E4" s="83"/>
-      <c r="F4" s="83"/>
-      <c r="G4" s="91"/>
-      <c r="H4" s="85"/>
-      <c r="I4" s="83"/>
-      <c r="J4" s="83"/>
-      <c r="K4" s="118"/>
+      <c r="A4" s="105"/>
+      <c r="B4" s="95"/>
+      <c r="C4" s="95"/>
+      <c r="D4" s="95"/>
+      <c r="E4" s="100"/>
+      <c r="F4" s="100"/>
+      <c r="G4" s="95"/>
+      <c r="H4" s="102"/>
+      <c r="I4" s="100"/>
+      <c r="J4" s="100"/>
+      <c r="K4" s="92"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2484,15 +2484,15 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="92" t="s">
+      <c r="A5" s="106" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="93"/>
-      <c r="C5" s="93"/>
-      <c r="D5" s="94"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="119"/>
+      <c r="B5" s="107"/>
+      <c r="C5" s="107"/>
+      <c r="D5" s="108"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="112"/>
+      <c r="G5" s="96"/>
       <c r="H5" s="16" t="s">
         <v>19</v>
       </c>
@@ -2534,13 +2534,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="95"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="97"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="120"/>
+      <c r="A6" s="109"/>
+      <c r="B6" s="110"/>
+      <c r="C6" s="110"/>
+      <c r="D6" s="111"/>
+      <c r="E6" s="113"/>
+      <c r="F6" s="113"/>
+      <c r="G6" s="97"/>
       <c r="H6" s="18" t="s">
         <v>20</v>
       </c>
@@ -2560,11 +2560,10 @@
       </c>
       <c r="N6" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="O6" s="47">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="P6" s="47">
         <f t="shared" si="1"/>
@@ -2584,15 +2583,15 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="114" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="102"/>
-      <c r="E7" s="105"/>
-      <c r="F7" s="105"/>
-      <c r="G7" s="103"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="116"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="117"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2635,13 +2634,13 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="74"/>
-      <c r="B8" s="75"/>
-      <c r="C8" s="75"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="78"/>
-      <c r="F8" s="78"/>
-      <c r="G8" s="104"/>
+      <c r="A8" s="76"/>
+      <c r="B8" s="77"/>
+      <c r="C8" s="77"/>
+      <c r="D8" s="78"/>
+      <c r="E8" s="72"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="118"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2685,21 +2684,21 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="56">
+      <c r="A9" s="66">
         <v>1</v>
       </c>
-      <c r="B9" s="58" t="s">
+      <c r="B9" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="59"/>
-      <c r="D9" s="60"/>
-      <c r="E9" s="64" t="s">
+      <c r="C9" s="61"/>
+      <c r="D9" s="62"/>
+      <c r="E9" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="64" t="s">
+      <c r="F9" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="66"/>
+      <c r="G9" s="69"/>
       <c r="H9" s="23" t="str">
         <f>IF(E9="","","予定")</f>
         <v>予定</v>
@@ -2717,13 +2716,13 @@
       <c r="S9" s="31"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="57"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="62"/>
-      <c r="D10" s="63"/>
-      <c r="E10" s="65"/>
-      <c r="F10" s="65"/>
-      <c r="G10" s="67"/>
+      <c r="A10" s="67"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="65"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="70"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
         <v>実績</v>
@@ -2741,21 +2740,21 @@
       <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="56"/>
+      <c r="A11" s="66"/>
       <c r="B11" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="60" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="60"/>
-      <c r="E11" s="69" t="s">
+      <c r="D11" s="62"/>
+      <c r="E11" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="69" t="s">
+      <c r="F11" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="54"/>
+      <c r="G11" s="56"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2782,13 +2781,13 @@
       <c r="S11" s="31"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="57"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="63"/>
-      <c r="E12" s="70"/>
-      <c r="F12" s="70"/>
-      <c r="G12" s="55"/>
+      <c r="A12" s="67"/>
+      <c r="B12" s="57"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="65"/>
+      <c r="E12" s="55"/>
+      <c r="F12" s="55"/>
+      <c r="G12" s="57"/>
       <c r="H12" s="52" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -2815,21 +2814,21 @@
       <c r="S12" s="32"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="56"/>
+      <c r="A13" s="66"/>
       <c r="B13" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="58" t="s">
+      <c r="C13" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="60"/>
-      <c r="E13" s="69" t="s">
+      <c r="D13" s="62"/>
+      <c r="E13" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="69" t="s">
+      <c r="F13" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="54"/>
+      <c r="G13" s="56"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2855,13 +2854,13 @@
       <c r="S13" s="31"/>
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="57"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="63"/>
-      <c r="E14" s="70"/>
-      <c r="F14" s="70"/>
-      <c r="G14" s="55"/>
+      <c r="A14" s="67"/>
+      <c r="B14" s="57"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="65"/>
+      <c r="E14" s="55"/>
+      <c r="F14" s="55"/>
+      <c r="G14" s="57"/>
       <c r="H14" s="52" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2888,19 +2887,19 @@
       <c r="S14" s="32"/>
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="56">
+      <c r="A15" s="66">
         <v>2</v>
       </c>
-      <c r="B15" s="58" t="s">
+      <c r="B15" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="59"/>
-      <c r="D15" s="60"/>
-      <c r="E15" s="64" t="s">
+      <c r="C15" s="61"/>
+      <c r="D15" s="62"/>
+      <c r="E15" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="64"/>
-      <c r="G15" s="66"/>
+      <c r="F15" s="58"/>
+      <c r="G15" s="69"/>
       <c r="H15" s="23" t="str">
         <f>IF(E15="","","予定")</f>
         <v>予定</v>
@@ -2918,13 +2917,13 @@
       <c r="S15" s="31"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="57"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="62"/>
-      <c r="D16" s="63"/>
-      <c r="E16" s="65"/>
-      <c r="F16" s="65"/>
-      <c r="G16" s="67"/>
+      <c r="A16" s="67"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="65"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="70"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
         <v>実績</v>
@@ -2942,21 +2941,21 @@
       <c r="S16" s="32"/>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="56"/>
+      <c r="A17" s="66"/>
       <c r="B17" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="60"/>
-      <c r="E17" s="69" t="s">
+      <c r="D17" s="62"/>
+      <c r="E17" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="69" t="s">
+      <c r="F17" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="54"/>
+      <c r="G17" s="56"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -2982,13 +2981,13 @@
       <c r="S17" s="31"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="57"/>
-      <c r="B18" s="55"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="63"/>
-      <c r="E18" s="70"/>
-      <c r="F18" s="70"/>
-      <c r="G18" s="55"/>
+      <c r="A18" s="67"/>
+      <c r="B18" s="57"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="65"/>
+      <c r="E18" s="55"/>
+      <c r="F18" s="55"/>
+      <c r="G18" s="57"/>
       <c r="H18" s="52" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -3015,21 +3014,21 @@
       <c r="S18" s="32"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="56"/>
+      <c r="A19" s="66"/>
       <c r="B19" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="58" t="s">
+      <c r="C19" s="60" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="60"/>
-      <c r="E19" s="69" t="s">
+      <c r="D19" s="62"/>
+      <c r="E19" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="69" t="s">
+      <c r="F19" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="54"/>
+      <c r="G19" s="56"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3055,13 +3054,13 @@
       <c r="S19" s="31"/>
     </row>
     <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="57"/>
-      <c r="B20" s="55"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="63"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="55"/>
+      <c r="A20" s="67"/>
+      <c r="B20" s="57"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="65"/>
+      <c r="E20" s="55"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="57"/>
       <c r="H20" s="52" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -3088,21 +3087,21 @@
       <c r="S20" s="32"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="56"/>
+      <c r="A21" s="66"/>
       <c r="B21" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="58" t="s">
+      <c r="C21" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="60"/>
-      <c r="E21" s="69" t="s">
+      <c r="D21" s="62"/>
+      <c r="E21" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="69" t="s">
+      <c r="F21" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="54"/>
+      <c r="G21" s="56"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3128,13 +3127,13 @@
       <c r="S21" s="31"/>
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="57"/>
-      <c r="B22" s="55"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="55"/>
+      <c r="A22" s="67"/>
+      <c r="B22" s="57"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="65"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="57"/>
       <c r="H22" s="52" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3161,15 +3160,15 @@
       <c r="S22" s="32"/>
     </row>
     <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="71" t="s">
+      <c r="A23" s="73" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="72"/>
-      <c r="C23" s="72"/>
-      <c r="D23" s="73"/>
-      <c r="E23" s="77"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="79"/>
+      <c r="B23" s="74"/>
+      <c r="C23" s="74"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="71"/>
+      <c r="F23" s="71"/>
+      <c r="G23" s="120"/>
       <c r="H23" s="20" t="s">
         <v>19</v>
       </c>
@@ -3213,13 +3212,13 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="74"/>
-      <c r="B24" s="75"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="76"/>
-      <c r="E24" s="78"/>
-      <c r="F24" s="78"/>
-      <c r="G24" s="80"/>
+      <c r="A24" s="76"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="78"/>
+      <c r="E24" s="72"/>
+      <c r="F24" s="72"/>
+      <c r="G24" s="121"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
@@ -3263,19 +3262,19 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="56">
+      <c r="A25" s="66">
         <v>1</v>
       </c>
-      <c r="B25" s="58" t="s">
+      <c r="B25" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="64" t="s">
+      <c r="C25" s="61"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="64"/>
-      <c r="G25" s="66"/>
+      <c r="F25" s="58"/>
+      <c r="G25" s="69"/>
       <c r="H25" s="23" t="str">
         <f>IF(E25="","","予定")</f>
         <v>予定</v>
@@ -3293,13 +3292,13 @@
       <c r="S25" s="31"/>
     </row>
     <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="57"/>
-      <c r="B26" s="61"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="63"/>
-      <c r="E26" s="65"/>
-      <c r="F26" s="65"/>
-      <c r="G26" s="67"/>
+      <c r="A26" s="67"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="70"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
         <v>実績</v>
@@ -3317,21 +3316,21 @@
       <c r="S26" s="32"/>
     </row>
     <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="56"/>
+      <c r="A27" s="66"/>
       <c r="B27" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="58" t="s">
+      <c r="C27" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="60"/>
-      <c r="E27" s="69" t="s">
+      <c r="D27" s="62"/>
+      <c r="E27" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="69" t="s">
+      <c r="F27" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="54"/>
+      <c r="G27" s="56"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -3358,13 +3357,13 @@
       <c r="S27" s="31"/>
     </row>
     <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="57"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="55"/>
+      <c r="A28" s="67"/>
+      <c r="B28" s="57"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="55"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="57"/>
       <c r="H28" s="52" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3391,21 +3390,21 @@
       <c r="S28" s="32"/>
     </row>
     <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="56"/>
+      <c r="A29" s="66"/>
       <c r="B29" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="58" t="s">
+      <c r="C29" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="60"/>
-      <c r="E29" s="69" t="s">
+      <c r="D29" s="62"/>
+      <c r="E29" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="69" t="s">
+      <c r="F29" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="54"/>
+      <c r="G29" s="56"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3432,13 +3431,13 @@
       <c r="S29" s="31"/>
     </row>
     <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="57"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="63"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="55"/>
+      <c r="A30" s="67"/>
+      <c r="B30" s="57"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="65"/>
+      <c r="E30" s="55"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="57"/>
       <c r="H30" s="52" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3463,19 +3462,19 @@
       <c r="S30" s="32"/>
     </row>
     <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="56"/>
+      <c r="A31" s="66"/>
       <c r="B31" s="68" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="58" t="s">
+      <c r="C31" s="60" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="60"/>
-      <c r="E31" s="69" t="s">
+      <c r="D31" s="62"/>
+      <c r="E31" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="69"/>
-      <c r="G31" s="54"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="56"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3502,13 +3501,13 @@
       <c r="S31" s="31"/>
     </row>
     <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="57"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="63"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="55"/>
+      <c r="A32" s="67"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="65"/>
+      <c r="E32" s="55"/>
+      <c r="F32" s="55"/>
+      <c r="G32" s="57"/>
       <c r="H32" s="52" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3529,19 +3528,19 @@
       <c r="S32" s="32"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="56">
+      <c r="A33" s="66">
         <v>2</v>
       </c>
-      <c r="B33" s="58" t="s">
+      <c r="B33" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="59"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="64" t="s">
+      <c r="C33" s="61"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="64"/>
-      <c r="G33" s="66"/>
+      <c r="F33" s="58"/>
+      <c r="G33" s="69"/>
       <c r="H33" s="23" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
@@ -3559,13 +3558,13 @@
       <c r="S33" s="31"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="57"/>
-      <c r="B34" s="61"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="65"/>
-      <c r="F34" s="65"/>
-      <c r="G34" s="67"/>
+      <c r="A34" s="67"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="65"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="70"/>
       <c r="H34" s="24" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3583,19 +3582,19 @@
       <c r="S34" s="32"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="56"/>
+      <c r="A35" s="66"/>
       <c r="B35" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="58" t="s">
+      <c r="C35" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="60"/>
-      <c r="E35" s="69" t="s">
+      <c r="D35" s="62"/>
+      <c r="E35" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="69"/>
-      <c r="G35" s="54"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="56"/>
       <c r="H35" s="8" t="str">
         <f>IF(E35="","","予定")</f>
         <v>予定</v>
@@ -3622,13 +3621,13 @@
       <c r="S35" s="31"/>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="57"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="63"/>
-      <c r="E36" s="70"/>
-      <c r="F36" s="70"/>
-      <c r="G36" s="55"/>
+      <c r="A36" s="67"/>
+      <c r="B36" s="57"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="65"/>
+      <c r="E36" s="55"/>
+      <c r="F36" s="55"/>
+      <c r="G36" s="57"/>
       <c r="H36" s="52" t="str">
         <f>IF(E35="","","実績")</f>
         <v>実績</v>
@@ -3649,19 +3648,19 @@
       <c r="S36" s="32"/>
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="56"/>
+      <c r="A37" s="66"/>
       <c r="B37" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="58" t="s">
+      <c r="C37" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="60"/>
-      <c r="E37" s="69" t="s">
+      <c r="D37" s="62"/>
+      <c r="E37" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="69"/>
-      <c r="G37" s="54"/>
+      <c r="F37" s="54"/>
+      <c r="G37" s="56"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3688,13 +3687,13 @@
       <c r="S37" s="31"/>
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="57"/>
-      <c r="B38" s="55"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="63"/>
-      <c r="E38" s="70"/>
-      <c r="F38" s="70"/>
-      <c r="G38" s="55"/>
+      <c r="A38" s="67"/>
+      <c r="B38" s="57"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="65"/>
+      <c r="E38" s="55"/>
+      <c r="F38" s="55"/>
+      <c r="G38" s="57"/>
       <c r="H38" s="52" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
@@ -3715,19 +3714,19 @@
       <c r="S38" s="32"/>
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="56"/>
+      <c r="A39" s="66"/>
       <c r="B39" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="58" t="s">
+      <c r="C39" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="60"/>
-      <c r="E39" s="69" t="s">
+      <c r="D39" s="62"/>
+      <c r="E39" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="69"/>
-      <c r="G39" s="54"/>
+      <c r="F39" s="54"/>
+      <c r="G39" s="56"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3754,13 +3753,13 @@
       <c r="S39" s="31"/>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="57"/>
-      <c r="B40" s="55"/>
-      <c r="C40" s="61"/>
-      <c r="D40" s="63"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="55"/>
+      <c r="A40" s="67"/>
+      <c r="B40" s="57"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="65"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="57"/>
       <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -3781,15 +3780,15 @@
       <c r="S40" s="32"/>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="71" t="s">
+      <c r="A41" s="73" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="72"/>
-      <c r="C41" s="72"/>
-      <c r="D41" s="73"/>
-      <c r="E41" s="77"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="79"/>
+      <c r="B41" s="74"/>
+      <c r="C41" s="74"/>
+      <c r="D41" s="75"/>
+      <c r="E41" s="71"/>
+      <c r="F41" s="71"/>
+      <c r="G41" s="120"/>
       <c r="H41" s="20" t="s">
         <v>19</v>
       </c>
@@ -3833,13 +3832,13 @@
       </c>
     </row>
     <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="74"/>
-      <c r="B42" s="75"/>
-      <c r="C42" s="75"/>
-      <c r="D42" s="76"/>
-      <c r="E42" s="78"/>
-      <c r="F42" s="78"/>
-      <c r="G42" s="80"/>
+      <c r="A42" s="76"/>
+      <c r="B42" s="77"/>
+      <c r="C42" s="77"/>
+      <c r="D42" s="78"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="72"/>
+      <c r="G42" s="121"/>
       <c r="H42" s="7" t="s">
         <v>20</v>
       </c>
@@ -3847,7 +3846,7 @@
       <c r="J42" s="7"/>
       <c r="K42" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$43:K$56),2)=0)*K$43:K$56)</f>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="L42" s="36">
         <f t="shared" ref="L42:S42" si="10">SUMPRODUCT((MOD(ROW(L$43:L$56),2)=0)*L$43:L$56)</f>
@@ -3863,7 +3862,7 @@
       </c>
       <c r="O42" s="36">
         <f t="shared" si="10"/>
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="P42" s="36">
         <f t="shared" si="10"/>
@@ -3883,19 +3882,19 @@
       </c>
     </row>
     <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="56">
+      <c r="A43" s="66">
         <v>1</v>
       </c>
-      <c r="B43" s="58" t="s">
+      <c r="B43" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="59"/>
-      <c r="D43" s="60"/>
-      <c r="E43" s="64" t="s">
+      <c r="C43" s="61"/>
+      <c r="D43" s="62"/>
+      <c r="E43" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="64"/>
-      <c r="G43" s="66"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="69"/>
       <c r="H43" s="23" t="str">
         <f>IF(E43="","","予定")</f>
         <v>予定</v>
@@ -3913,13 +3912,13 @@
       <c r="S43" s="31"/>
     </row>
     <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="57"/>
-      <c r="B44" s="61"/>
-      <c r="C44" s="62"/>
-      <c r="D44" s="63"/>
-      <c r="E44" s="65"/>
-      <c r="F44" s="65"/>
-      <c r="G44" s="67"/>
+      <c r="A44" s="67"/>
+      <c r="B44" s="63"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="65"/>
+      <c r="E44" s="59"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="70"/>
       <c r="H44" s="24" t="str">
         <f>IF(E43="","","実績")</f>
         <v>実績</v>
@@ -3937,19 +3936,19 @@
       <c r="S44" s="32"/>
     </row>
     <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="56"/>
+      <c r="A45" s="66"/>
       <c r="B45" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="58" t="s">
+      <c r="C45" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="60"/>
-      <c r="E45" s="69" t="s">
+      <c r="D45" s="62"/>
+      <c r="E45" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="69"/>
-      <c r="G45" s="54"/>
+      <c r="F45" s="54"/>
+      <c r="G45" s="56"/>
       <c r="H45" s="8" t="str">
         <f>IF(E45="","","予定")</f>
         <v>予定</v>
@@ -3978,46 +3977,53 @@
       <c r="S45" s="31"/>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="57"/>
-      <c r="B46" s="55"/>
-      <c r="C46" s="61"/>
-      <c r="D46" s="63"/>
-      <c r="E46" s="70"/>
-      <c r="F46" s="70"/>
-      <c r="G46" s="55"/>
+      <c r="A46" s="67"/>
+      <c r="B46" s="57"/>
+      <c r="C46" s="63"/>
+      <c r="D46" s="65"/>
+      <c r="E46" s="55"/>
+      <c r="F46" s="55"/>
+      <c r="G46" s="57"/>
       <c r="H46" s="52" t="str">
         <f>IF(E45="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I46" s="52"/>
-      <c r="J46" s="52"/>
+      <c r="I46" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J46" s="52">
+        <v>6</v>
+      </c>
       <c r="K46" s="10">
         <f>SUM(L46:S46)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L46" s="41"/>
       <c r="M46" s="32"/>
       <c r="N46" s="32"/>
-      <c r="O46" s="32"/>
+      <c r="O46" s="32">
+        <f>1*6</f>
+        <v>6</v>
+      </c>
       <c r="P46" s="32"/>
       <c r="Q46" s="32"/>
       <c r="R46" s="32"/>
       <c r="S46" s="32"/>
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="56"/>
+      <c r="A47" s="66"/>
       <c r="B47" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="58" t="s">
+      <c r="C47" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="60"/>
-      <c r="E47" s="69" t="s">
+      <c r="D47" s="62"/>
+      <c r="E47" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="69"/>
-      <c r="G47" s="54"/>
+      <c r="F47" s="54"/>
+      <c r="G47" s="56"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4044,46 +4050,52 @@
       <c r="S47" s="31"/>
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="57"/>
-      <c r="B48" s="55"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="63"/>
-      <c r="E48" s="70"/>
-      <c r="F48" s="70"/>
-      <c r="G48" s="55"/>
+      <c r="A48" s="67"/>
+      <c r="B48" s="57"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="65"/>
+      <c r="E48" s="55"/>
+      <c r="F48" s="55"/>
+      <c r="G48" s="57"/>
       <c r="H48" s="52" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I48" s="52"/>
-      <c r="J48" s="52"/>
+      <c r="I48" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J48" s="52">
+        <v>6</v>
+      </c>
       <c r="K48" s="10">
         <f>SUM(L48:S48)</f>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L48" s="41"/>
       <c r="M48" s="32"/>
       <c r="N48" s="32"/>
-      <c r="O48" s="32"/>
+      <c r="O48" s="32">
+        <v>6</v>
+      </c>
       <c r="P48" s="32"/>
       <c r="Q48" s="32"/>
       <c r="R48" s="32"/>
       <c r="S48" s="32"/>
     </row>
     <row r="49" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="56">
+      <c r="A49" s="66">
         <v>2</v>
       </c>
-      <c r="B49" s="58" t="s">
+      <c r="B49" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="59"/>
-      <c r="D49" s="60"/>
-      <c r="E49" s="64" t="s">
+      <c r="C49" s="61"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="64"/>
-      <c r="G49" s="66"/>
+      <c r="F49" s="58"/>
+      <c r="G49" s="69"/>
       <c r="H49" s="23" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4101,13 +4113,13 @@
       <c r="S49" s="31"/>
     </row>
     <row r="50" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="57"/>
-      <c r="B50" s="61"/>
-      <c r="C50" s="62"/>
-      <c r="D50" s="63"/>
-      <c r="E50" s="65"/>
-      <c r="F50" s="65"/>
-      <c r="G50" s="67"/>
+      <c r="A50" s="67"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="65"/>
+      <c r="E50" s="59"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="70"/>
       <c r="H50" s="24" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -4125,19 +4137,19 @@
       <c r="S50" s="32"/>
     </row>
     <row r="51" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="56"/>
+      <c r="A51" s="66"/>
       <c r="B51" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="58" t="s">
+      <c r="C51" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="60"/>
-      <c r="E51" s="69" t="s">
+      <c r="D51" s="62"/>
+      <c r="E51" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="69"/>
-      <c r="G51" s="54"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="56"/>
       <c r="H51" s="8" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -4164,46 +4176,51 @@
       <c r="S51" s="31"/>
     </row>
     <row r="52" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="57"/>
-      <c r="B52" s="55"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="63"/>
-      <c r="E52" s="70"/>
-      <c r="F52" s="70"/>
-      <c r="G52" s="55"/>
+      <c r="A52" s="67"/>
+      <c r="B52" s="57"/>
+      <c r="C52" s="63"/>
+      <c r="D52" s="65"/>
+      <c r="E52" s="55"/>
+      <c r="F52" s="55"/>
+      <c r="G52" s="57"/>
       <c r="H52" s="52" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I52" s="52"/>
-      <c r="J52" s="52"/>
+      <c r="I52" s="52" t="s">
+        <v>64</v>
+      </c>
+      <c r="J52" s="52">
+        <v>2</v>
+      </c>
       <c r="K52" s="10">
-        <f t="shared" si="11"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L52" s="41"/>
       <c r="M52" s="32"/>
       <c r="N52" s="32"/>
-      <c r="O52" s="32"/>
+      <c r="O52" s="32">
+        <v>1</v>
+      </c>
       <c r="P52" s="32"/>
       <c r="Q52" s="32"/>
       <c r="R52" s="32"/>
       <c r="S52" s="32"/>
     </row>
     <row r="53" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="56"/>
+      <c r="A53" s="66"/>
       <c r="B53" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C53" s="58" t="s">
+      <c r="C53" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="60"/>
-      <c r="E53" s="69" t="s">
+      <c r="D53" s="62"/>
+      <c r="E53" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F53" s="69"/>
-      <c r="G53" s="54"/>
+      <c r="F53" s="54"/>
+      <c r="G53" s="56"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v>予定</v>
@@ -4231,46 +4248,52 @@
       <c r="T53" s="31"/>
     </row>
     <row r="54" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="57"/>
-      <c r="B54" s="55"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="63"/>
-      <c r="E54" s="70"/>
-      <c r="F54" s="70"/>
-      <c r="G54" s="55"/>
+      <c r="A54" s="67"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="63"/>
+      <c r="D54" s="65"/>
+      <c r="E54" s="55"/>
+      <c r="F54" s="55"/>
+      <c r="G54" s="57"/>
       <c r="H54" s="52" t="str">
         <f>IF(E53="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I54" s="52"/>
-      <c r="J54" s="52"/>
+      <c r="I54" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="J54" s="8">
+        <v>5</v>
+      </c>
       <c r="K54" s="10">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>2.5</v>
       </c>
       <c r="L54" s="41"/>
       <c r="M54" s="32"/>
       <c r="N54" s="32"/>
-      <c r="O54" s="32"/>
+      <c r="O54" s="32">
+        <v>2.5</v>
+      </c>
       <c r="P54" s="32"/>
       <c r="Q54" s="32"/>
       <c r="R54" s="32"/>
       <c r="S54" s="32"/>
     </row>
     <row r="55" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="56"/>
+      <c r="A55" s="66"/>
       <c r="B55" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="58" t="s">
+      <c r="C55" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="D55" s="60"/>
-      <c r="E55" s="69" t="s">
+      <c r="D55" s="62"/>
+      <c r="E55" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F55" s="69"/>
-      <c r="G55" s="54"/>
+      <c r="F55" s="54"/>
+      <c r="G55" s="56"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4298,42 +4321,48 @@
       <c r="T55" s="31"/>
     </row>
     <row r="56" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="57"/>
-      <c r="B56" s="55"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="63"/>
-      <c r="E56" s="70"/>
-      <c r="F56" s="70"/>
-      <c r="G56" s="55"/>
+      <c r="A56" s="67"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="65"/>
+      <c r="E56" s="55"/>
+      <c r="F56" s="55"/>
+      <c r="G56" s="57"/>
       <c r="H56" s="52" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I56" s="52"/>
-      <c r="J56" s="52"/>
+      <c r="I56" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="J56" s="8">
+        <v>1</v>
+      </c>
       <c r="K56" s="10">
         <f t="shared" si="11"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L56" s="43"/>
       <c r="M56" s="44"/>
       <c r="N56" s="44"/>
-      <c r="O56" s="44"/>
+      <c r="O56" s="31">
+        <v>0.5</v>
+      </c>
       <c r="P56" s="44"/>
       <c r="Q56" s="44"/>
       <c r="R56" s="44"/>
       <c r="S56" s="44"/>
     </row>
     <row r="57" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="71" t="s">
+      <c r="A57" s="73" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="72"/>
-      <c r="C57" s="72"/>
-      <c r="D57" s="73"/>
-      <c r="E57" s="77"/>
-      <c r="F57" s="77"/>
-      <c r="G57" s="79"/>
+      <c r="B57" s="74"/>
+      <c r="C57" s="74"/>
+      <c r="D57" s="75"/>
+      <c r="E57" s="71"/>
+      <c r="F57" s="71"/>
+      <c r="G57" s="120"/>
       <c r="H57" s="20" t="s">
         <v>19</v>
       </c>
@@ -4374,13 +4403,13 @@
       </c>
     </row>
     <row r="58" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="74"/>
-      <c r="B58" s="75"/>
-      <c r="C58" s="75"/>
-      <c r="D58" s="76"/>
-      <c r="E58" s="78"/>
-      <c r="F58" s="78"/>
-      <c r="G58" s="80"/>
+      <c r="A58" s="76"/>
+      <c r="B58" s="77"/>
+      <c r="C58" s="77"/>
+      <c r="D58" s="78"/>
+      <c r="E58" s="72"/>
+      <c r="F58" s="72"/>
+      <c r="G58" s="121"/>
       <c r="H58" s="7" t="s">
         <v>20</v>
       </c>
@@ -4424,19 +4453,19 @@
       </c>
     </row>
     <row r="59" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="56">
+      <c r="A59" s="66">
         <v>1</v>
       </c>
-      <c r="B59" s="58" t="s">
+      <c r="B59" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="59"/>
-      <c r="D59" s="60"/>
-      <c r="E59" s="64" t="s">
+      <c r="C59" s="61"/>
+      <c r="D59" s="62"/>
+      <c r="E59" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F59" s="64"/>
-      <c r="G59" s="66"/>
+      <c r="F59" s="58"/>
+      <c r="G59" s="69"/>
       <c r="H59" s="23" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
@@ -4454,13 +4483,13 @@
       <c r="S59" s="31"/>
     </row>
     <row r="60" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="57"/>
-      <c r="B60" s="61"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="63"/>
-      <c r="E60" s="65"/>
-      <c r="F60" s="65"/>
-      <c r="G60" s="67"/>
+      <c r="A60" s="67"/>
+      <c r="B60" s="63"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="59"/>
+      <c r="F60" s="59"/>
+      <c r="G60" s="70"/>
       <c r="H60" s="24" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
@@ -4478,19 +4507,19 @@
       <c r="S60" s="32"/>
     </row>
     <row r="61" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="56"/>
+      <c r="A61" s="66"/>
       <c r="B61" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C61" s="58" t="s">
+      <c r="C61" s="60" t="s">
         <v>45</v>
       </c>
-      <c r="D61" s="60"/>
-      <c r="E61" s="69" t="s">
+      <c r="D61" s="62"/>
+      <c r="E61" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F61" s="69"/>
-      <c r="G61" s="54"/>
+      <c r="F61" s="54"/>
+      <c r="G61" s="56"/>
       <c r="H61" s="8" t="str">
         <f>IF(E61="","","予定")</f>
         <v>予定</v>
@@ -4518,13 +4547,13 @@
       <c r="S61" s="31"/>
     </row>
     <row r="62" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="57"/>
-      <c r="B62" s="55"/>
-      <c r="C62" s="61"/>
-      <c r="D62" s="63"/>
-      <c r="E62" s="70"/>
-      <c r="F62" s="70"/>
-      <c r="G62" s="55"/>
+      <c r="A62" s="67"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="65"/>
+      <c r="E62" s="55"/>
+      <c r="F62" s="55"/>
+      <c r="G62" s="57"/>
       <c r="H62" s="52" t="str">
         <f>IF(E61="","","実績")</f>
         <v>実績</v>
@@ -4545,19 +4574,19 @@
       <c r="S62" s="32"/>
     </row>
     <row r="63" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="56"/>
+      <c r="A63" s="66"/>
       <c r="B63" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="58" t="s">
+      <c r="C63" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="D63" s="60"/>
-      <c r="E63" s="69" t="s">
+      <c r="D63" s="62"/>
+      <c r="E63" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F63" s="69"/>
-      <c r="G63" s="54"/>
+      <c r="F63" s="54"/>
+      <c r="G63" s="56"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v>予定</v>
@@ -4584,13 +4613,13 @@
       <c r="S63" s="31"/>
     </row>
     <row r="64" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="57"/>
-      <c r="B64" s="55"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="63"/>
-      <c r="E64" s="70"/>
-      <c r="F64" s="70"/>
-      <c r="G64" s="55"/>
+      <c r="A64" s="67"/>
+      <c r="B64" s="57"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="55"/>
+      <c r="F64" s="55"/>
+      <c r="G64" s="57"/>
       <c r="H64" s="52" t="str">
         <f>IF(E63="","","実績")</f>
         <v>実績</v>
@@ -4611,19 +4640,19 @@
       <c r="S64" s="32"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="56"/>
+      <c r="A65" s="66"/>
       <c r="B65" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C65" s="58" t="s">
+      <c r="C65" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="D65" s="60"/>
-      <c r="E65" s="69" t="s">
+      <c r="D65" s="62"/>
+      <c r="E65" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F65" s="69"/>
-      <c r="G65" s="54"/>
+      <c r="F65" s="54"/>
+      <c r="G65" s="56"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4650,13 +4679,13 @@
       <c r="S65" s="31"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="57"/>
-      <c r="B66" s="55"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="63"/>
-      <c r="E66" s="70"/>
-      <c r="F66" s="70"/>
-      <c r="G66" s="55"/>
+      <c r="A66" s="67"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="55"/>
+      <c r="F66" s="55"/>
+      <c r="G66" s="57"/>
       <c r="H66" s="52" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -4677,19 +4706,19 @@
       <c r="S66" s="32"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="56">
+      <c r="A67" s="66">
         <v>2</v>
       </c>
-      <c r="B67" s="58" t="s">
+      <c r="B67" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C67" s="59"/>
-      <c r="D67" s="60"/>
-      <c r="E67" s="64" t="s">
+      <c r="C67" s="61"/>
+      <c r="D67" s="62"/>
+      <c r="E67" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="F67" s="64"/>
-      <c r="G67" s="66"/>
+      <c r="F67" s="58"/>
+      <c r="G67" s="69"/>
       <c r="H67" s="23" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4707,13 +4736,13 @@
       <c r="S67" s="31"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="57"/>
-      <c r="B68" s="61"/>
-      <c r="C68" s="62"/>
-      <c r="D68" s="63"/>
-      <c r="E68" s="65"/>
-      <c r="F68" s="65"/>
-      <c r="G68" s="67"/>
+      <c r="A68" s="67"/>
+      <c r="B68" s="63"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="59"/>
+      <c r="F68" s="59"/>
+      <c r="G68" s="70"/>
       <c r="H68" s="24" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -4731,19 +4760,19 @@
       <c r="S68" s="32"/>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="56"/>
+      <c r="A69" s="66"/>
       <c r="B69" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C69" s="58" t="s">
+      <c r="C69" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="60"/>
-      <c r="E69" s="69" t="s">
+      <c r="D69" s="62"/>
+      <c r="E69" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="F69" s="69"/>
-      <c r="G69" s="54"/>
+      <c r="F69" s="54"/>
+      <c r="G69" s="56"/>
       <c r="H69" s="8" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
@@ -4770,13 +4799,13 @@
       <c r="S69" s="31"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="57"/>
-      <c r="B70" s="55"/>
-      <c r="C70" s="61"/>
-      <c r="D70" s="63"/>
-      <c r="E70" s="70"/>
-      <c r="F70" s="70"/>
-      <c r="G70" s="55"/>
+      <c r="A70" s="67"/>
+      <c r="B70" s="57"/>
+      <c r="C70" s="63"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="55"/>
+      <c r="F70" s="55"/>
+      <c r="G70" s="57"/>
       <c r="H70" s="52" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
@@ -4797,19 +4826,19 @@
       <c r="S70" s="32"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="56"/>
+      <c r="A71" s="66"/>
       <c r="B71" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="58" t="s">
+      <c r="C71" s="60" t="s">
         <v>42</v>
       </c>
-      <c r="D71" s="60"/>
-      <c r="E71" s="69" t="s">
+      <c r="D71" s="62"/>
+      <c r="E71" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="F71" s="69"/>
-      <c r="G71" s="54"/>
+      <c r="F71" s="54"/>
+      <c r="G71" s="56"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v>予定</v>
@@ -4836,13 +4865,13 @@
       <c r="S71" s="31"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="57"/>
-      <c r="B72" s="55"/>
-      <c r="C72" s="61"/>
-      <c r="D72" s="63"/>
-      <c r="E72" s="70"/>
-      <c r="F72" s="70"/>
-      <c r="G72" s="55"/>
+      <c r="A72" s="67"/>
+      <c r="B72" s="57"/>
+      <c r="C72" s="63"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="55"/>
+      <c r="F72" s="55"/>
+      <c r="G72" s="57"/>
       <c r="H72" s="52" t="str">
         <f>IF(E71="","","実績")</f>
         <v>実績</v>
@@ -4863,19 +4892,19 @@
       <c r="S72" s="32"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="56"/>
+      <c r="A73" s="66"/>
       <c r="B73" s="68" t="s">
         <v>33</v>
       </c>
-      <c r="C73" s="58" t="s">
+      <c r="C73" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="D73" s="60"/>
-      <c r="E73" s="69" t="s">
+      <c r="D73" s="62"/>
+      <c r="E73" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="F73" s="69"/>
-      <c r="G73" s="54"/>
+      <c r="F73" s="54"/>
+      <c r="G73" s="56"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -4902,13 +4931,13 @@
       <c r="S73" s="31"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="57"/>
-      <c r="B74" s="55"/>
-      <c r="C74" s="61"/>
-      <c r="D74" s="63"/>
-      <c r="E74" s="70"/>
-      <c r="F74" s="70"/>
-      <c r="G74" s="55"/>
+      <c r="A74" s="67"/>
+      <c r="B74" s="57"/>
+      <c r="C74" s="63"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="55"/>
+      <c r="F74" s="55"/>
+      <c r="G74" s="57"/>
       <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -4929,15 +4958,15 @@
       <c r="S74" s="44"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="71" t="s">
+      <c r="A75" s="73" t="s">
         <v>51</v>
       </c>
-      <c r="B75" s="72"/>
-      <c r="C75" s="72"/>
-      <c r="D75" s="73"/>
-      <c r="E75" s="77"/>
-      <c r="F75" s="77"/>
-      <c r="G75" s="79"/>
+      <c r="B75" s="74"/>
+      <c r="C75" s="74"/>
+      <c r="D75" s="75"/>
+      <c r="E75" s="71"/>
+      <c r="F75" s="71"/>
+      <c r="G75" s="120"/>
       <c r="H75" s="20" t="s">
         <v>19</v>
       </c>
@@ -4974,13 +5003,13 @@
       </c>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="74"/>
-      <c r="B76" s="75"/>
-      <c r="C76" s="75"/>
-      <c r="D76" s="76"/>
-      <c r="E76" s="78"/>
-      <c r="F76" s="78"/>
-      <c r="G76" s="80"/>
+      <c r="A76" s="76"/>
+      <c r="B76" s="77"/>
+      <c r="C76" s="77"/>
+      <c r="D76" s="78"/>
+      <c r="E76" s="72"/>
+      <c r="F76" s="72"/>
+      <c r="G76" s="121"/>
       <c r="H76" s="7" t="s">
         <v>20</v>
       </c>
@@ -5024,17 +5053,17 @@
       </c>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="56">
+      <c r="A77" s="66">
         <v>1</v>
       </c>
-      <c r="B77" s="58" t="s">
+      <c r="B77" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C77" s="59"/>
-      <c r="D77" s="60"/>
-      <c r="E77" s="64"/>
-      <c r="F77" s="64"/>
-      <c r="G77" s="66"/>
+      <c r="C77" s="61"/>
+      <c r="D77" s="62"/>
+      <c r="E77" s="58"/>
+      <c r="F77" s="58"/>
+      <c r="G77" s="69"/>
       <c r="H77" s="23" t="str">
         <f>IF(E77="","","予定")</f>
         <v/>
@@ -5052,13 +5081,13 @@
       <c r="S77" s="31"/>
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="57"/>
-      <c r="B78" s="61"/>
-      <c r="C78" s="62"/>
-      <c r="D78" s="63"/>
-      <c r="E78" s="65"/>
-      <c r="F78" s="65"/>
-      <c r="G78" s="67"/>
+      <c r="A78" s="67"/>
+      <c r="B78" s="63"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="65"/>
+      <c r="E78" s="59"/>
+      <c r="F78" s="59"/>
+      <c r="G78" s="70"/>
       <c r="H78" s="24" t="str">
         <f>IF(E77="","","実績")</f>
         <v/>
@@ -5076,19 +5105,19 @@
       <c r="S78" s="32"/>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="56"/>
+      <c r="A79" s="66"/>
       <c r="B79" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C79" s="58" t="s">
+      <c r="C79" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="D79" s="60"/>
-      <c r="E79" s="69" t="s">
+      <c r="D79" s="62"/>
+      <c r="E79" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F79" s="69"/>
-      <c r="G79" s="54"/>
+      <c r="F79" s="54"/>
+      <c r="G79" s="56"/>
       <c r="H79" s="8" t="str">
         <f>IF(E79="","","予定")</f>
         <v>予定</v>
@@ -5115,13 +5144,13 @@
       <c r="S79" s="31"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="57"/>
-      <c r="B80" s="55"/>
-      <c r="C80" s="61"/>
-      <c r="D80" s="63"/>
-      <c r="E80" s="70"/>
-      <c r="F80" s="70"/>
-      <c r="G80" s="55"/>
+      <c r="A80" s="67"/>
+      <c r="B80" s="57"/>
+      <c r="C80" s="63"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="55"/>
+      <c r="F80" s="55"/>
+      <c r="G80" s="57"/>
       <c r="H80" s="52" t="str">
         <f>IF(E79="","","実績")</f>
         <v>実績</v>
@@ -5142,19 +5171,19 @@
       <c r="S80" s="32"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="56"/>
+      <c r="A81" s="66"/>
       <c r="B81" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="58" t="s">
+      <c r="C81" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="D81" s="60"/>
-      <c r="E81" s="69" t="s">
+      <c r="D81" s="62"/>
+      <c r="E81" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F81" s="69"/>
-      <c r="G81" s="54"/>
+      <c r="F81" s="54"/>
+      <c r="G81" s="56"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5181,13 +5210,13 @@
       <c r="S81" s="31"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="57"/>
-      <c r="B82" s="55"/>
-      <c r="C82" s="61"/>
-      <c r="D82" s="63"/>
-      <c r="E82" s="70"/>
-      <c r="F82" s="70"/>
-      <c r="G82" s="55"/>
+      <c r="A82" s="67"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="63"/>
+      <c r="D82" s="65"/>
+      <c r="E82" s="55"/>
+      <c r="F82" s="55"/>
+      <c r="G82" s="57"/>
       <c r="H82" s="52" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
@@ -5208,15 +5237,15 @@
       <c r="S82" s="32"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="71" t="s">
+      <c r="A83" s="73" t="s">
         <v>54</v>
       </c>
-      <c r="B83" s="72"/>
-      <c r="C83" s="72"/>
-      <c r="D83" s="73"/>
-      <c r="E83" s="77"/>
-      <c r="F83" s="77"/>
-      <c r="G83" s="79"/>
+      <c r="B83" s="74"/>
+      <c r="C83" s="74"/>
+      <c r="D83" s="75"/>
+      <c r="E83" s="71"/>
+      <c r="F83" s="71"/>
+      <c r="G83" s="120"/>
       <c r="H83" s="20" t="s">
         <v>19</v>
       </c>
@@ -5258,13 +5287,13 @@
       </c>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="74"/>
-      <c r="B84" s="75"/>
-      <c r="C84" s="75"/>
-      <c r="D84" s="76"/>
-      <c r="E84" s="78"/>
-      <c r="F84" s="78"/>
-      <c r="G84" s="80"/>
+      <c r="A84" s="76"/>
+      <c r="B84" s="77"/>
+      <c r="C84" s="77"/>
+      <c r="D84" s="78"/>
+      <c r="E84" s="72"/>
+      <c r="F84" s="72"/>
+      <c r="G84" s="121"/>
       <c r="H84" s="7" t="s">
         <v>20</v>
       </c>
@@ -5308,17 +5337,17 @@
       </c>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="56">
+      <c r="A85" s="66">
         <v>1</v>
       </c>
-      <c r="B85" s="58" t="s">
+      <c r="B85" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C85" s="59"/>
-      <c r="D85" s="60"/>
-      <c r="E85" s="64"/>
-      <c r="F85" s="64"/>
-      <c r="G85" s="66"/>
+      <c r="C85" s="61"/>
+      <c r="D85" s="62"/>
+      <c r="E85" s="58"/>
+      <c r="F85" s="58"/>
+      <c r="G85" s="69"/>
       <c r="H85" s="23" t="str">
         <f>IF(E85="","","予定")</f>
         <v/>
@@ -5336,13 +5365,13 @@
       <c r="S85" s="31"/>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="57"/>
-      <c r="B86" s="61"/>
-      <c r="C86" s="62"/>
-      <c r="D86" s="63"/>
-      <c r="E86" s="65"/>
-      <c r="F86" s="65"/>
-      <c r="G86" s="67"/>
+      <c r="A86" s="67"/>
+      <c r="B86" s="63"/>
+      <c r="C86" s="64"/>
+      <c r="D86" s="65"/>
+      <c r="E86" s="59"/>
+      <c r="F86" s="59"/>
+      <c r="G86" s="70"/>
       <c r="H86" s="24" t="str">
         <f>IF(E85="","","実績")</f>
         <v/>
@@ -5360,19 +5389,19 @@
       <c r="S86" s="32"/>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="56"/>
+      <c r="A87" s="66"/>
       <c r="B87" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C87" s="58" t="s">
+      <c r="C87" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="D87" s="60"/>
-      <c r="E87" s="69" t="s">
+      <c r="D87" s="62"/>
+      <c r="E87" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F87" s="69"/>
-      <c r="G87" s="54"/>
+      <c r="F87" s="54"/>
+      <c r="G87" s="56"/>
       <c r="H87" s="8" t="str">
         <f>IF(E87="","","予定")</f>
         <v>予定</v>
@@ -5399,13 +5428,13 @@
       <c r="S87" s="31"/>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="57"/>
-      <c r="B88" s="55"/>
-      <c r="C88" s="61"/>
-      <c r="D88" s="63"/>
-      <c r="E88" s="70"/>
-      <c r="F88" s="70"/>
-      <c r="G88" s="55"/>
+      <c r="A88" s="67"/>
+      <c r="B88" s="57"/>
+      <c r="C88" s="63"/>
+      <c r="D88" s="65"/>
+      <c r="E88" s="55"/>
+      <c r="F88" s="55"/>
+      <c r="G88" s="57"/>
       <c r="H88" s="52" t="str">
         <f>IF(E87="","","実績")</f>
         <v>実績</v>
@@ -5426,19 +5455,19 @@
       <c r="S88" s="32"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="56"/>
+      <c r="A89" s="66"/>
       <c r="B89" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C89" s="121" t="s">
+      <c r="C89" s="79" t="s">
         <v>57</v>
       </c>
-      <c r="D89" s="60"/>
-      <c r="E89" s="69" t="s">
+      <c r="D89" s="62"/>
+      <c r="E89" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F89" s="69"/>
-      <c r="G89" s="54"/>
+      <c r="F89" s="54"/>
+      <c r="G89" s="56"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -5465,13 +5494,13 @@
       <c r="S89" s="31"/>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="57"/>
-      <c r="B90" s="55"/>
-      <c r="C90" s="61"/>
-      <c r="D90" s="63"/>
-      <c r="E90" s="70"/>
-      <c r="F90" s="70"/>
-      <c r="G90" s="55"/>
+      <c r="A90" s="67"/>
+      <c r="B90" s="57"/>
+      <c r="C90" s="63"/>
+      <c r="D90" s="65"/>
+      <c r="E90" s="55"/>
+      <c r="F90" s="55"/>
+      <c r="G90" s="57"/>
       <c r="H90" s="52" t="str">
         <f>IF(E89="","","実績")</f>
         <v>実績</v>
@@ -5492,17 +5521,17 @@
       <c r="S90" s="32"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="56">
+      <c r="A91" s="66">
         <v>2</v>
       </c>
-      <c r="B91" s="58" t="s">
+      <c r="B91" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C91" s="59"/>
-      <c r="D91" s="60"/>
-      <c r="E91" s="64"/>
-      <c r="F91" s="64"/>
-      <c r="G91" s="66"/>
+      <c r="C91" s="61"/>
+      <c r="D91" s="62"/>
+      <c r="E91" s="58"/>
+      <c r="F91" s="58"/>
+      <c r="G91" s="69"/>
       <c r="H91" s="23" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -5522,13 +5551,13 @@
       <c r="S91" s="31"/>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="57"/>
-      <c r="B92" s="61"/>
-      <c r="C92" s="62"/>
-      <c r="D92" s="63"/>
-      <c r="E92" s="65"/>
-      <c r="F92" s="65"/>
-      <c r="G92" s="67"/>
+      <c r="A92" s="67"/>
+      <c r="B92" s="63"/>
+      <c r="C92" s="64"/>
+      <c r="D92" s="65"/>
+      <c r="E92" s="59"/>
+      <c r="F92" s="59"/>
+      <c r="G92" s="70"/>
       <c r="H92" s="24" t="str">
         <f>IF(E91="","","実績")</f>
         <v/>
@@ -5546,19 +5575,19 @@
       <c r="S92" s="32"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="56"/>
+      <c r="A93" s="66"/>
       <c r="B93" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C93" s="58" t="s">
+      <c r="C93" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="D93" s="60"/>
-      <c r="E93" s="69" t="s">
+      <c r="D93" s="62"/>
+      <c r="E93" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="F93" s="69"/>
-      <c r="G93" s="54"/>
+      <c r="F93" s="54"/>
+      <c r="G93" s="56"/>
       <c r="H93" s="8" t="str">
         <f>IF(E93="","","予定")</f>
         <v>予定</v>
@@ -5585,13 +5614,13 @@
       <c r="S93" s="31"/>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="57"/>
-      <c r="B94" s="55"/>
-      <c r="C94" s="61"/>
-      <c r="D94" s="63"/>
-      <c r="E94" s="70"/>
-      <c r="F94" s="70"/>
-      <c r="G94" s="55"/>
+      <c r="A94" s="67"/>
+      <c r="B94" s="57"/>
+      <c r="C94" s="63"/>
+      <c r="D94" s="65"/>
+      <c r="E94" s="55"/>
+      <c r="F94" s="55"/>
+      <c r="G94" s="57"/>
       <c r="H94" s="52" t="str">
         <f>IF(E93="","","実績")</f>
         <v>実績</v>
@@ -5612,19 +5641,19 @@
       <c r="S94" s="32"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="56"/>
+      <c r="A95" s="66"/>
       <c r="B95" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C95" s="58" t="s">
+      <c r="C95" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="D95" s="60"/>
-      <c r="E95" s="69" t="s">
+      <c r="D95" s="62"/>
+      <c r="E95" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="F95" s="69"/>
-      <c r="G95" s="54"/>
+      <c r="F95" s="54"/>
+      <c r="G95" s="56"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v>予定</v>
@@ -5651,13 +5680,13 @@
       <c r="S95" s="31"/>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="57"/>
-      <c r="B96" s="55"/>
-      <c r="C96" s="61"/>
-      <c r="D96" s="63"/>
-      <c r="E96" s="70"/>
-      <c r="F96" s="70"/>
-      <c r="G96" s="55"/>
+      <c r="A96" s="67"/>
+      <c r="B96" s="57"/>
+      <c r="C96" s="63"/>
+      <c r="D96" s="65"/>
+      <c r="E96" s="55"/>
+      <c r="F96" s="55"/>
+      <c r="G96" s="57"/>
       <c r="H96" s="52" t="str">
         <f>IF(E95="","","実績")</f>
         <v>実績</v>
@@ -5678,15 +5707,15 @@
       <c r="S96" s="44"/>
     </row>
     <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="71" t="s">
+      <c r="A97" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="B97" s="72"/>
-      <c r="C97" s="72"/>
-      <c r="D97" s="73"/>
-      <c r="E97" s="77"/>
-      <c r="F97" s="77"/>
-      <c r="G97" s="79"/>
+      <c r="B97" s="74"/>
+      <c r="C97" s="74"/>
+      <c r="D97" s="75"/>
+      <c r="E97" s="71"/>
+      <c r="F97" s="71"/>
+      <c r="G97" s="120"/>
       <c r="H97" s="20" t="s">
         <v>19</v>
       </c>
@@ -5729,13 +5758,13 @@
       </c>
     </row>
     <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="74"/>
-      <c r="B98" s="75"/>
-      <c r="C98" s="75"/>
-      <c r="D98" s="76"/>
-      <c r="E98" s="78"/>
-      <c r="F98" s="78"/>
-      <c r="G98" s="80"/>
+      <c r="A98" s="76"/>
+      <c r="B98" s="77"/>
+      <c r="C98" s="77"/>
+      <c r="D98" s="78"/>
+      <c r="E98" s="72"/>
+      <c r="F98" s="72"/>
+      <c r="G98" s="121"/>
       <c r="H98" s="7" t="s">
         <v>20</v>
       </c>
@@ -5779,19 +5808,19 @@
       </c>
     </row>
     <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="56">
+      <c r="A99" s="66">
         <v>1</v>
       </c>
-      <c r="B99" s="58" t="s">
+      <c r="B99" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="C99" s="59"/>
-      <c r="D99" s="60"/>
-      <c r="E99" s="64" t="s">
+      <c r="C99" s="61"/>
+      <c r="D99" s="62"/>
+      <c r="E99" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="F99" s="64"/>
-      <c r="G99" s="66"/>
+      <c r="F99" s="58"/>
+      <c r="G99" s="69"/>
       <c r="H99" s="23" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
@@ -5809,13 +5838,13 @@
       <c r="S99" s="31"/>
     </row>
     <row r="100" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="57"/>
-      <c r="B100" s="61"/>
-      <c r="C100" s="62"/>
-      <c r="D100" s="63"/>
-      <c r="E100" s="65"/>
-      <c r="F100" s="65"/>
-      <c r="G100" s="67"/>
+      <c r="A100" s="67"/>
+      <c r="B100" s="63"/>
+      <c r="C100" s="64"/>
+      <c r="D100" s="65"/>
+      <c r="E100" s="59"/>
+      <c r="F100" s="59"/>
+      <c r="G100" s="70"/>
       <c r="H100" s="24" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
@@ -5833,19 +5862,19 @@
       <c r="S100" s="32"/>
     </row>
     <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="56"/>
+      <c r="A101" s="66"/>
       <c r="B101" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C101" s="58" t="s">
+      <c r="C101" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="D101" s="60"/>
-      <c r="E101" s="69" t="s">
+      <c r="D101" s="62"/>
+      <c r="E101" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F101" s="69"/>
-      <c r="G101" s="54"/>
+      <c r="F101" s="54"/>
+      <c r="G101" s="56"/>
       <c r="H101" s="8" t="str">
         <f>IF(E101="","","予定")</f>
         <v>予定</v>
@@ -5871,13 +5900,13 @@
       <c r="S101" s="31"/>
     </row>
     <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="57"/>
-      <c r="B102" s="55"/>
-      <c r="C102" s="61"/>
-      <c r="D102" s="63"/>
-      <c r="E102" s="70"/>
-      <c r="F102" s="70"/>
-      <c r="G102" s="55"/>
+      <c r="A102" s="67"/>
+      <c r="B102" s="57"/>
+      <c r="C102" s="63"/>
+      <c r="D102" s="65"/>
+      <c r="E102" s="55"/>
+      <c r="F102" s="55"/>
+      <c r="G102" s="57"/>
       <c r="H102" s="52" t="str">
         <f>IF(E101="","","実績")</f>
         <v>実績</v>
@@ -5898,19 +5927,19 @@
       <c r="S102" s="32"/>
     </row>
     <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="56"/>
+      <c r="A103" s="66"/>
       <c r="B103" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C103" s="58" t="s">
+      <c r="C103" s="60" t="s">
         <v>61</v>
       </c>
-      <c r="D103" s="60"/>
-      <c r="E103" s="69" t="s">
+      <c r="D103" s="62"/>
+      <c r="E103" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F103" s="69"/>
-      <c r="G103" s="54"/>
+      <c r="F103" s="54"/>
+      <c r="G103" s="56"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -5936,13 +5965,13 @@
       <c r="S103" s="31"/>
     </row>
     <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="57"/>
-      <c r="B104" s="55"/>
-      <c r="C104" s="61"/>
-      <c r="D104" s="63"/>
-      <c r="E104" s="70"/>
-      <c r="F104" s="70"/>
-      <c r="G104" s="55"/>
+      <c r="A104" s="67"/>
+      <c r="B104" s="57"/>
+      <c r="C104" s="63"/>
+      <c r="D104" s="65"/>
+      <c r="E104" s="55"/>
+      <c r="F104" s="55"/>
+      <c r="G104" s="57"/>
       <c r="H104" s="52" t="str">
         <f>IF(E103="","","実績")</f>
         <v>実績</v>
@@ -5963,19 +5992,19 @@
       <c r="S104" s="32"/>
     </row>
     <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="56">
+      <c r="A105" s="66">
         <v>2</v>
       </c>
-      <c r="B105" s="58" t="s">
+      <c r="B105" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="C105" s="59"/>
-      <c r="D105" s="60"/>
-      <c r="E105" s="64" t="s">
+      <c r="C105" s="61"/>
+      <c r="D105" s="62"/>
+      <c r="E105" s="58" t="s">
         <v>31</v>
       </c>
-      <c r="F105" s="64"/>
-      <c r="G105" s="66"/>
+      <c r="F105" s="58"/>
+      <c r="G105" s="69"/>
       <c r="H105" s="23" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -5993,13 +6022,13 @@
       <c r="S105" s="31"/>
     </row>
     <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="57"/>
-      <c r="B106" s="61"/>
-      <c r="C106" s="62"/>
-      <c r="D106" s="63"/>
-      <c r="E106" s="65"/>
-      <c r="F106" s="65"/>
-      <c r="G106" s="67"/>
+      <c r="A106" s="67"/>
+      <c r="B106" s="63"/>
+      <c r="C106" s="64"/>
+      <c r="D106" s="65"/>
+      <c r="E106" s="59"/>
+      <c r="F106" s="59"/>
+      <c r="G106" s="70"/>
       <c r="H106" s="24" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
@@ -6017,19 +6046,19 @@
       <c r="S106" s="32"/>
     </row>
     <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="56"/>
+      <c r="A107" s="66"/>
       <c r="B107" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C107" s="58" t="s">
+      <c r="C107" s="60" t="s">
         <v>30</v>
       </c>
-      <c r="D107" s="60"/>
-      <c r="E107" s="69" t="s">
+      <c r="D107" s="62"/>
+      <c r="E107" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F107" s="69"/>
-      <c r="G107" s="54"/>
+      <c r="F107" s="54"/>
+      <c r="G107" s="56"/>
       <c r="H107" s="8" t="str">
         <f>IF(E107="","","予定")</f>
         <v>予定</v>
@@ -6055,13 +6084,13 @@
       <c r="S107" s="31"/>
     </row>
     <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="57"/>
-      <c r="B108" s="55"/>
-      <c r="C108" s="61"/>
-      <c r="D108" s="63"/>
-      <c r="E108" s="70"/>
-      <c r="F108" s="70"/>
-      <c r="G108" s="55"/>
+      <c r="A108" s="67"/>
+      <c r="B108" s="57"/>
+      <c r="C108" s="63"/>
+      <c r="D108" s="65"/>
+      <c r="E108" s="55"/>
+      <c r="F108" s="55"/>
+      <c r="G108" s="57"/>
       <c r="H108" s="52" t="str">
         <f>IF(E107="","","実績")</f>
         <v>実績</v>
@@ -6082,19 +6111,19 @@
       <c r="S108" s="32"/>
     </row>
     <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="56"/>
+      <c r="A109" s="66"/>
       <c r="B109" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="C109" s="58" t="s">
+      <c r="C109" s="60" t="s">
         <v>43</v>
       </c>
-      <c r="D109" s="60"/>
-      <c r="E109" s="69" t="s">
+      <c r="D109" s="62"/>
+      <c r="E109" s="54" t="s">
         <v>23</v>
       </c>
-      <c r="F109" s="69"/>
-      <c r="G109" s="54"/>
+      <c r="F109" s="54"/>
+      <c r="G109" s="56"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v>予定</v>
@@ -6120,13 +6149,13 @@
       <c r="S109" s="31"/>
     </row>
     <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="57"/>
-      <c r="B110" s="55"/>
-      <c r="C110" s="61"/>
-      <c r="D110" s="63"/>
-      <c r="E110" s="70"/>
-      <c r="F110" s="70"/>
-      <c r="G110" s="55"/>
+      <c r="A110" s="67"/>
+      <c r="B110" s="57"/>
+      <c r="C110" s="63"/>
+      <c r="D110" s="65"/>
+      <c r="E110" s="55"/>
+      <c r="F110" s="55"/>
+      <c r="G110" s="57"/>
       <c r="H110" s="52" t="str">
         <f>IF(E109="","","実績")</f>
         <v>実績</v>
@@ -6162,16 +6191,281 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="309">
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="B105:D106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:D68"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="B49:D50"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B33:D34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="B43:D44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:D100"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:D80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="C39:D40"/>
     <mergeCell ref="E39:E40"/>
@@ -6196,284 +6490,19 @@
     <mergeCell ref="B101:B102"/>
     <mergeCell ref="C101:D102"/>
     <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:D100"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:D80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="B49:D50"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B33:D34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B43:D44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:D68"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="B105:D106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="E109:E110"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="L85:S96 L99:S110 L25:S34 L43:S52 L54:S54 L56:S56 L9:S12 M13:S13 L14:S18 L53:T53 L55:T55">
+  <conditionalFormatting sqref="L85:S96 L99:S110 L25:S34 L43:S52 L54:S54 L9:S12 M13:S13 L14:S18 L53:T53 L55:T55 L56:S56">
     <cfRule type="expression" dxfId="15" priority="27" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
@@ -6566,6 +6595,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6749,15 +6787,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
   <ds:schemaRefs>
@@ -6768,6 +6797,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89F0FFFF-D441-4664-93A0-244B234195EC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6783,12 +6820,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/13_WBSガントチャート(修正).xlsx
+++ b/13_WBSガントチャート(修正).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC0F3B8-95D0-41A3-88E8-FBE75E2BAF5D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E647AC39-F323-4155-9670-3FA058D0864A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="67">
   <si>
     <t>タスク/ワークパッケージ</t>
     <phoneticPr fontId="1"/>
@@ -555,6 +555,10 @@
     <t>金</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>琴</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1369,7 +1373,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="122">
+  <cellXfs count="123">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1524,55 +1528,76 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1581,152 +1606,134 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2322,10 +2329,10 @@
   <dimension ref="A1:T111"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H38" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="O7" sqref="O7"/>
+      <selection pane="bottomRight" activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2344,120 +2351,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="103" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="93"/>
-      <c r="C1" s="93"/>
-      <c r="D1" s="93"/>
-      <c r="E1" s="98" t="s">
+      <c r="A1" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="98" t="s">
+      <c r="F1" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="93" t="s">
+      <c r="G1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="98" t="s">
+      <c r="H1" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="98" t="s">
+      <c r="I1" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="98" t="s">
+      <c r="J1" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="90" t="s">
+      <c r="K1" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="80">
+      <c r="L1" s="105">
         <v>43984</v>
       </c>
-      <c r="M1" s="81"/>
-      <c r="N1" s="80">
+      <c r="M1" s="106"/>
+      <c r="N1" s="105">
         <v>43985</v>
       </c>
-      <c r="O1" s="81"/>
-      <c r="P1" s="80">
+      <c r="O1" s="106"/>
+      <c r="P1" s="105">
         <v>43986</v>
       </c>
-      <c r="Q1" s="81"/>
-      <c r="R1" s="80">
+      <c r="Q1" s="106"/>
+      <c r="R1" s="105">
         <v>43987</v>
       </c>
-      <c r="S1" s="81"/>
+      <c r="S1" s="106"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="104"/>
-      <c r="B2" s="94"/>
-      <c r="C2" s="94"/>
-      <c r="D2" s="94"/>
-      <c r="E2" s="99"/>
-      <c r="F2" s="99"/>
-      <c r="G2" s="94"/>
-      <c r="H2" s="101"/>
-      <c r="I2" s="99"/>
-      <c r="J2" s="99"/>
-      <c r="K2" s="91"/>
-      <c r="L2" s="84" t="s">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="83"/>
-      <c r="N2" s="82" t="s">
+      <c r="M2" s="108"/>
+      <c r="N2" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="82"/>
-      <c r="P2" s="85" t="s">
+      <c r="O2" s="107"/>
+      <c r="P2" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="83"/>
-      <c r="R2" s="82" t="s">
+      <c r="Q2" s="108"/>
+      <c r="R2" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="83"/>
+      <c r="S2" s="108"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="104"/>
-      <c r="B3" s="94"/>
-      <c r="C3" s="94"/>
-      <c r="D3" s="94"/>
-      <c r="E3" s="99"/>
-      <c r="F3" s="99"/>
-      <c r="G3" s="94"/>
-      <c r="H3" s="101"/>
-      <c r="I3" s="99"/>
-      <c r="J3" s="99"/>
-      <c r="K3" s="91"/>
-      <c r="L3" s="88" t="s">
+      <c r="A3" s="84"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="87"/>
-      <c r="N3" s="86" t="s">
+      <c r="M3" s="112"/>
+      <c r="N3" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="87"/>
-      <c r="P3" s="86" t="s">
+      <c r="O3" s="112"/>
+      <c r="P3" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="89" t="s">
+      <c r="Q3" s="112"/>
+      <c r="R3" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="89"/>
+      <c r="S3" s="114"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="105"/>
-      <c r="B4" s="95"/>
-      <c r="C4" s="95"/>
-      <c r="D4" s="95"/>
-      <c r="E4" s="100"/>
-      <c r="F4" s="100"/>
-      <c r="G4" s="95"/>
-      <c r="H4" s="102"/>
-      <c r="I4" s="100"/>
-      <c r="J4" s="100"/>
-      <c r="K4" s="92"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="117"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2484,15 +2491,15 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="106" t="s">
+      <c r="A5" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="107"/>
-      <c r="C5" s="107"/>
-      <c r="D5" s="108"/>
-      <c r="E5" s="112"/>
-      <c r="F5" s="112"/>
-      <c r="G5" s="96"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="118"/>
       <c r="H5" s="16" t="s">
         <v>19</v>
       </c>
@@ -2534,13 +2541,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="109"/>
-      <c r="B6" s="110"/>
-      <c r="C6" s="110"/>
-      <c r="D6" s="111"/>
-      <c r="E6" s="113"/>
-      <c r="F6" s="113"/>
-      <c r="G6" s="97"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="119"/>
       <c r="H6" s="18" t="s">
         <v>20</v>
       </c>
@@ -2556,7 +2563,7 @@
       </c>
       <c r="M6" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="N6" s="47">
         <f t="shared" si="1"/>
@@ -2583,15 +2590,15 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="114" t="s">
+      <c r="A7" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="115"/>
-      <c r="C7" s="115"/>
-      <c r="D7" s="116"/>
-      <c r="E7" s="119"/>
-      <c r="F7" s="119"/>
-      <c r="G7" s="117"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="99"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2634,13 +2641,13 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="76"/>
-      <c r="B8" s="77"/>
-      <c r="C8" s="77"/>
-      <c r="D8" s="78"/>
-      <c r="E8" s="72"/>
-      <c r="F8" s="72"/>
-      <c r="G8" s="118"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="100"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2684,21 +2691,21 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="66">
+      <c r="A9" s="57">
         <v>1</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="62"/>
-      <c r="E9" s="58" t="s">
+      <c r="C9" s="60"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="69"/>
+      <c r="G9" s="67"/>
       <c r="H9" s="23" t="str">
         <f>IF(E9="","","予定")</f>
         <v>予定</v>
@@ -2716,13 +2723,13 @@
       <c r="S9" s="31"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="67"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="65"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="59"/>
-      <c r="G10" s="70"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="68"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
         <v>実績</v>
@@ -2740,21 +2747,21 @@
       <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="66"/>
-      <c r="B11" s="68" t="s">
+      <c r="A11" s="57"/>
+      <c r="B11" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="60" t="s">
+      <c r="C11" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="62"/>
-      <c r="E11" s="54" t="s">
+      <c r="D11" s="61"/>
+      <c r="E11" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="54" t="s">
+      <c r="F11" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="56"/>
+      <c r="G11" s="55"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2781,13 +2788,13 @@
       <c r="S11" s="31"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="67"/>
-      <c r="B12" s="57"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="65"/>
-      <c r="E12" s="55"/>
-      <c r="F12" s="55"/>
-      <c r="G12" s="57"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="56"/>
       <c r="H12" s="52" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -2814,21 +2821,21 @@
       <c r="S12" s="32"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="66"/>
-      <c r="B13" s="68" t="s">
+      <c r="A13" s="57"/>
+      <c r="B13" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="60" t="s">
+      <c r="C13" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="62"/>
-      <c r="E13" s="54" t="s">
+      <c r="D13" s="61"/>
+      <c r="E13" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="54" t="s">
+      <c r="F13" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="56"/>
+      <c r="G13" s="55"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2854,13 +2861,13 @@
       <c r="S13" s="31"/>
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="67"/>
-      <c r="B14" s="57"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="65"/>
-      <c r="E14" s="55"/>
-      <c r="F14" s="55"/>
-      <c r="G14" s="57"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="56"/>
       <c r="H14" s="52" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2887,19 +2894,19 @@
       <c r="S14" s="32"/>
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="66">
+      <c r="A15" s="57">
         <v>2</v>
       </c>
-      <c r="B15" s="60" t="s">
+      <c r="B15" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="61"/>
-      <c r="D15" s="62"/>
-      <c r="E15" s="58" t="s">
+      <c r="C15" s="60"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="58"/>
-      <c r="G15" s="69"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="67"/>
       <c r="H15" s="23" t="str">
         <f>IF(E15="","","予定")</f>
         <v>予定</v>
@@ -2917,13 +2924,13 @@
       <c r="S15" s="31"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="67"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="65"/>
-      <c r="E16" s="59"/>
-      <c r="F16" s="59"/>
-      <c r="G16" s="70"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="68"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
         <v>実績</v>
@@ -2941,21 +2948,21 @@
       <c r="S16" s="32"/>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="66"/>
-      <c r="B17" s="68" t="s">
+      <c r="A17" s="57"/>
+      <c r="B17" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="60" t="s">
+      <c r="C17" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="62"/>
-      <c r="E17" s="54" t="s">
+      <c r="D17" s="61"/>
+      <c r="E17" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="54" t="s">
+      <c r="F17" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="56"/>
+      <c r="G17" s="55"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -2981,13 +2988,13 @@
       <c r="S17" s="31"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="67"/>
-      <c r="B18" s="57"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="65"/>
-      <c r="E18" s="55"/>
-      <c r="F18" s="55"/>
-      <c r="G18" s="57"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="56"/>
       <c r="H18" s="52" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -3014,21 +3021,21 @@
       <c r="S18" s="32"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="66"/>
-      <c r="B19" s="68" t="s">
+      <c r="A19" s="57"/>
+      <c r="B19" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="60" t="s">
+      <c r="C19" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="62"/>
-      <c r="E19" s="54" t="s">
+      <c r="D19" s="61"/>
+      <c r="E19" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="54" t="s">
+      <c r="F19" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="56"/>
+      <c r="G19" s="55"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3054,13 +3061,13 @@
       <c r="S19" s="31"/>
     </row>
     <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="67"/>
-      <c r="B20" s="57"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="65"/>
-      <c r="E20" s="55"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="57"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="56"/>
       <c r="H20" s="52" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -3087,21 +3094,21 @@
       <c r="S20" s="32"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="66"/>
-      <c r="B21" s="68" t="s">
+      <c r="A21" s="57"/>
+      <c r="B21" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="60" t="s">
+      <c r="C21" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="62"/>
-      <c r="E21" s="54" t="s">
+      <c r="D21" s="61"/>
+      <c r="E21" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="54" t="s">
+      <c r="F21" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="56"/>
+      <c r="G21" s="55"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3127,13 +3134,13 @@
       <c r="S21" s="31"/>
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="67"/>
-      <c r="B22" s="57"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="65"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="57"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="56"/>
       <c r="H22" s="52" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3160,15 +3167,15 @@
       <c r="S22" s="32"/>
     </row>
     <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="73" t="s">
+      <c r="A23" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="74"/>
-      <c r="C23" s="74"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="71"/>
-      <c r="F23" s="71"/>
-      <c r="G23" s="120"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="80"/>
       <c r="H23" s="20" t="s">
         <v>19</v>
       </c>
@@ -3212,13 +3219,13 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="76"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="78"/>
-      <c r="E24" s="72"/>
-      <c r="F24" s="72"/>
-      <c r="G24" s="121"/>
+      <c r="A24" s="75"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="81"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
@@ -3226,7 +3233,7 @@
       <c r="J24" s="7"/>
       <c r="K24" s="15">
         <f t="shared" ref="K24:S24" si="6">SUMPRODUCT((MOD(ROW(K$25:K$40),2)=0)*K$25:K$40)</f>
-        <v>6</v>
+        <v>18.5</v>
       </c>
       <c r="L24" s="42">
         <f t="shared" si="6"/>
@@ -3238,7 +3245,7 @@
       </c>
       <c r="N24" s="36">
         <f t="shared" si="6"/>
-        <v>0</v>
+        <v>12.5</v>
       </c>
       <c r="O24" s="36">
         <f t="shared" si="6"/>
@@ -3262,19 +3269,19 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="66">
+      <c r="A25" s="57">
         <v>1</v>
       </c>
-      <c r="B25" s="60" t="s">
+      <c r="B25" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="61"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="58" t="s">
+      <c r="C25" s="60"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="58"/>
-      <c r="G25" s="69"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="67"/>
       <c r="H25" s="23" t="str">
         <f>IF(E25="","","予定")</f>
         <v>予定</v>
@@ -3292,13 +3299,13 @@
       <c r="S25" s="31"/>
     </row>
     <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="67"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="65"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="70"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="68"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
         <v>実績</v>
@@ -3316,21 +3323,21 @@
       <c r="S26" s="32"/>
     </row>
     <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="66"/>
-      <c r="B27" s="68" t="s">
+      <c r="A27" s="57"/>
+      <c r="B27" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="60" t="s">
+      <c r="C27" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="62"/>
-      <c r="E27" s="54" t="s">
+      <c r="D27" s="61"/>
+      <c r="E27" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="54" t="s">
+      <c r="F27" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="56"/>
+      <c r="G27" s="55"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -3357,13 +3364,13 @@
       <c r="S27" s="31"/>
     </row>
     <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="67"/>
-      <c r="B28" s="57"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="65"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="55"/>
-      <c r="G28" s="57"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="56"/>
       <c r="H28" s="52" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3390,21 +3397,21 @@
       <c r="S28" s="32"/>
     </row>
     <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="66"/>
-      <c r="B29" s="68" t="s">
+      <c r="A29" s="57"/>
+      <c r="B29" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="60" t="s">
+      <c r="C29" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="62"/>
-      <c r="E29" s="54" t="s">
+      <c r="D29" s="61"/>
+      <c r="E29" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="54" t="s">
+      <c r="F29" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="56"/>
+      <c r="G29" s="55"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3431,13 +3438,13 @@
       <c r="S29" s="31"/>
     </row>
     <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="67"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="65"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="55"/>
-      <c r="G30" s="57"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="56"/>
       <c r="H30" s="52" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3450,11 +3457,13 @@
       </c>
       <c r="K30" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L30" s="48"/>
       <c r="M30" s="49"/>
-      <c r="N30" s="32"/>
+      <c r="N30" s="31">
+        <v>3</v>
+      </c>
       <c r="O30" s="32"/>
       <c r="P30" s="32"/>
       <c r="Q30" s="32"/>
@@ -3462,19 +3471,19 @@
       <c r="S30" s="32"/>
     </row>
     <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="66"/>
-      <c r="B31" s="68" t="s">
+      <c r="A31" s="57"/>
+      <c r="B31" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="60" t="s">
+      <c r="C31" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="62"/>
-      <c r="E31" s="54" t="s">
+      <c r="D31" s="61"/>
+      <c r="E31" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="54"/>
-      <c r="G31" s="56"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="55"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3501,26 +3510,32 @@
       <c r="S31" s="31"/>
     </row>
     <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="67"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="65"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="55"/>
-      <c r="G32" s="57"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="56"/>
       <c r="H32" s="52" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I32" s="52"/>
-      <c r="J32" s="52"/>
+      <c r="I32" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J32" s="8">
+        <v>6</v>
+      </c>
       <c r="K32" s="10">
         <f t="shared" si="7"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="L32" s="41"/>
       <c r="M32" s="32"/>
-      <c r="N32" s="32"/>
+      <c r="N32" s="31">
+        <v>6</v>
+      </c>
       <c r="O32" s="32"/>
       <c r="P32" s="32"/>
       <c r="Q32" s="32"/>
@@ -3528,19 +3543,19 @@
       <c r="S32" s="32"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="66">
+      <c r="A33" s="57">
         <v>2</v>
       </c>
-      <c r="B33" s="60" t="s">
+      <c r="B33" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="58" t="s">
+      <c r="C33" s="60"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="58"/>
-      <c r="G33" s="69"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="67"/>
       <c r="H33" s="23" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
@@ -3558,13 +3573,13 @@
       <c r="S33" s="31"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="67"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="65"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="70"/>
+      <c r="A34" s="58"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="68"/>
       <c r="H34" s="24" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3582,19 +3597,19 @@
       <c r="S34" s="32"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="66"/>
-      <c r="B35" s="68" t="s">
+      <c r="A35" s="57"/>
+      <c r="B35" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="60" t="s">
+      <c r="C35" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="62"/>
-      <c r="E35" s="54" t="s">
+      <c r="D35" s="61"/>
+      <c r="E35" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="54"/>
-      <c r="G35" s="56"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="55"/>
       <c r="H35" s="8" t="str">
         <f>IF(E35="","","予定")</f>
         <v>予定</v>
@@ -3621,26 +3636,32 @@
       <c r="S35" s="31"/>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="67"/>
-      <c r="B36" s="57"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="65"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="57"/>
+      <c r="A36" s="58"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="56"/>
       <c r="H36" s="52" t="str">
         <f>IF(E35="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I36" s="52"/>
-      <c r="J36" s="52"/>
+      <c r="I36" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="J36" s="54">
+        <v>3</v>
+      </c>
       <c r="K36" s="10">
         <f>SUM(L36:S36)</f>
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="L36" s="41"/>
       <c r="M36" s="51"/>
-      <c r="N36" s="50"/>
+      <c r="N36" s="31">
+        <v>1.5</v>
+      </c>
       <c r="O36" s="32"/>
       <c r="P36" s="32"/>
       <c r="Q36" s="32"/>
@@ -3648,19 +3669,19 @@
       <c r="S36" s="32"/>
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="66"/>
-      <c r="B37" s="68" t="s">
+      <c r="A37" s="57"/>
+      <c r="B37" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="60" t="s">
+      <c r="C37" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="62"/>
-      <c r="E37" s="54" t="s">
+      <c r="D37" s="61"/>
+      <c r="E37" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="54"/>
-      <c r="G37" s="56"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="55"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3687,26 +3708,32 @@
       <c r="S37" s="31"/>
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="67"/>
-      <c r="B38" s="57"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="65"/>
-      <c r="E38" s="55"/>
-      <c r="F38" s="55"/>
-      <c r="G38" s="57"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="56"/>
       <c r="H38" s="52" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I38" s="52"/>
-      <c r="J38" s="52"/>
-      <c r="K38" s="10">
-        <f>SUM(L38:M38)</f>
-        <v>0</v>
+      <c r="I38" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J38" s="8">
+        <v>6</v>
+      </c>
+      <c r="K38" s="9">
+        <f>SUM(L38:S38)</f>
+        <v>1.5</v>
       </c>
       <c r="L38" s="48"/>
       <c r="M38" s="50"/>
-      <c r="N38" s="32"/>
+      <c r="N38" s="31">
+        <v>1.5</v>
+      </c>
       <c r="O38" s="32"/>
       <c r="P38" s="32"/>
       <c r="Q38" s="32"/>
@@ -3714,19 +3741,19 @@
       <c r="S38" s="32"/>
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="66"/>
-      <c r="B39" s="68" t="s">
+      <c r="A39" s="57"/>
+      <c r="B39" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="60" t="s">
+      <c r="C39" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="62"/>
-      <c r="E39" s="54" t="s">
+      <c r="D39" s="61"/>
+      <c r="E39" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="54"/>
-      <c r="G39" s="56"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="55"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3738,7 +3765,7 @@
         <v>1</v>
       </c>
       <c r="K39" s="9">
-        <f>SUM(L39:S39)</f>
+        <f t="shared" ref="K38:K39" si="8">SUM(L39:S39)</f>
         <v>0.5</v>
       </c>
       <c r="L39" s="33"/>
@@ -3753,26 +3780,31 @@
       <c r="S39" s="31"/>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="67"/>
-      <c r="B40" s="57"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="65"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="57"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="56"/>
       <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I40" s="52"/>
-      <c r="J40" s="52"/>
+      <c r="I40" s="52" t="s">
+        <v>66</v>
+      </c>
+      <c r="J40" s="8">
+        <v>1</v>
+      </c>
       <c r="K40" s="10">
-        <f>SUM(L40:M40)</f>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L40" s="48"/>
       <c r="M40" s="50"/>
-      <c r="N40" s="32"/>
+      <c r="N40" s="31">
+        <v>0.5</v>
+      </c>
       <c r="O40" s="32"/>
       <c r="P40" s="32"/>
       <c r="Q40" s="32"/>
@@ -3780,15 +3812,15 @@
       <c r="S40" s="32"/>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="73" t="s">
+      <c r="A41" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="74"/>
-      <c r="C41" s="74"/>
-      <c r="D41" s="75"/>
-      <c r="E41" s="71"/>
-      <c r="F41" s="71"/>
-      <c r="G41" s="120"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="80"/>
       <c r="H41" s="20" t="s">
         <v>19</v>
       </c>
@@ -3799,11 +3831,11 @@
         <v>18.5</v>
       </c>
       <c r="L41" s="35">
-        <f t="shared" ref="L41:M41" si="8">SUMPRODUCT((MOD(ROW(L$43:L$56),2)=1)*L$43:L$56)</f>
+        <f t="shared" ref="L41:M41" si="9">SUMPRODUCT((MOD(ROW(L$43:L$56),2)=1)*L$43:L$56)</f>
         <v>0</v>
       </c>
       <c r="M41" s="35">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
       <c r="N41" s="35">
@@ -3811,34 +3843,34 @@
         <v>5</v>
       </c>
       <c r="O41" s="35">
-        <f t="shared" ref="O41:S41" si="9">SUMPRODUCT((MOD(ROW(O$43:O$56),2)=1)*O$43:O$56)</f>
+        <f t="shared" ref="O41:S41" si="10">SUMPRODUCT((MOD(ROW(O$43:O$56),2)=1)*O$43:O$56)</f>
         <v>13.5</v>
       </c>
       <c r="P41" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="Q41" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="R41" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
       <c r="S41" s="35">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="76"/>
-      <c r="B42" s="77"/>
-      <c r="C42" s="77"/>
-      <c r="D42" s="78"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="72"/>
-      <c r="G42" s="121"/>
+      <c r="A42" s="75"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="81"/>
       <c r="H42" s="7" t="s">
         <v>20</v>
       </c>
@@ -3849,7 +3881,7 @@
         <v>16</v>
       </c>
       <c r="L42" s="36">
-        <f t="shared" ref="L42:S42" si="10">SUMPRODUCT((MOD(ROW(L$43:L$56),2)=0)*L$43:L$56)</f>
+        <f t="shared" ref="L42:S42" si="11">SUMPRODUCT((MOD(ROW(L$43:L$56),2)=0)*L$43:L$56)</f>
         <v>0</v>
       </c>
       <c r="M42" s="36">
@@ -3857,44 +3889,44 @@
         <v>0</v>
       </c>
       <c r="N42" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="O42" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
       <c r="P42" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="Q42" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="R42" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
       <c r="S42" s="36">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="66">
+      <c r="A43" s="57">
         <v>1</v>
       </c>
-      <c r="B43" s="60" t="s">
+      <c r="B43" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="61"/>
-      <c r="D43" s="62"/>
-      <c r="E43" s="58" t="s">
+      <c r="C43" s="60"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="58"/>
-      <c r="G43" s="69"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="67"/>
       <c r="H43" s="23" t="str">
         <f>IF(E43="","","予定")</f>
         <v>予定</v>
@@ -3912,13 +3944,13 @@
       <c r="S43" s="31"/>
     </row>
     <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="67"/>
-      <c r="B44" s="63"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="65"/>
-      <c r="E44" s="59"/>
-      <c r="F44" s="59"/>
-      <c r="G44" s="70"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="68"/>
       <c r="H44" s="24" t="str">
         <f>IF(E43="","","実績")</f>
         <v>実績</v>
@@ -3936,19 +3968,19 @@
       <c r="S44" s="32"/>
     </row>
     <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="66"/>
-      <c r="B45" s="68" t="s">
+      <c r="A45" s="57"/>
+      <c r="B45" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="60" t="s">
+      <c r="C45" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="62"/>
-      <c r="E45" s="54" t="s">
+      <c r="D45" s="61"/>
+      <c r="E45" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="54"/>
-      <c r="G45" s="56"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="55"/>
       <c r="H45" s="8" t="str">
         <f>IF(E45="","","予定")</f>
         <v>予定</v>
@@ -3977,13 +4009,13 @@
       <c r="S45" s="31"/>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="67"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="63"/>
-      <c r="D46" s="65"/>
-      <c r="E46" s="55"/>
-      <c r="F46" s="55"/>
-      <c r="G46" s="57"/>
+      <c r="A46" s="58"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="56"/>
       <c r="H46" s="52" t="str">
         <f>IF(E45="","","実績")</f>
         <v>実績</v>
@@ -4011,19 +4043,19 @@
       <c r="S46" s="32"/>
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="66"/>
-      <c r="B47" s="68" t="s">
+      <c r="A47" s="57"/>
+      <c r="B47" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="60" t="s">
+      <c r="C47" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="62"/>
-      <c r="E47" s="54" t="s">
+      <c r="D47" s="61"/>
+      <c r="E47" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="54"/>
-      <c r="G47" s="56"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="55"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4050,13 +4082,13 @@
       <c r="S47" s="31"/>
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="67"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="65"/>
-      <c r="E48" s="55"/>
-      <c r="F48" s="55"/>
-      <c r="G48" s="57"/>
+      <c r="A48" s="58"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="56"/>
       <c r="H48" s="52" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -4083,19 +4115,19 @@
       <c r="S48" s="32"/>
     </row>
     <row r="49" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="66">
+      <c r="A49" s="57">
         <v>2</v>
       </c>
-      <c r="B49" s="60" t="s">
+      <c r="B49" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="61"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="58" t="s">
+      <c r="C49" s="60"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="58"/>
-      <c r="G49" s="69"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="67"/>
       <c r="H49" s="23" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4113,13 +4145,13 @@
       <c r="S49" s="31"/>
     </row>
     <row r="50" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="67"/>
-      <c r="B50" s="63"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="65"/>
-      <c r="E50" s="59"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="70"/>
+      <c r="A50" s="58"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="68"/>
       <c r="H50" s="24" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -4137,19 +4169,19 @@
       <c r="S50" s="32"/>
     </row>
     <row r="51" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="66"/>
-      <c r="B51" s="68" t="s">
+      <c r="A51" s="57"/>
+      <c r="B51" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="60" t="s">
+      <c r="C51" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="62"/>
-      <c r="E51" s="54" t="s">
+      <c r="D51" s="61"/>
+      <c r="E51" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="54"/>
-      <c r="G51" s="56"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="55"/>
       <c r="H51" s="8" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -4161,7 +4193,7 @@
         <v>5</v>
       </c>
       <c r="K51" s="9">
-        <f t="shared" ref="K51:K56" si="11">SUM(L51:S51)</f>
+        <f t="shared" ref="K51:K56" si="12">SUM(L51:S51)</f>
         <v>2.5</v>
       </c>
       <c r="L51" s="33"/>
@@ -4176,13 +4208,13 @@
       <c r="S51" s="31"/>
     </row>
     <row r="52" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="67"/>
-      <c r="B52" s="57"/>
-      <c r="C52" s="63"/>
-      <c r="D52" s="65"/>
-      <c r="E52" s="55"/>
-      <c r="F52" s="55"/>
-      <c r="G52" s="57"/>
+      <c r="A52" s="58"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="56"/>
       <c r="H52" s="52" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -4208,19 +4240,19 @@
       <c r="S52" s="32"/>
     </row>
     <row r="53" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="66"/>
-      <c r="B53" s="68" t="s">
+      <c r="A53" s="57"/>
+      <c r="B53" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C53" s="60" t="s">
+      <c r="C53" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="62"/>
-      <c r="E53" s="54" t="s">
+      <c r="D53" s="61"/>
+      <c r="E53" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F53" s="54"/>
-      <c r="G53" s="56"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="55"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v>予定</v>
@@ -4248,13 +4280,13 @@
       <c r="T53" s="31"/>
     </row>
     <row r="54" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="67"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="63"/>
-      <c r="D54" s="65"/>
-      <c r="E54" s="55"/>
-      <c r="F54" s="55"/>
-      <c r="G54" s="57"/>
+      <c r="A54" s="58"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="56"/>
       <c r="H54" s="52" t="str">
         <f>IF(E53="","","実績")</f>
         <v>実績</v>
@@ -4266,7 +4298,7 @@
         <v>5</v>
       </c>
       <c r="K54" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>2.5</v>
       </c>
       <c r="L54" s="41"/>
@@ -4281,19 +4313,19 @@
       <c r="S54" s="32"/>
     </row>
     <row r="55" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="66"/>
-      <c r="B55" s="68" t="s">
+      <c r="A55" s="57"/>
+      <c r="B55" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="60" t="s">
+      <c r="C55" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="D55" s="62"/>
-      <c r="E55" s="54" t="s">
+      <c r="D55" s="61"/>
+      <c r="E55" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F55" s="54"/>
-      <c r="G55" s="56"/>
+      <c r="F55" s="70"/>
+      <c r="G55" s="55"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4321,13 +4353,13 @@
       <c r="T55" s="31"/>
     </row>
     <row r="56" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="67"/>
-      <c r="B56" s="57"/>
-      <c r="C56" s="63"/>
-      <c r="D56" s="65"/>
-      <c r="E56" s="55"/>
-      <c r="F56" s="55"/>
-      <c r="G56" s="57"/>
+      <c r="A56" s="58"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="56"/>
       <c r="H56" s="52" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
@@ -4339,7 +4371,7 @@
         <v>1</v>
       </c>
       <c r="K56" s="10">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>0.5</v>
       </c>
       <c r="L56" s="43"/>
@@ -4354,15 +4386,15 @@
       <c r="S56" s="44"/>
     </row>
     <row r="57" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="73" t="s">
+      <c r="A57" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="74"/>
-      <c r="C57" s="74"/>
-      <c r="D57" s="75"/>
-      <c r="E57" s="71"/>
-      <c r="F57" s="71"/>
-      <c r="G57" s="120"/>
+      <c r="B57" s="73"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="78"/>
+      <c r="F57" s="78"/>
+      <c r="G57" s="80"/>
       <c r="H57" s="20" t="s">
         <v>19</v>
       </c>
@@ -4373,15 +4405,15 @@
         <v>27</v>
       </c>
       <c r="L57" s="35">
-        <f t="shared" ref="L57:N57" si="12">SUMPRODUCT((MOD(ROW(L$59:L$74),2)=1)*L$59:L$74)</f>
+        <f t="shared" ref="L57:N57" si="13">SUMPRODUCT((MOD(ROW(L$59:L$74),2)=1)*L$59:L$74)</f>
         <v>0</v>
       </c>
       <c r="M57" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="N57" s="35">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>0</v>
       </c>
       <c r="O57" s="35">
@@ -4394,22 +4426,22 @@
         <v>3</v>
       </c>
       <c r="R57" s="35">
-        <f t="shared" ref="R57:S57" si="13">SUMPRODUCT((MOD(ROW(R$59:R$74),2)=1)*R$59:R$74)</f>
+        <f t="shared" ref="R57:S57" si="14">SUMPRODUCT((MOD(ROW(R$59:R$74),2)=1)*R$59:R$74)</f>
         <v>0</v>
       </c>
       <c r="S57" s="35">
-        <f t="shared" si="13"/>
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="76"/>
-      <c r="B58" s="77"/>
-      <c r="C58" s="77"/>
-      <c r="D58" s="78"/>
-      <c r="E58" s="72"/>
-      <c r="F58" s="72"/>
-      <c r="G58" s="121"/>
+      <c r="A58" s="75"/>
+      <c r="B58" s="76"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="79"/>
+      <c r="G58" s="81"/>
       <c r="H58" s="7" t="s">
         <v>20</v>
       </c>
@@ -4424,48 +4456,48 @@
         <v>0</v>
       </c>
       <c r="M58" s="36">
-        <f t="shared" ref="M58:S58" si="14">SUMPRODUCT((MOD(ROW(M$59:M$74),2)=0)*M$59:M$74)</f>
+        <f t="shared" ref="M58:S58" si="15">SUMPRODUCT((MOD(ROW(M$59:M$74),2)=0)*M$59:M$74)</f>
         <v>0</v>
       </c>
       <c r="N58" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="O58" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="P58" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="Q58" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="R58" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="S58" s="36">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="66">
+      <c r="A59" s="57">
         <v>1</v>
       </c>
-      <c r="B59" s="60" t="s">
+      <c r="B59" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="61"/>
-      <c r="D59" s="62"/>
-      <c r="E59" s="58" t="s">
+      <c r="C59" s="60"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="F59" s="58"/>
-      <c r="G59" s="69"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="67"/>
       <c r="H59" s="23" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
@@ -4483,13 +4515,13 @@
       <c r="S59" s="31"/>
     </row>
     <row r="60" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="67"/>
-      <c r="B60" s="63"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="65"/>
-      <c r="E60" s="59"/>
-      <c r="F60" s="59"/>
-      <c r="G60" s="70"/>
+      <c r="A60" s="58"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="66"/>
+      <c r="F60" s="66"/>
+      <c r="G60" s="68"/>
       <c r="H60" s="24" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
@@ -4507,19 +4539,19 @@
       <c r="S60" s="32"/>
     </row>
     <row r="61" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="66"/>
-      <c r="B61" s="68" t="s">
+      <c r="A61" s="57"/>
+      <c r="B61" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C61" s="60" t="s">
+      <c r="C61" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="D61" s="62"/>
-      <c r="E61" s="54" t="s">
+      <c r="D61" s="61"/>
+      <c r="E61" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F61" s="54"/>
-      <c r="G61" s="56"/>
+      <c r="F61" s="70"/>
+      <c r="G61" s="55"/>
       <c r="H61" s="8" t="str">
         <f>IF(E61="","","予定")</f>
         <v>予定</v>
@@ -4547,13 +4579,13 @@
       <c r="S61" s="31"/>
     </row>
     <row r="62" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="67"/>
-      <c r="B62" s="57"/>
-      <c r="C62" s="63"/>
-      <c r="D62" s="65"/>
-      <c r="E62" s="55"/>
-      <c r="F62" s="55"/>
-      <c r="G62" s="57"/>
+      <c r="A62" s="58"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="71"/>
+      <c r="G62" s="56"/>
       <c r="H62" s="52" t="str">
         <f>IF(E61="","","実績")</f>
         <v>実績</v>
@@ -4561,7 +4593,7 @@
       <c r="I62" s="52"/>
       <c r="J62" s="52"/>
       <c r="K62" s="10">
-        <f t="shared" ref="K62:K66" si="15">SUM(L62:S62)</f>
+        <f t="shared" ref="K62:K66" si="16">SUM(L62:S62)</f>
         <v>0</v>
       </c>
       <c r="L62" s="41"/>
@@ -4574,19 +4606,19 @@
       <c r="S62" s="32"/>
     </row>
     <row r="63" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="66"/>
-      <c r="B63" s="68" t="s">
+      <c r="A63" s="57"/>
+      <c r="B63" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="60" t="s">
+      <c r="C63" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="D63" s="62"/>
-      <c r="E63" s="54" t="s">
+      <c r="D63" s="61"/>
+      <c r="E63" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F63" s="54"/>
-      <c r="G63" s="56"/>
+      <c r="F63" s="70"/>
+      <c r="G63" s="55"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v>予定</v>
@@ -4613,13 +4645,13 @@
       <c r="S63" s="31"/>
     </row>
     <row r="64" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="67"/>
-      <c r="B64" s="57"/>
-      <c r="C64" s="63"/>
-      <c r="D64" s="65"/>
-      <c r="E64" s="55"/>
-      <c r="F64" s="55"/>
-      <c r="G64" s="57"/>
+      <c r="A64" s="58"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="71"/>
+      <c r="F64" s="71"/>
+      <c r="G64" s="56"/>
       <c r="H64" s="52" t="str">
         <f>IF(E63="","","実績")</f>
         <v>実績</v>
@@ -4627,7 +4659,7 @@
       <c r="I64" s="52"/>
       <c r="J64" s="52"/>
       <c r="K64" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L64" s="41"/>
@@ -4640,19 +4672,19 @@
       <c r="S64" s="32"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="66"/>
-      <c r="B65" s="68" t="s">
+      <c r="A65" s="57"/>
+      <c r="B65" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C65" s="60" t="s">
+      <c r="C65" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="D65" s="62"/>
-      <c r="E65" s="54" t="s">
+      <c r="D65" s="61"/>
+      <c r="E65" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F65" s="54"/>
-      <c r="G65" s="56"/>
+      <c r="F65" s="70"/>
+      <c r="G65" s="55"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4664,7 +4696,7 @@
         <v>6</v>
       </c>
       <c r="K65" s="9">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6</v>
       </c>
       <c r="L65" s="33"/>
@@ -4679,13 +4711,13 @@
       <c r="S65" s="31"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="67"/>
-      <c r="B66" s="57"/>
-      <c r="C66" s="63"/>
-      <c r="D66" s="65"/>
-      <c r="E66" s="55"/>
-      <c r="F66" s="55"/>
-      <c r="G66" s="57"/>
+      <c r="A66" s="58"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="71"/>
+      <c r="F66" s="71"/>
+      <c r="G66" s="56"/>
       <c r="H66" s="52" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -4693,7 +4725,7 @@
       <c r="I66" s="52"/>
       <c r="J66" s="52"/>
       <c r="K66" s="10">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0</v>
       </c>
       <c r="L66" s="41"/>
@@ -4706,19 +4738,19 @@
       <c r="S66" s="32"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="66">
+      <c r="A67" s="57">
         <v>2</v>
       </c>
-      <c r="B67" s="60" t="s">
+      <c r="B67" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C67" s="61"/>
-      <c r="D67" s="62"/>
-      <c r="E67" s="58" t="s">
+      <c r="C67" s="60"/>
+      <c r="D67" s="61"/>
+      <c r="E67" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="F67" s="58"/>
-      <c r="G67" s="69"/>
+      <c r="F67" s="65"/>
+      <c r="G67" s="67"/>
       <c r="H67" s="23" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4736,13 +4768,13 @@
       <c r="S67" s="31"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="67"/>
-      <c r="B68" s="63"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="65"/>
-      <c r="E68" s="59"/>
-      <c r="F68" s="59"/>
-      <c r="G68" s="70"/>
+      <c r="A68" s="58"/>
+      <c r="B68" s="62"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="68"/>
       <c r="H68" s="24" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -4760,19 +4792,19 @@
       <c r="S68" s="32"/>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="66"/>
-      <c r="B69" s="68" t="s">
+      <c r="A69" s="57"/>
+      <c r="B69" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C69" s="60" t="s">
+      <c r="C69" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="62"/>
-      <c r="E69" s="54" t="s">
+      <c r="D69" s="61"/>
+      <c r="E69" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="F69" s="54"/>
-      <c r="G69" s="56"/>
+      <c r="F69" s="70"/>
+      <c r="G69" s="55"/>
       <c r="H69" s="8" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
@@ -4784,7 +4816,7 @@
         <v>5</v>
       </c>
       <c r="K69" s="9">
-        <f t="shared" ref="K69:K74" si="16">SUM(L69:S69)</f>
+        <f t="shared" ref="K69:K74" si="17">SUM(L69:S69)</f>
         <v>1.5</v>
       </c>
       <c r="L69" s="33"/>
@@ -4799,13 +4831,13 @@
       <c r="S69" s="31"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="67"/>
-      <c r="B70" s="57"/>
-      <c r="C70" s="63"/>
-      <c r="D70" s="65"/>
-      <c r="E70" s="55"/>
-      <c r="F70" s="55"/>
-      <c r="G70" s="57"/>
+      <c r="A70" s="58"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="71"/>
+      <c r="F70" s="71"/>
+      <c r="G70" s="56"/>
       <c r="H70" s="52" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
@@ -4813,7 +4845,7 @@
       <c r="I70" s="52"/>
       <c r="J70" s="52"/>
       <c r="K70" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L70" s="41"/>
@@ -4826,19 +4858,19 @@
       <c r="S70" s="32"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="66"/>
-      <c r="B71" s="68" t="s">
+      <c r="A71" s="57"/>
+      <c r="B71" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="60" t="s">
+      <c r="C71" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D71" s="62"/>
-      <c r="E71" s="54" t="s">
+      <c r="D71" s="61"/>
+      <c r="E71" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="F71" s="54"/>
-      <c r="G71" s="56"/>
+      <c r="F71" s="70"/>
+      <c r="G71" s="55"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v>予定</v>
@@ -4850,7 +4882,7 @@
         <v>5</v>
       </c>
       <c r="K71" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.5</v>
       </c>
       <c r="L71" s="33"/>
@@ -4865,13 +4897,13 @@
       <c r="S71" s="31"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="67"/>
-      <c r="B72" s="57"/>
-      <c r="C72" s="63"/>
-      <c r="D72" s="65"/>
-      <c r="E72" s="55"/>
-      <c r="F72" s="55"/>
-      <c r="G72" s="57"/>
+      <c r="A72" s="58"/>
+      <c r="B72" s="56"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="71"/>
+      <c r="F72" s="71"/>
+      <c r="G72" s="56"/>
       <c r="H72" s="52" t="str">
         <f>IF(E71="","","実績")</f>
         <v>実績</v>
@@ -4879,7 +4911,7 @@
       <c r="I72" s="52"/>
       <c r="J72" s="52"/>
       <c r="K72" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L72" s="41"/>
@@ -4892,19 +4924,19 @@
       <c r="S72" s="32"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="66"/>
-      <c r="B73" s="68" t="s">
+      <c r="A73" s="57"/>
+      <c r="B73" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C73" s="60" t="s">
+      <c r="C73" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="D73" s="62"/>
-      <c r="E73" s="54" t="s">
+      <c r="D73" s="61"/>
+      <c r="E73" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="F73" s="54"/>
-      <c r="G73" s="56"/>
+      <c r="F73" s="70"/>
+      <c r="G73" s="55"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -4916,7 +4948,7 @@
         <v>1</v>
       </c>
       <c r="K73" s="9">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>1.5</v>
       </c>
       <c r="L73" s="33"/>
@@ -4931,13 +4963,13 @@
       <c r="S73" s="31"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="67"/>
-      <c r="B74" s="57"/>
-      <c r="C74" s="63"/>
-      <c r="D74" s="65"/>
-      <c r="E74" s="55"/>
-      <c r="F74" s="55"/>
-      <c r="G74" s="57"/>
+      <c r="A74" s="58"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="71"/>
+      <c r="G74" s="56"/>
       <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -4945,7 +4977,7 @@
       <c r="I74" s="52"/>
       <c r="J74" s="52"/>
       <c r="K74" s="10">
-        <f t="shared" si="16"/>
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
       <c r="L74" s="43"/>
@@ -4958,15 +4990,15 @@
       <c r="S74" s="44"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="73" t="s">
+      <c r="A75" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="B75" s="74"/>
-      <c r="C75" s="74"/>
-      <c r="D75" s="75"/>
-      <c r="E75" s="71"/>
-      <c r="F75" s="71"/>
-      <c r="G75" s="120"/>
+      <c r="B75" s="73"/>
+      <c r="C75" s="73"/>
+      <c r="D75" s="74"/>
+      <c r="E75" s="78"/>
+      <c r="F75" s="78"/>
+      <c r="G75" s="80"/>
       <c r="H75" s="20" t="s">
         <v>19</v>
       </c>
@@ -4977,19 +5009,19 @@
         <v>12</v>
       </c>
       <c r="L75" s="35">
-        <f t="shared" ref="L75:O75" si="17">SUMPRODUCT((MOD(ROW(L$77:L$82),2)=1)*L$77:L$82)</f>
+        <f t="shared" ref="L75:O75" si="18">SUMPRODUCT((MOD(ROW(L$77:L$82),2)=1)*L$77:L$82)</f>
         <v>0</v>
       </c>
       <c r="M75" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="N75" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="O75" s="35">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="P75" s="35"/>
@@ -4998,18 +5030,18 @@
       </c>
       <c r="R75" s="35"/>
       <c r="S75" s="35">
-        <f t="shared" ref="S75" si="18">SUMPRODUCT((MOD(ROW(S$77:S$82),2)=1)*S$77:S$82)</f>
+        <f t="shared" ref="S75" si="19">SUMPRODUCT((MOD(ROW(S$77:S$82),2)=1)*S$77:S$82)</f>
         <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="76"/>
-      <c r="B76" s="77"/>
-      <c r="C76" s="77"/>
-      <c r="D76" s="78"/>
-      <c r="E76" s="72"/>
-      <c r="F76" s="72"/>
-      <c r="G76" s="121"/>
+      <c r="A76" s="75"/>
+      <c r="B76" s="76"/>
+      <c r="C76" s="76"/>
+      <c r="D76" s="77"/>
+      <c r="E76" s="79"/>
+      <c r="F76" s="79"/>
+      <c r="G76" s="81"/>
       <c r="H76" s="7" t="s">
         <v>20</v>
       </c>
@@ -5020,7 +5052,7 @@
         <v>0</v>
       </c>
       <c r="L76" s="36">
-        <f t="shared" ref="L76:S76" si="19">SUMPRODUCT((MOD(ROW(L$77:L$82),2)=0)*L$77:L$82)</f>
+        <f t="shared" ref="L76:S76" si="20">SUMPRODUCT((MOD(ROW(L$77:L$82),2)=0)*L$77:L$82)</f>
         <v>0</v>
       </c>
       <c r="M76" s="36">
@@ -5028,42 +5060,42 @@
         <v>0</v>
       </c>
       <c r="N76" s="36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="O76" s="36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="P76" s="36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="Q76" s="36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="R76" s="36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="S76" s="36">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="66">
+      <c r="A77" s="57">
         <v>1</v>
       </c>
-      <c r="B77" s="60" t="s">
+      <c r="B77" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C77" s="61"/>
-      <c r="D77" s="62"/>
-      <c r="E77" s="58"/>
-      <c r="F77" s="58"/>
-      <c r="G77" s="69"/>
+      <c r="C77" s="60"/>
+      <c r="D77" s="61"/>
+      <c r="E77" s="65"/>
+      <c r="F77" s="65"/>
+      <c r="G77" s="67"/>
       <c r="H77" s="23" t="str">
         <f>IF(E77="","","予定")</f>
         <v/>
@@ -5081,13 +5113,13 @@
       <c r="S77" s="31"/>
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="67"/>
-      <c r="B78" s="63"/>
-      <c r="C78" s="64"/>
-      <c r="D78" s="65"/>
-      <c r="E78" s="59"/>
-      <c r="F78" s="59"/>
-      <c r="G78" s="70"/>
+      <c r="A78" s="58"/>
+      <c r="B78" s="62"/>
+      <c r="C78" s="63"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="66"/>
+      <c r="F78" s="66"/>
+      <c r="G78" s="68"/>
       <c r="H78" s="24" t="str">
         <f>IF(E77="","","実績")</f>
         <v/>
@@ -5105,19 +5137,19 @@
       <c r="S78" s="32"/>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="66"/>
-      <c r="B79" s="68" t="s">
+      <c r="A79" s="57"/>
+      <c r="B79" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C79" s="60" t="s">
+      <c r="C79" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="D79" s="62"/>
-      <c r="E79" s="54" t="s">
+      <c r="D79" s="61"/>
+      <c r="E79" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F79" s="54"/>
-      <c r="G79" s="56"/>
+      <c r="F79" s="70"/>
+      <c r="G79" s="55"/>
       <c r="H79" s="8" t="str">
         <f>IF(E79="","","予定")</f>
         <v>予定</v>
@@ -5129,7 +5161,7 @@
         <v>6</v>
       </c>
       <c r="K79" s="9">
-        <f t="shared" ref="K79:K82" si="20">SUM(L79:S79)</f>
+        <f t="shared" ref="K79:K82" si="21">SUM(L79:S79)</f>
         <v>6</v>
       </c>
       <c r="L79" s="33"/>
@@ -5144,13 +5176,13 @@
       <c r="S79" s="31"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="67"/>
-      <c r="B80" s="57"/>
-      <c r="C80" s="63"/>
-      <c r="D80" s="65"/>
-      <c r="E80" s="55"/>
-      <c r="F80" s="55"/>
-      <c r="G80" s="57"/>
+      <c r="A80" s="58"/>
+      <c r="B80" s="56"/>
+      <c r="C80" s="62"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="71"/>
+      <c r="F80" s="71"/>
+      <c r="G80" s="56"/>
       <c r="H80" s="52" t="str">
         <f>IF(E79="","","実績")</f>
         <v>実績</v>
@@ -5158,7 +5190,7 @@
       <c r="I80" s="52"/>
       <c r="J80" s="52"/>
       <c r="K80" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L80" s="41"/>
@@ -5171,19 +5203,19 @@
       <c r="S80" s="32"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="66"/>
-      <c r="B81" s="68" t="s">
+      <c r="A81" s="57"/>
+      <c r="B81" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="60" t="s">
+      <c r="C81" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="D81" s="62"/>
-      <c r="E81" s="54" t="s">
+      <c r="D81" s="61"/>
+      <c r="E81" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F81" s="54"/>
-      <c r="G81" s="56"/>
+      <c r="F81" s="70"/>
+      <c r="G81" s="55"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5195,7 +5227,7 @@
         <v>6</v>
       </c>
       <c r="K81" s="9">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>6</v>
       </c>
       <c r="L81" s="33"/>
@@ -5210,13 +5242,13 @@
       <c r="S81" s="31"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="67"/>
-      <c r="B82" s="57"/>
-      <c r="C82" s="63"/>
-      <c r="D82" s="65"/>
-      <c r="E82" s="55"/>
-      <c r="F82" s="55"/>
-      <c r="G82" s="57"/>
+      <c r="A82" s="58"/>
+      <c r="B82" s="56"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="64"/>
+      <c r="E82" s="71"/>
+      <c r="F82" s="71"/>
+      <c r="G82" s="56"/>
       <c r="H82" s="52" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
@@ -5224,7 +5256,7 @@
       <c r="I82" s="52"/>
       <c r="J82" s="52"/>
       <c r="K82" s="10">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
       <c r="L82" s="41"/>
@@ -5237,15 +5269,15 @@
       <c r="S82" s="32"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="73" t="s">
+      <c r="A83" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="B83" s="74"/>
-      <c r="C83" s="74"/>
-      <c r="D83" s="75"/>
-      <c r="E83" s="71"/>
-      <c r="F83" s="71"/>
-      <c r="G83" s="120"/>
+      <c r="B83" s="73"/>
+      <c r="C83" s="73"/>
+      <c r="D83" s="74"/>
+      <c r="E83" s="78"/>
+      <c r="F83" s="78"/>
+      <c r="G83" s="80"/>
       <c r="H83" s="20" t="s">
         <v>19</v>
       </c>
@@ -5255,23 +5287,23 @@
         <v>7.5</v>
       </c>
       <c r="L83" s="35">
-        <f t="shared" ref="L83:P83" si="21">SUMPRODUCT((MOD(ROW(L$85:L$96),2)=1)*L$85:L$96)</f>
+        <f t="shared" ref="L83:P83" si="22">SUMPRODUCT((MOD(ROW(L$85:L$96),2)=1)*L$85:L$96)</f>
         <v>0</v>
       </c>
       <c r="M83" s="35">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="N83" s="35">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="O83" s="35">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="P83" s="35">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
       <c r="Q83" s="35">
@@ -5282,18 +5314,18 @@
         <v>3</v>
       </c>
       <c r="S83" s="35">
-        <f t="shared" ref="S83" si="22">SUMPRODUCT((MOD(ROW(S$85:S$96),2)=1)*S$85:S$96)</f>
+        <f t="shared" ref="S83" si="23">SUMPRODUCT((MOD(ROW(S$85:S$96),2)=1)*S$85:S$96)</f>
         <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="76"/>
-      <c r="B84" s="77"/>
-      <c r="C84" s="77"/>
-      <c r="D84" s="78"/>
-      <c r="E84" s="72"/>
-      <c r="F84" s="72"/>
-      <c r="G84" s="121"/>
+      <c r="A84" s="75"/>
+      <c r="B84" s="76"/>
+      <c r="C84" s="76"/>
+      <c r="D84" s="77"/>
+      <c r="E84" s="79"/>
+      <c r="F84" s="79"/>
+      <c r="G84" s="81"/>
       <c r="H84" s="7" t="s">
         <v>20</v>
       </c>
@@ -5308,46 +5340,46 @@
         <v>0</v>
       </c>
       <c r="M84" s="36">
-        <f t="shared" ref="M84:S84" si="23">SUMPRODUCT((MOD(ROW(M$85:M$96),2)=0)*M$85:M$96)</f>
+        <f t="shared" ref="M84:S84" si="24">SUMPRODUCT((MOD(ROW(M$85:M$96),2)=0)*M$85:M$96)</f>
         <v>0</v>
       </c>
       <c r="N84" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="O84" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="P84" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="Q84" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="R84" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
       <c r="S84" s="36">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="66">
+      <c r="A85" s="57">
         <v>1</v>
       </c>
-      <c r="B85" s="60" t="s">
+      <c r="B85" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C85" s="61"/>
-      <c r="D85" s="62"/>
-      <c r="E85" s="58"/>
-      <c r="F85" s="58"/>
-      <c r="G85" s="69"/>
+      <c r="C85" s="60"/>
+      <c r="D85" s="61"/>
+      <c r="E85" s="65"/>
+      <c r="F85" s="65"/>
+      <c r="G85" s="67"/>
       <c r="H85" s="23" t="str">
         <f>IF(E85="","","予定")</f>
         <v/>
@@ -5365,13 +5397,13 @@
       <c r="S85" s="31"/>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="67"/>
-      <c r="B86" s="63"/>
-      <c r="C86" s="64"/>
-      <c r="D86" s="65"/>
-      <c r="E86" s="59"/>
-      <c r="F86" s="59"/>
-      <c r="G86" s="70"/>
+      <c r="A86" s="58"/>
+      <c r="B86" s="62"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="64"/>
+      <c r="E86" s="66"/>
+      <c r="F86" s="66"/>
+      <c r="G86" s="68"/>
       <c r="H86" s="24" t="str">
         <f>IF(E85="","","実績")</f>
         <v/>
@@ -5389,19 +5421,19 @@
       <c r="S86" s="32"/>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="66"/>
-      <c r="B87" s="68" t="s">
+      <c r="A87" s="57"/>
+      <c r="B87" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C87" s="60" t="s">
+      <c r="C87" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D87" s="62"/>
-      <c r="E87" s="54" t="s">
+      <c r="D87" s="61"/>
+      <c r="E87" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F87" s="54"/>
-      <c r="G87" s="56"/>
+      <c r="F87" s="70"/>
+      <c r="G87" s="55"/>
       <c r="H87" s="8" t="str">
         <f>IF(E87="","","予定")</f>
         <v>予定</v>
@@ -5428,13 +5460,13 @@
       <c r="S87" s="31"/>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="67"/>
-      <c r="B88" s="57"/>
-      <c r="C88" s="63"/>
-      <c r="D88" s="65"/>
-      <c r="E88" s="55"/>
-      <c r="F88" s="55"/>
-      <c r="G88" s="57"/>
+      <c r="A88" s="58"/>
+      <c r="B88" s="56"/>
+      <c r="C88" s="62"/>
+      <c r="D88" s="64"/>
+      <c r="E88" s="71"/>
+      <c r="F88" s="71"/>
+      <c r="G88" s="56"/>
       <c r="H88" s="52" t="str">
         <f>IF(E87="","","実績")</f>
         <v>実績</v>
@@ -5455,19 +5487,19 @@
       <c r="S88" s="32"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="66"/>
-      <c r="B89" s="68" t="s">
+      <c r="A89" s="57"/>
+      <c r="B89" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C89" s="79" t="s">
+      <c r="C89" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="D89" s="62"/>
-      <c r="E89" s="54" t="s">
+      <c r="D89" s="61"/>
+      <c r="E89" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F89" s="54"/>
-      <c r="G89" s="56"/>
+      <c r="F89" s="70"/>
+      <c r="G89" s="55"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -5494,13 +5526,13 @@
       <c r="S89" s="31"/>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="67"/>
-      <c r="B90" s="57"/>
-      <c r="C90" s="63"/>
-      <c r="D90" s="65"/>
-      <c r="E90" s="55"/>
-      <c r="F90" s="55"/>
-      <c r="G90" s="57"/>
+      <c r="A90" s="58"/>
+      <c r="B90" s="56"/>
+      <c r="C90" s="62"/>
+      <c r="D90" s="64"/>
+      <c r="E90" s="71"/>
+      <c r="F90" s="71"/>
+      <c r="G90" s="56"/>
       <c r="H90" s="52" t="str">
         <f>IF(E89="","","実績")</f>
         <v>実績</v>
@@ -5521,17 +5553,17 @@
       <c r="S90" s="32"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="66">
+      <c r="A91" s="57">
         <v>2</v>
       </c>
-      <c r="B91" s="60" t="s">
+      <c r="B91" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C91" s="61"/>
-      <c r="D91" s="62"/>
-      <c r="E91" s="58"/>
-      <c r="F91" s="58"/>
-      <c r="G91" s="69"/>
+      <c r="C91" s="60"/>
+      <c r="D91" s="61"/>
+      <c r="E91" s="65"/>
+      <c r="F91" s="65"/>
+      <c r="G91" s="67"/>
       <c r="H91" s="23" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -5551,13 +5583,13 @@
       <c r="S91" s="31"/>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="67"/>
-      <c r="B92" s="63"/>
-      <c r="C92" s="64"/>
-      <c r="D92" s="65"/>
-      <c r="E92" s="59"/>
-      <c r="F92" s="59"/>
-      <c r="G92" s="70"/>
+      <c r="A92" s="58"/>
+      <c r="B92" s="62"/>
+      <c r="C92" s="63"/>
+      <c r="D92" s="64"/>
+      <c r="E92" s="66"/>
+      <c r="F92" s="66"/>
+      <c r="G92" s="68"/>
       <c r="H92" s="24" t="str">
         <f>IF(E91="","","実績")</f>
         <v/>
@@ -5575,19 +5607,19 @@
       <c r="S92" s="32"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="66"/>
-      <c r="B93" s="68" t="s">
+      <c r="A93" s="57"/>
+      <c r="B93" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C93" s="60" t="s">
+      <c r="C93" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D93" s="62"/>
-      <c r="E93" s="54" t="s">
+      <c r="D93" s="61"/>
+      <c r="E93" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="F93" s="54"/>
-      <c r="G93" s="56"/>
+      <c r="F93" s="70"/>
+      <c r="G93" s="55"/>
       <c r="H93" s="8" t="str">
         <f>IF(E93="","","予定")</f>
         <v>予定</v>
@@ -5599,7 +5631,7 @@
         <v>5</v>
       </c>
       <c r="K93" s="9">
-        <f t="shared" ref="K93:K96" si="24">SUM(L93:S93)</f>
+        <f t="shared" ref="K93:K96" si="25">SUM(L93:S93)</f>
         <v>2.5</v>
       </c>
       <c r="L93" s="33"/>
@@ -5614,13 +5646,13 @@
       <c r="S93" s="31"/>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="67"/>
-      <c r="B94" s="57"/>
-      <c r="C94" s="63"/>
-      <c r="D94" s="65"/>
-      <c r="E94" s="55"/>
-      <c r="F94" s="55"/>
-      <c r="G94" s="57"/>
+      <c r="A94" s="58"/>
+      <c r="B94" s="56"/>
+      <c r="C94" s="62"/>
+      <c r="D94" s="64"/>
+      <c r="E94" s="71"/>
+      <c r="F94" s="71"/>
+      <c r="G94" s="56"/>
       <c r="H94" s="52" t="str">
         <f>IF(E93="","","実績")</f>
         <v>実績</v>
@@ -5628,7 +5660,7 @@
       <c r="I94" s="52"/>
       <c r="J94" s="52"/>
       <c r="K94" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L94" s="41"/>
@@ -5641,19 +5673,19 @@
       <c r="S94" s="32"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="66"/>
-      <c r="B95" s="68" t="s">
+      <c r="A95" s="57"/>
+      <c r="B95" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C95" s="60" t="s">
+      <c r="C95" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="D95" s="62"/>
-      <c r="E95" s="54" t="s">
+      <c r="D95" s="61"/>
+      <c r="E95" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="F95" s="54"/>
-      <c r="G95" s="56"/>
+      <c r="F95" s="70"/>
+      <c r="G95" s="55"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v>予定</v>
@@ -5665,7 +5697,7 @@
         <v>1</v>
       </c>
       <c r="K95" s="9">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.5</v>
       </c>
       <c r="L95" s="33"/>
@@ -5680,13 +5712,13 @@
       <c r="S95" s="31"/>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="67"/>
-      <c r="B96" s="57"/>
-      <c r="C96" s="63"/>
-      <c r="D96" s="65"/>
-      <c r="E96" s="55"/>
-      <c r="F96" s="55"/>
-      <c r="G96" s="57"/>
+      <c r="A96" s="58"/>
+      <c r="B96" s="56"/>
+      <c r="C96" s="62"/>
+      <c r="D96" s="64"/>
+      <c r="E96" s="71"/>
+      <c r="F96" s="71"/>
+      <c r="G96" s="56"/>
       <c r="H96" s="52" t="str">
         <f>IF(E95="","","実績")</f>
         <v>実績</v>
@@ -5694,7 +5726,7 @@
       <c r="I96" s="52"/>
       <c r="J96" s="52"/>
       <c r="K96" s="10">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L96" s="43"/>
@@ -5707,15 +5739,15 @@
       <c r="S96" s="44"/>
     </row>
     <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="73" t="s">
+      <c r="A97" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="B97" s="74"/>
-      <c r="C97" s="74"/>
-      <c r="D97" s="75"/>
-      <c r="E97" s="71"/>
-      <c r="F97" s="71"/>
-      <c r="G97" s="120"/>
+      <c r="B97" s="73"/>
+      <c r="C97" s="73"/>
+      <c r="D97" s="74"/>
+      <c r="E97" s="78"/>
+      <c r="F97" s="78"/>
+      <c r="G97" s="80"/>
       <c r="H97" s="20" t="s">
         <v>19</v>
       </c>
@@ -5726,15 +5758,15 @@
         <v>12</v>
       </c>
       <c r="L97" s="35">
-        <f t="shared" ref="L97:Q97" si="25">SUMPRODUCT((MOD(ROW(L$99:L$110),2)=1)*L$99:L$110)</f>
+        <f t="shared" ref="L97:Q97" si="26">SUMPRODUCT((MOD(ROW(L$99:L$110),2)=1)*L$99:L$110)</f>
         <v>0</v>
       </c>
       <c r="M97" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="N97" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O97" s="35">
@@ -5742,11 +5774,11 @@
         <v>0</v>
       </c>
       <c r="P97" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="Q97" s="35">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="R97" s="35">
@@ -5758,13 +5790,13 @@
       </c>
     </row>
     <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="76"/>
-      <c r="B98" s="77"/>
-      <c r="C98" s="77"/>
-      <c r="D98" s="78"/>
-      <c r="E98" s="72"/>
-      <c r="F98" s="72"/>
-      <c r="G98" s="121"/>
+      <c r="A98" s="75"/>
+      <c r="B98" s="76"/>
+      <c r="C98" s="76"/>
+      <c r="D98" s="77"/>
+      <c r="E98" s="79"/>
+      <c r="F98" s="79"/>
+      <c r="G98" s="81"/>
       <c r="H98" s="7" t="s">
         <v>20</v>
       </c>
@@ -5779,48 +5811,48 @@
         <v>0</v>
       </c>
       <c r="M98" s="37">
-        <f t="shared" ref="M98:S98" si="26">SUMPRODUCT((MOD(ROW(M$99:M$110),2)=0)*M$99:M$110)</f>
+        <f t="shared" ref="M98:S98" si="27">SUMPRODUCT((MOD(ROW(M$99:M$110),2)=0)*M$99:M$110)</f>
         <v>0</v>
       </c>
       <c r="N98" s="37">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="O98" s="37">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="P98" s="37">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="Q98" s="37">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="R98" s="37">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
       <c r="S98" s="37">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="66">
+      <c r="A99" s="57">
         <v>1</v>
       </c>
-      <c r="B99" s="60" t="s">
+      <c r="B99" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C99" s="61"/>
-      <c r="D99" s="62"/>
-      <c r="E99" s="58" t="s">
+      <c r="C99" s="60"/>
+      <c r="D99" s="61"/>
+      <c r="E99" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="F99" s="58"/>
-      <c r="G99" s="69"/>
+      <c r="F99" s="65"/>
+      <c r="G99" s="67"/>
       <c r="H99" s="23" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
@@ -5838,13 +5870,13 @@
       <c r="S99" s="31"/>
     </row>
     <row r="100" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="67"/>
-      <c r="B100" s="63"/>
-      <c r="C100" s="64"/>
-      <c r="D100" s="65"/>
-      <c r="E100" s="59"/>
-      <c r="F100" s="59"/>
-      <c r="G100" s="70"/>
+      <c r="A100" s="58"/>
+      <c r="B100" s="62"/>
+      <c r="C100" s="63"/>
+      <c r="D100" s="64"/>
+      <c r="E100" s="66"/>
+      <c r="F100" s="66"/>
+      <c r="G100" s="68"/>
       <c r="H100" s="24" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
@@ -5862,19 +5894,19 @@
       <c r="S100" s="32"/>
     </row>
     <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="66"/>
-      <c r="B101" s="68" t="s">
+      <c r="A101" s="57"/>
+      <c r="B101" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C101" s="60" t="s">
+      <c r="C101" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="D101" s="62"/>
-      <c r="E101" s="54" t="s">
+      <c r="D101" s="61"/>
+      <c r="E101" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F101" s="54"/>
-      <c r="G101" s="56"/>
+      <c r="F101" s="70"/>
+      <c r="G101" s="55"/>
       <c r="H101" s="8" t="str">
         <f>IF(E101="","","予定")</f>
         <v>予定</v>
@@ -5900,13 +5932,13 @@
       <c r="S101" s="31"/>
     </row>
     <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="67"/>
-      <c r="B102" s="57"/>
-      <c r="C102" s="63"/>
-      <c r="D102" s="65"/>
-      <c r="E102" s="55"/>
-      <c r="F102" s="55"/>
-      <c r="G102" s="57"/>
+      <c r="A102" s="58"/>
+      <c r="B102" s="56"/>
+      <c r="C102" s="62"/>
+      <c r="D102" s="64"/>
+      <c r="E102" s="71"/>
+      <c r="F102" s="71"/>
+      <c r="G102" s="56"/>
       <c r="H102" s="52" t="str">
         <f>IF(E101="","","実績")</f>
         <v>実績</v>
@@ -5927,19 +5959,19 @@
       <c r="S102" s="32"/>
     </row>
     <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="66"/>
-      <c r="B103" s="68" t="s">
+      <c r="A103" s="57"/>
+      <c r="B103" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C103" s="60" t="s">
+      <c r="C103" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="D103" s="62"/>
-      <c r="E103" s="54" t="s">
+      <c r="D103" s="61"/>
+      <c r="E103" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F103" s="54"/>
-      <c r="G103" s="56"/>
+      <c r="F103" s="70"/>
+      <c r="G103" s="55"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -5965,13 +5997,13 @@
       <c r="S103" s="31"/>
     </row>
     <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="67"/>
-      <c r="B104" s="57"/>
-      <c r="C104" s="63"/>
-      <c r="D104" s="65"/>
-      <c r="E104" s="55"/>
-      <c r="F104" s="55"/>
-      <c r="G104" s="57"/>
+      <c r="A104" s="58"/>
+      <c r="B104" s="56"/>
+      <c r="C104" s="62"/>
+      <c r="D104" s="64"/>
+      <c r="E104" s="71"/>
+      <c r="F104" s="71"/>
+      <c r="G104" s="56"/>
       <c r="H104" s="52" t="str">
         <f>IF(E103="","","実績")</f>
         <v>実績</v>
@@ -5992,19 +6024,19 @@
       <c r="S104" s="32"/>
     </row>
     <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="66">
+      <c r="A105" s="57">
         <v>2</v>
       </c>
-      <c r="B105" s="60" t="s">
+      <c r="B105" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C105" s="61"/>
-      <c r="D105" s="62"/>
-      <c r="E105" s="58" t="s">
+      <c r="C105" s="60"/>
+      <c r="D105" s="61"/>
+      <c r="E105" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="F105" s="58"/>
-      <c r="G105" s="69"/>
+      <c r="F105" s="65"/>
+      <c r="G105" s="67"/>
       <c r="H105" s="23" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -6022,13 +6054,13 @@
       <c r="S105" s="31"/>
     </row>
     <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="67"/>
-      <c r="B106" s="63"/>
-      <c r="C106" s="64"/>
-      <c r="D106" s="65"/>
-      <c r="E106" s="59"/>
-      <c r="F106" s="59"/>
-      <c r="G106" s="70"/>
+      <c r="A106" s="58"/>
+      <c r="B106" s="62"/>
+      <c r="C106" s="63"/>
+      <c r="D106" s="64"/>
+      <c r="E106" s="66"/>
+      <c r="F106" s="66"/>
+      <c r="G106" s="68"/>
       <c r="H106" s="24" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
@@ -6046,19 +6078,19 @@
       <c r="S106" s="32"/>
     </row>
     <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="66"/>
-      <c r="B107" s="68" t="s">
+      <c r="A107" s="57"/>
+      <c r="B107" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C107" s="60" t="s">
+      <c r="C107" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D107" s="62"/>
-      <c r="E107" s="54" t="s">
+      <c r="D107" s="61"/>
+      <c r="E107" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F107" s="54"/>
-      <c r="G107" s="56"/>
+      <c r="F107" s="70"/>
+      <c r="G107" s="55"/>
       <c r="H107" s="8" t="str">
         <f>IF(E107="","","予定")</f>
         <v>予定</v>
@@ -6084,13 +6116,13 @@
       <c r="S107" s="31"/>
     </row>
     <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="67"/>
-      <c r="B108" s="57"/>
-      <c r="C108" s="63"/>
-      <c r="D108" s="65"/>
-      <c r="E108" s="55"/>
-      <c r="F108" s="55"/>
-      <c r="G108" s="57"/>
+      <c r="A108" s="58"/>
+      <c r="B108" s="56"/>
+      <c r="C108" s="62"/>
+      <c r="D108" s="64"/>
+      <c r="E108" s="71"/>
+      <c r="F108" s="71"/>
+      <c r="G108" s="56"/>
       <c r="H108" s="52" t="str">
         <f>IF(E107="","","実績")</f>
         <v>実績</v>
@@ -6098,7 +6130,7 @@
       <c r="I108" s="52"/>
       <c r="J108" s="52"/>
       <c r="K108" s="10">
-        <f t="shared" ref="K108:K110" si="27">SUM(L108:S108)</f>
+        <f t="shared" ref="K108:K110" si="28">SUM(L108:S108)</f>
         <v>0</v>
       </c>
       <c r="L108" s="41"/>
@@ -6111,19 +6143,19 @@
       <c r="S108" s="32"/>
     </row>
     <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="66"/>
-      <c r="B109" s="68" t="s">
+      <c r="A109" s="57"/>
+      <c r="B109" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C109" s="60" t="s">
+      <c r="C109" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="D109" s="62"/>
-      <c r="E109" s="54" t="s">
+      <c r="D109" s="61"/>
+      <c r="E109" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F109" s="54"/>
-      <c r="G109" s="56"/>
+      <c r="F109" s="70"/>
+      <c r="G109" s="55"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v>予定</v>
@@ -6149,13 +6181,13 @@
       <c r="S109" s="31"/>
     </row>
     <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="67"/>
-      <c r="B110" s="57"/>
-      <c r="C110" s="63"/>
-      <c r="D110" s="65"/>
-      <c r="E110" s="55"/>
-      <c r="F110" s="55"/>
-      <c r="G110" s="57"/>
+      <c r="A110" s="58"/>
+      <c r="B110" s="56"/>
+      <c r="C110" s="62"/>
+      <c r="D110" s="64"/>
+      <c r="E110" s="71"/>
+      <c r="F110" s="71"/>
+      <c r="G110" s="56"/>
       <c r="H110" s="52" t="str">
         <f>IF(E109="","","実績")</f>
         <v>実績</v>
@@ -6163,7 +6195,7 @@
       <c r="I110" s="52"/>
       <c r="J110" s="52"/>
       <c r="K110" s="10">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="L110" s="41"/>
@@ -6191,44 +6223,253 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="309">
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="B105:D106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="A97:D98"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:D102"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:D100"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:D80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="B49:D50"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B33:D34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="B43:D44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:D68"/>
     <mergeCell ref="E73:E74"/>
     <mergeCell ref="F73:F74"/>
     <mergeCell ref="F71:F72"/>
@@ -6253,256 +6494,47 @@
     <mergeCell ref="C71:D72"/>
     <mergeCell ref="E71:E72"/>
     <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:D68"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="B49:D50"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B33:D34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B43:D44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:D100"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:D80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="A97:D98"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:D102"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="B105:D106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="L85:S96 L99:S110 L25:S34 L43:S52 L54:S54 L9:S12 M13:S13 L14:S18 L53:T53 L55:T55 L56:S56">
+  <conditionalFormatting sqref="L85:S96 L99:S110 L43:S52 L54:S54 L9:S12 M13:S13 L14:S18 L53:T53 L55:T55 L56:S56 L25:S34">
     <cfRule type="expression" dxfId="15" priority="27" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
@@ -6595,15 +6627,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6787,6 +6810,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
   <ds:schemaRefs>
@@ -6797,14 +6829,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89F0FFFF-D441-4664-93A0-244B234195EC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6820,4 +6844,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/13_WBSガントチャート(修正).xlsx
+++ b/13_WBSガントチャート(修正).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E647AC39-F323-4155-9670-3FA058D0864A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBB93A1-98E0-45AC-A6D1-28D7B6EACD54}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="223" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="67">
   <si>
     <t>タスク/ワークパッケージ</t>
     <phoneticPr fontId="1"/>
@@ -1532,40 +1532,49 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1573,13 +1582,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1600,10 +1606,127 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1611,129 +1734,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2329,10 +2329,10 @@
   <dimension ref="A1:T111"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H51" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="K41" sqref="K41"/>
+      <selection pane="bottomRight" activeCell="P64" sqref="P64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2351,120 +2351,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="102" t="s">
+      <c r="A1" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="102" t="s">
+      <c r="F1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="G1" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="102" t="s">
+      <c r="H1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="102" t="s">
+      <c r="I1" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="102" t="s">
+      <c r="J1" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="115" t="s">
+      <c r="K1" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="105">
+      <c r="L1" s="81">
         <v>43984</v>
       </c>
-      <c r="M1" s="106"/>
-      <c r="N1" s="105">
+      <c r="M1" s="82"/>
+      <c r="N1" s="81">
         <v>43985</v>
       </c>
-      <c r="O1" s="106"/>
-      <c r="P1" s="105">
+      <c r="O1" s="82"/>
+      <c r="P1" s="81">
         <v>43986</v>
       </c>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="105">
+      <c r="Q1" s="82"/>
+      <c r="R1" s="81">
         <v>43987</v>
       </c>
-      <c r="S1" s="106"/>
+      <c r="S1" s="82"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="109" t="s">
+      <c r="A2" s="105"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="108"/>
-      <c r="N2" s="107" t="s">
+      <c r="M2" s="84"/>
+      <c r="N2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="107"/>
-      <c r="P2" s="110" t="s">
+      <c r="O2" s="83"/>
+      <c r="P2" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="107" t="s">
+      <c r="Q2" s="84"/>
+      <c r="R2" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="108"/>
+      <c r="S2" s="84"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="113" t="s">
+      <c r="A3" s="105"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="112"/>
-      <c r="N3" s="111" t="s">
+      <c r="M3" s="88"/>
+      <c r="N3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="112"/>
-      <c r="P3" s="111" t="s">
+      <c r="O3" s="88"/>
+      <c r="P3" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="114" t="s">
+      <c r="Q3" s="88"/>
+      <c r="R3" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="114"/>
+      <c r="S3" s="90"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="86"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="117"/>
+      <c r="A4" s="106"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="93"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2491,15 +2491,15 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="118"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="97"/>
       <c r="H5" s="16" t="s">
         <v>19</v>
       </c>
@@ -2541,13 +2541,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="91"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="119"/>
+      <c r="A6" s="110"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="98"/>
       <c r="H6" s="18" t="s">
         <v>20</v>
       </c>
@@ -2590,15 +2590,15 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="99"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="118"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2641,13 +2641,13 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="75"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="100"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="119"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2691,21 +2691,21 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="57">
+      <c r="A9" s="67">
         <v>1</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="65" t="s">
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="65" t="s">
+      <c r="F9" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="67"/>
+      <c r="G9" s="70"/>
       <c r="H9" s="23" t="str">
         <f>IF(E9="","","予定")</f>
         <v>予定</v>
@@ -2723,13 +2723,13 @@
       <c r="S9" s="31"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="58"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="68"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="71"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
         <v>実績</v>
@@ -2747,21 +2747,21 @@
       <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="57"/>
+      <c r="A11" s="67"/>
       <c r="B11" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="70" t="s">
+      <c r="D11" s="63"/>
+      <c r="E11" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="70" t="s">
+      <c r="F11" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="55"/>
+      <c r="G11" s="57"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2788,13 +2788,13 @@
       <c r="S11" s="31"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="58"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="56"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="58"/>
       <c r="H12" s="52" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -2821,21 +2821,21 @@
       <c r="S12" s="32"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="57"/>
+      <c r="A13" s="67"/>
       <c r="B13" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="70" t="s">
+      <c r="D13" s="63"/>
+      <c r="E13" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="70" t="s">
+      <c r="F13" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="55"/>
+      <c r="G13" s="57"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2861,13 +2861,13 @@
       <c r="S13" s="31"/>
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="58"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="56"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="58"/>
       <c r="H14" s="52" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2894,19 +2894,19 @@
       <c r="S14" s="32"/>
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="57">
+      <c r="A15" s="67">
         <v>2</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="65" t="s">
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="65"/>
-      <c r="G15" s="67"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="70"/>
       <c r="H15" s="23" t="str">
         <f>IF(E15="","","予定")</f>
         <v>予定</v>
@@ -2924,13 +2924,13 @@
       <c r="S15" s="31"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="58"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="68"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="71"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
         <v>実績</v>
@@ -2948,21 +2948,21 @@
       <c r="S16" s="32"/>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="57"/>
+      <c r="A17" s="67"/>
       <c r="B17" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="70" t="s">
+      <c r="D17" s="63"/>
+      <c r="E17" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="70" t="s">
+      <c r="F17" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="55"/>
+      <c r="G17" s="57"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -2988,13 +2988,13 @@
       <c r="S17" s="31"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="58"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="56"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="58"/>
       <c r="H18" s="52" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -3021,21 +3021,21 @@
       <c r="S18" s="32"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="57"/>
+      <c r="A19" s="67"/>
       <c r="B19" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="70" t="s">
+      <c r="D19" s="63"/>
+      <c r="E19" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="70" t="s">
+      <c r="F19" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="55"/>
+      <c r="G19" s="57"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3061,13 +3061,13 @@
       <c r="S19" s="31"/>
     </row>
     <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="58"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="56"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="58"/>
       <c r="H20" s="52" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -3094,21 +3094,21 @@
       <c r="S20" s="32"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="57"/>
+      <c r="A21" s="67"/>
       <c r="B21" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="70" t="s">
+      <c r="D21" s="63"/>
+      <c r="E21" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="70" t="s">
+      <c r="F21" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="55"/>
+      <c r="G21" s="57"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3134,13 +3134,13 @@
       <c r="S21" s="31"/>
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="58"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="56"/>
+      <c r="A22" s="68"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="58"/>
       <c r="H22" s="52" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3167,15 +3167,15 @@
       <c r="S22" s="32"/>
     </row>
     <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="80"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="121"/>
       <c r="H23" s="20" t="s">
         <v>19</v>
       </c>
@@ -3219,13 +3219,13 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="75"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="81"/>
+      <c r="A24" s="77"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="122"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
@@ -3269,19 +3269,19 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="57">
+      <c r="A25" s="67">
         <v>1</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="60"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="65" t="s">
+      <c r="C25" s="62"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="65"/>
-      <c r="G25" s="67"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="70"/>
       <c r="H25" s="23" t="str">
         <f>IF(E25="","","予定")</f>
         <v>予定</v>
@@ -3299,13 +3299,13 @@
       <c r="S25" s="31"/>
     </row>
     <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="58"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="68"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="71"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
         <v>実績</v>
@@ -3323,21 +3323,21 @@
       <c r="S26" s="32"/>
     </row>
     <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="57"/>
+      <c r="A27" s="67"/>
       <c r="B27" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="70" t="s">
+      <c r="D27" s="63"/>
+      <c r="E27" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="70" t="s">
+      <c r="F27" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="55"/>
+      <c r="G27" s="57"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -3364,13 +3364,13 @@
       <c r="S27" s="31"/>
     </row>
     <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="58"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="56"/>
+      <c r="A28" s="68"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="58"/>
       <c r="H28" s="52" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3397,21 +3397,21 @@
       <c r="S28" s="32"/>
     </row>
     <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="57"/>
+      <c r="A29" s="67"/>
       <c r="B29" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="70" t="s">
+      <c r="D29" s="63"/>
+      <c r="E29" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="70" t="s">
+      <c r="F29" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="55"/>
+      <c r="G29" s="57"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3438,13 +3438,13 @@
       <c r="S29" s="31"/>
     </row>
     <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="58"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="56"/>
+      <c r="A30" s="68"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="58"/>
       <c r="H30" s="52" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3471,19 +3471,19 @@
       <c r="S30" s="32"/>
     </row>
     <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="57"/>
+      <c r="A31" s="67"/>
       <c r="B31" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="70" t="s">
+      <c r="D31" s="63"/>
+      <c r="E31" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="70"/>
-      <c r="G31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="57"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3510,13 +3510,13 @@
       <c r="S31" s="31"/>
     </row>
     <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="58"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="56"/>
+      <c r="A32" s="68"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="58"/>
       <c r="H32" s="52" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3543,19 +3543,19 @@
       <c r="S32" s="32"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="57">
+      <c r="A33" s="67">
         <v>2</v>
       </c>
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="65" t="s">
+      <c r="C33" s="62"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="65"/>
-      <c r="G33" s="67"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="70"/>
       <c r="H33" s="23" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
@@ -3573,13 +3573,13 @@
       <c r="S33" s="31"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="58"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="68"/>
+      <c r="A34" s="68"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="71"/>
       <c r="H34" s="24" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3597,19 +3597,19 @@
       <c r="S34" s="32"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="57"/>
+      <c r="A35" s="67"/>
       <c r="B35" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="59" t="s">
+      <c r="C35" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="61"/>
-      <c r="E35" s="70" t="s">
+      <c r="D35" s="63"/>
+      <c r="E35" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="70"/>
-      <c r="G35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="57"/>
       <c r="H35" s="8" t="str">
         <f>IF(E35="","","予定")</f>
         <v>予定</v>
@@ -3636,13 +3636,13 @@
       <c r="S35" s="31"/>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="58"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="56"/>
+      <c r="A36" s="68"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="58"/>
       <c r="H36" s="52" t="str">
         <f>IF(E35="","","実績")</f>
         <v>実績</v>
@@ -3669,19 +3669,19 @@
       <c r="S36" s="32"/>
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="57"/>
+      <c r="A37" s="67"/>
       <c r="B37" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="61"/>
-      <c r="E37" s="70" t="s">
+      <c r="D37" s="63"/>
+      <c r="E37" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="70"/>
-      <c r="G37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="57"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3708,13 +3708,13 @@
       <c r="S37" s="31"/>
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="58"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="56"/>
+      <c r="A38" s="68"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="58"/>
       <c r="H38" s="52" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
@@ -3741,19 +3741,19 @@
       <c r="S38" s="32"/>
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="57"/>
+      <c r="A39" s="67"/>
       <c r="B39" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="C39" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="61"/>
-      <c r="E39" s="70" t="s">
+      <c r="D39" s="63"/>
+      <c r="E39" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="70"/>
-      <c r="G39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="57"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3765,7 +3765,7 @@
         <v>1</v>
       </c>
       <c r="K39" s="9">
-        <f t="shared" ref="K38:K39" si="8">SUM(L39:S39)</f>
+        <f t="shared" ref="K39" si="8">SUM(L39:S39)</f>
         <v>0.5</v>
       </c>
       <c r="L39" s="33"/>
@@ -3780,13 +3780,13 @@
       <c r="S39" s="31"/>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="58"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="56"/>
+      <c r="A40" s="68"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="58"/>
       <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -3812,15 +3812,15 @@
       <c r="S40" s="32"/>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="72" t="s">
+      <c r="A41" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="73"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="80"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="121"/>
       <c r="H41" s="20" t="s">
         <v>19</v>
       </c>
@@ -3864,13 +3864,13 @@
       </c>
     </row>
     <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="75"/>
-      <c r="B42" s="76"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="81"/>
+      <c r="A42" s="77"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="122"/>
       <c r="H42" s="7" t="s">
         <v>20</v>
       </c>
@@ -3914,19 +3914,19 @@
       </c>
     </row>
     <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="57">
+      <c r="A43" s="67">
         <v>1</v>
       </c>
-      <c r="B43" s="59" t="s">
+      <c r="B43" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="60"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="65" t="s">
+      <c r="C43" s="62"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="65"/>
-      <c r="G43" s="67"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="70"/>
       <c r="H43" s="23" t="str">
         <f>IF(E43="","","予定")</f>
         <v>予定</v>
@@ -3944,13 +3944,13 @@
       <c r="S43" s="31"/>
     </row>
     <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="58"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="68"/>
+      <c r="A44" s="68"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="71"/>
       <c r="H44" s="24" t="str">
         <f>IF(E43="","","実績")</f>
         <v>実績</v>
@@ -3968,19 +3968,19 @@
       <c r="S44" s="32"/>
     </row>
     <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="57"/>
+      <c r="A45" s="67"/>
       <c r="B45" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="59" t="s">
+      <c r="C45" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="61"/>
-      <c r="E45" s="70" t="s">
+      <c r="D45" s="63"/>
+      <c r="E45" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="70"/>
-      <c r="G45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="57"/>
       <c r="H45" s="8" t="str">
         <f>IF(E45="","","予定")</f>
         <v>予定</v>
@@ -4009,13 +4009,13 @@
       <c r="S45" s="31"/>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="58"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="56"/>
+      <c r="A46" s="68"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="58"/>
       <c r="H46" s="52" t="str">
         <f>IF(E45="","","実績")</f>
         <v>実績</v>
@@ -4043,19 +4043,19 @@
       <c r="S46" s="32"/>
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="57"/>
+      <c r="A47" s="67"/>
       <c r="B47" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="59" t="s">
+      <c r="C47" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="61"/>
-      <c r="E47" s="70" t="s">
+      <c r="D47" s="63"/>
+      <c r="E47" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="70"/>
-      <c r="G47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="57"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4082,13 +4082,13 @@
       <c r="S47" s="31"/>
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="58"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="56"/>
+      <c r="A48" s="68"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="58"/>
       <c r="H48" s="52" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -4115,19 +4115,19 @@
       <c r="S48" s="32"/>
     </row>
     <row r="49" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="57">
+      <c r="A49" s="67">
         <v>2</v>
       </c>
-      <c r="B49" s="59" t="s">
+      <c r="B49" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="60"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="65" t="s">
+      <c r="C49" s="62"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="65"/>
-      <c r="G49" s="67"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="70"/>
       <c r="H49" s="23" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4145,13 +4145,13 @@
       <c r="S49" s="31"/>
     </row>
     <row r="50" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="58"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="68"/>
+      <c r="A50" s="68"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="71"/>
       <c r="H50" s="24" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -4169,19 +4169,19 @@
       <c r="S50" s="32"/>
     </row>
     <row r="51" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="57"/>
+      <c r="A51" s="67"/>
       <c r="B51" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="59" t="s">
+      <c r="C51" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="61"/>
-      <c r="E51" s="70" t="s">
+      <c r="D51" s="63"/>
+      <c r="E51" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="70"/>
-      <c r="G51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="57"/>
       <c r="H51" s="8" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -4208,13 +4208,13 @@
       <c r="S51" s="31"/>
     </row>
     <row r="52" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="58"/>
-      <c r="B52" s="56"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="56"/>
+      <c r="A52" s="68"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="58"/>
       <c r="H52" s="52" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -4240,19 +4240,19 @@
       <c r="S52" s="32"/>
     </row>
     <row r="53" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="57"/>
+      <c r="A53" s="67"/>
       <c r="B53" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C53" s="59" t="s">
+      <c r="C53" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="61"/>
-      <c r="E53" s="70" t="s">
+      <c r="D53" s="63"/>
+      <c r="E53" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F53" s="70"/>
-      <c r="G53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="57"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v>予定</v>
@@ -4280,13 +4280,13 @@
       <c r="T53" s="31"/>
     </row>
     <row r="54" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="58"/>
-      <c r="B54" s="56"/>
-      <c r="C54" s="62"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="56"/>
+      <c r="A54" s="68"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="58"/>
       <c r="H54" s="52" t="str">
         <f>IF(E53="","","実績")</f>
         <v>実績</v>
@@ -4313,19 +4313,19 @@
       <c r="S54" s="32"/>
     </row>
     <row r="55" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="57"/>
+      <c r="A55" s="67"/>
       <c r="B55" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="59" t="s">
+      <c r="C55" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="D55" s="61"/>
-      <c r="E55" s="70" t="s">
+      <c r="D55" s="63"/>
+      <c r="E55" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F55" s="70"/>
-      <c r="G55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="57"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4353,13 +4353,13 @@
       <c r="T55" s="31"/>
     </row>
     <row r="56" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="58"/>
-      <c r="B56" s="56"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="71"/>
-      <c r="F56" s="71"/>
-      <c r="G56" s="56"/>
+      <c r="A56" s="68"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="58"/>
       <c r="H56" s="52" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
@@ -4386,15 +4386,15 @@
       <c r="S56" s="44"/>
     </row>
     <row r="57" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="72" t="s">
+      <c r="A57" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="73"/>
-      <c r="C57" s="73"/>
-      <c r="D57" s="74"/>
-      <c r="E57" s="78"/>
-      <c r="F57" s="78"/>
-      <c r="G57" s="80"/>
+      <c r="B57" s="75"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="76"/>
+      <c r="E57" s="72"/>
+      <c r="F57" s="72"/>
+      <c r="G57" s="121"/>
       <c r="H57" s="20" t="s">
         <v>19</v>
       </c>
@@ -4435,13 +4435,13 @@
       </c>
     </row>
     <row r="58" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="75"/>
-      <c r="B58" s="76"/>
-      <c r="C58" s="76"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="79"/>
-      <c r="G58" s="81"/>
+      <c r="A58" s="77"/>
+      <c r="B58" s="78"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="73"/>
+      <c r="F58" s="73"/>
+      <c r="G58" s="122"/>
       <c r="H58" s="7" t="s">
         <v>20</v>
       </c>
@@ -4449,7 +4449,7 @@
       <c r="J58" s="7"/>
       <c r="K58" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$59:K$74),2)=0)*K$59:K$74)</f>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L58" s="36">
         <f>SUMPRODUCT((MOD(ROW(L$59:L$74),2)=0)*L$59:L$74)</f>
@@ -4469,7 +4469,7 @@
       </c>
       <c r="P58" s="36">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q58" s="36">
         <f t="shared" si="15"/>
@@ -4485,19 +4485,19 @@
       </c>
     </row>
     <row r="59" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="57">
+      <c r="A59" s="67">
         <v>1</v>
       </c>
-      <c r="B59" s="59" t="s">
+      <c r="B59" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="60"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="65" t="s">
+      <c r="C59" s="62"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="F59" s="65"/>
-      <c r="G59" s="67"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="70"/>
       <c r="H59" s="23" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
@@ -4515,13 +4515,13 @@
       <c r="S59" s="31"/>
     </row>
     <row r="60" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="58"/>
-      <c r="B60" s="62"/>
-      <c r="C60" s="63"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="66"/>
-      <c r="F60" s="66"/>
-      <c r="G60" s="68"/>
+      <c r="A60" s="68"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="65"/>
+      <c r="D60" s="66"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="60"/>
+      <c r="G60" s="71"/>
       <c r="H60" s="24" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
@@ -4539,19 +4539,19 @@
       <c r="S60" s="32"/>
     </row>
     <row r="61" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="57"/>
+      <c r="A61" s="67"/>
       <c r="B61" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C61" s="59" t="s">
+      <c r="C61" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="D61" s="61"/>
-      <c r="E61" s="70" t="s">
+      <c r="D61" s="63"/>
+      <c r="E61" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F61" s="70"/>
-      <c r="G61" s="55"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="57"/>
       <c r="H61" s="8" t="str">
         <f>IF(E61="","","予定")</f>
         <v>予定</v>
@@ -4579,46 +4579,52 @@
       <c r="S61" s="31"/>
     </row>
     <row r="62" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="58"/>
-      <c r="B62" s="56"/>
-      <c r="C62" s="62"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="71"/>
-      <c r="F62" s="71"/>
-      <c r="G62" s="56"/>
+      <c r="A62" s="68"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="56"/>
+      <c r="G62" s="58"/>
       <c r="H62" s="52" t="str">
         <f>IF(E61="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I62" s="52"/>
-      <c r="J62" s="52"/>
+      <c r="I62" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J62" s="8">
+        <v>6</v>
+      </c>
       <c r="K62" s="10">
         <f t="shared" ref="K62:K66" si="16">SUM(L62:S62)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L62" s="41"/>
       <c r="M62" s="32"/>
       <c r="N62" s="32"/>
       <c r="O62" s="32"/>
-      <c r="P62" s="32"/>
+      <c r="P62" s="32">
+        <v>1</v>
+      </c>
       <c r="Q62" s="32"/>
       <c r="R62" s="32"/>
       <c r="S62" s="32"/>
     </row>
     <row r="63" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="57"/>
+      <c r="A63" s="67"/>
       <c r="B63" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="59" t="s">
+      <c r="C63" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="D63" s="61"/>
-      <c r="E63" s="70" t="s">
+      <c r="D63" s="63"/>
+      <c r="E63" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F63" s="70"/>
-      <c r="G63" s="55"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="57"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v>予定</v>
@@ -4645,46 +4651,52 @@
       <c r="S63" s="31"/>
     </row>
     <row r="64" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="58"/>
-      <c r="B64" s="56"/>
-      <c r="C64" s="62"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="71"/>
-      <c r="F64" s="71"/>
-      <c r="G64" s="56"/>
+      <c r="A64" s="68"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="56"/>
+      <c r="G64" s="58"/>
       <c r="H64" s="52" t="str">
         <f>IF(E63="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I64" s="52"/>
-      <c r="J64" s="52"/>
+      <c r="I64" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J64" s="52">
+        <v>6</v>
+      </c>
       <c r="K64" s="10">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L64" s="41"/>
       <c r="M64" s="32"/>
       <c r="N64" s="32"/>
       <c r="O64" s="32"/>
-      <c r="P64" s="32"/>
+      <c r="P64" s="32">
+        <v>1</v>
+      </c>
       <c r="Q64" s="32"/>
       <c r="R64" s="32"/>
       <c r="S64" s="32"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="57"/>
+      <c r="A65" s="67"/>
       <c r="B65" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C65" s="59" t="s">
+      <c r="C65" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="D65" s="61"/>
-      <c r="E65" s="70" t="s">
+      <c r="D65" s="63"/>
+      <c r="E65" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F65" s="70"/>
-      <c r="G65" s="55"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="57"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4711,13 +4723,13 @@
       <c r="S65" s="31"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="58"/>
-      <c r="B66" s="56"/>
-      <c r="C66" s="62"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="71"/>
-      <c r="F66" s="71"/>
-      <c r="G66" s="56"/>
+      <c r="A66" s="68"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="66"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="56"/>
+      <c r="G66" s="58"/>
       <c r="H66" s="52" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -4738,19 +4750,19 @@
       <c r="S66" s="32"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="57">
+      <c r="A67" s="67">
         <v>2</v>
       </c>
-      <c r="B67" s="59" t="s">
+      <c r="B67" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C67" s="60"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="65" t="s">
+      <c r="C67" s="62"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="F67" s="65"/>
-      <c r="G67" s="67"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="70"/>
       <c r="H67" s="23" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4768,13 +4780,13 @@
       <c r="S67" s="31"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="58"/>
-      <c r="B68" s="62"/>
-      <c r="C68" s="63"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="66"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="68"/>
+      <c r="A68" s="68"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="60"/>
+      <c r="F68" s="60"/>
+      <c r="G68" s="71"/>
       <c r="H68" s="24" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -4792,19 +4804,19 @@
       <c r="S68" s="32"/>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="57"/>
+      <c r="A69" s="67"/>
       <c r="B69" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C69" s="59" t="s">
+      <c r="C69" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="61"/>
-      <c r="E69" s="70" t="s">
+      <c r="D69" s="63"/>
+      <c r="E69" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="F69" s="70"/>
-      <c r="G69" s="55"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="57"/>
       <c r="H69" s="8" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
@@ -4831,13 +4843,13 @@
       <c r="S69" s="31"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="58"/>
-      <c r="B70" s="56"/>
-      <c r="C70" s="62"/>
-      <c r="D70" s="64"/>
-      <c r="E70" s="71"/>
-      <c r="F70" s="71"/>
-      <c r="G70" s="56"/>
+      <c r="A70" s="68"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="56"/>
+      <c r="G70" s="58"/>
       <c r="H70" s="52" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
@@ -4858,19 +4870,19 @@
       <c r="S70" s="32"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="57"/>
+      <c r="A71" s="67"/>
       <c r="B71" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="59" t="s">
+      <c r="C71" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D71" s="61"/>
-      <c r="E71" s="70" t="s">
+      <c r="D71" s="63"/>
+      <c r="E71" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="F71" s="70"/>
-      <c r="G71" s="55"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="57"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v>予定</v>
@@ -4897,13 +4909,13 @@
       <c r="S71" s="31"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="58"/>
-      <c r="B72" s="56"/>
-      <c r="C72" s="62"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="71"/>
-      <c r="F72" s="71"/>
-      <c r="G72" s="56"/>
+      <c r="A72" s="68"/>
+      <c r="B72" s="58"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="66"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="56"/>
+      <c r="G72" s="58"/>
       <c r="H72" s="52" t="str">
         <f>IF(E71="","","実績")</f>
         <v>実績</v>
@@ -4924,19 +4936,19 @@
       <c r="S72" s="32"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="57"/>
+      <c r="A73" s="67"/>
       <c r="B73" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C73" s="59" t="s">
+      <c r="C73" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="D73" s="61"/>
-      <c r="E73" s="70" t="s">
+      <c r="D73" s="63"/>
+      <c r="E73" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="F73" s="70"/>
-      <c r="G73" s="55"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="57"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -4963,13 +4975,13 @@
       <c r="S73" s="31"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="58"/>
-      <c r="B74" s="56"/>
-      <c r="C74" s="62"/>
-      <c r="D74" s="64"/>
-      <c r="E74" s="71"/>
-      <c r="F74" s="71"/>
-      <c r="G74" s="56"/>
+      <c r="A74" s="68"/>
+      <c r="B74" s="58"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="66"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="56"/>
+      <c r="G74" s="58"/>
       <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -4990,15 +5002,15 @@
       <c r="S74" s="44"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="72" t="s">
+      <c r="A75" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="B75" s="73"/>
-      <c r="C75" s="73"/>
-      <c r="D75" s="74"/>
-      <c r="E75" s="78"/>
-      <c r="F75" s="78"/>
-      <c r="G75" s="80"/>
+      <c r="B75" s="75"/>
+      <c r="C75" s="75"/>
+      <c r="D75" s="76"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="121"/>
       <c r="H75" s="20" t="s">
         <v>19</v>
       </c>
@@ -5035,13 +5047,13 @@
       </c>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="75"/>
-      <c r="B76" s="76"/>
-      <c r="C76" s="76"/>
-      <c r="D76" s="77"/>
-      <c r="E76" s="79"/>
-      <c r="F76" s="79"/>
-      <c r="G76" s="81"/>
+      <c r="A76" s="77"/>
+      <c r="B76" s="78"/>
+      <c r="C76" s="78"/>
+      <c r="D76" s="79"/>
+      <c r="E76" s="73"/>
+      <c r="F76" s="73"/>
+      <c r="G76" s="122"/>
       <c r="H76" s="7" t="s">
         <v>20</v>
       </c>
@@ -5085,17 +5097,17 @@
       </c>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="57">
+      <c r="A77" s="67">
         <v>1</v>
       </c>
-      <c r="B77" s="59" t="s">
+      <c r="B77" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C77" s="60"/>
-      <c r="D77" s="61"/>
-      <c r="E77" s="65"/>
-      <c r="F77" s="65"/>
-      <c r="G77" s="67"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="63"/>
+      <c r="E77" s="59"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="70"/>
       <c r="H77" s="23" t="str">
         <f>IF(E77="","","予定")</f>
         <v/>
@@ -5113,13 +5125,13 @@
       <c r="S77" s="31"/>
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="58"/>
-      <c r="B78" s="62"/>
-      <c r="C78" s="63"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="66"/>
-      <c r="F78" s="66"/>
-      <c r="G78" s="68"/>
+      <c r="A78" s="68"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="65"/>
+      <c r="D78" s="66"/>
+      <c r="E78" s="60"/>
+      <c r="F78" s="60"/>
+      <c r="G78" s="71"/>
       <c r="H78" s="24" t="str">
         <f>IF(E77="","","実績")</f>
         <v/>
@@ -5137,19 +5149,19 @@
       <c r="S78" s="32"/>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="57"/>
+      <c r="A79" s="67"/>
       <c r="B79" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C79" s="59" t="s">
+      <c r="C79" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="D79" s="61"/>
-      <c r="E79" s="70" t="s">
+      <c r="D79" s="63"/>
+      <c r="E79" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F79" s="70"/>
-      <c r="G79" s="55"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="57"/>
       <c r="H79" s="8" t="str">
         <f>IF(E79="","","予定")</f>
         <v>予定</v>
@@ -5176,13 +5188,13 @@
       <c r="S79" s="31"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="58"/>
-      <c r="B80" s="56"/>
-      <c r="C80" s="62"/>
-      <c r="D80" s="64"/>
-      <c r="E80" s="71"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="56"/>
+      <c r="A80" s="68"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="66"/>
+      <c r="E80" s="56"/>
+      <c r="F80" s="56"/>
+      <c r="G80" s="58"/>
       <c r="H80" s="52" t="str">
         <f>IF(E79="","","実績")</f>
         <v>実績</v>
@@ -5203,19 +5215,19 @@
       <c r="S80" s="32"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="57"/>
+      <c r="A81" s="67"/>
       <c r="B81" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="59" t="s">
+      <c r="C81" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="D81" s="61"/>
-      <c r="E81" s="70" t="s">
+      <c r="D81" s="63"/>
+      <c r="E81" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F81" s="70"/>
-      <c r="G81" s="55"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="57"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5242,13 +5254,13 @@
       <c r="S81" s="31"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="58"/>
-      <c r="B82" s="56"/>
-      <c r="C82" s="62"/>
-      <c r="D82" s="64"/>
-      <c r="E82" s="71"/>
-      <c r="F82" s="71"/>
-      <c r="G82" s="56"/>
+      <c r="A82" s="68"/>
+      <c r="B82" s="58"/>
+      <c r="C82" s="64"/>
+      <c r="D82" s="66"/>
+      <c r="E82" s="56"/>
+      <c r="F82" s="56"/>
+      <c r="G82" s="58"/>
       <c r="H82" s="52" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
@@ -5269,15 +5281,15 @@
       <c r="S82" s="32"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="72" t="s">
+      <c r="A83" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="B83" s="73"/>
-      <c r="C83" s="73"/>
-      <c r="D83" s="74"/>
-      <c r="E83" s="78"/>
-      <c r="F83" s="78"/>
-      <c r="G83" s="80"/>
+      <c r="B83" s="75"/>
+      <c r="C83" s="75"/>
+      <c r="D83" s="76"/>
+      <c r="E83" s="72"/>
+      <c r="F83" s="72"/>
+      <c r="G83" s="121"/>
       <c r="H83" s="20" t="s">
         <v>19</v>
       </c>
@@ -5319,13 +5331,13 @@
       </c>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="75"/>
-      <c r="B84" s="76"/>
-      <c r="C84" s="76"/>
-      <c r="D84" s="77"/>
-      <c r="E84" s="79"/>
-      <c r="F84" s="79"/>
-      <c r="G84" s="81"/>
+      <c r="A84" s="77"/>
+      <c r="B84" s="78"/>
+      <c r="C84" s="78"/>
+      <c r="D84" s="79"/>
+      <c r="E84" s="73"/>
+      <c r="F84" s="73"/>
+      <c r="G84" s="122"/>
       <c r="H84" s="7" t="s">
         <v>20</v>
       </c>
@@ -5369,17 +5381,17 @@
       </c>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="57">
+      <c r="A85" s="67">
         <v>1</v>
       </c>
-      <c r="B85" s="59" t="s">
+      <c r="B85" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C85" s="60"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="65"/>
-      <c r="F85" s="65"/>
-      <c r="G85" s="67"/>
+      <c r="C85" s="62"/>
+      <c r="D85" s="63"/>
+      <c r="E85" s="59"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="70"/>
       <c r="H85" s="23" t="str">
         <f>IF(E85="","","予定")</f>
         <v/>
@@ -5397,13 +5409,13 @@
       <c r="S85" s="31"/>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="58"/>
-      <c r="B86" s="62"/>
-      <c r="C86" s="63"/>
-      <c r="D86" s="64"/>
-      <c r="E86" s="66"/>
-      <c r="F86" s="66"/>
-      <c r="G86" s="68"/>
+      <c r="A86" s="68"/>
+      <c r="B86" s="64"/>
+      <c r="C86" s="65"/>
+      <c r="D86" s="66"/>
+      <c r="E86" s="60"/>
+      <c r="F86" s="60"/>
+      <c r="G86" s="71"/>
       <c r="H86" s="24" t="str">
         <f>IF(E85="","","実績")</f>
         <v/>
@@ -5421,19 +5433,19 @@
       <c r="S86" s="32"/>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="57"/>
+      <c r="A87" s="67"/>
       <c r="B87" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C87" s="59" t="s">
+      <c r="C87" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="D87" s="61"/>
-      <c r="E87" s="70" t="s">
+      <c r="D87" s="63"/>
+      <c r="E87" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F87" s="70"/>
-      <c r="G87" s="55"/>
+      <c r="F87" s="55"/>
+      <c r="G87" s="57"/>
       <c r="H87" s="8" t="str">
         <f>IF(E87="","","予定")</f>
         <v>予定</v>
@@ -5460,13 +5472,13 @@
       <c r="S87" s="31"/>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="58"/>
-      <c r="B88" s="56"/>
-      <c r="C88" s="62"/>
-      <c r="D88" s="64"/>
-      <c r="E88" s="71"/>
-      <c r="F88" s="71"/>
-      <c r="G88" s="56"/>
+      <c r="A88" s="68"/>
+      <c r="B88" s="58"/>
+      <c r="C88" s="64"/>
+      <c r="D88" s="66"/>
+      <c r="E88" s="56"/>
+      <c r="F88" s="56"/>
+      <c r="G88" s="58"/>
       <c r="H88" s="52" t="str">
         <f>IF(E87="","","実績")</f>
         <v>実績</v>
@@ -5487,19 +5499,19 @@
       <c r="S88" s="32"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="57"/>
+      <c r="A89" s="67"/>
       <c r="B89" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C89" s="122" t="s">
+      <c r="C89" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="D89" s="61"/>
-      <c r="E89" s="70" t="s">
+      <c r="D89" s="63"/>
+      <c r="E89" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F89" s="70"/>
-      <c r="G89" s="55"/>
+      <c r="F89" s="55"/>
+      <c r="G89" s="57"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -5526,13 +5538,13 @@
       <c r="S89" s="31"/>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="58"/>
-      <c r="B90" s="56"/>
-      <c r="C90" s="62"/>
-      <c r="D90" s="64"/>
-      <c r="E90" s="71"/>
-      <c r="F90" s="71"/>
-      <c r="G90" s="56"/>
+      <c r="A90" s="68"/>
+      <c r="B90" s="58"/>
+      <c r="C90" s="64"/>
+      <c r="D90" s="66"/>
+      <c r="E90" s="56"/>
+      <c r="F90" s="56"/>
+      <c r="G90" s="58"/>
       <c r="H90" s="52" t="str">
         <f>IF(E89="","","実績")</f>
         <v>実績</v>
@@ -5553,17 +5565,17 @@
       <c r="S90" s="32"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="57">
+      <c r="A91" s="67">
         <v>2</v>
       </c>
-      <c r="B91" s="59" t="s">
+      <c r="B91" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C91" s="60"/>
-      <c r="D91" s="61"/>
-      <c r="E91" s="65"/>
-      <c r="F91" s="65"/>
-      <c r="G91" s="67"/>
+      <c r="C91" s="62"/>
+      <c r="D91" s="63"/>
+      <c r="E91" s="59"/>
+      <c r="F91" s="59"/>
+      <c r="G91" s="70"/>
       <c r="H91" s="23" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -5583,13 +5595,13 @@
       <c r="S91" s="31"/>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="58"/>
-      <c r="B92" s="62"/>
-      <c r="C92" s="63"/>
-      <c r="D92" s="64"/>
-      <c r="E92" s="66"/>
-      <c r="F92" s="66"/>
-      <c r="G92" s="68"/>
+      <c r="A92" s="68"/>
+      <c r="B92" s="64"/>
+      <c r="C92" s="65"/>
+      <c r="D92" s="66"/>
+      <c r="E92" s="60"/>
+      <c r="F92" s="60"/>
+      <c r="G92" s="71"/>
       <c r="H92" s="24" t="str">
         <f>IF(E91="","","実績")</f>
         <v/>
@@ -5607,19 +5619,19 @@
       <c r="S92" s="32"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="57"/>
+      <c r="A93" s="67"/>
       <c r="B93" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C93" s="59" t="s">
+      <c r="C93" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D93" s="61"/>
-      <c r="E93" s="70" t="s">
+      <c r="D93" s="63"/>
+      <c r="E93" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="F93" s="70"/>
-      <c r="G93" s="55"/>
+      <c r="F93" s="55"/>
+      <c r="G93" s="57"/>
       <c r="H93" s="8" t="str">
         <f>IF(E93="","","予定")</f>
         <v>予定</v>
@@ -5646,13 +5658,13 @@
       <c r="S93" s="31"/>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="58"/>
-      <c r="B94" s="56"/>
-      <c r="C94" s="62"/>
-      <c r="D94" s="64"/>
-      <c r="E94" s="71"/>
-      <c r="F94" s="71"/>
-      <c r="G94" s="56"/>
+      <c r="A94" s="68"/>
+      <c r="B94" s="58"/>
+      <c r="C94" s="64"/>
+      <c r="D94" s="66"/>
+      <c r="E94" s="56"/>
+      <c r="F94" s="56"/>
+      <c r="G94" s="58"/>
       <c r="H94" s="52" t="str">
         <f>IF(E93="","","実績")</f>
         <v>実績</v>
@@ -5673,19 +5685,19 @@
       <c r="S94" s="32"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="57"/>
+      <c r="A95" s="67"/>
       <c r="B95" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C95" s="59" t="s">
+      <c r="C95" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="D95" s="61"/>
-      <c r="E95" s="70" t="s">
+      <c r="D95" s="63"/>
+      <c r="E95" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="F95" s="70"/>
-      <c r="G95" s="55"/>
+      <c r="F95" s="55"/>
+      <c r="G95" s="57"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v>予定</v>
@@ -5712,13 +5724,13 @@
       <c r="S95" s="31"/>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="58"/>
-      <c r="B96" s="56"/>
-      <c r="C96" s="62"/>
-      <c r="D96" s="64"/>
-      <c r="E96" s="71"/>
-      <c r="F96" s="71"/>
-      <c r="G96" s="56"/>
+      <c r="A96" s="68"/>
+      <c r="B96" s="58"/>
+      <c r="C96" s="64"/>
+      <c r="D96" s="66"/>
+      <c r="E96" s="56"/>
+      <c r="F96" s="56"/>
+      <c r="G96" s="58"/>
       <c r="H96" s="52" t="str">
         <f>IF(E95="","","実績")</f>
         <v>実績</v>
@@ -5739,15 +5751,15 @@
       <c r="S96" s="44"/>
     </row>
     <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="72" t="s">
+      <c r="A97" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="B97" s="73"/>
-      <c r="C97" s="73"/>
-      <c r="D97" s="74"/>
-      <c r="E97" s="78"/>
-      <c r="F97" s="78"/>
-      <c r="G97" s="80"/>
+      <c r="B97" s="75"/>
+      <c r="C97" s="75"/>
+      <c r="D97" s="76"/>
+      <c r="E97" s="72"/>
+      <c r="F97" s="72"/>
+      <c r="G97" s="121"/>
       <c r="H97" s="20" t="s">
         <v>19</v>
       </c>
@@ -5790,13 +5802,13 @@
       </c>
     </row>
     <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="75"/>
-      <c r="B98" s="76"/>
-      <c r="C98" s="76"/>
-      <c r="D98" s="77"/>
-      <c r="E98" s="79"/>
-      <c r="F98" s="79"/>
-      <c r="G98" s="81"/>
+      <c r="A98" s="77"/>
+      <c r="B98" s="78"/>
+      <c r="C98" s="78"/>
+      <c r="D98" s="79"/>
+      <c r="E98" s="73"/>
+      <c r="F98" s="73"/>
+      <c r="G98" s="122"/>
       <c r="H98" s="7" t="s">
         <v>20</v>
       </c>
@@ -5840,19 +5852,19 @@
       </c>
     </row>
     <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="57">
+      <c r="A99" s="67">
         <v>1</v>
       </c>
-      <c r="B99" s="59" t="s">
+      <c r="B99" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C99" s="60"/>
-      <c r="D99" s="61"/>
-      <c r="E99" s="65" t="s">
+      <c r="C99" s="62"/>
+      <c r="D99" s="63"/>
+      <c r="E99" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="F99" s="65"/>
-      <c r="G99" s="67"/>
+      <c r="F99" s="59"/>
+      <c r="G99" s="70"/>
       <c r="H99" s="23" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
@@ -5870,13 +5882,13 @@
       <c r="S99" s="31"/>
     </row>
     <row r="100" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="58"/>
-      <c r="B100" s="62"/>
-      <c r="C100" s="63"/>
-      <c r="D100" s="64"/>
-      <c r="E100" s="66"/>
-      <c r="F100" s="66"/>
-      <c r="G100" s="68"/>
+      <c r="A100" s="68"/>
+      <c r="B100" s="64"/>
+      <c r="C100" s="65"/>
+      <c r="D100" s="66"/>
+      <c r="E100" s="60"/>
+      <c r="F100" s="60"/>
+      <c r="G100" s="71"/>
       <c r="H100" s="24" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
@@ -5894,19 +5906,19 @@
       <c r="S100" s="32"/>
     </row>
     <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="57"/>
+      <c r="A101" s="67"/>
       <c r="B101" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C101" s="59" t="s">
+      <c r="C101" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="D101" s="61"/>
-      <c r="E101" s="70" t="s">
+      <c r="D101" s="63"/>
+      <c r="E101" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F101" s="70"/>
-      <c r="G101" s="55"/>
+      <c r="F101" s="55"/>
+      <c r="G101" s="57"/>
       <c r="H101" s="8" t="str">
         <f>IF(E101="","","予定")</f>
         <v>予定</v>
@@ -5932,13 +5944,13 @@
       <c r="S101" s="31"/>
     </row>
     <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="58"/>
-      <c r="B102" s="56"/>
-      <c r="C102" s="62"/>
-      <c r="D102" s="64"/>
-      <c r="E102" s="71"/>
-      <c r="F102" s="71"/>
-      <c r="G102" s="56"/>
+      <c r="A102" s="68"/>
+      <c r="B102" s="58"/>
+      <c r="C102" s="64"/>
+      <c r="D102" s="66"/>
+      <c r="E102" s="56"/>
+      <c r="F102" s="56"/>
+      <c r="G102" s="58"/>
       <c r="H102" s="52" t="str">
         <f>IF(E101="","","実績")</f>
         <v>実績</v>
@@ -5959,19 +5971,19 @@
       <c r="S102" s="32"/>
     </row>
     <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="57"/>
+      <c r="A103" s="67"/>
       <c r="B103" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C103" s="59" t="s">
+      <c r="C103" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="D103" s="61"/>
-      <c r="E103" s="70" t="s">
+      <c r="D103" s="63"/>
+      <c r="E103" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F103" s="70"/>
-      <c r="G103" s="55"/>
+      <c r="F103" s="55"/>
+      <c r="G103" s="57"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -5997,13 +6009,13 @@
       <c r="S103" s="31"/>
     </row>
     <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="58"/>
-      <c r="B104" s="56"/>
-      <c r="C104" s="62"/>
-      <c r="D104" s="64"/>
-      <c r="E104" s="71"/>
-      <c r="F104" s="71"/>
-      <c r="G104" s="56"/>
+      <c r="A104" s="68"/>
+      <c r="B104" s="58"/>
+      <c r="C104" s="64"/>
+      <c r="D104" s="66"/>
+      <c r="E104" s="56"/>
+      <c r="F104" s="56"/>
+      <c r="G104" s="58"/>
       <c r="H104" s="52" t="str">
         <f>IF(E103="","","実績")</f>
         <v>実績</v>
@@ -6024,19 +6036,19 @@
       <c r="S104" s="32"/>
     </row>
     <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="57">
+      <c r="A105" s="67">
         <v>2</v>
       </c>
-      <c r="B105" s="59" t="s">
+      <c r="B105" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C105" s="60"/>
-      <c r="D105" s="61"/>
-      <c r="E105" s="65" t="s">
+      <c r="C105" s="62"/>
+      <c r="D105" s="63"/>
+      <c r="E105" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="F105" s="65"/>
-      <c r="G105" s="67"/>
+      <c r="F105" s="59"/>
+      <c r="G105" s="70"/>
       <c r="H105" s="23" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -6054,13 +6066,13 @@
       <c r="S105" s="31"/>
     </row>
     <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="58"/>
-      <c r="B106" s="62"/>
-      <c r="C106" s="63"/>
-      <c r="D106" s="64"/>
-      <c r="E106" s="66"/>
-      <c r="F106" s="66"/>
-      <c r="G106" s="68"/>
+      <c r="A106" s="68"/>
+      <c r="B106" s="64"/>
+      <c r="C106" s="65"/>
+      <c r="D106" s="66"/>
+      <c r="E106" s="60"/>
+      <c r="F106" s="60"/>
+      <c r="G106" s="71"/>
       <c r="H106" s="24" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
@@ -6078,19 +6090,19 @@
       <c r="S106" s="32"/>
     </row>
     <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="57"/>
+      <c r="A107" s="67"/>
       <c r="B107" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C107" s="59" t="s">
+      <c r="C107" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D107" s="61"/>
-      <c r="E107" s="70" t="s">
+      <c r="D107" s="63"/>
+      <c r="E107" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F107" s="70"/>
-      <c r="G107" s="55"/>
+      <c r="F107" s="55"/>
+      <c r="G107" s="57"/>
       <c r="H107" s="8" t="str">
         <f>IF(E107="","","予定")</f>
         <v>予定</v>
@@ -6116,13 +6128,13 @@
       <c r="S107" s="31"/>
     </row>
     <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="58"/>
-      <c r="B108" s="56"/>
-      <c r="C108" s="62"/>
-      <c r="D108" s="64"/>
-      <c r="E108" s="71"/>
-      <c r="F108" s="71"/>
-      <c r="G108" s="56"/>
+      <c r="A108" s="68"/>
+      <c r="B108" s="58"/>
+      <c r="C108" s="64"/>
+      <c r="D108" s="66"/>
+      <c r="E108" s="56"/>
+      <c r="F108" s="56"/>
+      <c r="G108" s="58"/>
       <c r="H108" s="52" t="str">
         <f>IF(E107="","","実績")</f>
         <v>実績</v>
@@ -6143,19 +6155,19 @@
       <c r="S108" s="32"/>
     </row>
     <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="57"/>
+      <c r="A109" s="67"/>
       <c r="B109" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C109" s="59" t="s">
+      <c r="C109" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="D109" s="61"/>
-      <c r="E109" s="70" t="s">
+      <c r="D109" s="63"/>
+      <c r="E109" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F109" s="70"/>
-      <c r="G109" s="55"/>
+      <c r="F109" s="55"/>
+      <c r="G109" s="57"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v>予定</v>
@@ -6181,13 +6193,13 @@
       <c r="S109" s="31"/>
     </row>
     <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="58"/>
-      <c r="B110" s="56"/>
-      <c r="C110" s="62"/>
-      <c r="D110" s="64"/>
-      <c r="E110" s="71"/>
-      <c r="F110" s="71"/>
-      <c r="G110" s="56"/>
+      <c r="A110" s="68"/>
+      <c r="B110" s="58"/>
+      <c r="C110" s="64"/>
+      <c r="D110" s="66"/>
+      <c r="E110" s="56"/>
+      <c r="F110" s="56"/>
+      <c r="G110" s="58"/>
       <c r="H110" s="52" t="str">
         <f>IF(E109="","","実績")</f>
         <v>実績</v>
@@ -6223,16 +6235,281 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="309">
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="B105:D106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:D68"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="B49:D50"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B33:D34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="B43:D44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:D100"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:D80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="C39:D40"/>
     <mergeCell ref="E39:E40"/>
@@ -6257,281 +6534,16 @@
     <mergeCell ref="B101:B102"/>
     <mergeCell ref="C101:D102"/>
     <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:D100"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:D80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="B49:D50"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B33:D34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B43:D44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:D68"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="B105:D106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="E109:E110"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L85:S96 L99:S110 L43:S52 L54:S54 L9:S12 M13:S13 L14:S18 L53:T53 L55:T55 L56:S56 L25:S34">
@@ -6627,6 +6639,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6810,15 +6831,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
   <ds:schemaRefs>
@@ -6829,6 +6841,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89F0FFFF-D441-4664-93A0-244B234195EC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6844,12 +6864,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/13_WBSガントチャート(修正).xlsx
+++ b/13_WBSガントチャート(修正).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEBB93A1-98E0-45AC-A6D1-28D7B6EACD54}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211C5B90-8919-4786-A3D1-AFB16B64A307}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="70">
   <si>
     <t>タスク/ワークパッケージ</t>
     <phoneticPr fontId="1"/>
@@ -559,6 +559,33 @@
     <t>琴</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>鈴木</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>徳竹、林、北田、金、鈴木、琴</t>
+    <rPh sb="13" eb="14">
+      <t>コト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>金、琴、北田、徳竹</t>
+    <rPh sb="2" eb="3">
+      <t>コト</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>キタダ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>トク</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>タケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -1532,54 +1559,72 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1588,152 +1633,134 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2329,10 +2356,10 @@
   <dimension ref="A1:T111"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H51" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P64" sqref="P64"/>
+      <selection pane="bottomRight" activeCell="P68" sqref="P68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2351,120 +2378,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="99" t="s">
+      <c r="A1" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="99" t="s">
+      <c r="F1" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="94" t="s">
+      <c r="G1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="99" t="s">
+      <c r="I1" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="99" t="s">
+      <c r="J1" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="91" t="s">
+      <c r="K1" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="81">
+      <c r="L1" s="105">
         <v>43984</v>
       </c>
-      <c r="M1" s="82"/>
-      <c r="N1" s="81">
+      <c r="M1" s="106"/>
+      <c r="N1" s="105">
         <v>43985</v>
       </c>
-      <c r="O1" s="82"/>
-      <c r="P1" s="81">
+      <c r="O1" s="106"/>
+      <c r="P1" s="105">
         <v>43986</v>
       </c>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="81">
+      <c r="Q1" s="106"/>
+      <c r="R1" s="105">
         <v>43987</v>
       </c>
-      <c r="S1" s="82"/>
+      <c r="S1" s="106"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="105"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="85" t="s">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="84"/>
-      <c r="N2" s="83" t="s">
+      <c r="M2" s="108"/>
+      <c r="N2" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="83"/>
-      <c r="P2" s="86" t="s">
+      <c r="O2" s="107"/>
+      <c r="P2" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="83" t="s">
+      <c r="Q2" s="108"/>
+      <c r="R2" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="84"/>
+      <c r="S2" s="108"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="105"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="89" t="s">
+      <c r="A3" s="84"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="88"/>
-      <c r="N3" s="87" t="s">
+      <c r="M3" s="112"/>
+      <c r="N3" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="88"/>
-      <c r="P3" s="87" t="s">
+      <c r="O3" s="112"/>
+      <c r="P3" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="90" t="s">
+      <c r="Q3" s="112"/>
+      <c r="R3" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="90"/>
+      <c r="S3" s="114"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="106"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="93"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="117"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2491,15 +2518,15 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="97"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="118"/>
       <c r="H5" s="16" t="s">
         <v>19</v>
       </c>
@@ -2541,13 +2568,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="110"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="98"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="119"/>
       <c r="H6" s="18" t="s">
         <v>20</v>
       </c>
@@ -2573,12 +2600,10 @@
         <v>16</v>
       </c>
       <c r="P6" s="47">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="Q6" s="47">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="R6" s="47">
         <f t="shared" si="1"/>
@@ -2590,15 +2615,15 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="118"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="99"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2641,13 +2666,13 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="77"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="119"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="100"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2691,21 +2716,21 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="67">
+      <c r="A9" s="57">
         <v>1</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="59" t="s">
+      <c r="C9" s="60"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="70"/>
+      <c r="G9" s="67"/>
       <c r="H9" s="23" t="str">
         <f>IF(E9="","","予定")</f>
         <v>予定</v>
@@ -2723,13 +2748,13 @@
       <c r="S9" s="31"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="68"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="71"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="68"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
         <v>実績</v>
@@ -2747,21 +2772,21 @@
       <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="67"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="55" t="s">
+      <c r="D11" s="61"/>
+      <c r="E11" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="57"/>
+      <c r="G11" s="55"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2788,13 +2813,13 @@
       <c r="S11" s="31"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="68"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="58"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="56"/>
       <c r="H12" s="52" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -2821,21 +2846,21 @@
       <c r="S12" s="32"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="67"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="55" t="s">
+      <c r="D13" s="61"/>
+      <c r="E13" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="55" t="s">
+      <c r="F13" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="57"/>
+      <c r="G13" s="55"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2861,13 +2886,13 @@
       <c r="S13" s="31"/>
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="68"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="58"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="56"/>
       <c r="H14" s="52" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2894,19 +2919,19 @@
       <c r="S14" s="32"/>
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="67">
+      <c r="A15" s="57">
         <v>2</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="59" t="s">
+      <c r="C15" s="60"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="59"/>
-      <c r="G15" s="70"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="67"/>
       <c r="H15" s="23" t="str">
         <f>IF(E15="","","予定")</f>
         <v>予定</v>
@@ -2924,13 +2949,13 @@
       <c r="S15" s="31"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="68"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="71"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="68"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
         <v>実績</v>
@@ -2948,21 +2973,21 @@
       <c r="S16" s="32"/>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="67"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="55" t="s">
+      <c r="D17" s="61"/>
+      <c r="E17" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="55" t="s">
+      <c r="F17" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="57"/>
+      <c r="G17" s="55"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -2988,13 +3013,13 @@
       <c r="S17" s="31"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="68"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="58"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="56"/>
       <c r="H18" s="52" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -3021,21 +3046,21 @@
       <c r="S18" s="32"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="67"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="55" t="s">
+      <c r="D19" s="61"/>
+      <c r="E19" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="55" t="s">
+      <c r="F19" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="57"/>
+      <c r="G19" s="55"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3061,13 +3086,13 @@
       <c r="S19" s="31"/>
     </row>
     <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="68"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="58"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="56"/>
       <c r="H20" s="52" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -3094,21 +3119,21 @@
       <c r="S20" s="32"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="67"/>
+      <c r="A21" s="57"/>
       <c r="B21" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="55" t="s">
+      <c r="D21" s="61"/>
+      <c r="E21" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="55" t="s">
+      <c r="F21" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="57"/>
+      <c r="G21" s="55"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3134,13 +3159,13 @@
       <c r="S21" s="31"/>
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="68"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="58"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="56"/>
       <c r="H22" s="52" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3167,15 +3192,15 @@
       <c r="S22" s="32"/>
     </row>
     <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="121"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="80"/>
       <c r="H23" s="20" t="s">
         <v>19</v>
       </c>
@@ -3219,13 +3244,13 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="77"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="122"/>
+      <c r="A24" s="75"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="81"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
@@ -3269,19 +3294,19 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="67">
+      <c r="A25" s="57">
         <v>1</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="59" t="s">
+      <c r="C25" s="60"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="59"/>
-      <c r="G25" s="70"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="67"/>
       <c r="H25" s="23" t="str">
         <f>IF(E25="","","予定")</f>
         <v>予定</v>
@@ -3299,13 +3324,13 @@
       <c r="S25" s="31"/>
     </row>
     <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="68"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="71"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="68"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
         <v>実績</v>
@@ -3323,21 +3348,21 @@
       <c r="S26" s="32"/>
     </row>
     <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="67"/>
+      <c r="A27" s="57"/>
       <c r="B27" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="55" t="s">
+      <c r="D27" s="61"/>
+      <c r="E27" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="55" t="s">
+      <c r="F27" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="57"/>
+      <c r="G27" s="55"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -3364,13 +3389,13 @@
       <c r="S27" s="31"/>
     </row>
     <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="68"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="58"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="56"/>
       <c r="H28" s="52" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3397,21 +3422,21 @@
       <c r="S28" s="32"/>
     </row>
     <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="67"/>
+      <c r="A29" s="57"/>
       <c r="B29" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="55" t="s">
+      <c r="D29" s="61"/>
+      <c r="E29" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="55" t="s">
+      <c r="F29" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="57"/>
+      <c r="G29" s="55"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3438,13 +3463,13 @@
       <c r="S29" s="31"/>
     </row>
     <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="68"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="58"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="56"/>
       <c r="H30" s="52" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3471,19 +3496,19 @@
       <c r="S30" s="32"/>
     </row>
     <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="67"/>
+      <c r="A31" s="57"/>
       <c r="B31" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="63"/>
-      <c r="E31" s="55" t="s">
+      <c r="D31" s="61"/>
+      <c r="E31" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="55"/>
-      <c r="G31" s="57"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="55"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3510,13 +3535,13 @@
       <c r="S31" s="31"/>
     </row>
     <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="68"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="58"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="56"/>
       <c r="H32" s="52" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3543,19 +3568,19 @@
       <c r="S32" s="32"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="67">
+      <c r="A33" s="57">
         <v>2</v>
       </c>
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="62"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="59" t="s">
+      <c r="C33" s="60"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="59"/>
-      <c r="G33" s="70"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="67"/>
       <c r="H33" s="23" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
@@ -3573,13 +3598,13 @@
       <c r="S33" s="31"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="68"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="71"/>
+      <c r="A34" s="58"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="68"/>
       <c r="H34" s="24" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3597,19 +3622,19 @@
       <c r="S34" s="32"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="67"/>
+      <c r="A35" s="57"/>
       <c r="B35" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="61" t="s">
+      <c r="C35" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="63"/>
-      <c r="E35" s="55" t="s">
+      <c r="D35" s="61"/>
+      <c r="E35" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="55"/>
-      <c r="G35" s="57"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="55"/>
       <c r="H35" s="8" t="str">
         <f>IF(E35="","","予定")</f>
         <v>予定</v>
@@ -3636,13 +3661,13 @@
       <c r="S35" s="31"/>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="68"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="58"/>
+      <c r="A36" s="58"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="56"/>
       <c r="H36" s="52" t="str">
         <f>IF(E35="","","実績")</f>
         <v>実績</v>
@@ -3669,19 +3694,19 @@
       <c r="S36" s="32"/>
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="67"/>
+      <c r="A37" s="57"/>
       <c r="B37" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="61" t="s">
+      <c r="C37" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="63"/>
-      <c r="E37" s="55" t="s">
+      <c r="D37" s="61"/>
+      <c r="E37" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="55"/>
-      <c r="G37" s="57"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="55"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3708,13 +3733,13 @@
       <c r="S37" s="31"/>
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="68"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="58"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="56"/>
       <c r="H38" s="52" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
@@ -3741,19 +3766,19 @@
       <c r="S38" s="32"/>
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="67"/>
+      <c r="A39" s="57"/>
       <c r="B39" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="61" t="s">
+      <c r="C39" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="63"/>
-      <c r="E39" s="55" t="s">
+      <c r="D39" s="61"/>
+      <c r="E39" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="55"/>
-      <c r="G39" s="57"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="55"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3780,13 +3805,13 @@
       <c r="S39" s="31"/>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="68"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="58"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="56"/>
       <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -3812,15 +3837,15 @@
       <c r="S40" s="32"/>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="74" t="s">
+      <c r="A41" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="75"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="121"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="80"/>
       <c r="H41" s="20" t="s">
         <v>19</v>
       </c>
@@ -3864,13 +3889,13 @@
       </c>
     </row>
     <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="77"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="122"/>
+      <c r="A42" s="75"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="81"/>
       <c r="H42" s="7" t="s">
         <v>20</v>
       </c>
@@ -3914,19 +3939,19 @@
       </c>
     </row>
     <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="67">
+      <c r="A43" s="57">
         <v>1</v>
       </c>
-      <c r="B43" s="61" t="s">
+      <c r="B43" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="62"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="59" t="s">
+      <c r="C43" s="60"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="59"/>
-      <c r="G43" s="70"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="67"/>
       <c r="H43" s="23" t="str">
         <f>IF(E43="","","予定")</f>
         <v>予定</v>
@@ -3944,13 +3969,13 @@
       <c r="S43" s="31"/>
     </row>
     <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="68"/>
-      <c r="B44" s="64"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="71"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="68"/>
       <c r="H44" s="24" t="str">
         <f>IF(E43="","","実績")</f>
         <v>実績</v>
@@ -3968,19 +3993,19 @@
       <c r="S44" s="32"/>
     </row>
     <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="67"/>
+      <c r="A45" s="57"/>
       <c r="B45" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="61" t="s">
+      <c r="C45" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="63"/>
-      <c r="E45" s="55" t="s">
+      <c r="D45" s="61"/>
+      <c r="E45" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="55"/>
-      <c r="G45" s="57"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="55"/>
       <c r="H45" s="8" t="str">
         <f>IF(E45="","","予定")</f>
         <v>予定</v>
@@ -4009,13 +4034,13 @@
       <c r="S45" s="31"/>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="68"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="58"/>
+      <c r="A46" s="58"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="56"/>
       <c r="H46" s="52" t="str">
         <f>IF(E45="","","実績")</f>
         <v>実績</v>
@@ -4043,19 +4068,19 @@
       <c r="S46" s="32"/>
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="67"/>
+      <c r="A47" s="57"/>
       <c r="B47" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="61" t="s">
+      <c r="C47" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="63"/>
-      <c r="E47" s="55" t="s">
+      <c r="D47" s="61"/>
+      <c r="E47" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="55"/>
-      <c r="G47" s="57"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="55"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4082,13 +4107,13 @@
       <c r="S47" s="31"/>
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="68"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="58"/>
+      <c r="A48" s="58"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="56"/>
       <c r="H48" s="52" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -4115,19 +4140,19 @@
       <c r="S48" s="32"/>
     </row>
     <row r="49" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="67">
+      <c r="A49" s="57">
         <v>2</v>
       </c>
-      <c r="B49" s="61" t="s">
+      <c r="B49" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="62"/>
-      <c r="D49" s="63"/>
-      <c r="E49" s="59" t="s">
+      <c r="C49" s="60"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="59"/>
-      <c r="G49" s="70"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="67"/>
       <c r="H49" s="23" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4145,13 +4170,13 @@
       <c r="S49" s="31"/>
     </row>
     <row r="50" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="68"/>
-      <c r="B50" s="64"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="71"/>
+      <c r="A50" s="58"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="68"/>
       <c r="H50" s="24" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -4169,19 +4194,19 @@
       <c r="S50" s="32"/>
     </row>
     <row r="51" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="67"/>
+      <c r="A51" s="57"/>
       <c r="B51" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="61" t="s">
+      <c r="C51" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="63"/>
-      <c r="E51" s="55" t="s">
+      <c r="D51" s="61"/>
+      <c r="E51" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="55"/>
-      <c r="G51" s="57"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="55"/>
       <c r="H51" s="8" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -4208,13 +4233,13 @@
       <c r="S51" s="31"/>
     </row>
     <row r="52" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="68"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="58"/>
+      <c r="A52" s="58"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="56"/>
       <c r="H52" s="52" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -4240,19 +4265,19 @@
       <c r="S52" s="32"/>
     </row>
     <row r="53" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="67"/>
+      <c r="A53" s="57"/>
       <c r="B53" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C53" s="61" t="s">
+      <c r="C53" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="63"/>
-      <c r="E53" s="55" t="s">
+      <c r="D53" s="61"/>
+      <c r="E53" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F53" s="55"/>
-      <c r="G53" s="57"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="55"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v>予定</v>
@@ -4280,13 +4305,13 @@
       <c r="T53" s="31"/>
     </row>
     <row r="54" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="68"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="58"/>
+      <c r="A54" s="58"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="56"/>
       <c r="H54" s="52" t="str">
         <f>IF(E53="","","実績")</f>
         <v>実績</v>
@@ -4313,19 +4338,19 @@
       <c r="S54" s="32"/>
     </row>
     <row r="55" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="67"/>
+      <c r="A55" s="57"/>
       <c r="B55" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="61" t="s">
+      <c r="C55" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="D55" s="63"/>
-      <c r="E55" s="55" t="s">
+      <c r="D55" s="61"/>
+      <c r="E55" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F55" s="55"/>
-      <c r="G55" s="57"/>
+      <c r="F55" s="70"/>
+      <c r="G55" s="55"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4353,13 +4378,13 @@
       <c r="T55" s="31"/>
     </row>
     <row r="56" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="68"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="58"/>
+      <c r="A56" s="58"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="56"/>
       <c r="H56" s="52" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
@@ -4386,15 +4411,15 @@
       <c r="S56" s="44"/>
     </row>
     <row r="57" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="74" t="s">
+      <c r="A57" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="75"/>
-      <c r="C57" s="75"/>
-      <c r="D57" s="76"/>
-      <c r="E57" s="72"/>
-      <c r="F57" s="72"/>
-      <c r="G57" s="121"/>
+      <c r="B57" s="73"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="78"/>
+      <c r="F57" s="78"/>
+      <c r="G57" s="80"/>
       <c r="H57" s="20" t="s">
         <v>19</v>
       </c>
@@ -4435,13 +4460,13 @@
       </c>
     </row>
     <row r="58" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="77"/>
-      <c r="B58" s="78"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="79"/>
-      <c r="E58" s="73"/>
-      <c r="F58" s="73"/>
-      <c r="G58" s="122"/>
+      <c r="A58" s="75"/>
+      <c r="B58" s="76"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="79"/>
+      <c r="G58" s="81"/>
       <c r="H58" s="7" t="s">
         <v>20</v>
       </c>
@@ -4449,7 +4474,7 @@
       <c r="J58" s="7"/>
       <c r="K58" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$59:K$74),2)=0)*K$59:K$74)</f>
-        <v>2</v>
+        <v>28.5</v>
       </c>
       <c r="L58" s="36">
         <f>SUMPRODUCT((MOD(ROW(L$59:L$74),2)=0)*L$59:L$74)</f>
@@ -4469,11 +4494,11 @@
       </c>
       <c r="P58" s="36">
         <f t="shared" si="15"/>
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="Q58" s="36">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>10.5</v>
       </c>
       <c r="R58" s="36">
         <f t="shared" si="15"/>
@@ -4485,19 +4510,19 @@
       </c>
     </row>
     <row r="59" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="67">
+      <c r="A59" s="57">
         <v>1</v>
       </c>
-      <c r="B59" s="61" t="s">
+      <c r="B59" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="62"/>
-      <c r="D59" s="63"/>
-      <c r="E59" s="59" t="s">
+      <c r="C59" s="60"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="F59" s="59"/>
-      <c r="G59" s="70"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="67"/>
       <c r="H59" s="23" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
@@ -4515,13 +4540,13 @@
       <c r="S59" s="31"/>
     </row>
     <row r="60" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="68"/>
-      <c r="B60" s="64"/>
-      <c r="C60" s="65"/>
-      <c r="D60" s="66"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="60"/>
-      <c r="G60" s="71"/>
+      <c r="A60" s="58"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="66"/>
+      <c r="F60" s="66"/>
+      <c r="G60" s="68"/>
       <c r="H60" s="24" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
@@ -4539,19 +4564,19 @@
       <c r="S60" s="32"/>
     </row>
     <row r="61" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="67"/>
+      <c r="A61" s="57"/>
       <c r="B61" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C61" s="61" t="s">
+      <c r="C61" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="D61" s="63"/>
-      <c r="E61" s="55" t="s">
+      <c r="D61" s="61"/>
+      <c r="E61" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F61" s="55"/>
-      <c r="G61" s="57"/>
+      <c r="F61" s="70"/>
+      <c r="G61" s="55"/>
       <c r="H61" s="8" t="str">
         <f>IF(E61="","","予定")</f>
         <v>予定</v>
@@ -4579,13 +4604,13 @@
       <c r="S61" s="31"/>
     </row>
     <row r="62" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="68"/>
-      <c r="B62" s="58"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="66"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="56"/>
-      <c r="G62" s="58"/>
+      <c r="A62" s="58"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="71"/>
+      <c r="G62" s="56"/>
       <c r="H62" s="52" t="str">
         <f>IF(E61="","","実績")</f>
         <v>実績</v>
@@ -4598,33 +4623,34 @@
       </c>
       <c r="K62" s="10">
         <f t="shared" ref="K62:K66" si="16">SUM(L62:S62)</f>
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="L62" s="41"/>
       <c r="M62" s="32"/>
       <c r="N62" s="32"/>
       <c r="O62" s="32"/>
       <c r="P62" s="32">
-        <v>1</v>
+        <f>6*1.5</f>
+        <v>9</v>
       </c>
       <c r="Q62" s="32"/>
       <c r="R62" s="32"/>
       <c r="S62" s="32"/>
     </row>
     <row r="63" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="67"/>
+      <c r="A63" s="57"/>
       <c r="B63" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="61" t="s">
+      <c r="C63" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="D63" s="63"/>
-      <c r="E63" s="55" t="s">
+      <c r="D63" s="61"/>
+      <c r="E63" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F63" s="55"/>
-      <c r="G63" s="57"/>
+      <c r="F63" s="70"/>
+      <c r="G63" s="55"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v>予定</v>
@@ -4651,13 +4677,13 @@
       <c r="S63" s="31"/>
     </row>
     <row r="64" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="68"/>
-      <c r="B64" s="58"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="56"/>
-      <c r="F64" s="56"/>
-      <c r="G64" s="58"/>
+      <c r="A64" s="58"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="71"/>
+      <c r="F64" s="71"/>
+      <c r="G64" s="56"/>
       <c r="H64" s="52" t="str">
         <f>IF(E63="","","実績")</f>
         <v>実績</v>
@@ -4670,33 +4696,34 @@
       </c>
       <c r="K64" s="10">
         <f t="shared" si="16"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L64" s="41"/>
       <c r="M64" s="32"/>
       <c r="N64" s="32"/>
       <c r="O64" s="32"/>
       <c r="P64" s="32">
-        <v>1</v>
+        <f>6*1</f>
+        <v>6</v>
       </c>
       <c r="Q64" s="32"/>
       <c r="R64" s="32"/>
       <c r="S64" s="32"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="67"/>
+      <c r="A65" s="57"/>
       <c r="B65" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C65" s="61" t="s">
+      <c r="C65" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="D65" s="63"/>
-      <c r="E65" s="55" t="s">
+      <c r="D65" s="61"/>
+      <c r="E65" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F65" s="55"/>
-      <c r="G65" s="57"/>
+      <c r="F65" s="70"/>
+      <c r="G65" s="55"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4723,46 +4750,56 @@
       <c r="S65" s="31"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="68"/>
-      <c r="B66" s="58"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="66"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="56"/>
-      <c r="G66" s="58"/>
+      <c r="A66" s="58"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="71"/>
+      <c r="F66" s="71"/>
+      <c r="G66" s="56"/>
       <c r="H66" s="52" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I66" s="52"/>
-      <c r="J66" s="52"/>
+      <c r="I66" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J66" s="8">
+        <v>6</v>
+      </c>
       <c r="K66" s="10">
         <f t="shared" si="16"/>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L66" s="41"/>
       <c r="M66" s="32"/>
       <c r="N66" s="32"/>
       <c r="O66" s="32"/>
-      <c r="P66" s="32"/>
-      <c r="Q66" s="32"/>
+      <c r="P66" s="32">
+        <f>6*0.5</f>
+        <v>3</v>
+      </c>
+      <c r="Q66" s="32">
+        <f>6*1</f>
+        <v>6</v>
+      </c>
       <c r="R66" s="32"/>
       <c r="S66" s="32"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="67">
+      <c r="A67" s="57">
         <v>2</v>
       </c>
-      <c r="B67" s="61" t="s">
+      <c r="B67" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C67" s="62"/>
-      <c r="D67" s="63"/>
-      <c r="E67" s="59" t="s">
+      <c r="C67" s="60"/>
+      <c r="D67" s="61"/>
+      <c r="E67" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="F67" s="59"/>
-      <c r="G67" s="70"/>
+      <c r="F67" s="65"/>
+      <c r="G67" s="67"/>
       <c r="H67" s="23" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4780,13 +4817,13 @@
       <c r="S67" s="31"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="68"/>
-      <c r="B68" s="64"/>
-      <c r="C68" s="65"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="60"/>
-      <c r="F68" s="60"/>
-      <c r="G68" s="71"/>
+      <c r="A68" s="58"/>
+      <c r="B68" s="62"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="68"/>
       <c r="H68" s="24" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -4804,19 +4841,19 @@
       <c r="S68" s="32"/>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="67"/>
+      <c r="A69" s="57"/>
       <c r="B69" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C69" s="61" t="s">
+      <c r="C69" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="63"/>
-      <c r="E69" s="55" t="s">
+      <c r="D69" s="61"/>
+      <c r="E69" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="F69" s="55"/>
-      <c r="G69" s="57"/>
+      <c r="F69" s="70"/>
+      <c r="G69" s="55"/>
       <c r="H69" s="8" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
@@ -4843,55 +4880,62 @@
       <c r="S69" s="31"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="68"/>
-      <c r="B70" s="58"/>
-      <c r="C70" s="64"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="56"/>
-      <c r="F70" s="56"/>
-      <c r="G70" s="58"/>
+      <c r="A70" s="58"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="71"/>
+      <c r="F70" s="71"/>
+      <c r="G70" s="56"/>
       <c r="H70" s="52" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I70" s="52"/>
-      <c r="J70" s="52"/>
+      <c r="I70" s="52" t="s">
+        <v>69</v>
+      </c>
+      <c r="J70" s="52">
+        <v>4</v>
+      </c>
       <c r="K70" s="10">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L70" s="41"/>
       <c r="M70" s="32"/>
       <c r="N70" s="32"/>
       <c r="O70" s="32"/>
       <c r="P70" s="32"/>
-      <c r="Q70" s="32"/>
+      <c r="Q70" s="32">
+        <f>4*0.5</f>
+        <v>2</v>
+      </c>
       <c r="R70" s="32"/>
       <c r="S70" s="32"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="67"/>
+      <c r="A71" s="57"/>
       <c r="B71" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="61" t="s">
+      <c r="C71" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D71" s="63"/>
-      <c r="E71" s="55" t="s">
+      <c r="D71" s="61"/>
+      <c r="E71" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="F71" s="55"/>
-      <c r="G71" s="57"/>
+      <c r="F71" s="70"/>
+      <c r="G71" s="55"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v>予定</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>47</v>
+        <v>68</v>
       </c>
       <c r="J71" s="8">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="K71" s="9">
         <f t="shared" si="17"/>
@@ -4909,46 +4953,52 @@
       <c r="S71" s="31"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="68"/>
-      <c r="B72" s="58"/>
-      <c r="C72" s="64"/>
-      <c r="D72" s="66"/>
-      <c r="E72" s="56"/>
-      <c r="F72" s="56"/>
-      <c r="G72" s="58"/>
+      <c r="A72" s="58"/>
+      <c r="B72" s="56"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="71"/>
+      <c r="F72" s="71"/>
+      <c r="G72" s="56"/>
       <c r="H72" s="52" t="str">
         <f>IF(E71="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I72" s="52"/>
-      <c r="J72" s="52"/>
+      <c r="I72" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J72" s="52">
+        <v>6</v>
+      </c>
       <c r="K72" s="10">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L72" s="41"/>
       <c r="M72" s="32"/>
       <c r="N72" s="32"/>
       <c r="O72" s="32"/>
       <c r="P72" s="32"/>
-      <c r="Q72" s="32"/>
+      <c r="Q72" s="32">
+        <v>2</v>
+      </c>
       <c r="R72" s="32"/>
       <c r="S72" s="32"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="67"/>
+      <c r="A73" s="57"/>
       <c r="B73" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C73" s="61" t="s">
+      <c r="C73" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="D73" s="63"/>
-      <c r="E73" s="55" t="s">
+      <c r="D73" s="61"/>
+      <c r="E73" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="F73" s="55"/>
-      <c r="G73" s="57"/>
+      <c r="F73" s="70"/>
+      <c r="G73" s="55"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -4975,42 +5025,48 @@
       <c r="S73" s="31"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="68"/>
-      <c r="B74" s="58"/>
-      <c r="C74" s="64"/>
-      <c r="D74" s="66"/>
-      <c r="E74" s="56"/>
-      <c r="F74" s="56"/>
-      <c r="G74" s="58"/>
+      <c r="A74" s="58"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="71"/>
+      <c r="G74" s="56"/>
       <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I74" s="52"/>
-      <c r="J74" s="52"/>
+      <c r="I74" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="J74" s="8">
+        <v>1</v>
+      </c>
       <c r="K74" s="10">
         <f t="shared" si="17"/>
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="L74" s="43"/>
       <c r="M74" s="44"/>
       <c r="N74" s="44"/>
       <c r="O74" s="44"/>
       <c r="P74" s="44"/>
-      <c r="Q74" s="44"/>
+      <c r="Q74" s="44">
+        <v>0.5</v>
+      </c>
       <c r="R74" s="44"/>
       <c r="S74" s="44"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="74" t="s">
+      <c r="A75" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="B75" s="75"/>
-      <c r="C75" s="75"/>
-      <c r="D75" s="76"/>
-      <c r="E75" s="72"/>
-      <c r="F75" s="72"/>
-      <c r="G75" s="121"/>
+      <c r="B75" s="73"/>
+      <c r="C75" s="73"/>
+      <c r="D75" s="74"/>
+      <c r="E75" s="78"/>
+      <c r="F75" s="78"/>
+      <c r="G75" s="80"/>
       <c r="H75" s="20" t="s">
         <v>19</v>
       </c>
@@ -5047,13 +5103,13 @@
       </c>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="77"/>
-      <c r="B76" s="78"/>
-      <c r="C76" s="78"/>
-      <c r="D76" s="79"/>
-      <c r="E76" s="73"/>
-      <c r="F76" s="73"/>
-      <c r="G76" s="122"/>
+      <c r="A76" s="75"/>
+      <c r="B76" s="76"/>
+      <c r="C76" s="76"/>
+      <c r="D76" s="77"/>
+      <c r="E76" s="79"/>
+      <c r="F76" s="79"/>
+      <c r="G76" s="81"/>
       <c r="H76" s="7" t="s">
         <v>20</v>
       </c>
@@ -5097,17 +5153,17 @@
       </c>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="67">
+      <c r="A77" s="57">
         <v>1</v>
       </c>
-      <c r="B77" s="61" t="s">
+      <c r="B77" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C77" s="62"/>
-      <c r="D77" s="63"/>
-      <c r="E77" s="59"/>
-      <c r="F77" s="59"/>
-      <c r="G77" s="70"/>
+      <c r="C77" s="60"/>
+      <c r="D77" s="61"/>
+      <c r="E77" s="65"/>
+      <c r="F77" s="65"/>
+      <c r="G77" s="67"/>
       <c r="H77" s="23" t="str">
         <f>IF(E77="","","予定")</f>
         <v/>
@@ -5125,13 +5181,13 @@
       <c r="S77" s="31"/>
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="68"/>
-      <c r="B78" s="64"/>
-      <c r="C78" s="65"/>
-      <c r="D78" s="66"/>
-      <c r="E78" s="60"/>
-      <c r="F78" s="60"/>
-      <c r="G78" s="71"/>
+      <c r="A78" s="58"/>
+      <c r="B78" s="62"/>
+      <c r="C78" s="63"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="66"/>
+      <c r="F78" s="66"/>
+      <c r="G78" s="68"/>
       <c r="H78" s="24" t="str">
         <f>IF(E77="","","実績")</f>
         <v/>
@@ -5149,19 +5205,19 @@
       <c r="S78" s="32"/>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="67"/>
+      <c r="A79" s="57"/>
       <c r="B79" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C79" s="61" t="s">
+      <c r="C79" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="D79" s="63"/>
-      <c r="E79" s="55" t="s">
+      <c r="D79" s="61"/>
+      <c r="E79" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F79" s="55"/>
-      <c r="G79" s="57"/>
+      <c r="F79" s="70"/>
+      <c r="G79" s="55"/>
       <c r="H79" s="8" t="str">
         <f>IF(E79="","","予定")</f>
         <v>予定</v>
@@ -5188,13 +5244,13 @@
       <c r="S79" s="31"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="68"/>
-      <c r="B80" s="58"/>
-      <c r="C80" s="64"/>
-      <c r="D80" s="66"/>
-      <c r="E80" s="56"/>
-      <c r="F80" s="56"/>
-      <c r="G80" s="58"/>
+      <c r="A80" s="58"/>
+      <c r="B80" s="56"/>
+      <c r="C80" s="62"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="71"/>
+      <c r="F80" s="71"/>
+      <c r="G80" s="56"/>
       <c r="H80" s="52" t="str">
         <f>IF(E79="","","実績")</f>
         <v>実績</v>
@@ -5215,19 +5271,19 @@
       <c r="S80" s="32"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="67"/>
+      <c r="A81" s="57"/>
       <c r="B81" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="61" t="s">
+      <c r="C81" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="D81" s="63"/>
-      <c r="E81" s="55" t="s">
+      <c r="D81" s="61"/>
+      <c r="E81" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F81" s="55"/>
-      <c r="G81" s="57"/>
+      <c r="F81" s="70"/>
+      <c r="G81" s="55"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5254,13 +5310,13 @@
       <c r="S81" s="31"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="68"/>
-      <c r="B82" s="58"/>
-      <c r="C82" s="64"/>
-      <c r="D82" s="66"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="56"/>
-      <c r="G82" s="58"/>
+      <c r="A82" s="58"/>
+      <c r="B82" s="56"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="64"/>
+      <c r="E82" s="71"/>
+      <c r="F82" s="71"/>
+      <c r="G82" s="56"/>
       <c r="H82" s="52" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
@@ -5281,15 +5337,15 @@
       <c r="S82" s="32"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="74" t="s">
+      <c r="A83" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="B83" s="75"/>
-      <c r="C83" s="75"/>
-      <c r="D83" s="76"/>
-      <c r="E83" s="72"/>
-      <c r="F83" s="72"/>
-      <c r="G83" s="121"/>
+      <c r="B83" s="73"/>
+      <c r="C83" s="73"/>
+      <c r="D83" s="74"/>
+      <c r="E83" s="78"/>
+      <c r="F83" s="78"/>
+      <c r="G83" s="80"/>
       <c r="H83" s="20" t="s">
         <v>19</v>
       </c>
@@ -5331,13 +5387,13 @@
       </c>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="77"/>
-      <c r="B84" s="78"/>
-      <c r="C84" s="78"/>
-      <c r="D84" s="79"/>
-      <c r="E84" s="73"/>
-      <c r="F84" s="73"/>
-      <c r="G84" s="122"/>
+      <c r="A84" s="75"/>
+      <c r="B84" s="76"/>
+      <c r="C84" s="76"/>
+      <c r="D84" s="77"/>
+      <c r="E84" s="79"/>
+      <c r="F84" s="79"/>
+      <c r="G84" s="81"/>
       <c r="H84" s="7" t="s">
         <v>20</v>
       </c>
@@ -5381,17 +5437,17 @@
       </c>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="67">
+      <c r="A85" s="57">
         <v>1</v>
       </c>
-      <c r="B85" s="61" t="s">
+      <c r="B85" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C85" s="62"/>
-      <c r="D85" s="63"/>
-      <c r="E85" s="59"/>
-      <c r="F85" s="59"/>
-      <c r="G85" s="70"/>
+      <c r="C85" s="60"/>
+      <c r="D85" s="61"/>
+      <c r="E85" s="65"/>
+      <c r="F85" s="65"/>
+      <c r="G85" s="67"/>
       <c r="H85" s="23" t="str">
         <f>IF(E85="","","予定")</f>
         <v/>
@@ -5409,13 +5465,13 @@
       <c r="S85" s="31"/>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="68"/>
-      <c r="B86" s="64"/>
-      <c r="C86" s="65"/>
-      <c r="D86" s="66"/>
-      <c r="E86" s="60"/>
-      <c r="F86" s="60"/>
-      <c r="G86" s="71"/>
+      <c r="A86" s="58"/>
+      <c r="B86" s="62"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="64"/>
+      <c r="E86" s="66"/>
+      <c r="F86" s="66"/>
+      <c r="G86" s="68"/>
       <c r="H86" s="24" t="str">
         <f>IF(E85="","","実績")</f>
         <v/>
@@ -5433,19 +5489,19 @@
       <c r="S86" s="32"/>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="67"/>
+      <c r="A87" s="57"/>
       <c r="B87" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C87" s="61" t="s">
+      <c r="C87" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D87" s="63"/>
-      <c r="E87" s="55" t="s">
+      <c r="D87" s="61"/>
+      <c r="E87" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F87" s="55"/>
-      <c r="G87" s="57"/>
+      <c r="F87" s="70"/>
+      <c r="G87" s="55"/>
       <c r="H87" s="8" t="str">
         <f>IF(E87="","","予定")</f>
         <v>予定</v>
@@ -5472,13 +5528,13 @@
       <c r="S87" s="31"/>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="68"/>
-      <c r="B88" s="58"/>
-      <c r="C88" s="64"/>
-      <c r="D88" s="66"/>
-      <c r="E88" s="56"/>
-      <c r="F88" s="56"/>
-      <c r="G88" s="58"/>
+      <c r="A88" s="58"/>
+      <c r="B88" s="56"/>
+      <c r="C88" s="62"/>
+      <c r="D88" s="64"/>
+      <c r="E88" s="71"/>
+      <c r="F88" s="71"/>
+      <c r="G88" s="56"/>
       <c r="H88" s="52" t="str">
         <f>IF(E87="","","実績")</f>
         <v>実績</v>
@@ -5499,19 +5555,19 @@
       <c r="S88" s="32"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="67"/>
+      <c r="A89" s="57"/>
       <c r="B89" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C89" s="80" t="s">
+      <c r="C89" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="D89" s="63"/>
-      <c r="E89" s="55" t="s">
+      <c r="D89" s="61"/>
+      <c r="E89" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F89" s="55"/>
-      <c r="G89" s="57"/>
+      <c r="F89" s="70"/>
+      <c r="G89" s="55"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -5538,13 +5594,13 @@
       <c r="S89" s="31"/>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="68"/>
-      <c r="B90" s="58"/>
-      <c r="C90" s="64"/>
-      <c r="D90" s="66"/>
-      <c r="E90" s="56"/>
-      <c r="F90" s="56"/>
-      <c r="G90" s="58"/>
+      <c r="A90" s="58"/>
+      <c r="B90" s="56"/>
+      <c r="C90" s="62"/>
+      <c r="D90" s="64"/>
+      <c r="E90" s="71"/>
+      <c r="F90" s="71"/>
+      <c r="G90" s="56"/>
       <c r="H90" s="52" t="str">
         <f>IF(E89="","","実績")</f>
         <v>実績</v>
@@ -5565,17 +5621,17 @@
       <c r="S90" s="32"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="67">
+      <c r="A91" s="57">
         <v>2</v>
       </c>
-      <c r="B91" s="61" t="s">
+      <c r="B91" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C91" s="62"/>
-      <c r="D91" s="63"/>
-      <c r="E91" s="59"/>
-      <c r="F91" s="59"/>
-      <c r="G91" s="70"/>
+      <c r="C91" s="60"/>
+      <c r="D91" s="61"/>
+      <c r="E91" s="65"/>
+      <c r="F91" s="65"/>
+      <c r="G91" s="67"/>
       <c r="H91" s="23" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -5595,13 +5651,13 @@
       <c r="S91" s="31"/>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="68"/>
-      <c r="B92" s="64"/>
-      <c r="C92" s="65"/>
-      <c r="D92" s="66"/>
-      <c r="E92" s="60"/>
-      <c r="F92" s="60"/>
-      <c r="G92" s="71"/>
+      <c r="A92" s="58"/>
+      <c r="B92" s="62"/>
+      <c r="C92" s="63"/>
+      <c r="D92" s="64"/>
+      <c r="E92" s="66"/>
+      <c r="F92" s="66"/>
+      <c r="G92" s="68"/>
       <c r="H92" s="24" t="str">
         <f>IF(E91="","","実績")</f>
         <v/>
@@ -5619,19 +5675,19 @@
       <c r="S92" s="32"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="67"/>
+      <c r="A93" s="57"/>
       <c r="B93" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C93" s="61" t="s">
+      <c r="C93" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D93" s="63"/>
-      <c r="E93" s="55" t="s">
+      <c r="D93" s="61"/>
+      <c r="E93" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="F93" s="55"/>
-      <c r="G93" s="57"/>
+      <c r="F93" s="70"/>
+      <c r="G93" s="55"/>
       <c r="H93" s="8" t="str">
         <f>IF(E93="","","予定")</f>
         <v>予定</v>
@@ -5658,13 +5714,13 @@
       <c r="S93" s="31"/>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="68"/>
-      <c r="B94" s="58"/>
-      <c r="C94" s="64"/>
-      <c r="D94" s="66"/>
-      <c r="E94" s="56"/>
-      <c r="F94" s="56"/>
-      <c r="G94" s="58"/>
+      <c r="A94" s="58"/>
+      <c r="B94" s="56"/>
+      <c r="C94" s="62"/>
+      <c r="D94" s="64"/>
+      <c r="E94" s="71"/>
+      <c r="F94" s="71"/>
+      <c r="G94" s="56"/>
       <c r="H94" s="52" t="str">
         <f>IF(E93="","","実績")</f>
         <v>実績</v>
@@ -5685,19 +5741,19 @@
       <c r="S94" s="32"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="67"/>
+      <c r="A95" s="57"/>
       <c r="B95" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C95" s="61" t="s">
+      <c r="C95" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="D95" s="63"/>
-      <c r="E95" s="55" t="s">
+      <c r="D95" s="61"/>
+      <c r="E95" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="F95" s="55"/>
-      <c r="G95" s="57"/>
+      <c r="F95" s="70"/>
+      <c r="G95" s="55"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v>予定</v>
@@ -5724,13 +5780,13 @@
       <c r="S95" s="31"/>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="68"/>
-      <c r="B96" s="58"/>
-      <c r="C96" s="64"/>
-      <c r="D96" s="66"/>
-      <c r="E96" s="56"/>
-      <c r="F96" s="56"/>
-      <c r="G96" s="58"/>
+      <c r="A96" s="58"/>
+      <c r="B96" s="56"/>
+      <c r="C96" s="62"/>
+      <c r="D96" s="64"/>
+      <c r="E96" s="71"/>
+      <c r="F96" s="71"/>
+      <c r="G96" s="56"/>
       <c r="H96" s="52" t="str">
         <f>IF(E95="","","実績")</f>
         <v>実績</v>
@@ -5751,15 +5807,15 @@
       <c r="S96" s="44"/>
     </row>
     <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="74" t="s">
+      <c r="A97" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="B97" s="75"/>
-      <c r="C97" s="75"/>
-      <c r="D97" s="76"/>
-      <c r="E97" s="72"/>
-      <c r="F97" s="72"/>
-      <c r="G97" s="121"/>
+      <c r="B97" s="73"/>
+      <c r="C97" s="73"/>
+      <c r="D97" s="74"/>
+      <c r="E97" s="78"/>
+      <c r="F97" s="78"/>
+      <c r="G97" s="80"/>
       <c r="H97" s="20" t="s">
         <v>19</v>
       </c>
@@ -5802,13 +5858,13 @@
       </c>
     </row>
     <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="77"/>
-      <c r="B98" s="78"/>
-      <c r="C98" s="78"/>
-      <c r="D98" s="79"/>
-      <c r="E98" s="73"/>
-      <c r="F98" s="73"/>
-      <c r="G98" s="122"/>
+      <c r="A98" s="75"/>
+      <c r="B98" s="76"/>
+      <c r="C98" s="76"/>
+      <c r="D98" s="77"/>
+      <c r="E98" s="79"/>
+      <c r="F98" s="79"/>
+      <c r="G98" s="81"/>
       <c r="H98" s="7" t="s">
         <v>20</v>
       </c>
@@ -5852,19 +5908,19 @@
       </c>
     </row>
     <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="67">
+      <c r="A99" s="57">
         <v>1</v>
       </c>
-      <c r="B99" s="61" t="s">
+      <c r="B99" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C99" s="62"/>
-      <c r="D99" s="63"/>
-      <c r="E99" s="59" t="s">
+      <c r="C99" s="60"/>
+      <c r="D99" s="61"/>
+      <c r="E99" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="F99" s="59"/>
-      <c r="G99" s="70"/>
+      <c r="F99" s="65"/>
+      <c r="G99" s="67"/>
       <c r="H99" s="23" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
@@ -5882,13 +5938,13 @@
       <c r="S99" s="31"/>
     </row>
     <row r="100" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="68"/>
-      <c r="B100" s="64"/>
-      <c r="C100" s="65"/>
-      <c r="D100" s="66"/>
-      <c r="E100" s="60"/>
-      <c r="F100" s="60"/>
-      <c r="G100" s="71"/>
+      <c r="A100" s="58"/>
+      <c r="B100" s="62"/>
+      <c r="C100" s="63"/>
+      <c r="D100" s="64"/>
+      <c r="E100" s="66"/>
+      <c r="F100" s="66"/>
+      <c r="G100" s="68"/>
       <c r="H100" s="24" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
@@ -5906,19 +5962,19 @@
       <c r="S100" s="32"/>
     </row>
     <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="67"/>
+      <c r="A101" s="57"/>
       <c r="B101" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C101" s="61" t="s">
+      <c r="C101" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="D101" s="63"/>
-      <c r="E101" s="55" t="s">
+      <c r="D101" s="61"/>
+      <c r="E101" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F101" s="55"/>
-      <c r="G101" s="57"/>
+      <c r="F101" s="70"/>
+      <c r="G101" s="55"/>
       <c r="H101" s="8" t="str">
         <f>IF(E101="","","予定")</f>
         <v>予定</v>
@@ -5944,13 +6000,13 @@
       <c r="S101" s="31"/>
     </row>
     <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="68"/>
-      <c r="B102" s="58"/>
-      <c r="C102" s="64"/>
-      <c r="D102" s="66"/>
-      <c r="E102" s="56"/>
-      <c r="F102" s="56"/>
-      <c r="G102" s="58"/>
+      <c r="A102" s="58"/>
+      <c r="B102" s="56"/>
+      <c r="C102" s="62"/>
+      <c r="D102" s="64"/>
+      <c r="E102" s="71"/>
+      <c r="F102" s="71"/>
+      <c r="G102" s="56"/>
       <c r="H102" s="52" t="str">
         <f>IF(E101="","","実績")</f>
         <v>実績</v>
@@ -5971,19 +6027,19 @@
       <c r="S102" s="32"/>
     </row>
     <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="67"/>
+      <c r="A103" s="57"/>
       <c r="B103" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C103" s="61" t="s">
+      <c r="C103" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="D103" s="63"/>
-      <c r="E103" s="55" t="s">
+      <c r="D103" s="61"/>
+      <c r="E103" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F103" s="55"/>
-      <c r="G103" s="57"/>
+      <c r="F103" s="70"/>
+      <c r="G103" s="55"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -6009,13 +6065,13 @@
       <c r="S103" s="31"/>
     </row>
     <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="68"/>
-      <c r="B104" s="58"/>
-      <c r="C104" s="64"/>
-      <c r="D104" s="66"/>
-      <c r="E104" s="56"/>
-      <c r="F104" s="56"/>
-      <c r="G104" s="58"/>
+      <c r="A104" s="58"/>
+      <c r="B104" s="56"/>
+      <c r="C104" s="62"/>
+      <c r="D104" s="64"/>
+      <c r="E104" s="71"/>
+      <c r="F104" s="71"/>
+      <c r="G104" s="56"/>
       <c r="H104" s="52" t="str">
         <f>IF(E103="","","実績")</f>
         <v>実績</v>
@@ -6036,19 +6092,19 @@
       <c r="S104" s="32"/>
     </row>
     <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="67">
+      <c r="A105" s="57">
         <v>2</v>
       </c>
-      <c r="B105" s="61" t="s">
+      <c r="B105" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C105" s="62"/>
-      <c r="D105" s="63"/>
-      <c r="E105" s="59" t="s">
+      <c r="C105" s="60"/>
+      <c r="D105" s="61"/>
+      <c r="E105" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="F105" s="59"/>
-      <c r="G105" s="70"/>
+      <c r="F105" s="65"/>
+      <c r="G105" s="67"/>
       <c r="H105" s="23" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -6066,13 +6122,13 @@
       <c r="S105" s="31"/>
     </row>
     <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="68"/>
-      <c r="B106" s="64"/>
-      <c r="C106" s="65"/>
-      <c r="D106" s="66"/>
-      <c r="E106" s="60"/>
-      <c r="F106" s="60"/>
-      <c r="G106" s="71"/>
+      <c r="A106" s="58"/>
+      <c r="B106" s="62"/>
+      <c r="C106" s="63"/>
+      <c r="D106" s="64"/>
+      <c r="E106" s="66"/>
+      <c r="F106" s="66"/>
+      <c r="G106" s="68"/>
       <c r="H106" s="24" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
@@ -6090,19 +6146,19 @@
       <c r="S106" s="32"/>
     </row>
     <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="67"/>
+      <c r="A107" s="57"/>
       <c r="B107" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C107" s="61" t="s">
+      <c r="C107" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D107" s="63"/>
-      <c r="E107" s="55" t="s">
+      <c r="D107" s="61"/>
+      <c r="E107" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F107" s="55"/>
-      <c r="G107" s="57"/>
+      <c r="F107" s="70"/>
+      <c r="G107" s="55"/>
       <c r="H107" s="8" t="str">
         <f>IF(E107="","","予定")</f>
         <v>予定</v>
@@ -6128,13 +6184,13 @@
       <c r="S107" s="31"/>
     </row>
     <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="68"/>
-      <c r="B108" s="58"/>
-      <c r="C108" s="64"/>
-      <c r="D108" s="66"/>
-      <c r="E108" s="56"/>
-      <c r="F108" s="56"/>
-      <c r="G108" s="58"/>
+      <c r="A108" s="58"/>
+      <c r="B108" s="56"/>
+      <c r="C108" s="62"/>
+      <c r="D108" s="64"/>
+      <c r="E108" s="71"/>
+      <c r="F108" s="71"/>
+      <c r="G108" s="56"/>
       <c r="H108" s="52" t="str">
         <f>IF(E107="","","実績")</f>
         <v>実績</v>
@@ -6155,19 +6211,19 @@
       <c r="S108" s="32"/>
     </row>
     <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="67"/>
+      <c r="A109" s="57"/>
       <c r="B109" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C109" s="61" t="s">
+      <c r="C109" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="D109" s="63"/>
-      <c r="E109" s="55" t="s">
+      <c r="D109" s="61"/>
+      <c r="E109" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F109" s="55"/>
-      <c r="G109" s="57"/>
+      <c r="F109" s="70"/>
+      <c r="G109" s="55"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v>予定</v>
@@ -6193,13 +6249,13 @@
       <c r="S109" s="31"/>
     </row>
     <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="68"/>
-      <c r="B110" s="58"/>
-      <c r="C110" s="64"/>
-      <c r="D110" s="66"/>
-      <c r="E110" s="56"/>
-      <c r="F110" s="56"/>
-      <c r="G110" s="58"/>
+      <c r="A110" s="58"/>
+      <c r="B110" s="56"/>
+      <c r="C110" s="62"/>
+      <c r="D110" s="64"/>
+      <c r="E110" s="71"/>
+      <c r="F110" s="71"/>
+      <c r="G110" s="56"/>
       <c r="H110" s="52" t="str">
         <f>IF(E109="","","実績")</f>
         <v>実績</v>
@@ -6235,44 +6291,253 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="309">
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="B105:D106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="A97:D98"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:D102"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:D100"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:D80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="B49:D50"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B33:D34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="B43:D44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:D68"/>
     <mergeCell ref="E73:E74"/>
     <mergeCell ref="F73:F74"/>
     <mergeCell ref="F71:F72"/>
@@ -6297,253 +6562,44 @@
     <mergeCell ref="C71:D72"/>
     <mergeCell ref="E71:E72"/>
     <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:D68"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="B49:D50"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B33:D34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B43:D44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:D100"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:D80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="A97:D98"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:D102"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="B105:D106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L85:S96 L99:S110 L43:S52 L54:S54 L9:S12 M13:S13 L14:S18 L53:T53 L55:T55 L56:S56 L25:S34">
@@ -6639,15 +6695,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6831,6 +6878,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
   <ds:schemaRefs>
@@ -6841,14 +6897,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89F0FFFF-D441-4664-93A0-244B234195EC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6864,4 +6912,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/13_WBSガントチャート(修正).xlsx
+++ b/13_WBSガントチャート(修正).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{211C5B90-8919-4786-A3D1-AFB16B64A307}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC72FF6-0AFD-4CA0-9BCF-C01352683549}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1559,40 +1559,49 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1600,13 +1609,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1627,10 +1633,127 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1638,129 +1761,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2356,10 +2356,10 @@
   <dimension ref="A1:T111"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H42" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="P68" sqref="P68"/>
+      <selection pane="bottomRight" activeCell="Q76" sqref="Q76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2378,120 +2378,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="102" t="s">
+      <c r="A1" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="102" t="s">
+      <c r="F1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="G1" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="102" t="s">
+      <c r="H1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="102" t="s">
+      <c r="I1" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="102" t="s">
+      <c r="J1" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="115" t="s">
+      <c r="K1" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="105">
+      <c r="L1" s="81">
         <v>43984</v>
       </c>
-      <c r="M1" s="106"/>
-      <c r="N1" s="105">
+      <c r="M1" s="82"/>
+      <c r="N1" s="81">
         <v>43985</v>
       </c>
-      <c r="O1" s="106"/>
-      <c r="P1" s="105">
+      <c r="O1" s="82"/>
+      <c r="P1" s="81">
         <v>43986</v>
       </c>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="105">
+      <c r="Q1" s="82"/>
+      <c r="R1" s="81">
         <v>43987</v>
       </c>
-      <c r="S1" s="106"/>
+      <c r="S1" s="82"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="109" t="s">
+      <c r="A2" s="105"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="108"/>
-      <c r="N2" s="107" t="s">
+      <c r="M2" s="84"/>
+      <c r="N2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="107"/>
-      <c r="P2" s="110" t="s">
+      <c r="O2" s="83"/>
+      <c r="P2" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="107" t="s">
+      <c r="Q2" s="84"/>
+      <c r="R2" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="108"/>
+      <c r="S2" s="84"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="113" t="s">
+      <c r="A3" s="105"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="112"/>
-      <c r="N3" s="111" t="s">
+      <c r="M3" s="88"/>
+      <c r="N3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="112"/>
-      <c r="P3" s="111" t="s">
+      <c r="O3" s="88"/>
+      <c r="P3" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="114" t="s">
+      <c r="Q3" s="88"/>
+      <c r="R3" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="114"/>
+      <c r="S3" s="90"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="86"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="117"/>
+      <c r="A4" s="106"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="93"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2518,15 +2518,15 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="88" t="s">
+      <c r="A5" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="118"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="97"/>
       <c r="H5" s="16" t="s">
         <v>19</v>
       </c>
@@ -2568,13 +2568,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="91"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="119"/>
+      <c r="A6" s="110"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="98"/>
       <c r="H6" s="18" t="s">
         <v>20</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>18</v>
       </c>
       <c r="Q6" s="47">
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="R6" s="47">
         <f t="shared" si="1"/>
@@ -2615,15 +2615,15 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="96" t="s">
+      <c r="A7" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="99"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="118"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2666,13 +2666,13 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="75"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="100"/>
+      <c r="A8" s="77"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="119"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2716,21 +2716,21 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="57">
+      <c r="A9" s="67">
         <v>1</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="65" t="s">
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="65" t="s">
+      <c r="F9" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="67"/>
+      <c r="G9" s="70"/>
       <c r="H9" s="23" t="str">
         <f>IF(E9="","","予定")</f>
         <v>予定</v>
@@ -2748,13 +2748,13 @@
       <c r="S9" s="31"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="58"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="68"/>
+      <c r="A10" s="68"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="71"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
         <v>実績</v>
@@ -2772,21 +2772,21 @@
       <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="57"/>
+      <c r="A11" s="67"/>
       <c r="B11" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="70" t="s">
+      <c r="D11" s="63"/>
+      <c r="E11" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="70" t="s">
+      <c r="F11" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="55"/>
+      <c r="G11" s="57"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2813,13 +2813,13 @@
       <c r="S11" s="31"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="58"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="56"/>
+      <c r="A12" s="68"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="58"/>
       <c r="H12" s="52" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -2846,21 +2846,21 @@
       <c r="S12" s="32"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="57"/>
+      <c r="A13" s="67"/>
       <c r="B13" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="70" t="s">
+      <c r="D13" s="63"/>
+      <c r="E13" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="70" t="s">
+      <c r="F13" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="55"/>
+      <c r="G13" s="57"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2886,13 +2886,13 @@
       <c r="S13" s="31"/>
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="58"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="56"/>
+      <c r="A14" s="68"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="58"/>
       <c r="H14" s="52" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2919,19 +2919,19 @@
       <c r="S14" s="32"/>
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="57">
+      <c r="A15" s="67">
         <v>2</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="65" t="s">
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="65"/>
-      <c r="G15" s="67"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="70"/>
       <c r="H15" s="23" t="str">
         <f>IF(E15="","","予定")</f>
         <v>予定</v>
@@ -2949,13 +2949,13 @@
       <c r="S15" s="31"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="58"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="68"/>
+      <c r="A16" s="68"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="71"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
         <v>実績</v>
@@ -2973,21 +2973,21 @@
       <c r="S16" s="32"/>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="57"/>
+      <c r="A17" s="67"/>
       <c r="B17" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="70" t="s">
+      <c r="D17" s="63"/>
+      <c r="E17" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="70" t="s">
+      <c r="F17" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="55"/>
+      <c r="G17" s="57"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3013,13 +3013,13 @@
       <c r="S17" s="31"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="58"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="56"/>
+      <c r="A18" s="68"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="58"/>
       <c r="H18" s="52" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -3046,21 +3046,21 @@
       <c r="S18" s="32"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="57"/>
+      <c r="A19" s="67"/>
       <c r="B19" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="70" t="s">
+      <c r="D19" s="63"/>
+      <c r="E19" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="70" t="s">
+      <c r="F19" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="55"/>
+      <c r="G19" s="57"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3086,13 +3086,13 @@
       <c r="S19" s="31"/>
     </row>
     <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="58"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="56"/>
+      <c r="A20" s="68"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="58"/>
       <c r="H20" s="52" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -3119,21 +3119,21 @@
       <c r="S20" s="32"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="57"/>
+      <c r="A21" s="67"/>
       <c r="B21" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="70" t="s">
+      <c r="D21" s="63"/>
+      <c r="E21" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="70" t="s">
+      <c r="F21" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="55"/>
+      <c r="G21" s="57"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3159,13 +3159,13 @@
       <c r="S21" s="31"/>
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="58"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="56"/>
+      <c r="A22" s="68"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="58"/>
       <c r="H22" s="52" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3192,15 +3192,15 @@
       <c r="S22" s="32"/>
     </row>
     <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="72" t="s">
+      <c r="A23" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="80"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="121"/>
       <c r="H23" s="20" t="s">
         <v>19</v>
       </c>
@@ -3244,13 +3244,13 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="75"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="81"/>
+      <c r="A24" s="77"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="122"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
@@ -3294,19 +3294,19 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="57">
+      <c r="A25" s="67">
         <v>1</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="60"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="65" t="s">
+      <c r="C25" s="62"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="65"/>
-      <c r="G25" s="67"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="70"/>
       <c r="H25" s="23" t="str">
         <f>IF(E25="","","予定")</f>
         <v>予定</v>
@@ -3324,13 +3324,13 @@
       <c r="S25" s="31"/>
     </row>
     <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="58"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="68"/>
+      <c r="A26" s="68"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="71"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
         <v>実績</v>
@@ -3348,21 +3348,21 @@
       <c r="S26" s="32"/>
     </row>
     <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="57"/>
+      <c r="A27" s="67"/>
       <c r="B27" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="70" t="s">
+      <c r="D27" s="63"/>
+      <c r="E27" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="70" t="s">
+      <c r="F27" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="55"/>
+      <c r="G27" s="57"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -3389,13 +3389,13 @@
       <c r="S27" s="31"/>
     </row>
     <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="58"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="56"/>
+      <c r="A28" s="68"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="58"/>
       <c r="H28" s="52" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3422,21 +3422,21 @@
       <c r="S28" s="32"/>
     </row>
     <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="57"/>
+      <c r="A29" s="67"/>
       <c r="B29" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="70" t="s">
+      <c r="D29" s="63"/>
+      <c r="E29" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="70" t="s">
+      <c r="F29" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="55"/>
+      <c r="G29" s="57"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3463,13 +3463,13 @@
       <c r="S29" s="31"/>
     </row>
     <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="58"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="56"/>
+      <c r="A30" s="68"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="58"/>
       <c r="H30" s="52" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3496,19 +3496,19 @@
       <c r="S30" s="32"/>
     </row>
     <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="57"/>
+      <c r="A31" s="67"/>
       <c r="B31" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="70" t="s">
+      <c r="D31" s="63"/>
+      <c r="E31" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="70"/>
-      <c r="G31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="57"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3535,13 +3535,13 @@
       <c r="S31" s="31"/>
     </row>
     <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="58"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="56"/>
+      <c r="A32" s="68"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="58"/>
       <c r="H32" s="52" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3568,19 +3568,19 @@
       <c r="S32" s="32"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="57">
+      <c r="A33" s="67">
         <v>2</v>
       </c>
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="65" t="s">
+      <c r="C33" s="62"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="65"/>
-      <c r="G33" s="67"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="70"/>
       <c r="H33" s="23" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
@@ -3598,13 +3598,13 @@
       <c r="S33" s="31"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="58"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="68"/>
+      <c r="A34" s="68"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="71"/>
       <c r="H34" s="24" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3622,19 +3622,19 @@
       <c r="S34" s="32"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="57"/>
+      <c r="A35" s="67"/>
       <c r="B35" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="59" t="s">
+      <c r="C35" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="61"/>
-      <c r="E35" s="70" t="s">
+      <c r="D35" s="63"/>
+      <c r="E35" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="70"/>
-      <c r="G35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="57"/>
       <c r="H35" s="8" t="str">
         <f>IF(E35="","","予定")</f>
         <v>予定</v>
@@ -3661,13 +3661,13 @@
       <c r="S35" s="31"/>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="58"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="56"/>
+      <c r="A36" s="68"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="58"/>
       <c r="H36" s="52" t="str">
         <f>IF(E35="","","実績")</f>
         <v>実績</v>
@@ -3694,19 +3694,19 @@
       <c r="S36" s="32"/>
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="57"/>
+      <c r="A37" s="67"/>
       <c r="B37" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="61"/>
-      <c r="E37" s="70" t="s">
+      <c r="D37" s="63"/>
+      <c r="E37" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="70"/>
-      <c r="G37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="57"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3733,13 +3733,13 @@
       <c r="S37" s="31"/>
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="58"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="56"/>
+      <c r="A38" s="68"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="58"/>
       <c r="H38" s="52" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
@@ -3766,19 +3766,19 @@
       <c r="S38" s="32"/>
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="57"/>
+      <c r="A39" s="67"/>
       <c r="B39" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="C39" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="61"/>
-      <c r="E39" s="70" t="s">
+      <c r="D39" s="63"/>
+      <c r="E39" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="70"/>
-      <c r="G39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="57"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3805,13 +3805,13 @@
       <c r="S39" s="31"/>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="58"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="56"/>
+      <c r="A40" s="68"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="58"/>
       <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -3837,15 +3837,15 @@
       <c r="S40" s="32"/>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="72" t="s">
+      <c r="A41" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="73"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="80"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="121"/>
       <c r="H41" s="20" t="s">
         <v>19</v>
       </c>
@@ -3889,13 +3889,13 @@
       </c>
     </row>
     <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="75"/>
-      <c r="B42" s="76"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="81"/>
+      <c r="A42" s="77"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="122"/>
       <c r="H42" s="7" t="s">
         <v>20</v>
       </c>
@@ -3939,19 +3939,19 @@
       </c>
     </row>
     <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="57">
+      <c r="A43" s="67">
         <v>1</v>
       </c>
-      <c r="B43" s="59" t="s">
+      <c r="B43" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="60"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="65" t="s">
+      <c r="C43" s="62"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="65"/>
-      <c r="G43" s="67"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="70"/>
       <c r="H43" s="23" t="str">
         <f>IF(E43="","","予定")</f>
         <v>予定</v>
@@ -3969,13 +3969,13 @@
       <c r="S43" s="31"/>
     </row>
     <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="58"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="68"/>
+      <c r="A44" s="68"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="71"/>
       <c r="H44" s="24" t="str">
         <f>IF(E43="","","実績")</f>
         <v>実績</v>
@@ -3993,19 +3993,19 @@
       <c r="S44" s="32"/>
     </row>
     <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="57"/>
+      <c r="A45" s="67"/>
       <c r="B45" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="59" t="s">
+      <c r="C45" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="61"/>
-      <c r="E45" s="70" t="s">
+      <c r="D45" s="63"/>
+      <c r="E45" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="70"/>
-      <c r="G45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="57"/>
       <c r="H45" s="8" t="str">
         <f>IF(E45="","","予定")</f>
         <v>予定</v>
@@ -4034,13 +4034,13 @@
       <c r="S45" s="31"/>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="58"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="56"/>
+      <c r="A46" s="68"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="58"/>
       <c r="H46" s="52" t="str">
         <f>IF(E45="","","実績")</f>
         <v>実績</v>
@@ -4068,19 +4068,19 @@
       <c r="S46" s="32"/>
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="57"/>
+      <c r="A47" s="67"/>
       <c r="B47" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="59" t="s">
+      <c r="C47" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="61"/>
-      <c r="E47" s="70" t="s">
+      <c r="D47" s="63"/>
+      <c r="E47" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="70"/>
-      <c r="G47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="57"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4107,13 +4107,13 @@
       <c r="S47" s="31"/>
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="58"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="56"/>
+      <c r="A48" s="68"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="58"/>
       <c r="H48" s="52" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -4140,19 +4140,19 @@
       <c r="S48" s="32"/>
     </row>
     <row r="49" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="57">
+      <c r="A49" s="67">
         <v>2</v>
       </c>
-      <c r="B49" s="59" t="s">
+      <c r="B49" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="60"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="65" t="s">
+      <c r="C49" s="62"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="65"/>
-      <c r="G49" s="67"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="70"/>
       <c r="H49" s="23" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4170,13 +4170,13 @@
       <c r="S49" s="31"/>
     </row>
     <row r="50" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="58"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="68"/>
+      <c r="A50" s="68"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="71"/>
       <c r="H50" s="24" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -4194,19 +4194,19 @@
       <c r="S50" s="32"/>
     </row>
     <row r="51" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="57"/>
+      <c r="A51" s="67"/>
       <c r="B51" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="59" t="s">
+      <c r="C51" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="61"/>
-      <c r="E51" s="70" t="s">
+      <c r="D51" s="63"/>
+      <c r="E51" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="70"/>
-      <c r="G51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="57"/>
       <c r="H51" s="8" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -4233,13 +4233,13 @@
       <c r="S51" s="31"/>
     </row>
     <row r="52" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="58"/>
-      <c r="B52" s="56"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="56"/>
+      <c r="A52" s="68"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="58"/>
       <c r="H52" s="52" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -4265,19 +4265,19 @@
       <c r="S52" s="32"/>
     </row>
     <row r="53" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="57"/>
+      <c r="A53" s="67"/>
       <c r="B53" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C53" s="59" t="s">
+      <c r="C53" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="61"/>
-      <c r="E53" s="70" t="s">
+      <c r="D53" s="63"/>
+      <c r="E53" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F53" s="70"/>
-      <c r="G53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="57"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v>予定</v>
@@ -4305,13 +4305,13 @@
       <c r="T53" s="31"/>
     </row>
     <row r="54" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="58"/>
-      <c r="B54" s="56"/>
-      <c r="C54" s="62"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="56"/>
+      <c r="A54" s="68"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="58"/>
       <c r="H54" s="52" t="str">
         <f>IF(E53="","","実績")</f>
         <v>実績</v>
@@ -4338,19 +4338,19 @@
       <c r="S54" s="32"/>
     </row>
     <row r="55" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="57"/>
+      <c r="A55" s="67"/>
       <c r="B55" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="59" t="s">
+      <c r="C55" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="D55" s="61"/>
-      <c r="E55" s="70" t="s">
+      <c r="D55" s="63"/>
+      <c r="E55" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F55" s="70"/>
-      <c r="G55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="57"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4378,13 +4378,13 @@
       <c r="T55" s="31"/>
     </row>
     <row r="56" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="58"/>
-      <c r="B56" s="56"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="71"/>
-      <c r="F56" s="71"/>
-      <c r="G56" s="56"/>
+      <c r="A56" s="68"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="58"/>
       <c r="H56" s="52" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
@@ -4411,15 +4411,15 @@
       <c r="S56" s="44"/>
     </row>
     <row r="57" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="72" t="s">
+      <c r="A57" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="73"/>
-      <c r="C57" s="73"/>
-      <c r="D57" s="74"/>
-      <c r="E57" s="78"/>
-      <c r="F57" s="78"/>
-      <c r="G57" s="80"/>
+      <c r="B57" s="75"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="76"/>
+      <c r="E57" s="72"/>
+      <c r="F57" s="72"/>
+      <c r="G57" s="121"/>
       <c r="H57" s="20" t="s">
         <v>19</v>
       </c>
@@ -4460,13 +4460,13 @@
       </c>
     </row>
     <row r="58" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="75"/>
-      <c r="B58" s="76"/>
-      <c r="C58" s="76"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="79"/>
-      <c r="G58" s="81"/>
+      <c r="A58" s="77"/>
+      <c r="B58" s="78"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="73"/>
+      <c r="F58" s="73"/>
+      <c r="G58" s="122"/>
       <c r="H58" s="7" t="s">
         <v>20</v>
       </c>
@@ -4474,7 +4474,7 @@
       <c r="J58" s="7"/>
       <c r="K58" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$59:K$74),2)=0)*K$59:K$74)</f>
-        <v>28.5</v>
+        <v>35.5</v>
       </c>
       <c r="L58" s="36">
         <f>SUMPRODUCT((MOD(ROW(L$59:L$74),2)=0)*L$59:L$74)</f>
@@ -4498,7 +4498,7 @@
       </c>
       <c r="Q58" s="36">
         <f t="shared" si="15"/>
-        <v>10.5</v>
+        <v>17.5</v>
       </c>
       <c r="R58" s="36">
         <f t="shared" si="15"/>
@@ -4510,19 +4510,19 @@
       </c>
     </row>
     <row r="59" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="57">
+      <c r="A59" s="67">
         <v>1</v>
       </c>
-      <c r="B59" s="59" t="s">
+      <c r="B59" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="60"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="65" t="s">
+      <c r="C59" s="62"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="F59" s="65"/>
-      <c r="G59" s="67"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="70"/>
       <c r="H59" s="23" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
@@ -4540,13 +4540,13 @@
       <c r="S59" s="31"/>
     </row>
     <row r="60" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="58"/>
-      <c r="B60" s="62"/>
-      <c r="C60" s="63"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="66"/>
-      <c r="F60" s="66"/>
-      <c r="G60" s="68"/>
+      <c r="A60" s="68"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="65"/>
+      <c r="D60" s="66"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="60"/>
+      <c r="G60" s="71"/>
       <c r="H60" s="24" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
@@ -4564,19 +4564,19 @@
       <c r="S60" s="32"/>
     </row>
     <row r="61" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="57"/>
+      <c r="A61" s="67"/>
       <c r="B61" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C61" s="59" t="s">
+      <c r="C61" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="D61" s="61"/>
-      <c r="E61" s="70" t="s">
+      <c r="D61" s="63"/>
+      <c r="E61" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F61" s="70"/>
-      <c r="G61" s="55"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="57"/>
       <c r="H61" s="8" t="str">
         <f>IF(E61="","","予定")</f>
         <v>予定</v>
@@ -4604,13 +4604,13 @@
       <c r="S61" s="31"/>
     </row>
     <row r="62" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="58"/>
-      <c r="B62" s="56"/>
-      <c r="C62" s="62"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="71"/>
-      <c r="F62" s="71"/>
-      <c r="G62" s="56"/>
+      <c r="A62" s="68"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="56"/>
+      <c r="G62" s="58"/>
       <c r="H62" s="52" t="str">
         <f>IF(E61="","","実績")</f>
         <v>実績</v>
@@ -4638,19 +4638,19 @@
       <c r="S62" s="32"/>
     </row>
     <row r="63" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="57"/>
+      <c r="A63" s="67"/>
       <c r="B63" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="59" t="s">
+      <c r="C63" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="D63" s="61"/>
-      <c r="E63" s="70" t="s">
+      <c r="D63" s="63"/>
+      <c r="E63" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F63" s="70"/>
-      <c r="G63" s="55"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="57"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v>予定</v>
@@ -4677,13 +4677,13 @@
       <c r="S63" s="31"/>
     </row>
     <row r="64" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="58"/>
-      <c r="B64" s="56"/>
-      <c r="C64" s="62"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="71"/>
-      <c r="F64" s="71"/>
-      <c r="G64" s="56"/>
+      <c r="A64" s="68"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="56"/>
+      <c r="G64" s="58"/>
       <c r="H64" s="52" t="str">
         <f>IF(E63="","","実績")</f>
         <v>実績</v>
@@ -4711,19 +4711,19 @@
       <c r="S64" s="32"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="57"/>
+      <c r="A65" s="67"/>
       <c r="B65" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C65" s="59" t="s">
+      <c r="C65" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="D65" s="61"/>
-      <c r="E65" s="70" t="s">
+      <c r="D65" s="63"/>
+      <c r="E65" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F65" s="70"/>
-      <c r="G65" s="55"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="57"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4750,13 +4750,13 @@
       <c r="S65" s="31"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="58"/>
-      <c r="B66" s="56"/>
-      <c r="C66" s="62"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="71"/>
-      <c r="F66" s="71"/>
-      <c r="G66" s="56"/>
+      <c r="A66" s="68"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="66"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="56"/>
+      <c r="G66" s="58"/>
       <c r="H66" s="52" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -4787,19 +4787,19 @@
       <c r="S66" s="32"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="57">
+      <c r="A67" s="67">
         <v>2</v>
       </c>
-      <c r="B67" s="59" t="s">
+      <c r="B67" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C67" s="60"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="65" t="s">
+      <c r="C67" s="62"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="F67" s="65"/>
-      <c r="G67" s="67"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="70"/>
       <c r="H67" s="23" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4817,13 +4817,13 @@
       <c r="S67" s="31"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="58"/>
-      <c r="B68" s="62"/>
-      <c r="C68" s="63"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="66"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="68"/>
+      <c r="A68" s="68"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="60"/>
+      <c r="F68" s="60"/>
+      <c r="G68" s="71"/>
       <c r="H68" s="24" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -4841,19 +4841,19 @@
       <c r="S68" s="32"/>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="57"/>
+      <c r="A69" s="67"/>
       <c r="B69" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C69" s="59" t="s">
+      <c r="C69" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="61"/>
-      <c r="E69" s="70" t="s">
+      <c r="D69" s="63"/>
+      <c r="E69" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="F69" s="70"/>
-      <c r="G69" s="55"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="57"/>
       <c r="H69" s="8" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
@@ -4880,13 +4880,13 @@
       <c r="S69" s="31"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="58"/>
-      <c r="B70" s="56"/>
-      <c r="C70" s="62"/>
-      <c r="D70" s="64"/>
-      <c r="E70" s="71"/>
-      <c r="F70" s="71"/>
-      <c r="G70" s="56"/>
+      <c r="A70" s="68"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="56"/>
+      <c r="G70" s="58"/>
       <c r="H70" s="52" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
@@ -4914,19 +4914,19 @@
       <c r="S70" s="32"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="57"/>
+      <c r="A71" s="67"/>
       <c r="B71" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="59" t="s">
+      <c r="C71" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D71" s="61"/>
-      <c r="E71" s="70" t="s">
+      <c r="D71" s="63"/>
+      <c r="E71" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="F71" s="70"/>
-      <c r="G71" s="55"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="57"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v>予定</v>
@@ -4953,13 +4953,13 @@
       <c r="S71" s="31"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="58"/>
-      <c r="B72" s="56"/>
-      <c r="C72" s="62"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="71"/>
-      <c r="F72" s="71"/>
-      <c r="G72" s="56"/>
+      <c r="A72" s="68"/>
+      <c r="B72" s="58"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="66"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="56"/>
+      <c r="G72" s="58"/>
       <c r="H72" s="52" t="str">
         <f>IF(E71="","","実績")</f>
         <v>実績</v>
@@ -4972,7 +4972,7 @@
       </c>
       <c r="K72" s="10">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="L72" s="41"/>
       <c r="M72" s="32"/>
@@ -4980,25 +4980,26 @@
       <c r="O72" s="32"/>
       <c r="P72" s="32"/>
       <c r="Q72" s="32">
-        <v>2</v>
+        <f>6*1.5</f>
+        <v>9</v>
       </c>
       <c r="R72" s="32"/>
       <c r="S72" s="32"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="57"/>
+      <c r="A73" s="67"/>
       <c r="B73" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C73" s="59" t="s">
+      <c r="C73" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="D73" s="61"/>
-      <c r="E73" s="70" t="s">
+      <c r="D73" s="63"/>
+      <c r="E73" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="F73" s="70"/>
-      <c r="G73" s="55"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="57"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -5025,13 +5026,13 @@
       <c r="S73" s="31"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="58"/>
-      <c r="B74" s="56"/>
-      <c r="C74" s="62"/>
-      <c r="D74" s="64"/>
-      <c r="E74" s="71"/>
-      <c r="F74" s="71"/>
-      <c r="G74" s="56"/>
+      <c r="A74" s="68"/>
+      <c r="B74" s="58"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="66"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="56"/>
+      <c r="G74" s="58"/>
       <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -5058,15 +5059,15 @@
       <c r="S74" s="44"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="72" t="s">
+      <c r="A75" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="B75" s="73"/>
-      <c r="C75" s="73"/>
-      <c r="D75" s="74"/>
-      <c r="E75" s="78"/>
-      <c r="F75" s="78"/>
-      <c r="G75" s="80"/>
+      <c r="B75" s="75"/>
+      <c r="C75" s="75"/>
+      <c r="D75" s="76"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="121"/>
       <c r="H75" s="20" t="s">
         <v>19</v>
       </c>
@@ -5103,13 +5104,13 @@
       </c>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="75"/>
-      <c r="B76" s="76"/>
-      <c r="C76" s="76"/>
-      <c r="D76" s="77"/>
-      <c r="E76" s="79"/>
-      <c r="F76" s="79"/>
-      <c r="G76" s="81"/>
+      <c r="A76" s="77"/>
+      <c r="B76" s="78"/>
+      <c r="C76" s="78"/>
+      <c r="D76" s="79"/>
+      <c r="E76" s="73"/>
+      <c r="F76" s="73"/>
+      <c r="G76" s="122"/>
       <c r="H76" s="7" t="s">
         <v>20</v>
       </c>
@@ -5153,17 +5154,17 @@
       </c>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="57">
+      <c r="A77" s="67">
         <v>1</v>
       </c>
-      <c r="B77" s="59" t="s">
+      <c r="B77" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C77" s="60"/>
-      <c r="D77" s="61"/>
-      <c r="E77" s="65"/>
-      <c r="F77" s="65"/>
-      <c r="G77" s="67"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="63"/>
+      <c r="E77" s="59"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="70"/>
       <c r="H77" s="23" t="str">
         <f>IF(E77="","","予定")</f>
         <v/>
@@ -5181,13 +5182,13 @@
       <c r="S77" s="31"/>
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="58"/>
-      <c r="B78" s="62"/>
-      <c r="C78" s="63"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="66"/>
-      <c r="F78" s="66"/>
-      <c r="G78" s="68"/>
+      <c r="A78" s="68"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="65"/>
+      <c r="D78" s="66"/>
+      <c r="E78" s="60"/>
+      <c r="F78" s="60"/>
+      <c r="G78" s="71"/>
       <c r="H78" s="24" t="str">
         <f>IF(E77="","","実績")</f>
         <v/>
@@ -5205,19 +5206,19 @@
       <c r="S78" s="32"/>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="57"/>
+      <c r="A79" s="67"/>
       <c r="B79" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C79" s="59" t="s">
+      <c r="C79" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="D79" s="61"/>
-      <c r="E79" s="70" t="s">
+      <c r="D79" s="63"/>
+      <c r="E79" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F79" s="70"/>
-      <c r="G79" s="55"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="57"/>
       <c r="H79" s="8" t="str">
         <f>IF(E79="","","予定")</f>
         <v>予定</v>
@@ -5244,13 +5245,13 @@
       <c r="S79" s="31"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="58"/>
-      <c r="B80" s="56"/>
-      <c r="C80" s="62"/>
-      <c r="D80" s="64"/>
-      <c r="E80" s="71"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="56"/>
+      <c r="A80" s="68"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="66"/>
+      <c r="E80" s="56"/>
+      <c r="F80" s="56"/>
+      <c r="G80" s="58"/>
       <c r="H80" s="52" t="str">
         <f>IF(E79="","","実績")</f>
         <v>実績</v>
@@ -5271,19 +5272,19 @@
       <c r="S80" s="32"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="57"/>
+      <c r="A81" s="67"/>
       <c r="B81" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="59" t="s">
+      <c r="C81" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="D81" s="61"/>
-      <c r="E81" s="70" t="s">
+      <c r="D81" s="63"/>
+      <c r="E81" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F81" s="70"/>
-      <c r="G81" s="55"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="57"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5310,13 +5311,13 @@
       <c r="S81" s="31"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="58"/>
-      <c r="B82" s="56"/>
-      <c r="C82" s="62"/>
-      <c r="D82" s="64"/>
-      <c r="E82" s="71"/>
-      <c r="F82" s="71"/>
-      <c r="G82" s="56"/>
+      <c r="A82" s="68"/>
+      <c r="B82" s="58"/>
+      <c r="C82" s="64"/>
+      <c r="D82" s="66"/>
+      <c r="E82" s="56"/>
+      <c r="F82" s="56"/>
+      <c r="G82" s="58"/>
       <c r="H82" s="52" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
@@ -5337,15 +5338,15 @@
       <c r="S82" s="32"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="72" t="s">
+      <c r="A83" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="B83" s="73"/>
-      <c r="C83" s="73"/>
-      <c r="D83" s="74"/>
-      <c r="E83" s="78"/>
-      <c r="F83" s="78"/>
-      <c r="G83" s="80"/>
+      <c r="B83" s="75"/>
+      <c r="C83" s="75"/>
+      <c r="D83" s="76"/>
+      <c r="E83" s="72"/>
+      <c r="F83" s="72"/>
+      <c r="G83" s="121"/>
       <c r="H83" s="20" t="s">
         <v>19</v>
       </c>
@@ -5387,13 +5388,13 @@
       </c>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="75"/>
-      <c r="B84" s="76"/>
-      <c r="C84" s="76"/>
-      <c r="D84" s="77"/>
-      <c r="E84" s="79"/>
-      <c r="F84" s="79"/>
-      <c r="G84" s="81"/>
+      <c r="A84" s="77"/>
+      <c r="B84" s="78"/>
+      <c r="C84" s="78"/>
+      <c r="D84" s="79"/>
+      <c r="E84" s="73"/>
+      <c r="F84" s="73"/>
+      <c r="G84" s="122"/>
       <c r="H84" s="7" t="s">
         <v>20</v>
       </c>
@@ -5437,17 +5438,17 @@
       </c>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="57">
+      <c r="A85" s="67">
         <v>1</v>
       </c>
-      <c r="B85" s="59" t="s">
+      <c r="B85" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C85" s="60"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="65"/>
-      <c r="F85" s="65"/>
-      <c r="G85" s="67"/>
+      <c r="C85" s="62"/>
+      <c r="D85" s="63"/>
+      <c r="E85" s="59"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="70"/>
       <c r="H85" s="23" t="str">
         <f>IF(E85="","","予定")</f>
         <v/>
@@ -5465,13 +5466,13 @@
       <c r="S85" s="31"/>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="58"/>
-      <c r="B86" s="62"/>
-      <c r="C86" s="63"/>
-      <c r="D86" s="64"/>
-      <c r="E86" s="66"/>
-      <c r="F86" s="66"/>
-      <c r="G86" s="68"/>
+      <c r="A86" s="68"/>
+      <c r="B86" s="64"/>
+      <c r="C86" s="65"/>
+      <c r="D86" s="66"/>
+      <c r="E86" s="60"/>
+      <c r="F86" s="60"/>
+      <c r="G86" s="71"/>
       <c r="H86" s="24" t="str">
         <f>IF(E85="","","実績")</f>
         <v/>
@@ -5489,19 +5490,19 @@
       <c r="S86" s="32"/>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="57"/>
+      <c r="A87" s="67"/>
       <c r="B87" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C87" s="59" t="s">
+      <c r="C87" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="D87" s="61"/>
-      <c r="E87" s="70" t="s">
+      <c r="D87" s="63"/>
+      <c r="E87" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F87" s="70"/>
-      <c r="G87" s="55"/>
+      <c r="F87" s="55"/>
+      <c r="G87" s="57"/>
       <c r="H87" s="8" t="str">
         <f>IF(E87="","","予定")</f>
         <v>予定</v>
@@ -5528,13 +5529,13 @@
       <c r="S87" s="31"/>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="58"/>
-      <c r="B88" s="56"/>
-      <c r="C88" s="62"/>
-      <c r="D88" s="64"/>
-      <c r="E88" s="71"/>
-      <c r="F88" s="71"/>
-      <c r="G88" s="56"/>
+      <c r="A88" s="68"/>
+      <c r="B88" s="58"/>
+      <c r="C88" s="64"/>
+      <c r="D88" s="66"/>
+      <c r="E88" s="56"/>
+      <c r="F88" s="56"/>
+      <c r="G88" s="58"/>
       <c r="H88" s="52" t="str">
         <f>IF(E87="","","実績")</f>
         <v>実績</v>
@@ -5555,19 +5556,19 @@
       <c r="S88" s="32"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="57"/>
+      <c r="A89" s="67"/>
       <c r="B89" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C89" s="122" t="s">
+      <c r="C89" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="D89" s="61"/>
-      <c r="E89" s="70" t="s">
+      <c r="D89" s="63"/>
+      <c r="E89" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F89" s="70"/>
-      <c r="G89" s="55"/>
+      <c r="F89" s="55"/>
+      <c r="G89" s="57"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -5594,13 +5595,13 @@
       <c r="S89" s="31"/>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="58"/>
-      <c r="B90" s="56"/>
-      <c r="C90" s="62"/>
-      <c r="D90" s="64"/>
-      <c r="E90" s="71"/>
-      <c r="F90" s="71"/>
-      <c r="G90" s="56"/>
+      <c r="A90" s="68"/>
+      <c r="B90" s="58"/>
+      <c r="C90" s="64"/>
+      <c r="D90" s="66"/>
+      <c r="E90" s="56"/>
+      <c r="F90" s="56"/>
+      <c r="G90" s="58"/>
       <c r="H90" s="52" t="str">
         <f>IF(E89="","","実績")</f>
         <v>実績</v>
@@ -5621,17 +5622,17 @@
       <c r="S90" s="32"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="57">
+      <c r="A91" s="67">
         <v>2</v>
       </c>
-      <c r="B91" s="59" t="s">
+      <c r="B91" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C91" s="60"/>
-      <c r="D91" s="61"/>
-      <c r="E91" s="65"/>
-      <c r="F91" s="65"/>
-      <c r="G91" s="67"/>
+      <c r="C91" s="62"/>
+      <c r="D91" s="63"/>
+      <c r="E91" s="59"/>
+      <c r="F91" s="59"/>
+      <c r="G91" s="70"/>
       <c r="H91" s="23" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -5651,13 +5652,13 @@
       <c r="S91" s="31"/>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="58"/>
-      <c r="B92" s="62"/>
-      <c r="C92" s="63"/>
-      <c r="D92" s="64"/>
-      <c r="E92" s="66"/>
-      <c r="F92" s="66"/>
-      <c r="G92" s="68"/>
+      <c r="A92" s="68"/>
+      <c r="B92" s="64"/>
+      <c r="C92" s="65"/>
+      <c r="D92" s="66"/>
+      <c r="E92" s="60"/>
+      <c r="F92" s="60"/>
+      <c r="G92" s="71"/>
       <c r="H92" s="24" t="str">
         <f>IF(E91="","","実績")</f>
         <v/>
@@ -5675,19 +5676,19 @@
       <c r="S92" s="32"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="57"/>
+      <c r="A93" s="67"/>
       <c r="B93" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C93" s="59" t="s">
+      <c r="C93" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D93" s="61"/>
-      <c r="E93" s="70" t="s">
+      <c r="D93" s="63"/>
+      <c r="E93" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="F93" s="70"/>
-      <c r="G93" s="55"/>
+      <c r="F93" s="55"/>
+      <c r="G93" s="57"/>
       <c r="H93" s="8" t="str">
         <f>IF(E93="","","予定")</f>
         <v>予定</v>
@@ -5714,13 +5715,13 @@
       <c r="S93" s="31"/>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="58"/>
-      <c r="B94" s="56"/>
-      <c r="C94" s="62"/>
-      <c r="D94" s="64"/>
-      <c r="E94" s="71"/>
-      <c r="F94" s="71"/>
-      <c r="G94" s="56"/>
+      <c r="A94" s="68"/>
+      <c r="B94" s="58"/>
+      <c r="C94" s="64"/>
+      <c r="D94" s="66"/>
+      <c r="E94" s="56"/>
+      <c r="F94" s="56"/>
+      <c r="G94" s="58"/>
       <c r="H94" s="52" t="str">
         <f>IF(E93="","","実績")</f>
         <v>実績</v>
@@ -5741,19 +5742,19 @@
       <c r="S94" s="32"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="57"/>
+      <c r="A95" s="67"/>
       <c r="B95" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C95" s="59" t="s">
+      <c r="C95" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="D95" s="61"/>
-      <c r="E95" s="70" t="s">
+      <c r="D95" s="63"/>
+      <c r="E95" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="F95" s="70"/>
-      <c r="G95" s="55"/>
+      <c r="F95" s="55"/>
+      <c r="G95" s="57"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v>予定</v>
@@ -5780,13 +5781,13 @@
       <c r="S95" s="31"/>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="58"/>
-      <c r="B96" s="56"/>
-      <c r="C96" s="62"/>
-      <c r="D96" s="64"/>
-      <c r="E96" s="71"/>
-      <c r="F96" s="71"/>
-      <c r="G96" s="56"/>
+      <c r="A96" s="68"/>
+      <c r="B96" s="58"/>
+      <c r="C96" s="64"/>
+      <c r="D96" s="66"/>
+      <c r="E96" s="56"/>
+      <c r="F96" s="56"/>
+      <c r="G96" s="58"/>
       <c r="H96" s="52" t="str">
         <f>IF(E95="","","実績")</f>
         <v>実績</v>
@@ -5807,15 +5808,15 @@
       <c r="S96" s="44"/>
     </row>
     <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="72" t="s">
+      <c r="A97" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="B97" s="73"/>
-      <c r="C97" s="73"/>
-      <c r="D97" s="74"/>
-      <c r="E97" s="78"/>
-      <c r="F97" s="78"/>
-      <c r="G97" s="80"/>
+      <c r="B97" s="75"/>
+      <c r="C97" s="75"/>
+      <c r="D97" s="76"/>
+      <c r="E97" s="72"/>
+      <c r="F97" s="72"/>
+      <c r="G97" s="121"/>
       <c r="H97" s="20" t="s">
         <v>19</v>
       </c>
@@ -5858,13 +5859,13 @@
       </c>
     </row>
     <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="75"/>
-      <c r="B98" s="76"/>
-      <c r="C98" s="76"/>
-      <c r="D98" s="77"/>
-      <c r="E98" s="79"/>
-      <c r="F98" s="79"/>
-      <c r="G98" s="81"/>
+      <c r="A98" s="77"/>
+      <c r="B98" s="78"/>
+      <c r="C98" s="78"/>
+      <c r="D98" s="79"/>
+      <c r="E98" s="73"/>
+      <c r="F98" s="73"/>
+      <c r="G98" s="122"/>
       <c r="H98" s="7" t="s">
         <v>20</v>
       </c>
@@ -5908,19 +5909,19 @@
       </c>
     </row>
     <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="57">
+      <c r="A99" s="67">
         <v>1</v>
       </c>
-      <c r="B99" s="59" t="s">
+      <c r="B99" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C99" s="60"/>
-      <c r="D99" s="61"/>
-      <c r="E99" s="65" t="s">
+      <c r="C99" s="62"/>
+      <c r="D99" s="63"/>
+      <c r="E99" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="F99" s="65"/>
-      <c r="G99" s="67"/>
+      <c r="F99" s="59"/>
+      <c r="G99" s="70"/>
       <c r="H99" s="23" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
@@ -5938,13 +5939,13 @@
       <c r="S99" s="31"/>
     </row>
     <row r="100" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="58"/>
-      <c r="B100" s="62"/>
-      <c r="C100" s="63"/>
-      <c r="D100" s="64"/>
-      <c r="E100" s="66"/>
-      <c r="F100" s="66"/>
-      <c r="G100" s="68"/>
+      <c r="A100" s="68"/>
+      <c r="B100" s="64"/>
+      <c r="C100" s="65"/>
+      <c r="D100" s="66"/>
+      <c r="E100" s="60"/>
+      <c r="F100" s="60"/>
+      <c r="G100" s="71"/>
       <c r="H100" s="24" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
@@ -5962,19 +5963,19 @@
       <c r="S100" s="32"/>
     </row>
     <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="57"/>
+      <c r="A101" s="67"/>
       <c r="B101" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C101" s="59" t="s">
+      <c r="C101" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="D101" s="61"/>
-      <c r="E101" s="70" t="s">
+      <c r="D101" s="63"/>
+      <c r="E101" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F101" s="70"/>
-      <c r="G101" s="55"/>
+      <c r="F101" s="55"/>
+      <c r="G101" s="57"/>
       <c r="H101" s="8" t="str">
         <f>IF(E101="","","予定")</f>
         <v>予定</v>
@@ -6000,13 +6001,13 @@
       <c r="S101" s="31"/>
     </row>
     <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="58"/>
-      <c r="B102" s="56"/>
-      <c r="C102" s="62"/>
-      <c r="D102" s="64"/>
-      <c r="E102" s="71"/>
-      <c r="F102" s="71"/>
-      <c r="G102" s="56"/>
+      <c r="A102" s="68"/>
+      <c r="B102" s="58"/>
+      <c r="C102" s="64"/>
+      <c r="D102" s="66"/>
+      <c r="E102" s="56"/>
+      <c r="F102" s="56"/>
+      <c r="G102" s="58"/>
       <c r="H102" s="52" t="str">
         <f>IF(E101="","","実績")</f>
         <v>実績</v>
@@ -6027,19 +6028,19 @@
       <c r="S102" s="32"/>
     </row>
     <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="57"/>
+      <c r="A103" s="67"/>
       <c r="B103" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C103" s="59" t="s">
+      <c r="C103" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="D103" s="61"/>
-      <c r="E103" s="70" t="s">
+      <c r="D103" s="63"/>
+      <c r="E103" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F103" s="70"/>
-      <c r="G103" s="55"/>
+      <c r="F103" s="55"/>
+      <c r="G103" s="57"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -6065,13 +6066,13 @@
       <c r="S103" s="31"/>
     </row>
     <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="58"/>
-      <c r="B104" s="56"/>
-      <c r="C104" s="62"/>
-      <c r="D104" s="64"/>
-      <c r="E104" s="71"/>
-      <c r="F104" s="71"/>
-      <c r="G104" s="56"/>
+      <c r="A104" s="68"/>
+      <c r="B104" s="58"/>
+      <c r="C104" s="64"/>
+      <c r="D104" s="66"/>
+      <c r="E104" s="56"/>
+      <c r="F104" s="56"/>
+      <c r="G104" s="58"/>
       <c r="H104" s="52" t="str">
         <f>IF(E103="","","実績")</f>
         <v>実績</v>
@@ -6092,19 +6093,19 @@
       <c r="S104" s="32"/>
     </row>
     <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="57">
+      <c r="A105" s="67">
         <v>2</v>
       </c>
-      <c r="B105" s="59" t="s">
+      <c r="B105" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C105" s="60"/>
-      <c r="D105" s="61"/>
-      <c r="E105" s="65" t="s">
+      <c r="C105" s="62"/>
+      <c r="D105" s="63"/>
+      <c r="E105" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="F105" s="65"/>
-      <c r="G105" s="67"/>
+      <c r="F105" s="59"/>
+      <c r="G105" s="70"/>
       <c r="H105" s="23" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -6122,13 +6123,13 @@
       <c r="S105" s="31"/>
     </row>
     <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="58"/>
-      <c r="B106" s="62"/>
-      <c r="C106" s="63"/>
-      <c r="D106" s="64"/>
-      <c r="E106" s="66"/>
-      <c r="F106" s="66"/>
-      <c r="G106" s="68"/>
+      <c r="A106" s="68"/>
+      <c r="B106" s="64"/>
+      <c r="C106" s="65"/>
+      <c r="D106" s="66"/>
+      <c r="E106" s="60"/>
+      <c r="F106" s="60"/>
+      <c r="G106" s="71"/>
       <c r="H106" s="24" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
@@ -6146,19 +6147,19 @@
       <c r="S106" s="32"/>
     </row>
     <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="57"/>
+      <c r="A107" s="67"/>
       <c r="B107" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C107" s="59" t="s">
+      <c r="C107" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D107" s="61"/>
-      <c r="E107" s="70" t="s">
+      <c r="D107" s="63"/>
+      <c r="E107" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F107" s="70"/>
-      <c r="G107" s="55"/>
+      <c r="F107" s="55"/>
+      <c r="G107" s="57"/>
       <c r="H107" s="8" t="str">
         <f>IF(E107="","","予定")</f>
         <v>予定</v>
@@ -6184,13 +6185,13 @@
       <c r="S107" s="31"/>
     </row>
     <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="58"/>
-      <c r="B108" s="56"/>
-      <c r="C108" s="62"/>
-      <c r="D108" s="64"/>
-      <c r="E108" s="71"/>
-      <c r="F108" s="71"/>
-      <c r="G108" s="56"/>
+      <c r="A108" s="68"/>
+      <c r="B108" s="58"/>
+      <c r="C108" s="64"/>
+      <c r="D108" s="66"/>
+      <c r="E108" s="56"/>
+      <c r="F108" s="56"/>
+      <c r="G108" s="58"/>
       <c r="H108" s="52" t="str">
         <f>IF(E107="","","実績")</f>
         <v>実績</v>
@@ -6211,19 +6212,19 @@
       <c r="S108" s="32"/>
     </row>
     <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="57"/>
+      <c r="A109" s="67"/>
       <c r="B109" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C109" s="59" t="s">
+      <c r="C109" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="D109" s="61"/>
-      <c r="E109" s="70" t="s">
+      <c r="D109" s="63"/>
+      <c r="E109" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F109" s="70"/>
-      <c r="G109" s="55"/>
+      <c r="F109" s="55"/>
+      <c r="G109" s="57"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v>予定</v>
@@ -6249,13 +6250,13 @@
       <c r="S109" s="31"/>
     </row>
     <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="58"/>
-      <c r="B110" s="56"/>
-      <c r="C110" s="62"/>
-      <c r="D110" s="64"/>
-      <c r="E110" s="71"/>
-      <c r="F110" s="71"/>
-      <c r="G110" s="56"/>
+      <c r="A110" s="68"/>
+      <c r="B110" s="58"/>
+      <c r="C110" s="64"/>
+      <c r="D110" s="66"/>
+      <c r="E110" s="56"/>
+      <c r="F110" s="56"/>
+      <c r="G110" s="58"/>
       <c r="H110" s="52" t="str">
         <f>IF(E109="","","実績")</f>
         <v>実績</v>
@@ -6291,16 +6292,281 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="309">
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="B105:D106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:D68"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="B49:D50"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B33:D34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="B43:D44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:D100"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:D80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="C39:D40"/>
     <mergeCell ref="E39:E40"/>
@@ -6325,281 +6591,16 @@
     <mergeCell ref="B101:B102"/>
     <mergeCell ref="C101:D102"/>
     <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:D100"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:D80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="B49:D50"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B33:D34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B43:D44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:D68"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="B105:D106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="E109:E110"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L85:S96 L99:S110 L43:S52 L54:S54 L9:S12 M13:S13 L14:S18 L53:T53 L55:T55 L56:S56 L25:S34">
@@ -6695,6 +6696,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6878,15 +6888,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
   <ds:schemaRefs>
@@ -6897,6 +6898,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89F0FFFF-D441-4664-93A0-244B234195EC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6912,12 +6921,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/13_WBSガントチャート(修正).xlsx
+++ b/13_WBSガントチャート(修正).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBC72FF6-0AFD-4CA0-9BCF-C01352683549}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24943EC3-5BE7-48CD-A19C-D840BD8C0809}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1559,54 +1559,72 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1615,152 +1633,134 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2356,10 +2356,10 @@
   <dimension ref="A1:T111"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H42" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H59" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Q76" sqref="Q76"/>
+      <selection pane="bottomRight" activeCell="R73" sqref="R73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2378,120 +2378,120 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="104" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="94"/>
-      <c r="C1" s="94"/>
-      <c r="D1" s="94"/>
-      <c r="E1" s="99" t="s">
+      <c r="A1" s="82" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="83"/>
+      <c r="C1" s="83"/>
+      <c r="D1" s="83"/>
+      <c r="E1" s="102" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="99" t="s">
+      <c r="F1" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="94" t="s">
+      <c r="G1" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="99" t="s">
+      <c r="H1" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="99" t="s">
+      <c r="I1" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="99" t="s">
+      <c r="J1" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="91" t="s">
+      <c r="K1" s="115" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="81">
+      <c r="L1" s="105">
         <v>43984</v>
       </c>
-      <c r="M1" s="82"/>
-      <c r="N1" s="81">
+      <c r="M1" s="106"/>
+      <c r="N1" s="105">
         <v>43985</v>
       </c>
-      <c r="O1" s="82"/>
-      <c r="P1" s="81">
+      <c r="O1" s="106"/>
+      <c r="P1" s="105">
         <v>43986</v>
       </c>
-      <c r="Q1" s="82"/>
-      <c r="R1" s="81">
+      <c r="Q1" s="106"/>
+      <c r="R1" s="105">
         <v>43987</v>
       </c>
-      <c r="S1" s="82"/>
+      <c r="S1" s="106"/>
     </row>
     <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="105"/>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="100"/>
-      <c r="F2" s="100"/>
-      <c r="G2" s="95"/>
-      <c r="H2" s="102"/>
-      <c r="I2" s="100"/>
-      <c r="J2" s="100"/>
-      <c r="K2" s="92"/>
-      <c r="L2" s="85" t="s">
+      <c r="A2" s="84"/>
+      <c r="B2" s="85"/>
+      <c r="C2" s="85"/>
+      <c r="D2" s="85"/>
+      <c r="E2" s="103"/>
+      <c r="F2" s="103"/>
+      <c r="G2" s="85"/>
+      <c r="H2" s="120"/>
+      <c r="I2" s="103"/>
+      <c r="J2" s="103"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="109" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="84"/>
-      <c r="N2" s="83" t="s">
+      <c r="M2" s="108"/>
+      <c r="N2" s="107" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="83"/>
-      <c r="P2" s="86" t="s">
+      <c r="O2" s="107"/>
+      <c r="P2" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="83" t="s">
+      <c r="Q2" s="108"/>
+      <c r="R2" s="107" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="84"/>
+      <c r="S2" s="108"/>
     </row>
     <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="105"/>
-      <c r="B3" s="95"/>
-      <c r="C3" s="95"/>
-      <c r="D3" s="95"/>
-      <c r="E3" s="100"/>
-      <c r="F3" s="100"/>
-      <c r="G3" s="95"/>
-      <c r="H3" s="102"/>
-      <c r="I3" s="100"/>
-      <c r="J3" s="100"/>
-      <c r="K3" s="92"/>
-      <c r="L3" s="89" t="s">
+      <c r="A3" s="84"/>
+      <c r="B3" s="85"/>
+      <c r="C3" s="85"/>
+      <c r="D3" s="85"/>
+      <c r="E3" s="103"/>
+      <c r="F3" s="103"/>
+      <c r="G3" s="85"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="103"/>
+      <c r="J3" s="103"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="113" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="88"/>
-      <c r="N3" s="87" t="s">
+      <c r="M3" s="112"/>
+      <c r="N3" s="111" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="88"/>
-      <c r="P3" s="87" t="s">
+      <c r="O3" s="112"/>
+      <c r="P3" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="88"/>
-      <c r="R3" s="90" t="s">
+      <c r="Q3" s="112"/>
+      <c r="R3" s="114" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="90"/>
+      <c r="S3" s="114"/>
     </row>
     <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="106"/>
-      <c r="B4" s="96"/>
-      <c r="C4" s="96"/>
-      <c r="D4" s="96"/>
-      <c r="E4" s="101"/>
-      <c r="F4" s="101"/>
-      <c r="G4" s="96"/>
-      <c r="H4" s="103"/>
-      <c r="I4" s="101"/>
-      <c r="J4" s="101"/>
-      <c r="K4" s="93"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="87"/>
+      <c r="C4" s="87"/>
+      <c r="D4" s="87"/>
+      <c r="E4" s="104"/>
+      <c r="F4" s="104"/>
+      <c r="G4" s="87"/>
+      <c r="H4" s="121"/>
+      <c r="I4" s="104"/>
+      <c r="J4" s="104"/>
+      <c r="K4" s="117"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2518,15 +2518,15 @@
       </c>
     </row>
     <row r="5" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="107" t="s">
+      <c r="A5" s="88" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="108"/>
-      <c r="C5" s="108"/>
-      <c r="D5" s="109"/>
-      <c r="E5" s="113"/>
-      <c r="F5" s="113"/>
-      <c r="G5" s="97"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="90"/>
+      <c r="E5" s="94"/>
+      <c r="F5" s="94"/>
+      <c r="G5" s="118"/>
       <c r="H5" s="16" t="s">
         <v>19</v>
       </c>
@@ -2568,13 +2568,13 @@
       </c>
     </row>
     <row r="6" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="110"/>
-      <c r="B6" s="111"/>
-      <c r="C6" s="111"/>
-      <c r="D6" s="112"/>
-      <c r="E6" s="114"/>
-      <c r="F6" s="114"/>
-      <c r="G6" s="98"/>
+      <c r="A6" s="91"/>
+      <c r="B6" s="92"/>
+      <c r="C6" s="92"/>
+      <c r="D6" s="93"/>
+      <c r="E6" s="95"/>
+      <c r="F6" s="95"/>
+      <c r="G6" s="119"/>
       <c r="H6" s="18" t="s">
         <v>20</v>
       </c>
@@ -2615,15 +2615,15 @@
       </c>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="115" t="s">
+      <c r="A7" s="96" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="116"/>
-      <c r="C7" s="116"/>
-      <c r="D7" s="117"/>
-      <c r="E7" s="120"/>
-      <c r="F7" s="120"/>
-      <c r="G7" s="118"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="99"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2666,13 +2666,13 @@
       </c>
     </row>
     <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="77"/>
-      <c r="B8" s="78"/>
-      <c r="C8" s="78"/>
-      <c r="D8" s="79"/>
-      <c r="E8" s="73"/>
-      <c r="F8" s="73"/>
-      <c r="G8" s="119"/>
+      <c r="A8" s="75"/>
+      <c r="B8" s="76"/>
+      <c r="C8" s="76"/>
+      <c r="D8" s="77"/>
+      <c r="E8" s="79"/>
+      <c r="F8" s="79"/>
+      <c r="G8" s="100"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2716,21 +2716,21 @@
       </c>
     </row>
     <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="67">
+      <c r="A9" s="57">
         <v>1</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="62"/>
-      <c r="D9" s="63"/>
-      <c r="E9" s="59" t="s">
+      <c r="C9" s="60"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="59" t="s">
+      <c r="F9" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="70"/>
+      <c r="G9" s="67"/>
       <c r="H9" s="23" t="str">
         <f>IF(E9="","","予定")</f>
         <v>予定</v>
@@ -2748,13 +2748,13 @@
       <c r="S9" s="31"/>
     </row>
     <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="68"/>
-      <c r="B10" s="64"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="66"/>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="71"/>
+      <c r="A10" s="58"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="64"/>
+      <c r="E10" s="66"/>
+      <c r="F10" s="66"/>
+      <c r="G10" s="68"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
         <v>実績</v>
@@ -2772,21 +2772,21 @@
       <c r="S10" s="32"/>
     </row>
     <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="67"/>
+      <c r="A11" s="57"/>
       <c r="B11" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="61" t="s">
+      <c r="C11" s="59" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="63"/>
-      <c r="E11" s="55" t="s">
+      <c r="D11" s="61"/>
+      <c r="E11" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="55" t="s">
+      <c r="F11" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="57"/>
+      <c r="G11" s="55"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2813,13 +2813,13 @@
       <c r="S11" s="31"/>
     </row>
     <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="68"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="66"/>
-      <c r="E12" s="56"/>
-      <c r="F12" s="56"/>
-      <c r="G12" s="58"/>
+      <c r="A12" s="58"/>
+      <c r="B12" s="56"/>
+      <c r="C12" s="62"/>
+      <c r="D12" s="64"/>
+      <c r="E12" s="71"/>
+      <c r="F12" s="71"/>
+      <c r="G12" s="56"/>
       <c r="H12" s="52" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -2846,21 +2846,21 @@
       <c r="S12" s="32"/>
     </row>
     <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="67"/>
+      <c r="A13" s="57"/>
       <c r="B13" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="61" t="s">
+      <c r="C13" s="59" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="63"/>
-      <c r="E13" s="55" t="s">
+      <c r="D13" s="61"/>
+      <c r="E13" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="55" t="s">
+      <c r="F13" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="57"/>
+      <c r="G13" s="55"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2886,13 +2886,13 @@
       <c r="S13" s="31"/>
     </row>
     <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="68"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="56"/>
-      <c r="F14" s="56"/>
-      <c r="G14" s="58"/>
+      <c r="A14" s="58"/>
+      <c r="B14" s="56"/>
+      <c r="C14" s="62"/>
+      <c r="D14" s="64"/>
+      <c r="E14" s="71"/>
+      <c r="F14" s="71"/>
+      <c r="G14" s="56"/>
       <c r="H14" s="52" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2919,19 +2919,19 @@
       <c r="S14" s="32"/>
     </row>
     <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="67">
+      <c r="A15" s="57">
         <v>2</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="62"/>
-      <c r="D15" s="63"/>
-      <c r="E15" s="59" t="s">
+      <c r="C15" s="60"/>
+      <c r="D15" s="61"/>
+      <c r="E15" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="59"/>
-      <c r="G15" s="70"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="67"/>
       <c r="H15" s="23" t="str">
         <f>IF(E15="","","予定")</f>
         <v>予定</v>
@@ -2949,13 +2949,13 @@
       <c r="S15" s="31"/>
     </row>
     <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="68"/>
-      <c r="B16" s="64"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="71"/>
+      <c r="A16" s="58"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="64"/>
+      <c r="E16" s="66"/>
+      <c r="F16" s="66"/>
+      <c r="G16" s="68"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
         <v>実績</v>
@@ -2973,21 +2973,21 @@
       <c r="S16" s="32"/>
     </row>
     <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="67"/>
+      <c r="A17" s="57"/>
       <c r="B17" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="61" t="s">
+      <c r="C17" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="63"/>
-      <c r="E17" s="55" t="s">
+      <c r="D17" s="61"/>
+      <c r="E17" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="55" t="s">
+      <c r="F17" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="57"/>
+      <c r="G17" s="55"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -3013,13 +3013,13 @@
       <c r="S17" s="31"/>
     </row>
     <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="68"/>
-      <c r="B18" s="58"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="56"/>
-      <c r="G18" s="58"/>
+      <c r="A18" s="58"/>
+      <c r="B18" s="56"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="64"/>
+      <c r="E18" s="71"/>
+      <c r="F18" s="71"/>
+      <c r="G18" s="56"/>
       <c r="H18" s="52" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -3046,21 +3046,21 @@
       <c r="S18" s="32"/>
     </row>
     <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="67"/>
+      <c r="A19" s="57"/>
       <c r="B19" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="61" t="s">
+      <c r="C19" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="63"/>
-      <c r="E19" s="55" t="s">
+      <c r="D19" s="61"/>
+      <c r="E19" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="55" t="s">
+      <c r="F19" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="57"/>
+      <c r="G19" s="55"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3086,13 +3086,13 @@
       <c r="S19" s="31"/>
     </row>
     <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="68"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="64"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="56"/>
-      <c r="F20" s="56"/>
-      <c r="G20" s="58"/>
+      <c r="A20" s="58"/>
+      <c r="B20" s="56"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="64"/>
+      <c r="E20" s="71"/>
+      <c r="F20" s="71"/>
+      <c r="G20" s="56"/>
       <c r="H20" s="52" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -3119,21 +3119,21 @@
       <c r="S20" s="32"/>
     </row>
     <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="67"/>
+      <c r="A21" s="57"/>
       <c r="B21" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="61" t="s">
+      <c r="C21" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="63"/>
-      <c r="E21" s="55" t="s">
+      <c r="D21" s="61"/>
+      <c r="E21" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="55" t="s">
+      <c r="F21" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="57"/>
+      <c r="G21" s="55"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3159,13 +3159,13 @@
       <c r="S21" s="31"/>
     </row>
     <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="68"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="66"/>
-      <c r="E22" s="56"/>
-      <c r="F22" s="56"/>
-      <c r="G22" s="58"/>
+      <c r="A22" s="58"/>
+      <c r="B22" s="56"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="64"/>
+      <c r="E22" s="71"/>
+      <c r="F22" s="71"/>
+      <c r="G22" s="56"/>
       <c r="H22" s="52" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3192,15 +3192,15 @@
       <c r="S22" s="32"/>
     </row>
     <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="74" t="s">
+      <c r="A23" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="75"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="76"/>
-      <c r="E23" s="72"/>
-      <c r="F23" s="72"/>
-      <c r="G23" s="121"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="78"/>
+      <c r="F23" s="78"/>
+      <c r="G23" s="80"/>
       <c r="H23" s="20" t="s">
         <v>19</v>
       </c>
@@ -3244,13 +3244,13 @@
       </c>
     </row>
     <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="77"/>
-      <c r="B24" s="78"/>
-      <c r="C24" s="78"/>
-      <c r="D24" s="79"/>
-      <c r="E24" s="73"/>
-      <c r="F24" s="73"/>
-      <c r="G24" s="122"/>
+      <c r="A24" s="75"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="76"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="79"/>
+      <c r="F24" s="79"/>
+      <c r="G24" s="81"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
@@ -3294,19 +3294,19 @@
       </c>
     </row>
     <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="67">
+      <c r="A25" s="57">
         <v>1</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="62"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="59" t="s">
+      <c r="C25" s="60"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="59"/>
-      <c r="G25" s="70"/>
+      <c r="F25" s="65"/>
+      <c r="G25" s="67"/>
       <c r="H25" s="23" t="str">
         <f>IF(E25="","","予定")</f>
         <v>予定</v>
@@ -3324,13 +3324,13 @@
       <c r="S25" s="31"/>
     </row>
     <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="68"/>
-      <c r="B26" s="64"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="66"/>
-      <c r="E26" s="60"/>
-      <c r="F26" s="60"/>
-      <c r="G26" s="71"/>
+      <c r="A26" s="58"/>
+      <c r="B26" s="62"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="64"/>
+      <c r="E26" s="66"/>
+      <c r="F26" s="66"/>
+      <c r="G26" s="68"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
         <v>実績</v>
@@ -3348,21 +3348,21 @@
       <c r="S26" s="32"/>
     </row>
     <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="67"/>
+      <c r="A27" s="57"/>
       <c r="B27" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="61" t="s">
+      <c r="C27" s="59" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="63"/>
-      <c r="E27" s="55" t="s">
+      <c r="D27" s="61"/>
+      <c r="E27" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="55" t="s">
+      <c r="F27" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="57"/>
+      <c r="G27" s="55"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -3389,13 +3389,13 @@
       <c r="S27" s="31"/>
     </row>
     <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="68"/>
-      <c r="B28" s="58"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="66"/>
-      <c r="E28" s="56"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="58"/>
+      <c r="A28" s="58"/>
+      <c r="B28" s="56"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="64"/>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="56"/>
       <c r="H28" s="52" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3422,21 +3422,21 @@
       <c r="S28" s="32"/>
     </row>
     <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="67"/>
+      <c r="A29" s="57"/>
       <c r="B29" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="61" t="s">
+      <c r="C29" s="59" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="63"/>
-      <c r="E29" s="55" t="s">
+      <c r="D29" s="61"/>
+      <c r="E29" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="55" t="s">
+      <c r="F29" s="70" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="57"/>
+      <c r="G29" s="55"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3463,13 +3463,13 @@
       <c r="S29" s="31"/>
     </row>
     <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="68"/>
-      <c r="B30" s="58"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="66"/>
-      <c r="E30" s="56"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="58"/>
+      <c r="A30" s="58"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="64"/>
+      <c r="E30" s="71"/>
+      <c r="F30" s="71"/>
+      <c r="G30" s="56"/>
       <c r="H30" s="52" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3496,19 +3496,19 @@
       <c r="S30" s="32"/>
     </row>
     <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="67"/>
+      <c r="A31" s="57"/>
       <c r="B31" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="61" t="s">
+      <c r="C31" s="59" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="63"/>
-      <c r="E31" s="55" t="s">
+      <c r="D31" s="61"/>
+      <c r="E31" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="55"/>
-      <c r="G31" s="57"/>
+      <c r="F31" s="70"/>
+      <c r="G31" s="55"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3535,13 +3535,13 @@
       <c r="S31" s="31"/>
     </row>
     <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="68"/>
-      <c r="B32" s="58"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="66"/>
-      <c r="E32" s="56"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="58"/>
+      <c r="A32" s="58"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="64"/>
+      <c r="E32" s="71"/>
+      <c r="F32" s="71"/>
+      <c r="G32" s="56"/>
       <c r="H32" s="52" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3568,19 +3568,19 @@
       <c r="S32" s="32"/>
     </row>
     <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="67">
+      <c r="A33" s="57">
         <v>2</v>
       </c>
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="62"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="59" t="s">
+      <c r="C33" s="60"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="59"/>
-      <c r="G33" s="70"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="67"/>
       <c r="H33" s="23" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
@@ -3598,13 +3598,13 @@
       <c r="S33" s="31"/>
     </row>
     <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="68"/>
-      <c r="B34" s="64"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="66"/>
-      <c r="E34" s="60"/>
-      <c r="F34" s="60"/>
-      <c r="G34" s="71"/>
+      <c r="A34" s="58"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="64"/>
+      <c r="E34" s="66"/>
+      <c r="F34" s="66"/>
+      <c r="G34" s="68"/>
       <c r="H34" s="24" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3622,19 +3622,19 @@
       <c r="S34" s="32"/>
     </row>
     <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="67"/>
+      <c r="A35" s="57"/>
       <c r="B35" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="61" t="s">
+      <c r="C35" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="63"/>
-      <c r="E35" s="55" t="s">
+      <c r="D35" s="61"/>
+      <c r="E35" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="55"/>
-      <c r="G35" s="57"/>
+      <c r="F35" s="70"/>
+      <c r="G35" s="55"/>
       <c r="H35" s="8" t="str">
         <f>IF(E35="","","予定")</f>
         <v>予定</v>
@@ -3661,13 +3661,13 @@
       <c r="S35" s="31"/>
     </row>
     <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="68"/>
-      <c r="B36" s="58"/>
-      <c r="C36" s="64"/>
-      <c r="D36" s="66"/>
-      <c r="E36" s="56"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="58"/>
+      <c r="A36" s="58"/>
+      <c r="B36" s="56"/>
+      <c r="C36" s="62"/>
+      <c r="D36" s="64"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="56"/>
       <c r="H36" s="52" t="str">
         <f>IF(E35="","","実績")</f>
         <v>実績</v>
@@ -3694,19 +3694,19 @@
       <c r="S36" s="32"/>
     </row>
     <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="67"/>
+      <c r="A37" s="57"/>
       <c r="B37" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="61" t="s">
+      <c r="C37" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="63"/>
-      <c r="E37" s="55" t="s">
+      <c r="D37" s="61"/>
+      <c r="E37" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="55"/>
-      <c r="G37" s="57"/>
+      <c r="F37" s="70"/>
+      <c r="G37" s="55"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3733,13 +3733,13 @@
       <c r="S37" s="31"/>
     </row>
     <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="68"/>
-      <c r="B38" s="58"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="66"/>
-      <c r="E38" s="56"/>
-      <c r="F38" s="56"/>
-      <c r="G38" s="58"/>
+      <c r="A38" s="58"/>
+      <c r="B38" s="56"/>
+      <c r="C38" s="62"/>
+      <c r="D38" s="64"/>
+      <c r="E38" s="71"/>
+      <c r="F38" s="71"/>
+      <c r="G38" s="56"/>
       <c r="H38" s="52" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
@@ -3766,19 +3766,19 @@
       <c r="S38" s="32"/>
     </row>
     <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="67"/>
+      <c r="A39" s="57"/>
       <c r="B39" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="61" t="s">
+      <c r="C39" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="63"/>
-      <c r="E39" s="55" t="s">
+      <c r="D39" s="61"/>
+      <c r="E39" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="55"/>
-      <c r="G39" s="57"/>
+      <c r="F39" s="70"/>
+      <c r="G39" s="55"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3805,13 +3805,13 @@
       <c r="S39" s="31"/>
     </row>
     <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="68"/>
-      <c r="B40" s="58"/>
-      <c r="C40" s="64"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="56"/>
-      <c r="F40" s="56"/>
-      <c r="G40" s="58"/>
+      <c r="A40" s="58"/>
+      <c r="B40" s="56"/>
+      <c r="C40" s="62"/>
+      <c r="D40" s="64"/>
+      <c r="E40" s="71"/>
+      <c r="F40" s="71"/>
+      <c r="G40" s="56"/>
       <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -3837,15 +3837,15 @@
       <c r="S40" s="32"/>
     </row>
     <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="74" t="s">
+      <c r="A41" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="75"/>
-      <c r="C41" s="75"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="72"/>
-      <c r="G41" s="121"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="74"/>
+      <c r="E41" s="78"/>
+      <c r="F41" s="78"/>
+      <c r="G41" s="80"/>
       <c r="H41" s="20" t="s">
         <v>19</v>
       </c>
@@ -3889,13 +3889,13 @@
       </c>
     </row>
     <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="77"/>
-      <c r="B42" s="78"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="73"/>
-      <c r="F42" s="73"/>
-      <c r="G42" s="122"/>
+      <c r="A42" s="75"/>
+      <c r="B42" s="76"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="79"/>
+      <c r="F42" s="79"/>
+      <c r="G42" s="81"/>
       <c r="H42" s="7" t="s">
         <v>20</v>
       </c>
@@ -3939,19 +3939,19 @@
       </c>
     </row>
     <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="67">
+      <c r="A43" s="57">
         <v>1</v>
       </c>
-      <c r="B43" s="61" t="s">
+      <c r="B43" s="59" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="62"/>
-      <c r="D43" s="63"/>
-      <c r="E43" s="59" t="s">
+      <c r="C43" s="60"/>
+      <c r="D43" s="61"/>
+      <c r="E43" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="59"/>
-      <c r="G43" s="70"/>
+      <c r="F43" s="65"/>
+      <c r="G43" s="67"/>
       <c r="H43" s="23" t="str">
         <f>IF(E43="","","予定")</f>
         <v>予定</v>
@@ -3969,13 +3969,13 @@
       <c r="S43" s="31"/>
     </row>
     <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="68"/>
-      <c r="B44" s="64"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="66"/>
-      <c r="E44" s="60"/>
-      <c r="F44" s="60"/>
-      <c r="G44" s="71"/>
+      <c r="A44" s="58"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="64"/>
+      <c r="E44" s="66"/>
+      <c r="F44" s="66"/>
+      <c r="G44" s="68"/>
       <c r="H44" s="24" t="str">
         <f>IF(E43="","","実績")</f>
         <v>実績</v>
@@ -3993,19 +3993,19 @@
       <c r="S44" s="32"/>
     </row>
     <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="67"/>
+      <c r="A45" s="57"/>
       <c r="B45" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="61" t="s">
+      <c r="C45" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="63"/>
-      <c r="E45" s="55" t="s">
+      <c r="D45" s="61"/>
+      <c r="E45" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="55"/>
-      <c r="G45" s="57"/>
+      <c r="F45" s="70"/>
+      <c r="G45" s="55"/>
       <c r="H45" s="8" t="str">
         <f>IF(E45="","","予定")</f>
         <v>予定</v>
@@ -4034,13 +4034,13 @@
       <c r="S45" s="31"/>
     </row>
     <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="68"/>
-      <c r="B46" s="58"/>
-      <c r="C46" s="64"/>
-      <c r="D46" s="66"/>
-      <c r="E46" s="56"/>
-      <c r="F46" s="56"/>
-      <c r="G46" s="58"/>
+      <c r="A46" s="58"/>
+      <c r="B46" s="56"/>
+      <c r="C46" s="62"/>
+      <c r="D46" s="64"/>
+      <c r="E46" s="71"/>
+      <c r="F46" s="71"/>
+      <c r="G46" s="56"/>
       <c r="H46" s="52" t="str">
         <f>IF(E45="","","実績")</f>
         <v>実績</v>
@@ -4068,19 +4068,19 @@
       <c r="S46" s="32"/>
     </row>
     <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="67"/>
+      <c r="A47" s="57"/>
       <c r="B47" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="61" t="s">
+      <c r="C47" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="63"/>
-      <c r="E47" s="55" t="s">
+      <c r="D47" s="61"/>
+      <c r="E47" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="55"/>
-      <c r="G47" s="57"/>
+      <c r="F47" s="70"/>
+      <c r="G47" s="55"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4107,13 +4107,13 @@
       <c r="S47" s="31"/>
     </row>
     <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="68"/>
-      <c r="B48" s="58"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="66"/>
-      <c r="E48" s="56"/>
-      <c r="F48" s="56"/>
-      <c r="G48" s="58"/>
+      <c r="A48" s="58"/>
+      <c r="B48" s="56"/>
+      <c r="C48" s="62"/>
+      <c r="D48" s="64"/>
+      <c r="E48" s="71"/>
+      <c r="F48" s="71"/>
+      <c r="G48" s="56"/>
       <c r="H48" s="52" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -4140,19 +4140,19 @@
       <c r="S48" s="32"/>
     </row>
     <row r="49" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="67">
+      <c r="A49" s="57">
         <v>2</v>
       </c>
-      <c r="B49" s="61" t="s">
+      <c r="B49" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="62"/>
-      <c r="D49" s="63"/>
-      <c r="E49" s="59" t="s">
+      <c r="C49" s="60"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="59"/>
-      <c r="G49" s="70"/>
+      <c r="F49" s="65"/>
+      <c r="G49" s="67"/>
       <c r="H49" s="23" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4170,13 +4170,13 @@
       <c r="S49" s="31"/>
     </row>
     <row r="50" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="68"/>
-      <c r="B50" s="64"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="66"/>
-      <c r="E50" s="60"/>
-      <c r="F50" s="60"/>
-      <c r="G50" s="71"/>
+      <c r="A50" s="58"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="64"/>
+      <c r="E50" s="66"/>
+      <c r="F50" s="66"/>
+      <c r="G50" s="68"/>
       <c r="H50" s="24" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -4194,19 +4194,19 @@
       <c r="S50" s="32"/>
     </row>
     <row r="51" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="67"/>
+      <c r="A51" s="57"/>
       <c r="B51" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="61" t="s">
+      <c r="C51" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="63"/>
-      <c r="E51" s="55" t="s">
+      <c r="D51" s="61"/>
+      <c r="E51" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="55"/>
-      <c r="G51" s="57"/>
+      <c r="F51" s="70"/>
+      <c r="G51" s="55"/>
       <c r="H51" s="8" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -4233,13 +4233,13 @@
       <c r="S51" s="31"/>
     </row>
     <row r="52" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="68"/>
-      <c r="B52" s="58"/>
-      <c r="C52" s="64"/>
-      <c r="D52" s="66"/>
-      <c r="E52" s="56"/>
-      <c r="F52" s="56"/>
-      <c r="G52" s="58"/>
+      <c r="A52" s="58"/>
+      <c r="B52" s="56"/>
+      <c r="C52" s="62"/>
+      <c r="D52" s="64"/>
+      <c r="E52" s="71"/>
+      <c r="F52" s="71"/>
+      <c r="G52" s="56"/>
       <c r="H52" s="52" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -4265,19 +4265,19 @@
       <c r="S52" s="32"/>
     </row>
     <row r="53" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="67"/>
+      <c r="A53" s="57"/>
       <c r="B53" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C53" s="61" t="s">
+      <c r="C53" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="63"/>
-      <c r="E53" s="55" t="s">
+      <c r="D53" s="61"/>
+      <c r="E53" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F53" s="55"/>
-      <c r="G53" s="57"/>
+      <c r="F53" s="70"/>
+      <c r="G53" s="55"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v>予定</v>
@@ -4305,13 +4305,13 @@
       <c r="T53" s="31"/>
     </row>
     <row r="54" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="68"/>
-      <c r="B54" s="58"/>
-      <c r="C54" s="64"/>
-      <c r="D54" s="66"/>
-      <c r="E54" s="56"/>
-      <c r="F54" s="56"/>
-      <c r="G54" s="58"/>
+      <c r="A54" s="58"/>
+      <c r="B54" s="56"/>
+      <c r="C54" s="62"/>
+      <c r="D54" s="64"/>
+      <c r="E54" s="71"/>
+      <c r="F54" s="71"/>
+      <c r="G54" s="56"/>
       <c r="H54" s="52" t="str">
         <f>IF(E53="","","実績")</f>
         <v>実績</v>
@@ -4338,19 +4338,19 @@
       <c r="S54" s="32"/>
     </row>
     <row r="55" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="67"/>
+      <c r="A55" s="57"/>
       <c r="B55" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="61" t="s">
+      <c r="C55" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="D55" s="63"/>
-      <c r="E55" s="55" t="s">
+      <c r="D55" s="61"/>
+      <c r="E55" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F55" s="55"/>
-      <c r="G55" s="57"/>
+      <c r="F55" s="70"/>
+      <c r="G55" s="55"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4378,13 +4378,13 @@
       <c r="T55" s="31"/>
     </row>
     <row r="56" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="68"/>
-      <c r="B56" s="58"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="66"/>
-      <c r="E56" s="56"/>
-      <c r="F56" s="56"/>
-      <c r="G56" s="58"/>
+      <c r="A56" s="58"/>
+      <c r="B56" s="56"/>
+      <c r="C56" s="62"/>
+      <c r="D56" s="64"/>
+      <c r="E56" s="71"/>
+      <c r="F56" s="71"/>
+      <c r="G56" s="56"/>
       <c r="H56" s="52" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
@@ -4411,15 +4411,15 @@
       <c r="S56" s="44"/>
     </row>
     <row r="57" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="74" t="s">
+      <c r="A57" s="72" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="75"/>
-      <c r="C57" s="75"/>
-      <c r="D57" s="76"/>
-      <c r="E57" s="72"/>
-      <c r="F57" s="72"/>
-      <c r="G57" s="121"/>
+      <c r="B57" s="73"/>
+      <c r="C57" s="73"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="78"/>
+      <c r="F57" s="78"/>
+      <c r="G57" s="80"/>
       <c r="H57" s="20" t="s">
         <v>19</v>
       </c>
@@ -4460,13 +4460,13 @@
       </c>
     </row>
     <row r="58" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="77"/>
-      <c r="B58" s="78"/>
-      <c r="C58" s="78"/>
-      <c r="D58" s="79"/>
-      <c r="E58" s="73"/>
-      <c r="F58" s="73"/>
-      <c r="G58" s="122"/>
+      <c r="A58" s="75"/>
+      <c r="B58" s="76"/>
+      <c r="C58" s="76"/>
+      <c r="D58" s="77"/>
+      <c r="E58" s="79"/>
+      <c r="F58" s="79"/>
+      <c r="G58" s="81"/>
       <c r="H58" s="7" t="s">
         <v>20</v>
       </c>
@@ -4474,7 +4474,7 @@
       <c r="J58" s="7"/>
       <c r="K58" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$59:K$74),2)=0)*K$59:K$74)</f>
-        <v>35.5</v>
+        <v>41.5</v>
       </c>
       <c r="L58" s="36">
         <f>SUMPRODUCT((MOD(ROW(L$59:L$74),2)=0)*L$59:L$74)</f>
@@ -4502,7 +4502,7 @@
       </c>
       <c r="R58" s="36">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S58" s="36">
         <f t="shared" si="15"/>
@@ -4510,19 +4510,19 @@
       </c>
     </row>
     <row r="59" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="67">
+      <c r="A59" s="57">
         <v>1</v>
       </c>
-      <c r="B59" s="61" t="s">
+      <c r="B59" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="62"/>
-      <c r="D59" s="63"/>
-      <c r="E59" s="59" t="s">
+      <c r="C59" s="60"/>
+      <c r="D59" s="61"/>
+      <c r="E59" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="F59" s="59"/>
-      <c r="G59" s="70"/>
+      <c r="F59" s="65"/>
+      <c r="G59" s="67"/>
       <c r="H59" s="23" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
@@ -4540,13 +4540,13 @@
       <c r="S59" s="31"/>
     </row>
     <row r="60" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="68"/>
-      <c r="B60" s="64"/>
-      <c r="C60" s="65"/>
-      <c r="D60" s="66"/>
-      <c r="E60" s="60"/>
-      <c r="F60" s="60"/>
-      <c r="G60" s="71"/>
+      <c r="A60" s="58"/>
+      <c r="B60" s="62"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="66"/>
+      <c r="F60" s="66"/>
+      <c r="G60" s="68"/>
       <c r="H60" s="24" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
@@ -4564,19 +4564,19 @@
       <c r="S60" s="32"/>
     </row>
     <row r="61" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="67"/>
+      <c r="A61" s="57"/>
       <c r="B61" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C61" s="61" t="s">
+      <c r="C61" s="59" t="s">
         <v>45</v>
       </c>
-      <c r="D61" s="63"/>
-      <c r="E61" s="55" t="s">
+      <c r="D61" s="61"/>
+      <c r="E61" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F61" s="55"/>
-      <c r="G61" s="57"/>
+      <c r="F61" s="70"/>
+      <c r="G61" s="55"/>
       <c r="H61" s="8" t="str">
         <f>IF(E61="","","予定")</f>
         <v>予定</v>
@@ -4604,13 +4604,13 @@
       <c r="S61" s="31"/>
     </row>
     <row r="62" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="68"/>
-      <c r="B62" s="58"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="66"/>
-      <c r="E62" s="56"/>
-      <c r="F62" s="56"/>
-      <c r="G62" s="58"/>
+      <c r="A62" s="58"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="62"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="71"/>
+      <c r="F62" s="71"/>
+      <c r="G62" s="56"/>
       <c r="H62" s="52" t="str">
         <f>IF(E61="","","実績")</f>
         <v>実績</v>
@@ -4638,19 +4638,19 @@
       <c r="S62" s="32"/>
     </row>
     <row r="63" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="67"/>
+      <c r="A63" s="57"/>
       <c r="B63" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="61" t="s">
+      <c r="C63" s="59" t="s">
         <v>46</v>
       </c>
-      <c r="D63" s="63"/>
-      <c r="E63" s="55" t="s">
+      <c r="D63" s="61"/>
+      <c r="E63" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F63" s="55"/>
-      <c r="G63" s="57"/>
+      <c r="F63" s="70"/>
+      <c r="G63" s="55"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v>予定</v>
@@ -4677,13 +4677,13 @@
       <c r="S63" s="31"/>
     </row>
     <row r="64" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="68"/>
-      <c r="B64" s="58"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="66"/>
-      <c r="E64" s="56"/>
-      <c r="F64" s="56"/>
-      <c r="G64" s="58"/>
+      <c r="A64" s="58"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="62"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="71"/>
+      <c r="F64" s="71"/>
+      <c r="G64" s="56"/>
       <c r="H64" s="52" t="str">
         <f>IF(E63="","","実績")</f>
         <v>実績</v>
@@ -4711,19 +4711,19 @@
       <c r="S64" s="32"/>
     </row>
     <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="67"/>
+      <c r="A65" s="57"/>
       <c r="B65" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C65" s="61" t="s">
+      <c r="C65" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="D65" s="63"/>
-      <c r="E65" s="55" t="s">
+      <c r="D65" s="61"/>
+      <c r="E65" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F65" s="55"/>
-      <c r="G65" s="57"/>
+      <c r="F65" s="70"/>
+      <c r="G65" s="55"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4750,13 +4750,13 @@
       <c r="S65" s="31"/>
     </row>
     <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="68"/>
-      <c r="B66" s="58"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="66"/>
-      <c r="E66" s="56"/>
-      <c r="F66" s="56"/>
-      <c r="G66" s="58"/>
+      <c r="A66" s="58"/>
+      <c r="B66" s="56"/>
+      <c r="C66" s="62"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="71"/>
+      <c r="F66" s="71"/>
+      <c r="G66" s="56"/>
       <c r="H66" s="52" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -4787,19 +4787,19 @@
       <c r="S66" s="32"/>
     </row>
     <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="67">
+      <c r="A67" s="57">
         <v>2</v>
       </c>
-      <c r="B67" s="61" t="s">
+      <c r="B67" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C67" s="62"/>
-      <c r="D67" s="63"/>
-      <c r="E67" s="59" t="s">
+      <c r="C67" s="60"/>
+      <c r="D67" s="61"/>
+      <c r="E67" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="F67" s="59"/>
-      <c r="G67" s="70"/>
+      <c r="F67" s="65"/>
+      <c r="G67" s="67"/>
       <c r="H67" s="23" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4817,13 +4817,13 @@
       <c r="S67" s="31"/>
     </row>
     <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="68"/>
-      <c r="B68" s="64"/>
-      <c r="C68" s="65"/>
-      <c r="D68" s="66"/>
-      <c r="E68" s="60"/>
-      <c r="F68" s="60"/>
-      <c r="G68" s="71"/>
+      <c r="A68" s="58"/>
+      <c r="B68" s="62"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="66"/>
+      <c r="F68" s="66"/>
+      <c r="G68" s="68"/>
       <c r="H68" s="24" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -4841,19 +4841,19 @@
       <c r="S68" s="32"/>
     </row>
     <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="67"/>
+      <c r="A69" s="57"/>
       <c r="B69" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C69" s="61" t="s">
+      <c r="C69" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="63"/>
-      <c r="E69" s="55" t="s">
+      <c r="D69" s="61"/>
+      <c r="E69" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="F69" s="55"/>
-      <c r="G69" s="57"/>
+      <c r="F69" s="70"/>
+      <c r="G69" s="55"/>
       <c r="H69" s="8" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
@@ -4880,13 +4880,13 @@
       <c r="S69" s="31"/>
     </row>
     <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="68"/>
-      <c r="B70" s="58"/>
-      <c r="C70" s="64"/>
-      <c r="D70" s="66"/>
-      <c r="E70" s="56"/>
-      <c r="F70" s="56"/>
-      <c r="G70" s="58"/>
+      <c r="A70" s="58"/>
+      <c r="B70" s="56"/>
+      <c r="C70" s="62"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="71"/>
+      <c r="F70" s="71"/>
+      <c r="G70" s="56"/>
       <c r="H70" s="52" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
@@ -4914,19 +4914,19 @@
       <c r="S70" s="32"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="67"/>
+      <c r="A71" s="57"/>
       <c r="B71" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="61" t="s">
+      <c r="C71" s="59" t="s">
         <v>42</v>
       </c>
-      <c r="D71" s="63"/>
-      <c r="E71" s="55" t="s">
+      <c r="D71" s="61"/>
+      <c r="E71" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="F71" s="55"/>
-      <c r="G71" s="57"/>
+      <c r="F71" s="70"/>
+      <c r="G71" s="55"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v>予定</v>
@@ -4953,13 +4953,13 @@
       <c r="S71" s="31"/>
     </row>
     <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="68"/>
-      <c r="B72" s="58"/>
-      <c r="C72" s="64"/>
-      <c r="D72" s="66"/>
-      <c r="E72" s="56"/>
-      <c r="F72" s="56"/>
-      <c r="G72" s="58"/>
+      <c r="A72" s="58"/>
+      <c r="B72" s="56"/>
+      <c r="C72" s="62"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="71"/>
+      <c r="F72" s="71"/>
+      <c r="G72" s="56"/>
       <c r="H72" s="52" t="str">
         <f>IF(E71="","","実績")</f>
         <v>実績</v>
@@ -4972,7 +4972,7 @@
       </c>
       <c r="K72" s="10">
         <f t="shared" si="17"/>
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="L72" s="41"/>
       <c r="M72" s="32"/>
@@ -4983,23 +4983,26 @@
         <f>6*1.5</f>
         <v>9</v>
       </c>
-      <c r="R72" s="32"/>
+      <c r="R72" s="32">
+        <f>6*1</f>
+        <v>6</v>
+      </c>
       <c r="S72" s="32"/>
     </row>
     <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="67"/>
+      <c r="A73" s="57"/>
       <c r="B73" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C73" s="61" t="s">
+      <c r="C73" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="D73" s="63"/>
-      <c r="E73" s="55" t="s">
+      <c r="D73" s="61"/>
+      <c r="E73" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="F73" s="55"/>
-      <c r="G73" s="57"/>
+      <c r="F73" s="70"/>
+      <c r="G73" s="55"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -5026,13 +5029,13 @@
       <c r="S73" s="31"/>
     </row>
     <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="68"/>
-      <c r="B74" s="58"/>
-      <c r="C74" s="64"/>
-      <c r="D74" s="66"/>
-      <c r="E74" s="56"/>
-      <c r="F74" s="56"/>
-      <c r="G74" s="58"/>
+      <c r="A74" s="58"/>
+      <c r="B74" s="56"/>
+      <c r="C74" s="62"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="71"/>
+      <c r="F74" s="71"/>
+      <c r="G74" s="56"/>
       <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -5059,15 +5062,15 @@
       <c r="S74" s="44"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="74" t="s">
+      <c r="A75" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="B75" s="75"/>
-      <c r="C75" s="75"/>
-      <c r="D75" s="76"/>
-      <c r="E75" s="72"/>
-      <c r="F75" s="72"/>
-      <c r="G75" s="121"/>
+      <c r="B75" s="73"/>
+      <c r="C75" s="73"/>
+      <c r="D75" s="74"/>
+      <c r="E75" s="78"/>
+      <c r="F75" s="78"/>
+      <c r="G75" s="80"/>
       <c r="H75" s="20" t="s">
         <v>19</v>
       </c>
@@ -5104,13 +5107,13 @@
       </c>
     </row>
     <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="77"/>
-      <c r="B76" s="78"/>
-      <c r="C76" s="78"/>
-      <c r="D76" s="79"/>
-      <c r="E76" s="73"/>
-      <c r="F76" s="73"/>
-      <c r="G76" s="122"/>
+      <c r="A76" s="75"/>
+      <c r="B76" s="76"/>
+      <c r="C76" s="76"/>
+      <c r="D76" s="77"/>
+      <c r="E76" s="79"/>
+      <c r="F76" s="79"/>
+      <c r="G76" s="81"/>
       <c r="H76" s="7" t="s">
         <v>20</v>
       </c>
@@ -5154,17 +5157,17 @@
       </c>
     </row>
     <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="67">
+      <c r="A77" s="57">
         <v>1</v>
       </c>
-      <c r="B77" s="61" t="s">
+      <c r="B77" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C77" s="62"/>
-      <c r="D77" s="63"/>
-      <c r="E77" s="59"/>
-      <c r="F77" s="59"/>
-      <c r="G77" s="70"/>
+      <c r="C77" s="60"/>
+      <c r="D77" s="61"/>
+      <c r="E77" s="65"/>
+      <c r="F77" s="65"/>
+      <c r="G77" s="67"/>
       <c r="H77" s="23" t="str">
         <f>IF(E77="","","予定")</f>
         <v/>
@@ -5182,13 +5185,13 @@
       <c r="S77" s="31"/>
     </row>
     <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="68"/>
-      <c r="B78" s="64"/>
-      <c r="C78" s="65"/>
-      <c r="D78" s="66"/>
-      <c r="E78" s="60"/>
-      <c r="F78" s="60"/>
-      <c r="G78" s="71"/>
+      <c r="A78" s="58"/>
+      <c r="B78" s="62"/>
+      <c r="C78" s="63"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="66"/>
+      <c r="F78" s="66"/>
+      <c r="G78" s="68"/>
       <c r="H78" s="24" t="str">
         <f>IF(E77="","","実績")</f>
         <v/>
@@ -5206,19 +5209,19 @@
       <c r="S78" s="32"/>
     </row>
     <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="67"/>
+      <c r="A79" s="57"/>
       <c r="B79" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C79" s="61" t="s">
+      <c r="C79" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="D79" s="63"/>
-      <c r="E79" s="55" t="s">
+      <c r="D79" s="61"/>
+      <c r="E79" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F79" s="55"/>
-      <c r="G79" s="57"/>
+      <c r="F79" s="70"/>
+      <c r="G79" s="55"/>
       <c r="H79" s="8" t="str">
         <f>IF(E79="","","予定")</f>
         <v>予定</v>
@@ -5245,13 +5248,13 @@
       <c r="S79" s="31"/>
     </row>
     <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="68"/>
-      <c r="B80" s="58"/>
-      <c r="C80" s="64"/>
-      <c r="D80" s="66"/>
-      <c r="E80" s="56"/>
-      <c r="F80" s="56"/>
-      <c r="G80" s="58"/>
+      <c r="A80" s="58"/>
+      <c r="B80" s="56"/>
+      <c r="C80" s="62"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="71"/>
+      <c r="F80" s="71"/>
+      <c r="G80" s="56"/>
       <c r="H80" s="52" t="str">
         <f>IF(E79="","","実績")</f>
         <v>実績</v>
@@ -5272,19 +5275,19 @@
       <c r="S80" s="32"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="67"/>
+      <c r="A81" s="57"/>
       <c r="B81" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="61" t="s">
+      <c r="C81" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="D81" s="63"/>
-      <c r="E81" s="55" t="s">
+      <c r="D81" s="61"/>
+      <c r="E81" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F81" s="55"/>
-      <c r="G81" s="57"/>
+      <c r="F81" s="70"/>
+      <c r="G81" s="55"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5311,13 +5314,13 @@
       <c r="S81" s="31"/>
     </row>
     <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="68"/>
-      <c r="B82" s="58"/>
-      <c r="C82" s="64"/>
-      <c r="D82" s="66"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="56"/>
-      <c r="G82" s="58"/>
+      <c r="A82" s="58"/>
+      <c r="B82" s="56"/>
+      <c r="C82" s="62"/>
+      <c r="D82" s="64"/>
+      <c r="E82" s="71"/>
+      <c r="F82" s="71"/>
+      <c r="G82" s="56"/>
       <c r="H82" s="52" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
@@ -5338,15 +5341,15 @@
       <c r="S82" s="32"/>
     </row>
     <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="74" t="s">
+      <c r="A83" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="B83" s="75"/>
-      <c r="C83" s="75"/>
-      <c r="D83" s="76"/>
-      <c r="E83" s="72"/>
-      <c r="F83" s="72"/>
-      <c r="G83" s="121"/>
+      <c r="B83" s="73"/>
+      <c r="C83" s="73"/>
+      <c r="D83" s="74"/>
+      <c r="E83" s="78"/>
+      <c r="F83" s="78"/>
+      <c r="G83" s="80"/>
       <c r="H83" s="20" t="s">
         <v>19</v>
       </c>
@@ -5388,13 +5391,13 @@
       </c>
     </row>
     <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="77"/>
-      <c r="B84" s="78"/>
-      <c r="C84" s="78"/>
-      <c r="D84" s="79"/>
-      <c r="E84" s="73"/>
-      <c r="F84" s="73"/>
-      <c r="G84" s="122"/>
+      <c r="A84" s="75"/>
+      <c r="B84" s="76"/>
+      <c r="C84" s="76"/>
+      <c r="D84" s="77"/>
+      <c r="E84" s="79"/>
+      <c r="F84" s="79"/>
+      <c r="G84" s="81"/>
       <c r="H84" s="7" t="s">
         <v>20</v>
       </c>
@@ -5438,17 +5441,17 @@
       </c>
     </row>
     <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="67">
+      <c r="A85" s="57">
         <v>1</v>
       </c>
-      <c r="B85" s="61" t="s">
+      <c r="B85" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C85" s="62"/>
-      <c r="D85" s="63"/>
-      <c r="E85" s="59"/>
-      <c r="F85" s="59"/>
-      <c r="G85" s="70"/>
+      <c r="C85" s="60"/>
+      <c r="D85" s="61"/>
+      <c r="E85" s="65"/>
+      <c r="F85" s="65"/>
+      <c r="G85" s="67"/>
       <c r="H85" s="23" t="str">
         <f>IF(E85="","","予定")</f>
         <v/>
@@ -5466,13 +5469,13 @@
       <c r="S85" s="31"/>
     </row>
     <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="68"/>
-      <c r="B86" s="64"/>
-      <c r="C86" s="65"/>
-      <c r="D86" s="66"/>
-      <c r="E86" s="60"/>
-      <c r="F86" s="60"/>
-      <c r="G86" s="71"/>
+      <c r="A86" s="58"/>
+      <c r="B86" s="62"/>
+      <c r="C86" s="63"/>
+      <c r="D86" s="64"/>
+      <c r="E86" s="66"/>
+      <c r="F86" s="66"/>
+      <c r="G86" s="68"/>
       <c r="H86" s="24" t="str">
         <f>IF(E85="","","実績")</f>
         <v/>
@@ -5490,19 +5493,19 @@
       <c r="S86" s="32"/>
     </row>
     <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="67"/>
+      <c r="A87" s="57"/>
       <c r="B87" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C87" s="61" t="s">
+      <c r="C87" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="D87" s="63"/>
-      <c r="E87" s="55" t="s">
+      <c r="D87" s="61"/>
+      <c r="E87" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F87" s="55"/>
-      <c r="G87" s="57"/>
+      <c r="F87" s="70"/>
+      <c r="G87" s="55"/>
       <c r="H87" s="8" t="str">
         <f>IF(E87="","","予定")</f>
         <v>予定</v>
@@ -5529,13 +5532,13 @@
       <c r="S87" s="31"/>
     </row>
     <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="68"/>
-      <c r="B88" s="58"/>
-      <c r="C88" s="64"/>
-      <c r="D88" s="66"/>
-      <c r="E88" s="56"/>
-      <c r="F88" s="56"/>
-      <c r="G88" s="58"/>
+      <c r="A88" s="58"/>
+      <c r="B88" s="56"/>
+      <c r="C88" s="62"/>
+      <c r="D88" s="64"/>
+      <c r="E88" s="71"/>
+      <c r="F88" s="71"/>
+      <c r="G88" s="56"/>
       <c r="H88" s="52" t="str">
         <f>IF(E87="","","実績")</f>
         <v>実績</v>
@@ -5556,19 +5559,19 @@
       <c r="S88" s="32"/>
     </row>
     <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="67"/>
+      <c r="A89" s="57"/>
       <c r="B89" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C89" s="80" t="s">
+      <c r="C89" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="D89" s="63"/>
-      <c r="E89" s="55" t="s">
+      <c r="D89" s="61"/>
+      <c r="E89" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F89" s="55"/>
-      <c r="G89" s="57"/>
+      <c r="F89" s="70"/>
+      <c r="G89" s="55"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -5595,13 +5598,13 @@
       <c r="S89" s="31"/>
     </row>
     <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="68"/>
-      <c r="B90" s="58"/>
-      <c r="C90" s="64"/>
-      <c r="D90" s="66"/>
-      <c r="E90" s="56"/>
-      <c r="F90" s="56"/>
-      <c r="G90" s="58"/>
+      <c r="A90" s="58"/>
+      <c r="B90" s="56"/>
+      <c r="C90" s="62"/>
+      <c r="D90" s="64"/>
+      <c r="E90" s="71"/>
+      <c r="F90" s="71"/>
+      <c r="G90" s="56"/>
       <c r="H90" s="52" t="str">
         <f>IF(E89="","","実績")</f>
         <v>実績</v>
@@ -5622,17 +5625,17 @@
       <c r="S90" s="32"/>
     </row>
     <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="67">
+      <c r="A91" s="57">
         <v>2</v>
       </c>
-      <c r="B91" s="61" t="s">
+      <c r="B91" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C91" s="62"/>
-      <c r="D91" s="63"/>
-      <c r="E91" s="59"/>
-      <c r="F91" s="59"/>
-      <c r="G91" s="70"/>
+      <c r="C91" s="60"/>
+      <c r="D91" s="61"/>
+      <c r="E91" s="65"/>
+      <c r="F91" s="65"/>
+      <c r="G91" s="67"/>
       <c r="H91" s="23" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -5652,13 +5655,13 @@
       <c r="S91" s="31"/>
     </row>
     <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="68"/>
-      <c r="B92" s="64"/>
-      <c r="C92" s="65"/>
-      <c r="D92" s="66"/>
-      <c r="E92" s="60"/>
-      <c r="F92" s="60"/>
-      <c r="G92" s="71"/>
+      <c r="A92" s="58"/>
+      <c r="B92" s="62"/>
+      <c r="C92" s="63"/>
+      <c r="D92" s="64"/>
+      <c r="E92" s="66"/>
+      <c r="F92" s="66"/>
+      <c r="G92" s="68"/>
       <c r="H92" s="24" t="str">
         <f>IF(E91="","","実績")</f>
         <v/>
@@ -5676,19 +5679,19 @@
       <c r="S92" s="32"/>
     </row>
     <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="67"/>
+      <c r="A93" s="57"/>
       <c r="B93" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C93" s="61" t="s">
+      <c r="C93" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D93" s="63"/>
-      <c r="E93" s="55" t="s">
+      <c r="D93" s="61"/>
+      <c r="E93" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="F93" s="55"/>
-      <c r="G93" s="57"/>
+      <c r="F93" s="70"/>
+      <c r="G93" s="55"/>
       <c r="H93" s="8" t="str">
         <f>IF(E93="","","予定")</f>
         <v>予定</v>
@@ -5715,13 +5718,13 @@
       <c r="S93" s="31"/>
     </row>
     <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="68"/>
-      <c r="B94" s="58"/>
-      <c r="C94" s="64"/>
-      <c r="D94" s="66"/>
-      <c r="E94" s="56"/>
-      <c r="F94" s="56"/>
-      <c r="G94" s="58"/>
+      <c r="A94" s="58"/>
+      <c r="B94" s="56"/>
+      <c r="C94" s="62"/>
+      <c r="D94" s="64"/>
+      <c r="E94" s="71"/>
+      <c r="F94" s="71"/>
+      <c r="G94" s="56"/>
       <c r="H94" s="52" t="str">
         <f>IF(E93="","","実績")</f>
         <v>実績</v>
@@ -5742,19 +5745,19 @@
       <c r="S94" s="32"/>
     </row>
     <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="67"/>
+      <c r="A95" s="57"/>
       <c r="B95" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C95" s="61" t="s">
+      <c r="C95" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="D95" s="63"/>
-      <c r="E95" s="55" t="s">
+      <c r="D95" s="61"/>
+      <c r="E95" s="70" t="s">
         <v>31</v>
       </c>
-      <c r="F95" s="55"/>
-      <c r="G95" s="57"/>
+      <c r="F95" s="70"/>
+      <c r="G95" s="55"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v>予定</v>
@@ -5781,13 +5784,13 @@
       <c r="S95" s="31"/>
     </row>
     <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="68"/>
-      <c r="B96" s="58"/>
-      <c r="C96" s="64"/>
-      <c r="D96" s="66"/>
-      <c r="E96" s="56"/>
-      <c r="F96" s="56"/>
-      <c r="G96" s="58"/>
+      <c r="A96" s="58"/>
+      <c r="B96" s="56"/>
+      <c r="C96" s="62"/>
+      <c r="D96" s="64"/>
+      <c r="E96" s="71"/>
+      <c r="F96" s="71"/>
+      <c r="G96" s="56"/>
       <c r="H96" s="52" t="str">
         <f>IF(E95="","","実績")</f>
         <v>実績</v>
@@ -5808,15 +5811,15 @@
       <c r="S96" s="44"/>
     </row>
     <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="74" t="s">
+      <c r="A97" s="72" t="s">
         <v>59</v>
       </c>
-      <c r="B97" s="75"/>
-      <c r="C97" s="75"/>
-      <c r="D97" s="76"/>
-      <c r="E97" s="72"/>
-      <c r="F97" s="72"/>
-      <c r="G97" s="121"/>
+      <c r="B97" s="73"/>
+      <c r="C97" s="73"/>
+      <c r="D97" s="74"/>
+      <c r="E97" s="78"/>
+      <c r="F97" s="78"/>
+      <c r="G97" s="80"/>
       <c r="H97" s="20" t="s">
         <v>19</v>
       </c>
@@ -5859,13 +5862,13 @@
       </c>
     </row>
     <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="77"/>
-      <c r="B98" s="78"/>
-      <c r="C98" s="78"/>
-      <c r="D98" s="79"/>
-      <c r="E98" s="73"/>
-      <c r="F98" s="73"/>
-      <c r="G98" s="122"/>
+      <c r="A98" s="75"/>
+      <c r="B98" s="76"/>
+      <c r="C98" s="76"/>
+      <c r="D98" s="77"/>
+      <c r="E98" s="79"/>
+      <c r="F98" s="79"/>
+      <c r="G98" s="81"/>
       <c r="H98" s="7" t="s">
         <v>20</v>
       </c>
@@ -5909,19 +5912,19 @@
       </c>
     </row>
     <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="67">
+      <c r="A99" s="57">
         <v>1</v>
       </c>
-      <c r="B99" s="61" t="s">
+      <c r="B99" s="59" t="s">
         <v>36</v>
       </c>
-      <c r="C99" s="62"/>
-      <c r="D99" s="63"/>
-      <c r="E99" s="59" t="s">
+      <c r="C99" s="60"/>
+      <c r="D99" s="61"/>
+      <c r="E99" s="65" t="s">
         <v>23</v>
       </c>
-      <c r="F99" s="59"/>
-      <c r="G99" s="70"/>
+      <c r="F99" s="65"/>
+      <c r="G99" s="67"/>
       <c r="H99" s="23" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
@@ -5939,13 +5942,13 @@
       <c r="S99" s="31"/>
     </row>
     <row r="100" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="68"/>
-      <c r="B100" s="64"/>
-      <c r="C100" s="65"/>
-      <c r="D100" s="66"/>
-      <c r="E100" s="60"/>
-      <c r="F100" s="60"/>
-      <c r="G100" s="71"/>
+      <c r="A100" s="58"/>
+      <c r="B100" s="62"/>
+      <c r="C100" s="63"/>
+      <c r="D100" s="64"/>
+      <c r="E100" s="66"/>
+      <c r="F100" s="66"/>
+      <c r="G100" s="68"/>
       <c r="H100" s="24" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
@@ -5963,19 +5966,19 @@
       <c r="S100" s="32"/>
     </row>
     <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="67"/>
+      <c r="A101" s="57"/>
       <c r="B101" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C101" s="61" t="s">
+      <c r="C101" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="D101" s="63"/>
-      <c r="E101" s="55" t="s">
+      <c r="D101" s="61"/>
+      <c r="E101" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F101" s="55"/>
-      <c r="G101" s="57"/>
+      <c r="F101" s="70"/>
+      <c r="G101" s="55"/>
       <c r="H101" s="8" t="str">
         <f>IF(E101="","","予定")</f>
         <v>予定</v>
@@ -6001,13 +6004,13 @@
       <c r="S101" s="31"/>
     </row>
     <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="68"/>
-      <c r="B102" s="58"/>
-      <c r="C102" s="64"/>
-      <c r="D102" s="66"/>
-      <c r="E102" s="56"/>
-      <c r="F102" s="56"/>
-      <c r="G102" s="58"/>
+      <c r="A102" s="58"/>
+      <c r="B102" s="56"/>
+      <c r="C102" s="62"/>
+      <c r="D102" s="64"/>
+      <c r="E102" s="71"/>
+      <c r="F102" s="71"/>
+      <c r="G102" s="56"/>
       <c r="H102" s="52" t="str">
         <f>IF(E101="","","実績")</f>
         <v>実績</v>
@@ -6028,19 +6031,19 @@
       <c r="S102" s="32"/>
     </row>
     <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="67"/>
+      <c r="A103" s="57"/>
       <c r="B103" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C103" s="61" t="s">
+      <c r="C103" s="59" t="s">
         <v>61</v>
       </c>
-      <c r="D103" s="63"/>
-      <c r="E103" s="55" t="s">
+      <c r="D103" s="61"/>
+      <c r="E103" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F103" s="55"/>
-      <c r="G103" s="57"/>
+      <c r="F103" s="70"/>
+      <c r="G103" s="55"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -6066,13 +6069,13 @@
       <c r="S103" s="31"/>
     </row>
     <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="68"/>
-      <c r="B104" s="58"/>
-      <c r="C104" s="64"/>
-      <c r="D104" s="66"/>
-      <c r="E104" s="56"/>
-      <c r="F104" s="56"/>
-      <c r="G104" s="58"/>
+      <c r="A104" s="58"/>
+      <c r="B104" s="56"/>
+      <c r="C104" s="62"/>
+      <c r="D104" s="64"/>
+      <c r="E104" s="71"/>
+      <c r="F104" s="71"/>
+      <c r="G104" s="56"/>
       <c r="H104" s="52" t="str">
         <f>IF(E103="","","実績")</f>
         <v>実績</v>
@@ -6093,19 +6096,19 @@
       <c r="S104" s="32"/>
     </row>
     <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="67">
+      <c r="A105" s="57">
         <v>2</v>
       </c>
-      <c r="B105" s="61" t="s">
+      <c r="B105" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="C105" s="62"/>
-      <c r="D105" s="63"/>
-      <c r="E105" s="59" t="s">
+      <c r="C105" s="60"/>
+      <c r="D105" s="61"/>
+      <c r="E105" s="65" t="s">
         <v>31</v>
       </c>
-      <c r="F105" s="59"/>
-      <c r="G105" s="70"/>
+      <c r="F105" s="65"/>
+      <c r="G105" s="67"/>
       <c r="H105" s="23" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -6123,13 +6126,13 @@
       <c r="S105" s="31"/>
     </row>
     <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="68"/>
-      <c r="B106" s="64"/>
-      <c r="C106" s="65"/>
-      <c r="D106" s="66"/>
-      <c r="E106" s="60"/>
-      <c r="F106" s="60"/>
-      <c r="G106" s="71"/>
+      <c r="A106" s="58"/>
+      <c r="B106" s="62"/>
+      <c r="C106" s="63"/>
+      <c r="D106" s="64"/>
+      <c r="E106" s="66"/>
+      <c r="F106" s="66"/>
+      <c r="G106" s="68"/>
       <c r="H106" s="24" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
@@ -6147,19 +6150,19 @@
       <c r="S106" s="32"/>
     </row>
     <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="67"/>
+      <c r="A107" s="57"/>
       <c r="B107" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C107" s="61" t="s">
+      <c r="C107" s="59" t="s">
         <v>30</v>
       </c>
-      <c r="D107" s="63"/>
-      <c r="E107" s="55" t="s">
+      <c r="D107" s="61"/>
+      <c r="E107" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F107" s="55"/>
-      <c r="G107" s="57"/>
+      <c r="F107" s="70"/>
+      <c r="G107" s="55"/>
       <c r="H107" s="8" t="str">
         <f>IF(E107="","","予定")</f>
         <v>予定</v>
@@ -6185,13 +6188,13 @@
       <c r="S107" s="31"/>
     </row>
     <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="68"/>
-      <c r="B108" s="58"/>
-      <c r="C108" s="64"/>
-      <c r="D108" s="66"/>
-      <c r="E108" s="56"/>
-      <c r="F108" s="56"/>
-      <c r="G108" s="58"/>
+      <c r="A108" s="58"/>
+      <c r="B108" s="56"/>
+      <c r="C108" s="62"/>
+      <c r="D108" s="64"/>
+      <c r="E108" s="71"/>
+      <c r="F108" s="71"/>
+      <c r="G108" s="56"/>
       <c r="H108" s="52" t="str">
         <f>IF(E107="","","実績")</f>
         <v>実績</v>
@@ -6212,19 +6215,19 @@
       <c r="S108" s="32"/>
     </row>
     <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="67"/>
+      <c r="A109" s="57"/>
       <c r="B109" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C109" s="61" t="s">
+      <c r="C109" s="59" t="s">
         <v>43</v>
       </c>
-      <c r="D109" s="63"/>
-      <c r="E109" s="55" t="s">
+      <c r="D109" s="61"/>
+      <c r="E109" s="70" t="s">
         <v>23</v>
       </c>
-      <c r="F109" s="55"/>
-      <c r="G109" s="57"/>
+      <c r="F109" s="70"/>
+      <c r="G109" s="55"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v>予定</v>
@@ -6250,13 +6253,13 @@
       <c r="S109" s="31"/>
     </row>
     <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="68"/>
-      <c r="B110" s="58"/>
-      <c r="C110" s="64"/>
-      <c r="D110" s="66"/>
-      <c r="E110" s="56"/>
-      <c r="F110" s="56"/>
-      <c r="G110" s="58"/>
+      <c r="A110" s="58"/>
+      <c r="B110" s="56"/>
+      <c r="C110" s="62"/>
+      <c r="D110" s="64"/>
+      <c r="E110" s="71"/>
+      <c r="F110" s="71"/>
+      <c r="G110" s="56"/>
       <c r="H110" s="52" t="str">
         <f>IF(E109="","","実績")</f>
         <v>実績</v>
@@ -6292,44 +6295,253 @@
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
   <mergeCells count="309">
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
-    <mergeCell ref="A75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="B105:D106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="A49:A50"/>
+    <mergeCell ref="C39:D40"/>
+    <mergeCell ref="E39:E40"/>
+    <mergeCell ref="F39:F40"/>
+    <mergeCell ref="A53:A54"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="G105:G106"/>
+    <mergeCell ref="F107:F108"/>
+    <mergeCell ref="G107:G108"/>
+    <mergeCell ref="C107:D108"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="E107:E108"/>
+    <mergeCell ref="E105:E106"/>
+    <mergeCell ref="F97:F98"/>
+    <mergeCell ref="E97:E98"/>
+    <mergeCell ref="A103:A104"/>
+    <mergeCell ref="B103:B104"/>
+    <mergeCell ref="C103:D104"/>
+    <mergeCell ref="A97:D98"/>
+    <mergeCell ref="A101:A102"/>
+    <mergeCell ref="B101:B102"/>
+    <mergeCell ref="C101:D102"/>
+    <mergeCell ref="E67:E68"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:D100"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:D80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="B49:D50"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B33:D34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="B43:D44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:D68"/>
     <mergeCell ref="E73:E74"/>
     <mergeCell ref="F73:F74"/>
     <mergeCell ref="F71:F72"/>
@@ -6354,253 +6566,44 @@
     <mergeCell ref="C71:D72"/>
     <mergeCell ref="E71:E72"/>
     <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:D68"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="B49:D50"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B33:D34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B43:D44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:D100"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:D80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="A49:A50"/>
-    <mergeCell ref="C39:D40"/>
-    <mergeCell ref="E39:E40"/>
-    <mergeCell ref="F39:F40"/>
-    <mergeCell ref="A53:A54"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="G105:G106"/>
-    <mergeCell ref="F107:F108"/>
-    <mergeCell ref="G107:G108"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="E107:E108"/>
-    <mergeCell ref="E105:E106"/>
-    <mergeCell ref="F97:F98"/>
-    <mergeCell ref="E97:E98"/>
-    <mergeCell ref="A103:A104"/>
-    <mergeCell ref="B103:B104"/>
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="A97:D98"/>
-    <mergeCell ref="A101:A102"/>
-    <mergeCell ref="B101:B102"/>
-    <mergeCell ref="C101:D102"/>
-    <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="B105:D106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="E109:E110"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="A75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L85:S96 L99:S110 L43:S52 L54:S54 L9:S12 M13:S13 L14:S18 L53:T53 L55:T55 L56:S56 L25:S34">
@@ -6696,15 +6699,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6888,6 +6882,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
   <ds:schemaRefs>
@@ -6898,14 +6901,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89F0FFFF-D441-4664-93A0-244B234195EC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6921,4 +6916,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/13_WBSガントチャート(修正).xlsx
+++ b/13_WBSガントチャート(修正).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24943EC3-5BE7-48CD-A19C-D840BD8C0809}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3058983B-C4EA-4DEA-9A81-07BCF7C35325}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -560,10 +560,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>鈴木</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>徳竹、林、北田、金、鈴木、琴</t>
     <rPh sb="13" eb="14">
       <t>コト</t>
@@ -583,6 +579,13 @@
     </rPh>
     <rPh sb="8" eb="9">
       <t>タケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鈴木、林</t>
+    <rPh sb="3" eb="4">
+      <t>イム</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -2356,10 +2359,10 @@
   <dimension ref="A1:T111"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H59" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H60" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="R73" sqref="R73"/>
+      <selection pane="bottomRight" activeCell="J75" sqref="J75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -4474,7 +4477,7 @@
       <c r="J58" s="7"/>
       <c r="K58" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$59:K$74),2)=0)*K$59:K$74)</f>
-        <v>41.5</v>
+        <v>57</v>
       </c>
       <c r="L58" s="36">
         <f>SUMPRODUCT((MOD(ROW(L$59:L$74),2)=0)*L$59:L$74)</f>
@@ -4502,7 +4505,7 @@
       </c>
       <c r="R58" s="36">
         <f t="shared" si="15"/>
-        <v>6</v>
+        <v>21.5</v>
       </c>
       <c r="S58" s="36">
         <f t="shared" si="15"/>
@@ -4892,14 +4895,14 @@
         <v>実績</v>
       </c>
       <c r="I70" s="52" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="J70" s="52">
         <v>4</v>
       </c>
       <c r="K70" s="10">
         <f t="shared" si="17"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L70" s="41"/>
       <c r="M70" s="32"/>
@@ -4910,7 +4913,10 @@
         <f>4*0.5</f>
         <v>2</v>
       </c>
-      <c r="R70" s="32"/>
+      <c r="R70" s="32">
+        <f>6*0.5</f>
+        <v>3</v>
+      </c>
       <c r="S70" s="32"/>
     </row>
     <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4932,7 +4938,7 @@
         <v>予定</v>
       </c>
       <c r="I71" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J71" s="8">
         <v>6</v>
@@ -4965,14 +4971,14 @@
         <v>実績</v>
       </c>
       <c r="I72" s="8" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="J72" s="52">
         <v>6</v>
       </c>
       <c r="K72" s="10">
         <f t="shared" si="17"/>
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="L72" s="41"/>
       <c r="M72" s="32"/>
@@ -4984,8 +4990,8 @@
         <v>9</v>
       </c>
       <c r="R72" s="32">
-        <f>6*1</f>
-        <v>6</v>
+        <f>6*3</f>
+        <v>18</v>
       </c>
       <c r="S72" s="32"/>
     </row>
@@ -5041,14 +5047,14 @@
         <v>実績</v>
       </c>
       <c r="I74" s="52" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="J74" s="8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K74" s="10">
         <f t="shared" si="17"/>
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="L74" s="43"/>
       <c r="M74" s="44"/>
@@ -5058,7 +5064,9 @@
       <c r="Q74" s="44">
         <v>0.5</v>
       </c>
-      <c r="R74" s="44"/>
+      <c r="R74" s="44">
+        <v>0.5</v>
+      </c>
       <c r="S74" s="44"/>
     </row>
     <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">

--- a/13_WBSガントチャート(修正).xlsx
+++ b/13_WBSガントチャート(修正).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3058983B-C4EA-4DEA-9A81-07BCF7C35325}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDF950C-3C4F-4C1D-AEFC-D163160678FC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="70">
   <si>
     <t>タスク/ワークパッケージ</t>
     <phoneticPr fontId="1"/>
@@ -1769,21 +1769,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="45"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor indexed="42"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="14">
     <dxf>
       <fill>
         <patternFill>
@@ -2359,10 +2345,10 @@
   <dimension ref="A1:T111"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H60" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="H66" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J75" sqref="J75"/>
+      <selection pane="bottomRight" activeCell="I82" sqref="I82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2610,11 +2596,10 @@
       </c>
       <c r="R6" s="47">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18.5</v>
       </c>
       <c r="S6" s="47">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <v>18.5</v>
       </c>
     </row>
     <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -4477,7 +4462,7 @@
       <c r="J58" s="7"/>
       <c r="K58" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$59:K$74),2)=0)*K$59:K$74)</f>
-        <v>57</v>
+        <v>63.5</v>
       </c>
       <c r="L58" s="36">
         <f>SUMPRODUCT((MOD(ROW(L$59:L$74),2)=0)*L$59:L$74)</f>
@@ -4505,11 +4490,11 @@
       </c>
       <c r="R58" s="36">
         <f t="shared" si="15"/>
-        <v>21.5</v>
+        <v>18.5</v>
       </c>
       <c r="S58" s="36">
         <f t="shared" si="15"/>
-        <v>0</v>
+        <v>9.5</v>
       </c>
     </row>
     <row r="59" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
@@ -4713,7 +4698,7 @@
       <c r="R64" s="32"/>
       <c r="S64" s="32"/>
     </row>
-    <row r="65" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A65" s="57"/>
       <c r="B65" s="69" t="s">
         <v>33</v>
@@ -4752,7 +4737,7 @@
       <c r="R65" s="31"/>
       <c r="S65" s="31"/>
     </row>
-    <row r="66" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A66" s="58"/>
       <c r="B66" s="56"/>
       <c r="C66" s="62"/>
@@ -4789,7 +4774,7 @@
       <c r="R66" s="32"/>
       <c r="S66" s="32"/>
     </row>
-    <row r="67" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A67" s="57">
         <v>2</v>
       </c>
@@ -4819,7 +4804,7 @@
       <c r="R67" s="31"/>
       <c r="S67" s="31"/>
     </row>
-    <row r="68" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A68" s="58"/>
       <c r="B68" s="62"/>
       <c r="C68" s="63"/>
@@ -4843,7 +4828,7 @@
       <c r="R68" s="32"/>
       <c r="S68" s="32"/>
     </row>
-    <row r="69" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A69" s="57"/>
       <c r="B69" s="69" t="s">
         <v>25</v>
@@ -4882,7 +4867,7 @@
       <c r="R69" s="31"/>
       <c r="S69" s="31"/>
     </row>
-    <row r="70" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A70" s="58"/>
       <c r="B70" s="56"/>
       <c r="C70" s="62"/>
@@ -4902,7 +4887,7 @@
       </c>
       <c r="K70" s="10">
         <f t="shared" si="17"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="L70" s="41"/>
       <c r="M70" s="32"/>
@@ -4917,9 +4902,12 @@
         <f>6*0.5</f>
         <v>3</v>
       </c>
-      <c r="S70" s="32"/>
-    </row>
-    <row r="71" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S70" s="32">
+        <f>6*0.5</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A71" s="57"/>
       <c r="B71" s="69" t="s">
         <v>28</v>
@@ -4958,7 +4946,7 @@
       <c r="R71" s="31"/>
       <c r="S71" s="31"/>
     </row>
-    <row r="72" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A72" s="58"/>
       <c r="B72" s="56"/>
       <c r="C72" s="62"/>
@@ -4978,7 +4966,7 @@
       </c>
       <c r="K72" s="10">
         <f t="shared" si="17"/>
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="L72" s="41"/>
       <c r="M72" s="32"/>
@@ -4990,12 +4978,15 @@
         <v>9</v>
       </c>
       <c r="R72" s="32">
-        <f>6*3</f>
-        <v>18</v>
-      </c>
-      <c r="S72" s="32"/>
-    </row>
-    <row r="73" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+        <f>6*2.5</f>
+        <v>15</v>
+      </c>
+      <c r="S72" s="32">
+        <f>6*1</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A73" s="57"/>
       <c r="B73" s="69" t="s">
         <v>33</v>
@@ -5034,7 +5025,7 @@
       <c r="R73" s="31"/>
       <c r="S73" s="31"/>
     </row>
-    <row r="74" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A74" s="58"/>
       <c r="B74" s="56"/>
       <c r="C74" s="62"/>
@@ -5054,7 +5045,7 @@
       </c>
       <c r="K74" s="10">
         <f t="shared" si="17"/>
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="L74" s="43"/>
       <c r="M74" s="44"/>
@@ -5065,11 +5056,14 @@
         <v>0.5</v>
       </c>
       <c r="R74" s="44">
+        <f>1*0.5</f>
         <v>0.5</v>
       </c>
-      <c r="S74" s="44"/>
-    </row>
-    <row r="75" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="S74" s="44">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A75" s="72" t="s">
         <v>51</v>
       </c>
@@ -5114,7 +5108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="76" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A76" s="75"/>
       <c r="B76" s="76"/>
       <c r="C76" s="76"/>
@@ -5129,7 +5123,7 @@
       <c r="J76" s="7"/>
       <c r="K76" s="15">
         <f>SUMPRODUCT((MOD(ROW(K$77:K$82),2)=0)*K$77:K$82)</f>
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="L76" s="36">
         <f t="shared" ref="L76:S76" si="20">SUMPRODUCT((MOD(ROW(L$77:L$82),2)=0)*L$77:L$82)</f>
@@ -5161,10 +5155,10 @@
       </c>
       <c r="S76" s="36">
         <f t="shared" si="20"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="77" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A77" s="57">
         <v>1</v>
       </c>
@@ -5192,7 +5186,7 @@
       <c r="R77" s="31"/>
       <c r="S77" s="31"/>
     </row>
-    <row r="78" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A78" s="58"/>
       <c r="B78" s="62"/>
       <c r="C78" s="63"/>
@@ -5216,7 +5210,7 @@
       <c r="R78" s="32"/>
       <c r="S78" s="32"/>
     </row>
-    <row r="79" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="57"/>
       <c r="B79" s="69" t="s">
         <v>25</v>
@@ -5255,7 +5249,7 @@
       <c r="R79" s="31"/>
       <c r="S79" s="31"/>
     </row>
-    <row r="80" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="58"/>
       <c r="B80" s="56"/>
       <c r="C80" s="62"/>
@@ -5267,11 +5261,15 @@
         <f>IF(E79="","","実績")</f>
         <v>実績</v>
       </c>
-      <c r="I80" s="52"/>
-      <c r="J80" s="52"/>
+      <c r="I80" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J80" s="52">
+        <v>6</v>
+      </c>
       <c r="K80" s="10">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f>SUM(L80:T80)</f>
+        <v>9</v>
       </c>
       <c r="L80" s="41"/>
       <c r="M80" s="32"/>
@@ -5280,7 +5278,11 @@
       <c r="P80" s="32"/>
       <c r="Q80" s="32"/>
       <c r="R80" s="32"/>
-      <c r="S80" s="32"/>
+      <c r="S80" s="32">
+        <f>6*1.5</f>
+        <v>9</v>
+      </c>
+      <c r="T80" s="32"/>
     </row>
     <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="57"/>
@@ -6614,36 +6616,28 @@
     <mergeCell ref="G93:G94"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
-  <conditionalFormatting sqref="L85:S96 L99:S110 L43:S52 L54:S54 L9:S12 M13:S13 L14:S18 L53:T53 L55:T55 L56:S56 L25:S34">
-    <cfRule type="expression" dxfId="15" priority="27" stopIfTrue="1">
+  <conditionalFormatting sqref="L85:S96 L99:S110 L43:S52 L54:S54 L9:S12 M13:S13 L14:S18 L53:T53 L55:T55 L56:S56 L25:S34 L77:S79 L81:S82 L80:T80">
+    <cfRule type="expression" dxfId="13" priority="27" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="14" priority="28" stopIfTrue="1">
+    <cfRule type="expression" dxfId="12" priority="28" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L9), L9&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L19:S20">
-    <cfRule type="expression" dxfId="13" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="11" priority="23" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L19), L19&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="24" stopIfTrue="1">
+    <cfRule type="expression" dxfId="10" priority="24" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L19), L19&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L59:S62 L65:S74">
-    <cfRule type="expression" dxfId="11" priority="21" stopIfTrue="1">
+    <cfRule type="expression" dxfId="9" priority="21" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L59), L59&gt;0)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="10" priority="22" stopIfTrue="1">
+    <cfRule type="expression" dxfId="8" priority="22" stopIfTrue="1">
       <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L59), L59&gt;0)</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L77:S82">
-    <cfRule type="expression" dxfId="9" priority="19" stopIfTrue="1">
-      <formula>AND(ROW()&gt;4, COLUMN()&gt;8, MOD(ROW(),2)=1, ISNONTEXT(L77), L77&gt;0)</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="8" priority="20" stopIfTrue="1">
-      <formula>AND(ROW()&gt;4, COLUMN()&gt;8,  MOD(ROW(),2)=0, ISNONTEXT(L77), L77&gt;0)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="L21:S22">

--- a/13_WBSガントチャート(修正).xlsx
+++ b/13_WBSガントチャート(修正).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BDF950C-3C4F-4C1D-AEFC-D163160678FC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26669A27-8C64-42EC-A61A-7BF04FD98B0B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -116,7 +116,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="72">
   <si>
     <t>タスク/ワークパッケージ</t>
     <phoneticPr fontId="1"/>
@@ -589,6 +589,23 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>月</t>
+    <rPh sb="0" eb="1">
+      <t>ゲツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>5日目</t>
+    <rPh sb="1" eb="2">
+      <t>ニチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>メ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -652,7 +669,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -695,8 +712,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCCFFFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="56">
+  <borders count="60">
     <border>
       <left/>
       <right/>
@@ -1399,11 +1428,69 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="dashed">
+        <color indexed="64"/>
+      </top>
+      <bottom style="dashed">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1562,40 +1649,49 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1603,13 +1699,10 @@
     <xf numFmtId="0" fontId="2" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1630,10 +1723,127 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1642,129 +1852,29 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="44" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="34" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="35" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="52" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="39" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="40" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="46" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="3" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="37" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="57" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="58" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1870,6 +1980,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFCCFFFF"/>
+      <color rgb="FF99CCFF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2342,13 +2458,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T111"/>
+  <dimension ref="A1:U111"/>
   <sheetViews>
     <sheetView showGridLines="0" showZeros="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="4" topLeftCell="H66" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="I82" sqref="I82"/>
+      <selection pane="bottomRight" activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="10.5" x14ac:dyDescent="0.15"/>
@@ -2366,121 +2482,133 @@
     <col min="12" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="82" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="83"/>
-      <c r="C1" s="83"/>
-      <c r="D1" s="83"/>
-      <c r="E1" s="102" t="s">
+    <row r="1" spans="1:21" ht="14.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="104" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="94"/>
+      <c r="C1" s="94"/>
+      <c r="D1" s="94"/>
+      <c r="E1" s="99" t="s">
         <v>1</v>
       </c>
-      <c r="F1" s="102" t="s">
+      <c r="F1" s="99" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="83" t="s">
+      <c r="G1" s="94" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="102" t="s">
+      <c r="H1" s="99" t="s">
         <v>4</v>
       </c>
-      <c r="I1" s="102" t="s">
+      <c r="I1" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="J1" s="102" t="s">
+      <c r="J1" s="99" t="s">
         <v>6</v>
       </c>
-      <c r="K1" s="115" t="s">
+      <c r="K1" s="91" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="105">
+      <c r="L1" s="81">
         <v>43984</v>
       </c>
-      <c r="M1" s="106"/>
-      <c r="N1" s="105">
+      <c r="M1" s="82"/>
+      <c r="N1" s="81">
         <v>43985</v>
       </c>
-      <c r="O1" s="106"/>
-      <c r="P1" s="105">
+      <c r="O1" s="82"/>
+      <c r="P1" s="81">
         <v>43986</v>
       </c>
-      <c r="Q1" s="106"/>
-      <c r="R1" s="105">
+      <c r="Q1" s="82"/>
+      <c r="R1" s="81">
         <v>43987</v>
       </c>
-      <c r="S1" s="106"/>
-    </row>
-    <row r="2" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="84"/>
-      <c r="B2" s="85"/>
-      <c r="C2" s="85"/>
-      <c r="D2" s="85"/>
-      <c r="E2" s="103"/>
-      <c r="F2" s="103"/>
-      <c r="G2" s="85"/>
-      <c r="H2" s="120"/>
-      <c r="I2" s="103"/>
-      <c r="J2" s="103"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="109" t="s">
+      <c r="S1" s="82"/>
+      <c r="T1" s="81">
+        <v>43990</v>
+      </c>
+      <c r="U1" s="82"/>
+    </row>
+    <row r="2" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="105"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="100"/>
+      <c r="F2" s="100"/>
+      <c r="G2" s="95"/>
+      <c r="H2" s="102"/>
+      <c r="I2" s="100"/>
+      <c r="J2" s="100"/>
+      <c r="K2" s="92"/>
+      <c r="L2" s="85" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="108"/>
-      <c r="N2" s="107" t="s">
+      <c r="M2" s="84"/>
+      <c r="N2" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="O2" s="107"/>
-      <c r="P2" s="110" t="s">
+      <c r="O2" s="83"/>
+      <c r="P2" s="86" t="s">
         <v>10</v>
       </c>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="107" t="s">
+      <c r="Q2" s="84"/>
+      <c r="R2" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="S2" s="108"/>
-    </row>
-    <row r="3" spans="1:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="84"/>
-      <c r="B3" s="85"/>
-      <c r="C3" s="85"/>
-      <c r="D3" s="85"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="85"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="103"/>
-      <c r="J3" s="103"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="113" t="s">
+      <c r="S2" s="84"/>
+      <c r="T2" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="U2" s="84"/>
+    </row>
+    <row r="3" spans="1:21" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="105"/>
+      <c r="B3" s="95"/>
+      <c r="C3" s="95"/>
+      <c r="D3" s="95"/>
+      <c r="E3" s="100"/>
+      <c r="F3" s="100"/>
+      <c r="G3" s="95"/>
+      <c r="H3" s="102"/>
+      <c r="I3" s="100"/>
+      <c r="J3" s="100"/>
+      <c r="K3" s="92"/>
+      <c r="L3" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="112"/>
-      <c r="N3" s="111" t="s">
+      <c r="M3" s="88"/>
+      <c r="N3" s="87" t="s">
         <v>13</v>
       </c>
-      <c r="O3" s="112"/>
-      <c r="P3" s="111" t="s">
+      <c r="O3" s="88"/>
+      <c r="P3" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="Q3" s="112"/>
-      <c r="R3" s="114" t="s">
+      <c r="Q3" s="88"/>
+      <c r="R3" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="114"/>
-    </row>
-    <row r="4" spans="1:19" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="86"/>
-      <c r="B4" s="87"/>
-      <c r="C4" s="87"/>
-      <c r="D4" s="87"/>
-      <c r="E4" s="104"/>
-      <c r="F4" s="104"/>
-      <c r="G4" s="87"/>
-      <c r="H4" s="121"/>
-      <c r="I4" s="104"/>
-      <c r="J4" s="104"/>
-      <c r="K4" s="117"/>
+      <c r="S3" s="90"/>
+      <c r="T3" s="90" t="s">
+        <v>71</v>
+      </c>
+      <c r="U3" s="90"/>
+    </row>
+    <row r="4" spans="1:21" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="106"/>
+      <c r="B4" s="96"/>
+      <c r="C4" s="96"/>
+      <c r="D4" s="96"/>
+      <c r="E4" s="101"/>
+      <c r="F4" s="101"/>
+      <c r="G4" s="96"/>
+      <c r="H4" s="103"/>
+      <c r="I4" s="101"/>
+      <c r="J4" s="101"/>
+      <c r="K4" s="93"/>
       <c r="L4" s="2" t="s">
         <v>16</v>
       </c>
@@ -2505,17 +2633,23 @@
       <c r="S4" s="3" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="88" t="s">
+      <c r="T4" s="123" t="s">
+        <v>16</v>
+      </c>
+      <c r="U4" s="124" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="107" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="89"/>
-      <c r="C5" s="89"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="94"/>
-      <c r="F5" s="94"/>
-      <c r="G5" s="118"/>
+      <c r="B5" s="108"/>
+      <c r="C5" s="108"/>
+      <c r="D5" s="109"/>
+      <c r="E5" s="113"/>
+      <c r="F5" s="113"/>
+      <c r="G5" s="97"/>
       <c r="H5" s="16" t="s">
         <v>19</v>
       </c>
@@ -2551,26 +2685,34 @@
       <c r="R5" s="27">
         <v>15</v>
       </c>
-      <c r="S5" s="27">
+      <c r="S5" s="125">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="91"/>
-      <c r="B6" s="92"/>
-      <c r="C6" s="92"/>
-      <c r="D6" s="93"/>
-      <c r="E6" s="95"/>
-      <c r="F6" s="95"/>
-      <c r="G6" s="119"/>
+      <c r="T5" s="127">
+        <f>SUM(T7,T23,T41,T57,T75,T83,T97)</f>
+        <v>0</v>
+      </c>
+      <c r="U5" s="127">
+        <f>SUM(U7,U23,U41,U57,U75,U83,U97)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" s="11" customFormat="1" ht="12" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="110"/>
+      <c r="B6" s="111"/>
+      <c r="C6" s="111"/>
+      <c r="D6" s="112"/>
+      <c r="E6" s="114"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="98"/>
       <c r="H6" s="18" t="s">
         <v>20</v>
       </c>
       <c r="I6" s="19"/>
       <c r="J6" s="19"/>
       <c r="K6" s="47">
-        <f t="shared" ref="K6:S6" si="1">SUM(L8,L24,L42,L58,L76,L84)</f>
+        <f t="shared" ref="K6:R6" si="1">SUM(L8,L24,L42,L58,L76,L84)</f>
         <v>12</v>
       </c>
       <c r="L6" s="47">
@@ -2598,20 +2740,28 @@
         <f t="shared" si="1"/>
         <v>18.5</v>
       </c>
-      <c r="S6" s="47">
+      <c r="S6" s="126">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="96" t="s">
+      <c r="T6" s="128">
+        <f>SUM(T8,T24,T42,T58,T76,T84,T98)</f>
+        <v>0</v>
+      </c>
+      <c r="U6" s="128">
+        <f>SUM(U8,U24,U42,U58,U76,U84,U98)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="12" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="115" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="97"/>
-      <c r="C7" s="97"/>
-      <c r="D7" s="98"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="99"/>
+      <c r="B7" s="116"/>
+      <c r="C7" s="116"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="120"/>
+      <c r="F7" s="120"/>
+      <c r="G7" s="118"/>
       <c r="H7" s="4" t="s">
         <v>19</v>
       </c>
@@ -2652,15 +2802,17 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="75"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="77"/>
-      <c r="E8" s="79"/>
-      <c r="F8" s="79"/>
-      <c r="G8" s="100"/>
+      <c r="T7" s="130"/>
+      <c r="U7" s="130"/>
+    </row>
+    <row r="8" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="77"/>
+      <c r="B8" s="78"/>
+      <c r="C8" s="78"/>
+      <c r="D8" s="79"/>
+      <c r="E8" s="73"/>
+      <c r="F8" s="73"/>
+      <c r="G8" s="119"/>
       <c r="H8" s="6" t="s">
         <v>20</v>
       </c>
@@ -2698,27 +2850,29 @@
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="S8" s="29">
+      <c r="S8" s="129">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="57">
+      <c r="T8" s="135"/>
+      <c r="U8" s="135"/>
+    </row>
+    <row r="9" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="67">
         <v>1</v>
       </c>
-      <c r="B9" s="59" t="s">
+      <c r="B9" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="60"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="65" t="s">
+      <c r="C9" s="62"/>
+      <c r="D9" s="63"/>
+      <c r="E9" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="F9" s="65" t="s">
+      <c r="F9" s="59" t="s">
         <v>24</v>
       </c>
-      <c r="G9" s="67"/>
+      <c r="G9" s="70"/>
       <c r="H9" s="23" t="str">
         <f>IF(E9="","","予定")</f>
         <v>予定</v>
@@ -2734,15 +2888,17 @@
       <c r="Q9" s="31"/>
       <c r="R9" s="31"/>
       <c r="S9" s="31"/>
-    </row>
-    <row r="10" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="58"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="64"/>
-      <c r="E10" s="66"/>
-      <c r="F10" s="66"/>
-      <c r="G10" s="68"/>
+      <c r="T9" s="133"/>
+      <c r="U9" s="133"/>
+    </row>
+    <row r="10" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="68"/>
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="60"/>
+      <c r="F10" s="60"/>
+      <c r="G10" s="71"/>
       <c r="H10" s="24" t="str">
         <f>IF(E9="","","実績")</f>
         <v>実績</v>
@@ -2758,23 +2914,25 @@
       <c r="Q10" s="32"/>
       <c r="R10" s="32"/>
       <c r="S10" s="32"/>
-    </row>
-    <row r="11" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="57"/>
+      <c r="T10" s="132"/>
+      <c r="U10" s="132"/>
+    </row>
+    <row r="11" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="67"/>
       <c r="B11" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C11" s="59" t="s">
+      <c r="C11" s="61" t="s">
         <v>26</v>
       </c>
-      <c r="D11" s="61"/>
-      <c r="E11" s="70" t="s">
+      <c r="D11" s="63"/>
+      <c r="E11" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F11" s="70" t="s">
+      <c r="F11" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="G11" s="55"/>
+      <c r="G11" s="57"/>
       <c r="H11" s="8" t="str">
         <f>IF(E11="","","予定")</f>
         <v>予定</v>
@@ -2799,15 +2957,17 @@
       <c r="Q11" s="31"/>
       <c r="R11" s="31"/>
       <c r="S11" s="31"/>
-    </row>
-    <row r="12" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A12" s="58"/>
-      <c r="B12" s="56"/>
-      <c r="C12" s="62"/>
-      <c r="D12" s="64"/>
-      <c r="E12" s="71"/>
-      <c r="F12" s="71"/>
-      <c r="G12" s="56"/>
+      <c r="T11" s="133"/>
+      <c r="U11" s="133"/>
+    </row>
+    <row r="12" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A12" s="68"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="66"/>
+      <c r="E12" s="56"/>
+      <c r="F12" s="56"/>
+      <c r="G12" s="58"/>
       <c r="H12" s="52" t="str">
         <f>IF(E11="","","実績")</f>
         <v>実績</v>
@@ -2832,23 +2992,25 @@
       <c r="Q12" s="32"/>
       <c r="R12" s="32"/>
       <c r="S12" s="32"/>
-    </row>
-    <row r="13" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A13" s="57"/>
+      <c r="T12" s="132"/>
+      <c r="U12" s="132"/>
+    </row>
+    <row r="13" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A13" s="67"/>
       <c r="B13" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C13" s="59" t="s">
+      <c r="C13" s="61" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="70" t="s">
+      <c r="D13" s="63"/>
+      <c r="E13" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F13" s="70" t="s">
+      <c r="F13" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="G13" s="55"/>
+      <c r="G13" s="57"/>
       <c r="H13" s="8" t="str">
         <f>IF(E13="","","予定")</f>
         <v>予定</v>
@@ -2872,15 +3034,17 @@
       <c r="Q13" s="31"/>
       <c r="R13" s="31"/>
       <c r="S13" s="31"/>
-    </row>
-    <row r="14" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A14" s="58"/>
-      <c r="B14" s="56"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="64"/>
-      <c r="E14" s="71"/>
-      <c r="F14" s="71"/>
-      <c r="G14" s="56"/>
+      <c r="T13" s="133"/>
+      <c r="U13" s="133"/>
+    </row>
+    <row r="14" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A14" s="68"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="66"/>
+      <c r="E14" s="56"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="58"/>
       <c r="H14" s="52" t="str">
         <f>IF(E13="","","実績")</f>
         <v>実績</v>
@@ -2905,21 +3069,23 @@
       <c r="Q14" s="32"/>
       <c r="R14" s="32"/>
       <c r="S14" s="32"/>
-    </row>
-    <row r="15" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A15" s="57">
+      <c r="T14" s="132"/>
+      <c r="U14" s="132"/>
+    </row>
+    <row r="15" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A15" s="67">
         <v>2</v>
       </c>
-      <c r="B15" s="59" t="s">
+      <c r="B15" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="60"/>
-      <c r="D15" s="61"/>
-      <c r="E15" s="65" t="s">
+      <c r="C15" s="62"/>
+      <c r="D15" s="63"/>
+      <c r="E15" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="F15" s="65"/>
-      <c r="G15" s="67"/>
+      <c r="F15" s="59"/>
+      <c r="G15" s="70"/>
       <c r="H15" s="23" t="str">
         <f>IF(E15="","","予定")</f>
         <v>予定</v>
@@ -2935,15 +3101,17 @@
       <c r="Q15" s="31"/>
       <c r="R15" s="31"/>
       <c r="S15" s="31"/>
-    </row>
-    <row r="16" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A16" s="58"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="64"/>
-      <c r="E16" s="66"/>
-      <c r="F16" s="66"/>
-      <c r="G16" s="68"/>
+      <c r="T15" s="133"/>
+      <c r="U15" s="133"/>
+    </row>
+    <row r="16" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A16" s="68"/>
+      <c r="B16" s="64"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="66"/>
+      <c r="E16" s="60"/>
+      <c r="F16" s="60"/>
+      <c r="G16" s="71"/>
       <c r="H16" s="24" t="str">
         <f>IF(E15="","","実績")</f>
         <v>実績</v>
@@ -2959,23 +3127,25 @@
       <c r="Q16" s="32"/>
       <c r="R16" s="32"/>
       <c r="S16" s="32"/>
-    </row>
-    <row r="17" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="57"/>
+      <c r="T16" s="132"/>
+      <c r="U16" s="132"/>
+    </row>
+    <row r="17" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A17" s="67"/>
       <c r="B17" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C17" s="59" t="s">
+      <c r="C17" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D17" s="61"/>
-      <c r="E17" s="70" t="s">
+      <c r="D17" s="63"/>
+      <c r="E17" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="F17" s="70" t="s">
+      <c r="F17" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="G17" s="55"/>
+      <c r="G17" s="57"/>
       <c r="H17" s="8" t="str">
         <f>IF(E17="","","予定")</f>
         <v>予定</v>
@@ -2999,15 +3169,17 @@
       <c r="Q17" s="31"/>
       <c r="R17" s="31"/>
       <c r="S17" s="31"/>
-    </row>
-    <row r="18" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A18" s="58"/>
-      <c r="B18" s="56"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="64"/>
-      <c r="E18" s="71"/>
-      <c r="F18" s="71"/>
-      <c r="G18" s="56"/>
+      <c r="T17" s="133"/>
+      <c r="U17" s="133"/>
+    </row>
+    <row r="18" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="68"/>
+      <c r="B18" s="58"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="66"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="56"/>
+      <c r="G18" s="58"/>
       <c r="H18" s="52" t="str">
         <f>IF(E17="","","実績")</f>
         <v>実績</v>
@@ -3032,23 +3204,25 @@
       <c r="Q18" s="32"/>
       <c r="R18" s="32"/>
       <c r="S18" s="32"/>
-    </row>
-    <row r="19" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A19" s="57"/>
+      <c r="T18" s="132"/>
+      <c r="U18" s="132"/>
+    </row>
+    <row r="19" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A19" s="67"/>
       <c r="B19" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="61" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="61"/>
-      <c r="E19" s="70" t="s">
+      <c r="D19" s="63"/>
+      <c r="E19" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="70" t="s">
+      <c r="F19" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="55"/>
+      <c r="G19" s="57"/>
       <c r="H19" s="8" t="str">
         <f>IF(E19="","","予定")</f>
         <v>予定</v>
@@ -3072,15 +3246,17 @@
       <c r="Q19" s="31"/>
       <c r="R19" s="31"/>
       <c r="S19" s="31"/>
-    </row>
-    <row r="20" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A20" s="58"/>
-      <c r="B20" s="56"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="64"/>
-      <c r="E20" s="71"/>
-      <c r="F20" s="71"/>
-      <c r="G20" s="56"/>
+      <c r="T19" s="133"/>
+      <c r="U19" s="133"/>
+    </row>
+    <row r="20" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A20" s="68"/>
+      <c r="B20" s="58"/>
+      <c r="C20" s="64"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="56"/>
+      <c r="F20" s="56"/>
+      <c r="G20" s="58"/>
       <c r="H20" s="52" t="str">
         <f>IF(E19="","","実績")</f>
         <v>実績</v>
@@ -3105,23 +3281,25 @@
       <c r="Q20" s="32"/>
       <c r="R20" s="32"/>
       <c r="S20" s="32"/>
-    </row>
-    <row r="21" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A21" s="57"/>
+      <c r="T20" s="132"/>
+      <c r="U20" s="132"/>
+    </row>
+    <row r="21" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A21" s="67"/>
       <c r="B21" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="59" t="s">
+      <c r="C21" s="61" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="61"/>
-      <c r="E21" s="70" t="s">
+      <c r="D21" s="63"/>
+      <c r="E21" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F21" s="70" t="s">
+      <c r="F21" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="G21" s="55"/>
+      <c r="G21" s="57"/>
       <c r="H21" s="8" t="str">
         <f>IF(E21="","","予定")</f>
         <v>予定</v>
@@ -3145,15 +3323,17 @@
       <c r="Q21" s="31"/>
       <c r="R21" s="31"/>
       <c r="S21" s="31"/>
-    </row>
-    <row r="22" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A22" s="58"/>
-      <c r="B22" s="56"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="64"/>
-      <c r="E22" s="71"/>
-      <c r="F22" s="71"/>
-      <c r="G22" s="56"/>
+      <c r="T21" s="133"/>
+      <c r="U21" s="133"/>
+    </row>
+    <row r="22" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A22" s="68"/>
+      <c r="B22" s="58"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="56"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="58"/>
       <c r="H22" s="52" t="str">
         <f>IF(E21="","","実績")</f>
         <v>実績</v>
@@ -3178,17 +3358,19 @@
       <c r="Q22" s="32"/>
       <c r="R22" s="32"/>
       <c r="S22" s="32"/>
-    </row>
-    <row r="23" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A23" s="72" t="s">
+      <c r="T22" s="132"/>
+      <c r="U22" s="132"/>
+    </row>
+    <row r="23" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A23" s="74" t="s">
         <v>35</v>
       </c>
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="74"/>
-      <c r="E23" s="78"/>
-      <c r="F23" s="78"/>
-      <c r="G23" s="80"/>
+      <c r="B23" s="75"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="76"/>
+      <c r="E23" s="72"/>
+      <c r="F23" s="72"/>
+      <c r="G23" s="121"/>
       <c r="H23" s="20" t="s">
         <v>19</v>
       </c>
@@ -3230,15 +3412,17 @@
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A24" s="75"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="76"/>
-      <c r="D24" s="77"/>
-      <c r="E24" s="79"/>
-      <c r="F24" s="79"/>
-      <c r="G24" s="81"/>
+      <c r="T23" s="134"/>
+      <c r="U23" s="134"/>
+    </row>
+    <row r="24" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A24" s="77"/>
+      <c r="B24" s="78"/>
+      <c r="C24" s="78"/>
+      <c r="D24" s="79"/>
+      <c r="E24" s="73"/>
+      <c r="F24" s="73"/>
+      <c r="G24" s="122"/>
       <c r="H24" s="7" t="s">
         <v>20</v>
       </c>
@@ -3280,21 +3464,23 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A25" s="57">
+      <c r="T24" s="135"/>
+      <c r="U24" s="135"/>
+    </row>
+    <row r="25" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A25" s="67">
         <v>1</v>
       </c>
-      <c r="B25" s="59" t="s">
+      <c r="B25" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C25" s="60"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="65" t="s">
+      <c r="C25" s="62"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="F25" s="65"/>
-      <c r="G25" s="67"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="70"/>
       <c r="H25" s="23" t="str">
         <f>IF(E25="","","予定")</f>
         <v>予定</v>
@@ -3310,15 +3496,17 @@
       <c r="Q25" s="31"/>
       <c r="R25" s="31"/>
       <c r="S25" s="31"/>
-    </row>
-    <row r="26" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A26" s="58"/>
-      <c r="B26" s="62"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="64"/>
-      <c r="E26" s="66"/>
-      <c r="F26" s="66"/>
-      <c r="G26" s="68"/>
+      <c r="T25" s="133"/>
+      <c r="U25" s="133"/>
+    </row>
+    <row r="26" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A26" s="68"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="66"/>
+      <c r="E26" s="60"/>
+      <c r="F26" s="60"/>
+      <c r="G26" s="71"/>
       <c r="H26" s="24" t="str">
         <f>IF(E25="","","実績")</f>
         <v>実績</v>
@@ -3334,23 +3522,25 @@
       <c r="Q26" s="32"/>
       <c r="R26" s="32"/>
       <c r="S26" s="32"/>
-    </row>
-    <row r="27" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A27" s="57"/>
+      <c r="T26" s="132"/>
+      <c r="U26" s="132"/>
+    </row>
+    <row r="27" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A27" s="67"/>
       <c r="B27" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="59" t="s">
+      <c r="C27" s="61" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="61"/>
-      <c r="E27" s="70" t="s">
+      <c r="D27" s="63"/>
+      <c r="E27" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F27" s="70" t="s">
+      <c r="F27" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="55"/>
+      <c r="G27" s="57"/>
       <c r="H27" s="8" t="str">
         <f>IF(E27="","","予定")</f>
         <v>予定</v>
@@ -3375,15 +3565,17 @@
       <c r="Q27" s="31"/>
       <c r="R27" s="31"/>
       <c r="S27" s="31"/>
-    </row>
-    <row r="28" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A28" s="58"/>
-      <c r="B28" s="56"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="64"/>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="56"/>
+      <c r="T27" s="133"/>
+      <c r="U27" s="133"/>
+    </row>
+    <row r="28" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A28" s="68"/>
+      <c r="B28" s="58"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="66"/>
+      <c r="E28" s="56"/>
+      <c r="F28" s="56"/>
+      <c r="G28" s="58"/>
       <c r="H28" s="52" t="str">
         <f>IF(E27="","","実績")</f>
         <v>実績</v>
@@ -3408,23 +3600,25 @@
       <c r="Q28" s="32"/>
       <c r="R28" s="32"/>
       <c r="S28" s="32"/>
-    </row>
-    <row r="29" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A29" s="57"/>
+      <c r="T28" s="132"/>
+      <c r="U28" s="132"/>
+    </row>
+    <row r="29" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A29" s="67"/>
       <c r="B29" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="61" t="s">
         <v>38</v>
       </c>
-      <c r="D29" s="61"/>
-      <c r="E29" s="70" t="s">
+      <c r="D29" s="63"/>
+      <c r="E29" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F29" s="70" t="s">
+      <c r="F29" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="G29" s="55"/>
+      <c r="G29" s="57"/>
       <c r="H29" s="8" t="str">
         <f>IF(E29="","","予定")</f>
         <v>予定</v>
@@ -3449,15 +3643,17 @@
       <c r="Q29" s="31"/>
       <c r="R29" s="31"/>
       <c r="S29" s="31"/>
-    </row>
-    <row r="30" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A30" s="58"/>
-      <c r="B30" s="56"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="64"/>
-      <c r="E30" s="71"/>
-      <c r="F30" s="71"/>
-      <c r="G30" s="56"/>
+      <c r="T29" s="133"/>
+      <c r="U29" s="133"/>
+    </row>
+    <row r="30" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A30" s="68"/>
+      <c r="B30" s="58"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="66"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="58"/>
       <c r="H30" s="52" t="str">
         <f>IF(E29="","","実績")</f>
         <v>実績</v>
@@ -3482,21 +3678,23 @@
       <c r="Q30" s="32"/>
       <c r="R30" s="32"/>
       <c r="S30" s="32"/>
-    </row>
-    <row r="31" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A31" s="57"/>
+      <c r="T30" s="132"/>
+      <c r="U30" s="132"/>
+    </row>
+    <row r="31" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A31" s="67"/>
       <c r="B31" s="69" t="s">
         <v>39</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="61" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="61"/>
-      <c r="E31" s="70" t="s">
+      <c r="D31" s="63"/>
+      <c r="E31" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F31" s="70"/>
-      <c r="G31" s="55"/>
+      <c r="F31" s="55"/>
+      <c r="G31" s="57"/>
       <c r="H31" s="8" t="str">
         <f>IF(E31="","","予定")</f>
         <v>予定</v>
@@ -3521,15 +3719,17 @@
       <c r="Q31" s="31"/>
       <c r="R31" s="31"/>
       <c r="S31" s="31"/>
-    </row>
-    <row r="32" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A32" s="58"/>
-      <c r="B32" s="56"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="64"/>
-      <c r="E32" s="71"/>
-      <c r="F32" s="71"/>
-      <c r="G32" s="56"/>
+      <c r="T31" s="133"/>
+      <c r="U31" s="133"/>
+    </row>
+    <row r="32" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A32" s="68"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="66"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="58"/>
       <c r="H32" s="52" t="str">
         <f>IF(E31="","","実績")</f>
         <v>実績</v>
@@ -3554,21 +3754,23 @@
       <c r="Q32" s="32"/>
       <c r="R32" s="32"/>
       <c r="S32" s="32"/>
-    </row>
-    <row r="33" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A33" s="57">
+      <c r="T32" s="132"/>
+      <c r="U32" s="132"/>
+    </row>
+    <row r="33" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A33" s="67">
         <v>2</v>
       </c>
-      <c r="B33" s="59" t="s">
+      <c r="B33" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C33" s="60"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="65" t="s">
+      <c r="C33" s="62"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="F33" s="65"/>
-      <c r="G33" s="67"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="70"/>
       <c r="H33" s="23" t="str">
         <f>IF(E33="","","予定")</f>
         <v>予定</v>
@@ -3584,15 +3786,17 @@
       <c r="Q33" s="31"/>
       <c r="R33" s="31"/>
       <c r="S33" s="31"/>
-    </row>
-    <row r="34" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A34" s="58"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="64"/>
-      <c r="E34" s="66"/>
-      <c r="F34" s="66"/>
-      <c r="G34" s="68"/>
+      <c r="T33" s="133"/>
+      <c r="U33" s="133"/>
+    </row>
+    <row r="34" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A34" s="68"/>
+      <c r="B34" s="64"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="66"/>
+      <c r="E34" s="60"/>
+      <c r="F34" s="60"/>
+      <c r="G34" s="71"/>
       <c r="H34" s="24" t="str">
         <f>IF(E33="","","実績")</f>
         <v>実績</v>
@@ -3608,21 +3812,23 @@
       <c r="Q34" s="32"/>
       <c r="R34" s="32"/>
       <c r="S34" s="32"/>
-    </row>
-    <row r="35" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A35" s="57"/>
+      <c r="T34" s="132"/>
+      <c r="U34" s="132"/>
+    </row>
+    <row r="35" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A35" s="67"/>
       <c r="B35" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C35" s="59" t="s">
+      <c r="C35" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="61"/>
-      <c r="E35" s="70" t="s">
+      <c r="D35" s="63"/>
+      <c r="E35" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="F35" s="70"/>
-      <c r="G35" s="55"/>
+      <c r="F35" s="55"/>
+      <c r="G35" s="57"/>
       <c r="H35" s="8" t="str">
         <f>IF(E35="","","予定")</f>
         <v>予定</v>
@@ -3647,15 +3853,17 @@
       <c r="Q35" s="31"/>
       <c r="R35" s="31"/>
       <c r="S35" s="31"/>
-    </row>
-    <row r="36" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A36" s="58"/>
-      <c r="B36" s="56"/>
-      <c r="C36" s="62"/>
-      <c r="D36" s="64"/>
-      <c r="E36" s="71"/>
-      <c r="F36" s="71"/>
-      <c r="G36" s="56"/>
+      <c r="T35" s="133"/>
+      <c r="U35" s="133"/>
+    </row>
+    <row r="36" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A36" s="68"/>
+      <c r="B36" s="58"/>
+      <c r="C36" s="64"/>
+      <c r="D36" s="66"/>
+      <c r="E36" s="56"/>
+      <c r="F36" s="56"/>
+      <c r="G36" s="58"/>
       <c r="H36" s="52" t="str">
         <f>IF(E35="","","実績")</f>
         <v>実績</v>
@@ -3680,21 +3888,23 @@
       <c r="Q36" s="32"/>
       <c r="R36" s="32"/>
       <c r="S36" s="32"/>
-    </row>
-    <row r="37" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A37" s="57"/>
+      <c r="T36" s="132"/>
+      <c r="U36" s="132"/>
+    </row>
+    <row r="37" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A37" s="67"/>
       <c r="B37" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D37" s="61"/>
-      <c r="E37" s="70" t="s">
+      <c r="D37" s="63"/>
+      <c r="E37" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F37" s="70"/>
-      <c r="G37" s="55"/>
+      <c r="F37" s="55"/>
+      <c r="G37" s="57"/>
       <c r="H37" s="8" t="str">
         <f>IF(E37="","","予定")</f>
         <v>予定</v>
@@ -3719,15 +3929,17 @@
       <c r="Q37" s="31"/>
       <c r="R37" s="31"/>
       <c r="S37" s="31"/>
-    </row>
-    <row r="38" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A38" s="58"/>
-      <c r="B38" s="56"/>
-      <c r="C38" s="62"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="71"/>
-      <c r="F38" s="71"/>
-      <c r="G38" s="56"/>
+      <c r="T37" s="133"/>
+      <c r="U37" s="133"/>
+    </row>
+    <row r="38" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A38" s="68"/>
+      <c r="B38" s="58"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="66"/>
+      <c r="E38" s="56"/>
+      <c r="F38" s="56"/>
+      <c r="G38" s="58"/>
       <c r="H38" s="52" t="str">
         <f>IF(E37="","","実績")</f>
         <v>実績</v>
@@ -3752,21 +3964,23 @@
       <c r="Q38" s="32"/>
       <c r="R38" s="32"/>
       <c r="S38" s="32"/>
-    </row>
-    <row r="39" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A39" s="57"/>
+      <c r="T38" s="132"/>
+      <c r="U38" s="132"/>
+    </row>
+    <row r="39" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="67"/>
       <c r="B39" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C39" s="59" t="s">
+      <c r="C39" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="D39" s="61"/>
-      <c r="E39" s="70" t="s">
+      <c r="D39" s="63"/>
+      <c r="E39" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F39" s="70"/>
-      <c r="G39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="57"/>
       <c r="H39" s="8" t="str">
         <f>IF(E39="","","予定")</f>
         <v>予定</v>
@@ -3791,15 +4005,17 @@
       <c r="Q39" s="31"/>
       <c r="R39" s="31"/>
       <c r="S39" s="31"/>
-    </row>
-    <row r="40" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A40" s="58"/>
-      <c r="B40" s="56"/>
-      <c r="C40" s="62"/>
-      <c r="D40" s="64"/>
-      <c r="E40" s="71"/>
-      <c r="F40" s="71"/>
-      <c r="G40" s="56"/>
+      <c r="T39" s="133"/>
+      <c r="U39" s="133"/>
+    </row>
+    <row r="40" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A40" s="68"/>
+      <c r="B40" s="58"/>
+      <c r="C40" s="64"/>
+      <c r="D40" s="66"/>
+      <c r="E40" s="56"/>
+      <c r="F40" s="56"/>
+      <c r="G40" s="58"/>
       <c r="H40" s="52" t="str">
         <f>IF(E39="","","実績")</f>
         <v>実績</v>
@@ -3823,17 +4039,19 @@
       <c r="Q40" s="32"/>
       <c r="R40" s="32"/>
       <c r="S40" s="32"/>
-    </row>
-    <row r="41" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A41" s="72" t="s">
+      <c r="T40" s="132"/>
+      <c r="U40" s="132"/>
+    </row>
+    <row r="41" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A41" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="B41" s="73"/>
-      <c r="C41" s="73"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="78"/>
-      <c r="F41" s="78"/>
-      <c r="G41" s="80"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="75"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="72"/>
+      <c r="F41" s="72"/>
+      <c r="G41" s="121"/>
       <c r="H41" s="20" t="s">
         <v>19</v>
       </c>
@@ -3875,15 +4093,17 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A42" s="75"/>
-      <c r="B42" s="76"/>
-      <c r="C42" s="76"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="79"/>
-      <c r="F42" s="79"/>
-      <c r="G42" s="81"/>
+      <c r="T41" s="134"/>
+      <c r="U41" s="134"/>
+    </row>
+    <row r="42" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A42" s="77"/>
+      <c r="B42" s="78"/>
+      <c r="C42" s="78"/>
+      <c r="D42" s="79"/>
+      <c r="E42" s="73"/>
+      <c r="F42" s="73"/>
+      <c r="G42" s="122"/>
       <c r="H42" s="7" t="s">
         <v>20</v>
       </c>
@@ -3925,21 +4145,23 @@
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A43" s="57">
+      <c r="T42" s="135"/>
+      <c r="U42" s="135"/>
+    </row>
+    <row r="43" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A43" s="67">
         <v>1</v>
       </c>
-      <c r="B43" s="59" t="s">
+      <c r="B43" s="61" t="s">
         <v>22</v>
       </c>
-      <c r="C43" s="60"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="65" t="s">
+      <c r="C43" s="62"/>
+      <c r="D43" s="63"/>
+      <c r="E43" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="F43" s="65"/>
-      <c r="G43" s="67"/>
+      <c r="F43" s="59"/>
+      <c r="G43" s="70"/>
       <c r="H43" s="23" t="str">
         <f>IF(E43="","","予定")</f>
         <v>予定</v>
@@ -3955,15 +4177,17 @@
       <c r="Q43" s="31"/>
       <c r="R43" s="31"/>
       <c r="S43" s="31"/>
-    </row>
-    <row r="44" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A44" s="58"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="64"/>
-      <c r="E44" s="66"/>
-      <c r="F44" s="66"/>
-      <c r="G44" s="68"/>
+      <c r="T43" s="133"/>
+      <c r="U43" s="133"/>
+    </row>
+    <row r="44" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A44" s="68"/>
+      <c r="B44" s="64"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="66"/>
+      <c r="E44" s="60"/>
+      <c r="F44" s="60"/>
+      <c r="G44" s="71"/>
       <c r="H44" s="24" t="str">
         <f>IF(E43="","","実績")</f>
         <v>実績</v>
@@ -3979,21 +4203,23 @@
       <c r="Q44" s="32"/>
       <c r="R44" s="32"/>
       <c r="S44" s="32"/>
-    </row>
-    <row r="45" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A45" s="57"/>
+      <c r="T44" s="132"/>
+      <c r="U44" s="132"/>
+    </row>
+    <row r="45" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A45" s="67"/>
       <c r="B45" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C45" s="59" t="s">
+      <c r="C45" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="D45" s="61"/>
-      <c r="E45" s="70" t="s">
+      <c r="D45" s="63"/>
+      <c r="E45" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="70"/>
-      <c r="G45" s="55"/>
+      <c r="F45" s="55"/>
+      <c r="G45" s="57"/>
       <c r="H45" s="8" t="str">
         <f>IF(E45="","","予定")</f>
         <v>予定</v>
@@ -4020,15 +4246,17 @@
       <c r="Q45" s="31"/>
       <c r="R45" s="31"/>
       <c r="S45" s="31"/>
-    </row>
-    <row r="46" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A46" s="58"/>
-      <c r="B46" s="56"/>
-      <c r="C46" s="62"/>
-      <c r="D46" s="64"/>
-      <c r="E46" s="71"/>
-      <c r="F46" s="71"/>
-      <c r="G46" s="56"/>
+      <c r="T45" s="133"/>
+      <c r="U45" s="133"/>
+    </row>
+    <row r="46" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A46" s="68"/>
+      <c r="B46" s="58"/>
+      <c r="C46" s="64"/>
+      <c r="D46" s="66"/>
+      <c r="E46" s="56"/>
+      <c r="F46" s="56"/>
+      <c r="G46" s="58"/>
       <c r="H46" s="52" t="str">
         <f>IF(E45="","","実績")</f>
         <v>実績</v>
@@ -4054,21 +4282,23 @@
       <c r="Q46" s="32"/>
       <c r="R46" s="32"/>
       <c r="S46" s="32"/>
-    </row>
-    <row r="47" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A47" s="57"/>
+      <c r="T46" s="132"/>
+      <c r="U46" s="132"/>
+    </row>
+    <row r="47" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A47" s="67"/>
       <c r="B47" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C47" s="59" t="s">
+      <c r="C47" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="D47" s="61"/>
-      <c r="E47" s="70" t="s">
+      <c r="D47" s="63"/>
+      <c r="E47" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F47" s="70"/>
-      <c r="G47" s="55"/>
+      <c r="F47" s="55"/>
+      <c r="G47" s="57"/>
       <c r="H47" s="8" t="str">
         <f>IF(E47="","","予定")</f>
         <v>予定</v>
@@ -4093,15 +4323,17 @@
       <c r="Q47" s="31"/>
       <c r="R47" s="31"/>
       <c r="S47" s="31"/>
-    </row>
-    <row r="48" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="58"/>
-      <c r="B48" s="56"/>
-      <c r="C48" s="62"/>
-      <c r="D48" s="64"/>
-      <c r="E48" s="71"/>
-      <c r="F48" s="71"/>
-      <c r="G48" s="56"/>
+      <c r="T47" s="133"/>
+      <c r="U47" s="133"/>
+    </row>
+    <row r="48" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="68"/>
+      <c r="B48" s="58"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="66"/>
+      <c r="E48" s="56"/>
+      <c r="F48" s="56"/>
+      <c r="G48" s="58"/>
       <c r="H48" s="52" t="str">
         <f>IF(E47="","","実績")</f>
         <v>実績</v>
@@ -4126,21 +4358,23 @@
       <c r="Q48" s="32"/>
       <c r="R48" s="32"/>
       <c r="S48" s="32"/>
-    </row>
-    <row r="49" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="57">
+      <c r="T48" s="132"/>
+      <c r="U48" s="132"/>
+    </row>
+    <row r="49" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="67">
         <v>2</v>
       </c>
-      <c r="B49" s="59" t="s">
+      <c r="B49" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C49" s="60"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="65" t="s">
+      <c r="C49" s="62"/>
+      <c r="D49" s="63"/>
+      <c r="E49" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="F49" s="65"/>
-      <c r="G49" s="67"/>
+      <c r="F49" s="59"/>
+      <c r="G49" s="70"/>
       <c r="H49" s="23" t="str">
         <f>IF(E49="","","予定")</f>
         <v>予定</v>
@@ -4156,15 +4390,17 @@
       <c r="Q49" s="31"/>
       <c r="R49" s="31"/>
       <c r="S49" s="31"/>
-    </row>
-    <row r="50" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A50" s="58"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="64"/>
-      <c r="E50" s="66"/>
-      <c r="F50" s="66"/>
-      <c r="G50" s="68"/>
+      <c r="T49" s="133"/>
+      <c r="U49" s="133"/>
+    </row>
+    <row r="50" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A50" s="68"/>
+      <c r="B50" s="64"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="66"/>
+      <c r="E50" s="60"/>
+      <c r="F50" s="60"/>
+      <c r="G50" s="71"/>
       <c r="H50" s="24" t="str">
         <f>IF(E49="","","実績")</f>
         <v>実績</v>
@@ -4180,21 +4416,23 @@
       <c r="Q50" s="32"/>
       <c r="R50" s="32"/>
       <c r="S50" s="32"/>
-    </row>
-    <row r="51" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="57"/>
+      <c r="T50" s="132"/>
+      <c r="U50" s="132"/>
+    </row>
+    <row r="51" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="67"/>
       <c r="B51" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C51" s="59" t="s">
+      <c r="C51" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D51" s="61"/>
-      <c r="E51" s="70" t="s">
+      <c r="D51" s="63"/>
+      <c r="E51" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="F51" s="70"/>
-      <c r="G51" s="55"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="57"/>
       <c r="H51" s="8" t="str">
         <f>IF(E51="","","予定")</f>
         <v>予定</v>
@@ -4219,15 +4457,17 @@
       <c r="Q51" s="31"/>
       <c r="R51" s="31"/>
       <c r="S51" s="31"/>
-    </row>
-    <row r="52" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="58"/>
-      <c r="B52" s="56"/>
-      <c r="C52" s="62"/>
-      <c r="D52" s="64"/>
-      <c r="E52" s="71"/>
-      <c r="F52" s="71"/>
-      <c r="G52" s="56"/>
+      <c r="T51" s="133"/>
+      <c r="U51" s="133"/>
+    </row>
+    <row r="52" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="68"/>
+      <c r="B52" s="58"/>
+      <c r="C52" s="64"/>
+      <c r="D52" s="66"/>
+      <c r="E52" s="56"/>
+      <c r="F52" s="56"/>
+      <c r="G52" s="58"/>
       <c r="H52" s="52" t="str">
         <f>IF(E51="","","実績")</f>
         <v>実績</v>
@@ -4251,21 +4491,23 @@
       <c r="Q52" s="32"/>
       <c r="R52" s="32"/>
       <c r="S52" s="32"/>
-    </row>
-    <row r="53" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="57"/>
+      <c r="T52" s="132"/>
+      <c r="U52" s="132"/>
+    </row>
+    <row r="53" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="67"/>
       <c r="B53" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C53" s="59" t="s">
+      <c r="C53" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D53" s="61"/>
-      <c r="E53" s="70" t="s">
+      <c r="D53" s="63"/>
+      <c r="E53" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F53" s="70"/>
-      <c r="G53" s="55"/>
+      <c r="F53" s="55"/>
+      <c r="G53" s="57"/>
       <c r="H53" s="8" t="str">
         <f>IF(E53="","","予定")</f>
         <v>予定</v>
@@ -4290,16 +4532,17 @@
       <c r="Q53" s="31"/>
       <c r="R53" s="31"/>
       <c r="S53" s="31"/>
-      <c r="T53" s="31"/>
-    </row>
-    <row r="54" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A54" s="58"/>
-      <c r="B54" s="56"/>
-      <c r="C54" s="62"/>
-      <c r="D54" s="64"/>
-      <c r="E54" s="71"/>
-      <c r="F54" s="71"/>
-      <c r="G54" s="56"/>
+      <c r="T53" s="49"/>
+      <c r="U53" s="133"/>
+    </row>
+    <row r="54" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="68"/>
+      <c r="B54" s="58"/>
+      <c r="C54" s="64"/>
+      <c r="D54" s="66"/>
+      <c r="E54" s="56"/>
+      <c r="F54" s="56"/>
+      <c r="G54" s="58"/>
       <c r="H54" s="52" t="str">
         <f>IF(E53="","","実績")</f>
         <v>実績</v>
@@ -4324,21 +4567,23 @@
       <c r="Q54" s="32"/>
       <c r="R54" s="32"/>
       <c r="S54" s="32"/>
-    </row>
-    <row r="55" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="57"/>
+      <c r="T54" s="132"/>
+      <c r="U54" s="132"/>
+    </row>
+    <row r="55" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="67"/>
       <c r="B55" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C55" s="59" t="s">
+      <c r="C55" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="D55" s="61"/>
-      <c r="E55" s="70" t="s">
+      <c r="D55" s="63"/>
+      <c r="E55" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F55" s="70"/>
-      <c r="G55" s="55"/>
+      <c r="F55" s="55"/>
+      <c r="G55" s="57"/>
       <c r="H55" s="8" t="str">
         <f>IF(E55="","","予定")</f>
         <v>予定</v>
@@ -4363,16 +4608,17 @@
       <c r="Q55" s="31"/>
       <c r="R55" s="31"/>
       <c r="S55" s="31"/>
-      <c r="T55" s="31"/>
-    </row>
-    <row r="56" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="58"/>
-      <c r="B56" s="56"/>
-      <c r="C56" s="62"/>
-      <c r="D56" s="64"/>
-      <c r="E56" s="71"/>
-      <c r="F56" s="71"/>
-      <c r="G56" s="56"/>
+      <c r="T55" s="49"/>
+      <c r="U55" s="133"/>
+    </row>
+    <row r="56" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="68"/>
+      <c r="B56" s="58"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="66"/>
+      <c r="E56" s="56"/>
+      <c r="F56" s="56"/>
+      <c r="G56" s="58"/>
       <c r="H56" s="52" t="str">
         <f>IF(E55="","","実績")</f>
         <v>実績</v>
@@ -4397,17 +4643,19 @@
       <c r="Q56" s="44"/>
       <c r="R56" s="44"/>
       <c r="S56" s="44"/>
-    </row>
-    <row r="57" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A57" s="72" t="s">
+      <c r="T56" s="132"/>
+      <c r="U56" s="132"/>
+    </row>
+    <row r="57" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="74" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="73"/>
-      <c r="C57" s="73"/>
-      <c r="D57" s="74"/>
-      <c r="E57" s="78"/>
-      <c r="F57" s="78"/>
-      <c r="G57" s="80"/>
+      <c r="B57" s="75"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="76"/>
+      <c r="E57" s="72"/>
+      <c r="F57" s="72"/>
+      <c r="G57" s="121"/>
       <c r="H57" s="20" t="s">
         <v>19</v>
       </c>
@@ -4446,15 +4694,17 @@
         <f t="shared" si="14"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A58" s="75"/>
-      <c r="B58" s="76"/>
-      <c r="C58" s="76"/>
-      <c r="D58" s="77"/>
-      <c r="E58" s="79"/>
-      <c r="F58" s="79"/>
-      <c r="G58" s="81"/>
+      <c r="T57" s="134"/>
+      <c r="U57" s="134"/>
+    </row>
+    <row r="58" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A58" s="77"/>
+      <c r="B58" s="78"/>
+      <c r="C58" s="78"/>
+      <c r="D58" s="79"/>
+      <c r="E58" s="73"/>
+      <c r="F58" s="73"/>
+      <c r="G58" s="122"/>
       <c r="H58" s="7" t="s">
         <v>20</v>
       </c>
@@ -4496,21 +4746,23 @@
         <f t="shared" si="15"/>
         <v>9.5</v>
       </c>
-    </row>
-    <row r="59" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A59" s="57">
+      <c r="T58" s="135"/>
+      <c r="U58" s="135"/>
+    </row>
+    <row r="59" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="67">
         <v>1</v>
       </c>
-      <c r="B59" s="59" t="s">
+      <c r="B59" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C59" s="60"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="65" t="s">
+      <c r="C59" s="62"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="F59" s="65"/>
-      <c r="G59" s="67"/>
+      <c r="F59" s="59"/>
+      <c r="G59" s="70"/>
       <c r="H59" s="23" t="str">
         <f>IF(E59="","","予定")</f>
         <v>予定</v>
@@ -4526,15 +4778,17 @@
       <c r="Q59" s="31"/>
       <c r="R59" s="31"/>
       <c r="S59" s="31"/>
-    </row>
-    <row r="60" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A60" s="58"/>
-      <c r="B60" s="62"/>
-      <c r="C60" s="63"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="66"/>
-      <c r="F60" s="66"/>
-      <c r="G60" s="68"/>
+      <c r="T59" s="133"/>
+      <c r="U59" s="133"/>
+    </row>
+    <row r="60" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A60" s="68"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="65"/>
+      <c r="D60" s="66"/>
+      <c r="E60" s="60"/>
+      <c r="F60" s="60"/>
+      <c r="G60" s="71"/>
       <c r="H60" s="24" t="str">
         <f>IF(E59="","","実績")</f>
         <v>実績</v>
@@ -4550,21 +4804,23 @@
       <c r="Q60" s="32"/>
       <c r="R60" s="32"/>
       <c r="S60" s="32"/>
-    </row>
-    <row r="61" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A61" s="57"/>
+      <c r="T60" s="132"/>
+      <c r="U60" s="132"/>
+    </row>
+    <row r="61" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A61" s="67"/>
       <c r="B61" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C61" s="59" t="s">
+      <c r="C61" s="61" t="s">
         <v>45</v>
       </c>
-      <c r="D61" s="61"/>
-      <c r="E61" s="70" t="s">
+      <c r="D61" s="63"/>
+      <c r="E61" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F61" s="70"/>
-      <c r="G61" s="55"/>
+      <c r="F61" s="55"/>
+      <c r="G61" s="57"/>
       <c r="H61" s="8" t="str">
         <f>IF(E61="","","予定")</f>
         <v>予定</v>
@@ -4590,15 +4846,17 @@
       <c r="Q61" s="31"/>
       <c r="R61" s="31"/>
       <c r="S61" s="31"/>
-    </row>
-    <row r="62" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A62" s="58"/>
-      <c r="B62" s="56"/>
-      <c r="C62" s="62"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="71"/>
-      <c r="F62" s="71"/>
-      <c r="G62" s="56"/>
+      <c r="T61" s="133"/>
+      <c r="U61" s="133"/>
+    </row>
+    <row r="62" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A62" s="68"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="66"/>
+      <c r="E62" s="56"/>
+      <c r="F62" s="56"/>
+      <c r="G62" s="58"/>
       <c r="H62" s="52" t="str">
         <f>IF(E61="","","実績")</f>
         <v>実績</v>
@@ -4624,21 +4882,23 @@
       <c r="Q62" s="32"/>
       <c r="R62" s="32"/>
       <c r="S62" s="32"/>
-    </row>
-    <row r="63" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A63" s="57"/>
+      <c r="T62" s="132"/>
+      <c r="U62" s="132"/>
+    </row>
+    <row r="63" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A63" s="67"/>
       <c r="B63" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C63" s="59" t="s">
+      <c r="C63" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="D63" s="61"/>
-      <c r="E63" s="70" t="s">
+      <c r="D63" s="63"/>
+      <c r="E63" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F63" s="70"/>
-      <c r="G63" s="55"/>
+      <c r="F63" s="55"/>
+      <c r="G63" s="57"/>
       <c r="H63" s="8" t="str">
         <f>IF(E63="","","予定")</f>
         <v>予定</v>
@@ -4663,15 +4923,17 @@
       <c r="Q63" s="31"/>
       <c r="R63" s="31"/>
       <c r="S63" s="31"/>
-    </row>
-    <row r="64" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A64" s="58"/>
-      <c r="B64" s="56"/>
-      <c r="C64" s="62"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="71"/>
-      <c r="F64" s="71"/>
-      <c r="G64" s="56"/>
+      <c r="T63" s="133"/>
+      <c r="U63" s="133"/>
+    </row>
+    <row r="64" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A64" s="68"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="66"/>
+      <c r="E64" s="56"/>
+      <c r="F64" s="56"/>
+      <c r="G64" s="58"/>
       <c r="H64" s="52" t="str">
         <f>IF(E63="","","実績")</f>
         <v>実績</v>
@@ -4697,21 +4959,23 @@
       <c r="Q64" s="32"/>
       <c r="R64" s="32"/>
       <c r="S64" s="32"/>
-    </row>
-    <row r="65" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A65" s="57"/>
+      <c r="T64" s="132"/>
+      <c r="U64" s="132"/>
+    </row>
+    <row r="65" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A65" s="67"/>
       <c r="B65" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C65" s="59" t="s">
+      <c r="C65" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="D65" s="61"/>
-      <c r="E65" s="70" t="s">
+      <c r="D65" s="63"/>
+      <c r="E65" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F65" s="70"/>
-      <c r="G65" s="55"/>
+      <c r="F65" s="55"/>
+      <c r="G65" s="57"/>
       <c r="H65" s="8" t="str">
         <f>IF(E65="","","予定")</f>
         <v>予定</v>
@@ -4736,15 +5000,17 @@
       <c r="Q65" s="31"/>
       <c r="R65" s="31"/>
       <c r="S65" s="31"/>
-    </row>
-    <row r="66" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A66" s="58"/>
-      <c r="B66" s="56"/>
-      <c r="C66" s="62"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="71"/>
-      <c r="F66" s="71"/>
-      <c r="G66" s="56"/>
+      <c r="T65" s="133"/>
+      <c r="U65" s="133"/>
+    </row>
+    <row r="66" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A66" s="68"/>
+      <c r="B66" s="58"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="66"/>
+      <c r="E66" s="56"/>
+      <c r="F66" s="56"/>
+      <c r="G66" s="58"/>
       <c r="H66" s="52" t="str">
         <f>IF(E65="","","実績")</f>
         <v>実績</v>
@@ -4773,21 +5039,23 @@
       </c>
       <c r="R66" s="32"/>
       <c r="S66" s="32"/>
-    </row>
-    <row r="67" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A67" s="57">
+      <c r="T66" s="132"/>
+      <c r="U66" s="132"/>
+    </row>
+    <row r="67" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A67" s="67">
         <v>2</v>
       </c>
-      <c r="B67" s="59" t="s">
+      <c r="B67" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C67" s="60"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="65" t="s">
+      <c r="C67" s="62"/>
+      <c r="D67" s="63"/>
+      <c r="E67" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="F67" s="65"/>
-      <c r="G67" s="67"/>
+      <c r="F67" s="59"/>
+      <c r="G67" s="70"/>
       <c r="H67" s="23" t="str">
         <f>IF(E67="","","予定")</f>
         <v>予定</v>
@@ -4803,15 +5071,17 @@
       <c r="Q67" s="31"/>
       <c r="R67" s="31"/>
       <c r="S67" s="31"/>
-    </row>
-    <row r="68" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A68" s="58"/>
-      <c r="B68" s="62"/>
-      <c r="C68" s="63"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="66"/>
-      <c r="F68" s="66"/>
-      <c r="G68" s="68"/>
+      <c r="T67" s="133"/>
+      <c r="U67" s="133"/>
+    </row>
+    <row r="68" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A68" s="68"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="66"/>
+      <c r="E68" s="60"/>
+      <c r="F68" s="60"/>
+      <c r="G68" s="71"/>
       <c r="H68" s="24" t="str">
         <f>IF(E67="","","実績")</f>
         <v>実績</v>
@@ -4827,21 +5097,23 @@
       <c r="Q68" s="32"/>
       <c r="R68" s="32"/>
       <c r="S68" s="32"/>
-    </row>
-    <row r="69" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A69" s="57"/>
+      <c r="T68" s="132"/>
+      <c r="U68" s="132"/>
+    </row>
+    <row r="69" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A69" s="67"/>
       <c r="B69" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C69" s="59" t="s">
+      <c r="C69" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D69" s="61"/>
-      <c r="E69" s="70" t="s">
+      <c r="D69" s="63"/>
+      <c r="E69" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="F69" s="70"/>
-      <c r="G69" s="55"/>
+      <c r="F69" s="55"/>
+      <c r="G69" s="57"/>
       <c r="H69" s="8" t="str">
         <f>IF(E69="","","予定")</f>
         <v>予定</v>
@@ -4866,15 +5138,17 @@
       <c r="Q69" s="31"/>
       <c r="R69" s="31"/>
       <c r="S69" s="31"/>
-    </row>
-    <row r="70" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A70" s="58"/>
-      <c r="B70" s="56"/>
-      <c r="C70" s="62"/>
-      <c r="D70" s="64"/>
-      <c r="E70" s="71"/>
-      <c r="F70" s="71"/>
-      <c r="G70" s="56"/>
+      <c r="T69" s="133"/>
+      <c r="U69" s="133"/>
+    </row>
+    <row r="70" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A70" s="68"/>
+      <c r="B70" s="58"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="66"/>
+      <c r="E70" s="56"/>
+      <c r="F70" s="56"/>
+      <c r="G70" s="58"/>
       <c r="H70" s="52" t="str">
         <f>IF(E69="","","実績")</f>
         <v>実績</v>
@@ -4906,21 +5180,23 @@
         <f>6*0.5</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A71" s="57"/>
+      <c r="T70" s="132"/>
+      <c r="U70" s="132"/>
+    </row>
+    <row r="71" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A71" s="67"/>
       <c r="B71" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C71" s="59" t="s">
+      <c r="C71" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="D71" s="61"/>
-      <c r="E71" s="70" t="s">
+      <c r="D71" s="63"/>
+      <c r="E71" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="F71" s="70"/>
-      <c r="G71" s="55"/>
+      <c r="F71" s="55"/>
+      <c r="G71" s="57"/>
       <c r="H71" s="8" t="str">
         <f>IF(E71="","","予定")</f>
         <v>予定</v>
@@ -4945,15 +5221,17 @@
       </c>
       <c r="R71" s="31"/>
       <c r="S71" s="31"/>
-    </row>
-    <row r="72" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A72" s="58"/>
-      <c r="B72" s="56"/>
-      <c r="C72" s="62"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="71"/>
-      <c r="F72" s="71"/>
-      <c r="G72" s="56"/>
+      <c r="T71" s="133"/>
+      <c r="U71" s="133"/>
+    </row>
+    <row r="72" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A72" s="68"/>
+      <c r="B72" s="58"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="66"/>
+      <c r="E72" s="56"/>
+      <c r="F72" s="56"/>
+      <c r="G72" s="58"/>
       <c r="H72" s="52" t="str">
         <f>IF(E71="","","実績")</f>
         <v>実績</v>
@@ -4985,21 +5263,23 @@
         <f>6*1</f>
         <v>6</v>
       </c>
-    </row>
-    <row r="73" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A73" s="57"/>
+      <c r="T72" s="132"/>
+      <c r="U72" s="132"/>
+    </row>
+    <row r="73" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A73" s="67"/>
       <c r="B73" s="69" t="s">
         <v>33</v>
       </c>
-      <c r="C73" s="59" t="s">
+      <c r="C73" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="D73" s="61"/>
-      <c r="E73" s="70" t="s">
+      <c r="D73" s="63"/>
+      <c r="E73" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="F73" s="70"/>
-      <c r="G73" s="55"/>
+      <c r="F73" s="55"/>
+      <c r="G73" s="57"/>
       <c r="H73" s="8" t="str">
         <f>IF(E73="","","予定")</f>
         <v>予定</v>
@@ -5024,15 +5304,17 @@
       </c>
       <c r="R73" s="31"/>
       <c r="S73" s="31"/>
-    </row>
-    <row r="74" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A74" s="58"/>
-      <c r="B74" s="56"/>
-      <c r="C74" s="62"/>
-      <c r="D74" s="64"/>
-      <c r="E74" s="71"/>
-      <c r="F74" s="71"/>
-      <c r="G74" s="56"/>
+      <c r="T73" s="133"/>
+      <c r="U73" s="133"/>
+    </row>
+    <row r="74" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A74" s="68"/>
+      <c r="B74" s="58"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="66"/>
+      <c r="E74" s="56"/>
+      <c r="F74" s="56"/>
+      <c r="G74" s="58"/>
       <c r="H74" s="52" t="str">
         <f>IF(E73="","","実績")</f>
         <v>実績</v>
@@ -5062,17 +5344,19 @@
       <c r="S74" s="44">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="75" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A75" s="72" t="s">
+      <c r="T74" s="132"/>
+      <c r="U74" s="132"/>
+    </row>
+    <row r="75" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A75" s="74" t="s">
         <v>51</v>
       </c>
-      <c r="B75" s="73"/>
-      <c r="C75" s="73"/>
-      <c r="D75" s="74"/>
-      <c r="E75" s="78"/>
-      <c r="F75" s="78"/>
-      <c r="G75" s="80"/>
+      <c r="B75" s="75"/>
+      <c r="C75" s="75"/>
+      <c r="D75" s="76"/>
+      <c r="E75" s="72"/>
+      <c r="F75" s="72"/>
+      <c r="G75" s="121"/>
       <c r="H75" s="20" t="s">
         <v>19</v>
       </c>
@@ -5107,15 +5391,17 @@
         <f t="shared" ref="S75" si="19">SUMPRODUCT((MOD(ROW(S$77:S$82),2)=1)*S$77:S$82)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A76" s="75"/>
-      <c r="B76" s="76"/>
-      <c r="C76" s="76"/>
-      <c r="D76" s="77"/>
-      <c r="E76" s="79"/>
-      <c r="F76" s="79"/>
-      <c r="G76" s="81"/>
+      <c r="T75" s="134"/>
+      <c r="U75" s="134"/>
+    </row>
+    <row r="76" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A76" s="77"/>
+      <c r="B76" s="78"/>
+      <c r="C76" s="78"/>
+      <c r="D76" s="79"/>
+      <c r="E76" s="73"/>
+      <c r="F76" s="73"/>
+      <c r="G76" s="122"/>
       <c r="H76" s="7" t="s">
         <v>20</v>
       </c>
@@ -5157,19 +5443,21 @@
         <f t="shared" si="20"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="77" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A77" s="57">
+      <c r="T76" s="135"/>
+      <c r="U76" s="135"/>
+    </row>
+    <row r="77" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A77" s="67">
         <v>1</v>
       </c>
-      <c r="B77" s="59" t="s">
+      <c r="B77" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C77" s="60"/>
-      <c r="D77" s="61"/>
-      <c r="E77" s="65"/>
-      <c r="F77" s="65"/>
-      <c r="G77" s="67"/>
+      <c r="C77" s="62"/>
+      <c r="D77" s="63"/>
+      <c r="E77" s="59"/>
+      <c r="F77" s="59"/>
+      <c r="G77" s="70"/>
       <c r="H77" s="23" t="str">
         <f>IF(E77="","","予定")</f>
         <v/>
@@ -5185,15 +5473,17 @@
       <c r="Q77" s="31"/>
       <c r="R77" s="31"/>
       <c r="S77" s="31"/>
-    </row>
-    <row r="78" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="58"/>
-      <c r="B78" s="62"/>
-      <c r="C78" s="63"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="66"/>
-      <c r="F78" s="66"/>
-      <c r="G78" s="68"/>
+      <c r="T77" s="133"/>
+      <c r="U77" s="133"/>
+    </row>
+    <row r="78" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A78" s="68"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="65"/>
+      <c r="D78" s="66"/>
+      <c r="E78" s="60"/>
+      <c r="F78" s="60"/>
+      <c r="G78" s="71"/>
       <c r="H78" s="24" t="str">
         <f>IF(E77="","","実績")</f>
         <v/>
@@ -5209,21 +5499,23 @@
       <c r="Q78" s="32"/>
       <c r="R78" s="32"/>
       <c r="S78" s="32"/>
-    </row>
-    <row r="79" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="57"/>
+      <c r="T78" s="132"/>
+      <c r="U78" s="132"/>
+    </row>
+    <row r="79" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A79" s="67"/>
       <c r="B79" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C79" s="59" t="s">
+      <c r="C79" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="D79" s="61"/>
-      <c r="E79" s="70" t="s">
+      <c r="D79" s="63"/>
+      <c r="E79" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F79" s="70"/>
-      <c r="G79" s="55"/>
+      <c r="F79" s="55"/>
+      <c r="G79" s="57"/>
       <c r="H79" s="8" t="str">
         <f>IF(E79="","","予定")</f>
         <v>予定</v>
@@ -5248,15 +5540,17 @@
       </c>
       <c r="R79" s="31"/>
       <c r="S79" s="31"/>
-    </row>
-    <row r="80" spans="1:20" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A80" s="58"/>
-      <c r="B80" s="56"/>
-      <c r="C80" s="62"/>
-      <c r="D80" s="64"/>
-      <c r="E80" s="71"/>
-      <c r="F80" s="71"/>
-      <c r="G80" s="56"/>
+      <c r="T79" s="133"/>
+      <c r="U79" s="133"/>
+    </row>
+    <row r="80" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A80" s="68"/>
+      <c r="B80" s="58"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="66"/>
+      <c r="E80" s="56"/>
+      <c r="F80" s="56"/>
+      <c r="G80" s="58"/>
       <c r="H80" s="52" t="str">
         <f>IF(E79="","","実績")</f>
         <v>実績</v>
@@ -5282,22 +5576,23 @@
         <f>6*1.5</f>
         <v>9</v>
       </c>
-      <c r="T80" s="32"/>
-    </row>
-    <row r="81" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A81" s="57"/>
+      <c r="T80" s="50"/>
+      <c r="U80" s="132"/>
+    </row>
+    <row r="81" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A81" s="67"/>
       <c r="B81" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C81" s="59" t="s">
+      <c r="C81" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="D81" s="61"/>
-      <c r="E81" s="70" t="s">
+      <c r="D81" s="63"/>
+      <c r="E81" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F81" s="70"/>
-      <c r="G81" s="55"/>
+      <c r="F81" s="55"/>
+      <c r="G81" s="57"/>
       <c r="H81" s="8" t="str">
         <f>IF(E81="","","予定")</f>
         <v>予定</v>
@@ -5322,15 +5617,17 @@
       </c>
       <c r="R81" s="31"/>
       <c r="S81" s="31"/>
-    </row>
-    <row r="82" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A82" s="58"/>
-      <c r="B82" s="56"/>
-      <c r="C82" s="62"/>
-      <c r="D82" s="64"/>
-      <c r="E82" s="71"/>
-      <c r="F82" s="71"/>
-      <c r="G82" s="56"/>
+      <c r="T81" s="133"/>
+      <c r="U81" s="133"/>
+    </row>
+    <row r="82" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A82" s="68"/>
+      <c r="B82" s="58"/>
+      <c r="C82" s="64"/>
+      <c r="D82" s="66"/>
+      <c r="E82" s="56"/>
+      <c r="F82" s="56"/>
+      <c r="G82" s="58"/>
       <c r="H82" s="52" t="str">
         <f>IF(E81="","","実績")</f>
         <v>実績</v>
@@ -5349,17 +5646,19 @@
       <c r="Q82" s="32"/>
       <c r="R82" s="32"/>
       <c r="S82" s="32"/>
-    </row>
-    <row r="83" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A83" s="72" t="s">
+      <c r="T82" s="132"/>
+      <c r="U82" s="132"/>
+    </row>
+    <row r="83" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A83" s="74" t="s">
         <v>54</v>
       </c>
-      <c r="B83" s="73"/>
-      <c r="C83" s="73"/>
-      <c r="D83" s="74"/>
-      <c r="E83" s="78"/>
-      <c r="F83" s="78"/>
-      <c r="G83" s="80"/>
+      <c r="B83" s="75"/>
+      <c r="C83" s="75"/>
+      <c r="D83" s="76"/>
+      <c r="E83" s="72"/>
+      <c r="F83" s="72"/>
+      <c r="G83" s="121"/>
       <c r="H83" s="20" t="s">
         <v>19</v>
       </c>
@@ -5399,15 +5698,17 @@
         <f t="shared" ref="S83" si="23">SUMPRODUCT((MOD(ROW(S$85:S$96),2)=1)*S$85:S$96)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A84" s="75"/>
-      <c r="B84" s="76"/>
-      <c r="C84" s="76"/>
-      <c r="D84" s="77"/>
-      <c r="E84" s="79"/>
-      <c r="F84" s="79"/>
-      <c r="G84" s="81"/>
+      <c r="T83" s="134"/>
+      <c r="U83" s="134"/>
+    </row>
+    <row r="84" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A84" s="77"/>
+      <c r="B84" s="78"/>
+      <c r="C84" s="78"/>
+      <c r="D84" s="79"/>
+      <c r="E84" s="73"/>
+      <c r="F84" s="73"/>
+      <c r="G84" s="122"/>
       <c r="H84" s="7" t="s">
         <v>20</v>
       </c>
@@ -5449,19 +5750,21 @@
         <f t="shared" si="24"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A85" s="57">
+      <c r="T84" s="135"/>
+      <c r="U84" s="135"/>
+    </row>
+    <row r="85" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A85" s="67">
         <v>1</v>
       </c>
-      <c r="B85" s="59" t="s">
+      <c r="B85" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C85" s="60"/>
-      <c r="D85" s="61"/>
-      <c r="E85" s="65"/>
-      <c r="F85" s="65"/>
-      <c r="G85" s="67"/>
+      <c r="C85" s="62"/>
+      <c r="D85" s="63"/>
+      <c r="E85" s="59"/>
+      <c r="F85" s="59"/>
+      <c r="G85" s="70"/>
       <c r="H85" s="23" t="str">
         <f>IF(E85="","","予定")</f>
         <v/>
@@ -5477,15 +5780,17 @@
       <c r="Q85" s="31"/>
       <c r="R85" s="31"/>
       <c r="S85" s="31"/>
-    </row>
-    <row r="86" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A86" s="58"/>
-      <c r="B86" s="62"/>
-      <c r="C86" s="63"/>
-      <c r="D86" s="64"/>
-      <c r="E86" s="66"/>
-      <c r="F86" s="66"/>
-      <c r="G86" s="68"/>
+      <c r="T85" s="133"/>
+      <c r="U85" s="133"/>
+    </row>
+    <row r="86" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A86" s="68"/>
+      <c r="B86" s="64"/>
+      <c r="C86" s="65"/>
+      <c r="D86" s="66"/>
+      <c r="E86" s="60"/>
+      <c r="F86" s="60"/>
+      <c r="G86" s="71"/>
       <c r="H86" s="24" t="str">
         <f>IF(E85="","","実績")</f>
         <v/>
@@ -5501,21 +5806,23 @@
       <c r="Q86" s="32"/>
       <c r="R86" s="32"/>
       <c r="S86" s="32"/>
-    </row>
-    <row r="87" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A87" s="57"/>
+      <c r="T86" s="132"/>
+      <c r="U86" s="132"/>
+    </row>
+    <row r="87" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A87" s="67"/>
       <c r="B87" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C87" s="59" t="s">
+      <c r="C87" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="D87" s="61"/>
-      <c r="E87" s="70" t="s">
+      <c r="D87" s="63"/>
+      <c r="E87" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F87" s="70"/>
-      <c r="G87" s="55"/>
+      <c r="F87" s="55"/>
+      <c r="G87" s="57"/>
       <c r="H87" s="8" t="str">
         <f>IF(E87="","","予定")</f>
         <v>予定</v>
@@ -5540,15 +5847,17 @@
       </c>
       <c r="R87" s="31"/>
       <c r="S87" s="31"/>
-    </row>
-    <row r="88" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="58"/>
-      <c r="B88" s="56"/>
-      <c r="C88" s="62"/>
-      <c r="D88" s="64"/>
-      <c r="E88" s="71"/>
-      <c r="F88" s="71"/>
-      <c r="G88" s="56"/>
+      <c r="T87" s="133"/>
+      <c r="U87" s="133"/>
+    </row>
+    <row r="88" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A88" s="68"/>
+      <c r="B88" s="58"/>
+      <c r="C88" s="64"/>
+      <c r="D88" s="66"/>
+      <c r="E88" s="56"/>
+      <c r="F88" s="56"/>
+      <c r="G88" s="58"/>
       <c r="H88" s="52" t="str">
         <f>IF(E87="","","実績")</f>
         <v>実績</v>
@@ -5567,21 +5876,23 @@
       <c r="Q88" s="32"/>
       <c r="R88" s="32"/>
       <c r="S88" s="32"/>
-    </row>
-    <row r="89" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="57"/>
+      <c r="T88" s="132"/>
+      <c r="U88" s="132"/>
+    </row>
+    <row r="89" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A89" s="67"/>
       <c r="B89" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C89" s="122" t="s">
+      <c r="C89" s="80" t="s">
         <v>57</v>
       </c>
-      <c r="D89" s="61"/>
-      <c r="E89" s="70" t="s">
+      <c r="D89" s="63"/>
+      <c r="E89" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F89" s="70"/>
-      <c r="G89" s="55"/>
+      <c r="F89" s="55"/>
+      <c r="G89" s="57"/>
       <c r="H89" s="8" t="str">
         <f>IF(E89="","","予定")</f>
         <v>予定</v>
@@ -5606,15 +5917,17 @@
       </c>
       <c r="R89" s="31"/>
       <c r="S89" s="31"/>
-    </row>
-    <row r="90" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="58"/>
-      <c r="B90" s="56"/>
-      <c r="C90" s="62"/>
-      <c r="D90" s="64"/>
-      <c r="E90" s="71"/>
-      <c r="F90" s="71"/>
-      <c r="G90" s="56"/>
+      <c r="T89" s="133"/>
+      <c r="U89" s="133"/>
+    </row>
+    <row r="90" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A90" s="68"/>
+      <c r="B90" s="58"/>
+      <c r="C90" s="64"/>
+      <c r="D90" s="66"/>
+      <c r="E90" s="56"/>
+      <c r="F90" s="56"/>
+      <c r="G90" s="58"/>
       <c r="H90" s="52" t="str">
         <f>IF(E89="","","実績")</f>
         <v>実績</v>
@@ -5633,19 +5946,21 @@
       <c r="Q90" s="32"/>
       <c r="R90" s="32"/>
       <c r="S90" s="32"/>
-    </row>
-    <row r="91" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="57">
+      <c r="T90" s="132"/>
+      <c r="U90" s="132"/>
+    </row>
+    <row r="91" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A91" s="67">
         <v>2</v>
       </c>
-      <c r="B91" s="59" t="s">
+      <c r="B91" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C91" s="60"/>
-      <c r="D91" s="61"/>
-      <c r="E91" s="65"/>
-      <c r="F91" s="65"/>
-      <c r="G91" s="67"/>
+      <c r="C91" s="62"/>
+      <c r="D91" s="63"/>
+      <c r="E91" s="59"/>
+      <c r="F91" s="59"/>
+      <c r="G91" s="70"/>
       <c r="H91" s="23" t="str">
         <f>IF(E91="","","予定")</f>
         <v/>
@@ -5663,15 +5978,17 @@
       </c>
       <c r="R91" s="31"/>
       <c r="S91" s="31"/>
-    </row>
-    <row r="92" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="58"/>
-      <c r="B92" s="62"/>
-      <c r="C92" s="63"/>
-      <c r="D92" s="64"/>
-      <c r="E92" s="66"/>
-      <c r="F92" s="66"/>
-      <c r="G92" s="68"/>
+      <c r="T91" s="133"/>
+      <c r="U91" s="133"/>
+    </row>
+    <row r="92" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A92" s="68"/>
+      <c r="B92" s="64"/>
+      <c r="C92" s="65"/>
+      <c r="D92" s="66"/>
+      <c r="E92" s="60"/>
+      <c r="F92" s="60"/>
+      <c r="G92" s="71"/>
       <c r="H92" s="24" t="str">
         <f>IF(E91="","","実績")</f>
         <v/>
@@ -5687,21 +6004,23 @@
       <c r="Q92" s="32"/>
       <c r="R92" s="32"/>
       <c r="S92" s="32"/>
-    </row>
-    <row r="93" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="57"/>
+      <c r="T92" s="132"/>
+      <c r="U92" s="132"/>
+    </row>
+    <row r="93" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A93" s="67"/>
       <c r="B93" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C93" s="59" t="s">
+      <c r="C93" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D93" s="61"/>
-      <c r="E93" s="70" t="s">
+      <c r="D93" s="63"/>
+      <c r="E93" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="F93" s="70"/>
-      <c r="G93" s="55"/>
+      <c r="F93" s="55"/>
+      <c r="G93" s="57"/>
       <c r="H93" s="8" t="str">
         <f>IF(E93="","","予定")</f>
         <v>予定</v>
@@ -5726,15 +6045,17 @@
         <v>2.5</v>
       </c>
       <c r="S93" s="31"/>
-    </row>
-    <row r="94" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A94" s="58"/>
-      <c r="B94" s="56"/>
-      <c r="C94" s="62"/>
-      <c r="D94" s="64"/>
-      <c r="E94" s="71"/>
-      <c r="F94" s="71"/>
-      <c r="G94" s="56"/>
+      <c r="T93" s="133"/>
+      <c r="U93" s="133"/>
+    </row>
+    <row r="94" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A94" s="68"/>
+      <c r="B94" s="58"/>
+      <c r="C94" s="64"/>
+      <c r="D94" s="66"/>
+      <c r="E94" s="56"/>
+      <c r="F94" s="56"/>
+      <c r="G94" s="58"/>
       <c r="H94" s="52" t="str">
         <f>IF(E93="","","実績")</f>
         <v>実績</v>
@@ -5753,21 +6074,23 @@
       <c r="Q94" s="32"/>
       <c r="R94" s="32"/>
       <c r="S94" s="32"/>
-    </row>
-    <row r="95" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A95" s="57"/>
+      <c r="T94" s="132"/>
+      <c r="U94" s="132"/>
+    </row>
+    <row r="95" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A95" s="67"/>
       <c r="B95" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C95" s="59" t="s">
+      <c r="C95" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="D95" s="61"/>
-      <c r="E95" s="70" t="s">
+      <c r="D95" s="63"/>
+      <c r="E95" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="F95" s="70"/>
-      <c r="G95" s="55"/>
+      <c r="F95" s="55"/>
+      <c r="G95" s="57"/>
       <c r="H95" s="8" t="str">
         <f>IF(E95="","","予定")</f>
         <v>予定</v>
@@ -5792,15 +6115,17 @@
         <v>0.5</v>
       </c>
       <c r="S95" s="31"/>
-    </row>
-    <row r="96" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A96" s="58"/>
-      <c r="B96" s="56"/>
-      <c r="C96" s="62"/>
-      <c r="D96" s="64"/>
-      <c r="E96" s="71"/>
-      <c r="F96" s="71"/>
-      <c r="G96" s="56"/>
+      <c r="T95" s="133"/>
+      <c r="U95" s="133"/>
+    </row>
+    <row r="96" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A96" s="68"/>
+      <c r="B96" s="58"/>
+      <c r="C96" s="64"/>
+      <c r="D96" s="66"/>
+      <c r="E96" s="56"/>
+      <c r="F96" s="56"/>
+      <c r="G96" s="58"/>
       <c r="H96" s="52" t="str">
         <f>IF(E95="","","実績")</f>
         <v>実績</v>
@@ -5819,17 +6144,19 @@
       <c r="Q96" s="44"/>
       <c r="R96" s="44"/>
       <c r="S96" s="44"/>
-    </row>
-    <row r="97" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A97" s="72" t="s">
+      <c r="T96" s="132"/>
+      <c r="U96" s="132"/>
+    </row>
+    <row r="97" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A97" s="74" t="s">
         <v>59</v>
       </c>
-      <c r="B97" s="73"/>
-      <c r="C97" s="73"/>
-      <c r="D97" s="74"/>
-      <c r="E97" s="78"/>
-      <c r="F97" s="78"/>
-      <c r="G97" s="80"/>
+      <c r="B97" s="75"/>
+      <c r="C97" s="75"/>
+      <c r="D97" s="76"/>
+      <c r="E97" s="72"/>
+      <c r="F97" s="72"/>
+      <c r="G97" s="121"/>
       <c r="H97" s="20" t="s">
         <v>19</v>
       </c>
@@ -5870,15 +6197,17 @@
         <f>SUMPRODUCT((MOD(ROW(S$99:S$110),2)=1)*S$99:S$110)</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A98" s="75"/>
-      <c r="B98" s="76"/>
-      <c r="C98" s="76"/>
-      <c r="D98" s="77"/>
-      <c r="E98" s="79"/>
-      <c r="F98" s="79"/>
-      <c r="G98" s="81"/>
+      <c r="T97" s="134"/>
+      <c r="U97" s="134"/>
+    </row>
+    <row r="98" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A98" s="77"/>
+      <c r="B98" s="78"/>
+      <c r="C98" s="78"/>
+      <c r="D98" s="79"/>
+      <c r="E98" s="73"/>
+      <c r="F98" s="73"/>
+      <c r="G98" s="122"/>
       <c r="H98" s="7" t="s">
         <v>20</v>
       </c>
@@ -5920,21 +6249,23 @@
         <f t="shared" si="27"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A99" s="57">
+      <c r="T98" s="135"/>
+      <c r="U98" s="135"/>
+    </row>
+    <row r="99" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A99" s="67">
         <v>1</v>
       </c>
-      <c r="B99" s="59" t="s">
+      <c r="B99" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="C99" s="60"/>
-      <c r="D99" s="61"/>
-      <c r="E99" s="65" t="s">
+      <c r="C99" s="62"/>
+      <c r="D99" s="63"/>
+      <c r="E99" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="F99" s="65"/>
-      <c r="G99" s="67"/>
+      <c r="F99" s="59"/>
+      <c r="G99" s="70"/>
       <c r="H99" s="23" t="str">
         <f>IF(E99="","","予定")</f>
         <v>予定</v>
@@ -5950,15 +6281,17 @@
       <c r="Q99" s="31"/>
       <c r="R99" s="31"/>
       <c r="S99" s="31"/>
-    </row>
-    <row r="100" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A100" s="58"/>
-      <c r="B100" s="62"/>
-      <c r="C100" s="63"/>
-      <c r="D100" s="64"/>
-      <c r="E100" s="66"/>
-      <c r="F100" s="66"/>
-      <c r="G100" s="68"/>
+      <c r="T99" s="133"/>
+      <c r="U99" s="133"/>
+    </row>
+    <row r="100" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A100" s="68"/>
+      <c r="B100" s="64"/>
+      <c r="C100" s="65"/>
+      <c r="D100" s="66"/>
+      <c r="E100" s="60"/>
+      <c r="F100" s="60"/>
+      <c r="G100" s="71"/>
       <c r="H100" s="24" t="str">
         <f>IF(E99="","","実績")</f>
         <v>実績</v>
@@ -5974,21 +6307,23 @@
       <c r="Q100" s="32"/>
       <c r="R100" s="32"/>
       <c r="S100" s="32"/>
-    </row>
-    <row r="101" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A101" s="57"/>
+      <c r="T100" s="132"/>
+      <c r="U100" s="132"/>
+    </row>
+    <row r="101" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A101" s="67"/>
       <c r="B101" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C101" s="59" t="s">
+      <c r="C101" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="D101" s="61"/>
-      <c r="E101" s="70" t="s">
+      <c r="D101" s="63"/>
+      <c r="E101" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F101" s="70"/>
-      <c r="G101" s="55"/>
+      <c r="F101" s="55"/>
+      <c r="G101" s="57"/>
       <c r="H101" s="8" t="str">
         <f>IF(E101="","","予定")</f>
         <v>予定</v>
@@ -6012,15 +6347,17 @@
         <v>6</v>
       </c>
       <c r="S101" s="31"/>
-    </row>
-    <row r="102" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A102" s="58"/>
-      <c r="B102" s="56"/>
-      <c r="C102" s="62"/>
-      <c r="D102" s="64"/>
-      <c r="E102" s="71"/>
-      <c r="F102" s="71"/>
-      <c r="G102" s="56"/>
+      <c r="T101" s="133"/>
+      <c r="U101" s="133"/>
+    </row>
+    <row r="102" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A102" s="68"/>
+      <c r="B102" s="58"/>
+      <c r="C102" s="64"/>
+      <c r="D102" s="66"/>
+      <c r="E102" s="56"/>
+      <c r="F102" s="56"/>
+      <c r="G102" s="58"/>
       <c r="H102" s="52" t="str">
         <f>IF(E101="","","実績")</f>
         <v>実績</v>
@@ -6039,21 +6376,23 @@
       <c r="Q102" s="32"/>
       <c r="R102" s="32"/>
       <c r="S102" s="32"/>
-    </row>
-    <row r="103" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A103" s="57"/>
+      <c r="T102" s="132"/>
+      <c r="U102" s="132"/>
+    </row>
+    <row r="103" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A103" s="67"/>
       <c r="B103" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C103" s="59" t="s">
+      <c r="C103" s="61" t="s">
         <v>61</v>
       </c>
-      <c r="D103" s="61"/>
-      <c r="E103" s="70" t="s">
+      <c r="D103" s="63"/>
+      <c r="E103" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F103" s="70"/>
-      <c r="G103" s="55"/>
+      <c r="F103" s="55"/>
+      <c r="G103" s="57"/>
       <c r="H103" s="8" t="str">
         <f>IF(E103="","","予定")</f>
         <v>予定</v>
@@ -6077,15 +6416,17 @@
         <v>3</v>
       </c>
       <c r="S103" s="31"/>
-    </row>
-    <row r="104" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A104" s="58"/>
-      <c r="B104" s="56"/>
-      <c r="C104" s="62"/>
-      <c r="D104" s="64"/>
-      <c r="E104" s="71"/>
-      <c r="F104" s="71"/>
-      <c r="G104" s="56"/>
+      <c r="T103" s="133"/>
+      <c r="U103" s="133"/>
+    </row>
+    <row r="104" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A104" s="68"/>
+      <c r="B104" s="58"/>
+      <c r="C104" s="64"/>
+      <c r="D104" s="66"/>
+      <c r="E104" s="56"/>
+      <c r="F104" s="56"/>
+      <c r="G104" s="58"/>
       <c r="H104" s="52" t="str">
         <f>IF(E103="","","実績")</f>
         <v>実績</v>
@@ -6104,21 +6445,23 @@
       <c r="Q104" s="32"/>
       <c r="R104" s="32"/>
       <c r="S104" s="32"/>
-    </row>
-    <row r="105" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A105" s="57">
+      <c r="T104" s="132"/>
+      <c r="U104" s="132"/>
+    </row>
+    <row r="105" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A105" s="67">
         <v>2</v>
       </c>
-      <c r="B105" s="59" t="s">
+      <c r="B105" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="C105" s="60"/>
-      <c r="D105" s="61"/>
-      <c r="E105" s="65" t="s">
+      <c r="C105" s="62"/>
+      <c r="D105" s="63"/>
+      <c r="E105" s="59" t="s">
         <v>31</v>
       </c>
-      <c r="F105" s="65"/>
-      <c r="G105" s="67"/>
+      <c r="F105" s="59"/>
+      <c r="G105" s="70"/>
       <c r="H105" s="23" t="str">
         <f>IF(E105="","","予定")</f>
         <v>予定</v>
@@ -6134,15 +6477,17 @@
       <c r="Q105" s="31"/>
       <c r="R105" s="31"/>
       <c r="S105" s="31"/>
-    </row>
-    <row r="106" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A106" s="58"/>
-      <c r="B106" s="62"/>
-      <c r="C106" s="63"/>
-      <c r="D106" s="64"/>
-      <c r="E106" s="66"/>
-      <c r="F106" s="66"/>
-      <c r="G106" s="68"/>
+      <c r="T105" s="133"/>
+      <c r="U105" s="133"/>
+    </row>
+    <row r="106" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A106" s="68"/>
+      <c r="B106" s="64"/>
+      <c r="C106" s="65"/>
+      <c r="D106" s="66"/>
+      <c r="E106" s="60"/>
+      <c r="F106" s="60"/>
+      <c r="G106" s="71"/>
       <c r="H106" s="24" t="str">
         <f>IF(E105="","","実績")</f>
         <v>実績</v>
@@ -6158,21 +6503,23 @@
       <c r="Q106" s="32"/>
       <c r="R106" s="32"/>
       <c r="S106" s="32"/>
-    </row>
-    <row r="107" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A107" s="57"/>
+      <c r="T106" s="132"/>
+      <c r="U106" s="132"/>
+    </row>
+    <row r="107" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A107" s="67"/>
       <c r="B107" s="69" t="s">
         <v>25</v>
       </c>
-      <c r="C107" s="59" t="s">
+      <c r="C107" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="D107" s="61"/>
-      <c r="E107" s="70" t="s">
+      <c r="D107" s="63"/>
+      <c r="E107" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F107" s="70"/>
-      <c r="G107" s="55"/>
+      <c r="F107" s="55"/>
+      <c r="G107" s="57"/>
       <c r="H107" s="8" t="str">
         <f>IF(E107="","","予定")</f>
         <v>予定</v>
@@ -6196,15 +6543,17 @@
         <v>2.5</v>
       </c>
       <c r="S107" s="31"/>
-    </row>
-    <row r="108" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A108" s="58"/>
-      <c r="B108" s="56"/>
-      <c r="C108" s="62"/>
-      <c r="D108" s="64"/>
-      <c r="E108" s="71"/>
-      <c r="F108" s="71"/>
-      <c r="G108" s="56"/>
+      <c r="T107" s="133"/>
+      <c r="U107" s="133"/>
+    </row>
+    <row r="108" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A108" s="68"/>
+      <c r="B108" s="58"/>
+      <c r="C108" s="64"/>
+      <c r="D108" s="66"/>
+      <c r="E108" s="56"/>
+      <c r="F108" s="56"/>
+      <c r="G108" s="58"/>
       <c r="H108" s="52" t="str">
         <f>IF(E107="","","実績")</f>
         <v>実績</v>
@@ -6223,21 +6572,23 @@
       <c r="Q108" s="32"/>
       <c r="R108" s="32"/>
       <c r="S108" s="32"/>
-    </row>
-    <row r="109" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A109" s="57"/>
+      <c r="T108" s="132"/>
+      <c r="U108" s="132"/>
+    </row>
+    <row r="109" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A109" s="67"/>
       <c r="B109" s="69" t="s">
         <v>28</v>
       </c>
-      <c r="C109" s="59" t="s">
+      <c r="C109" s="61" t="s">
         <v>43</v>
       </c>
-      <c r="D109" s="61"/>
-      <c r="E109" s="70" t="s">
+      <c r="D109" s="63"/>
+      <c r="E109" s="55" t="s">
         <v>23</v>
       </c>
-      <c r="F109" s="70"/>
-      <c r="G109" s="55"/>
+      <c r="F109" s="55"/>
+      <c r="G109" s="57"/>
       <c r="H109" s="8" t="str">
         <f>IF(E109="","","予定")</f>
         <v>予定</v>
@@ -6261,15 +6612,17 @@
         <v>0.5</v>
       </c>
       <c r="S109" s="31"/>
-    </row>
-    <row r="110" spans="1:19" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A110" s="58"/>
-      <c r="B110" s="56"/>
-      <c r="C110" s="62"/>
-      <c r="D110" s="64"/>
-      <c r="E110" s="71"/>
-      <c r="F110" s="71"/>
-      <c r="G110" s="56"/>
+      <c r="T109" s="133"/>
+      <c r="U109" s="133"/>
+    </row>
+    <row r="110" spans="1:21" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A110" s="68"/>
+      <c r="B110" s="58"/>
+      <c r="C110" s="64"/>
+      <c r="D110" s="66"/>
+      <c r="E110" s="56"/>
+      <c r="F110" s="56"/>
+      <c r="G110" s="58"/>
       <c r="H110" s="52" t="str">
         <f>IF(E109="","","実績")</f>
         <v>実績</v>
@@ -6288,8 +6641,10 @@
       <c r="Q110" s="32"/>
       <c r="R110" s="32"/>
       <c r="S110" s="32"/>
-    </row>
-    <row r="111" spans="1:19" x14ac:dyDescent="0.15">
+      <c r="T110" s="131"/>
+      <c r="U110" s="131"/>
+    </row>
+    <row r="111" spans="1:21" x14ac:dyDescent="0.15">
       <c r="L111" s="39"/>
       <c r="M111" s="39"/>
       <c r="N111" s="39"/>
@@ -6304,17 +6659,285 @@
     <filterColumn colId="1" showButton="0"/>
     <filterColumn colId="2" showButton="0"/>
   </autoFilter>
-  <mergeCells count="309">
-    <mergeCell ref="F109:F110"/>
-    <mergeCell ref="G109:G110"/>
-    <mergeCell ref="F105:F106"/>
-    <mergeCell ref="B105:D106"/>
-    <mergeCell ref="A107:A108"/>
-    <mergeCell ref="B107:B108"/>
-    <mergeCell ref="A109:A110"/>
-    <mergeCell ref="B109:B110"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="E109:E110"/>
+  <mergeCells count="312">
+    <mergeCell ref="T1:U1"/>
+    <mergeCell ref="T2:U2"/>
+    <mergeCell ref="T3:U3"/>
+    <mergeCell ref="G89:G90"/>
+    <mergeCell ref="A85:A86"/>
+    <mergeCell ref="B85:D86"/>
+    <mergeCell ref="E85:E86"/>
+    <mergeCell ref="F85:F86"/>
+    <mergeCell ref="G91:G92"/>
+    <mergeCell ref="A95:A96"/>
+    <mergeCell ref="B95:B96"/>
+    <mergeCell ref="C95:D96"/>
+    <mergeCell ref="E95:E96"/>
+    <mergeCell ref="F95:F96"/>
+    <mergeCell ref="G95:G96"/>
+    <mergeCell ref="A93:A94"/>
+    <mergeCell ref="B93:B94"/>
+    <mergeCell ref="C93:D94"/>
+    <mergeCell ref="E93:E94"/>
+    <mergeCell ref="F93:F94"/>
+    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="A75:D76"/>
+    <mergeCell ref="E75:E76"/>
+    <mergeCell ref="F75:F76"/>
+    <mergeCell ref="G75:G76"/>
+    <mergeCell ref="A77:A78"/>
+    <mergeCell ref="B77:D78"/>
+    <mergeCell ref="E77:E78"/>
+    <mergeCell ref="F77:F78"/>
+    <mergeCell ref="G77:G78"/>
+    <mergeCell ref="G81:G82"/>
+    <mergeCell ref="A83:D84"/>
+    <mergeCell ref="E83:E84"/>
+    <mergeCell ref="F83:F84"/>
+    <mergeCell ref="G85:G86"/>
+    <mergeCell ref="A87:A88"/>
+    <mergeCell ref="B87:B88"/>
+    <mergeCell ref="C87:D88"/>
+    <mergeCell ref="E87:E88"/>
+    <mergeCell ref="F87:F88"/>
+    <mergeCell ref="G87:G88"/>
+    <mergeCell ref="E73:E74"/>
+    <mergeCell ref="F73:F74"/>
+    <mergeCell ref="F71:F72"/>
+    <mergeCell ref="G71:G72"/>
+    <mergeCell ref="A65:A66"/>
+    <mergeCell ref="B65:B66"/>
+    <mergeCell ref="C65:D66"/>
+    <mergeCell ref="E65:E66"/>
+    <mergeCell ref="F65:F66"/>
+    <mergeCell ref="G65:G66"/>
+    <mergeCell ref="A69:A70"/>
+    <mergeCell ref="B69:B70"/>
+    <mergeCell ref="C69:D70"/>
+    <mergeCell ref="E69:E70"/>
+    <mergeCell ref="F69:F70"/>
+    <mergeCell ref="G69:G70"/>
+    <mergeCell ref="A71:A72"/>
+    <mergeCell ref="A73:A74"/>
+    <mergeCell ref="B73:B74"/>
+    <mergeCell ref="C73:D74"/>
+    <mergeCell ref="B71:B72"/>
+    <mergeCell ref="C71:D72"/>
+    <mergeCell ref="E71:E72"/>
+    <mergeCell ref="G73:G74"/>
+    <mergeCell ref="G63:G64"/>
+    <mergeCell ref="E63:E64"/>
+    <mergeCell ref="F63:F64"/>
+    <mergeCell ref="A63:A64"/>
+    <mergeCell ref="B63:B64"/>
+    <mergeCell ref="C63:D64"/>
+    <mergeCell ref="F67:F68"/>
+    <mergeCell ref="A67:A68"/>
+    <mergeCell ref="B67:D68"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="B55:B56"/>
+    <mergeCell ref="C55:D56"/>
+    <mergeCell ref="E55:E56"/>
+    <mergeCell ref="F55:F56"/>
+    <mergeCell ref="A51:A52"/>
+    <mergeCell ref="B51:B52"/>
+    <mergeCell ref="G59:G60"/>
+    <mergeCell ref="A61:A62"/>
+    <mergeCell ref="B61:B62"/>
+    <mergeCell ref="C61:D62"/>
+    <mergeCell ref="E61:E62"/>
+    <mergeCell ref="F61:F62"/>
+    <mergeCell ref="G61:G62"/>
+    <mergeCell ref="A59:A60"/>
+    <mergeCell ref="B59:D60"/>
+    <mergeCell ref="E59:E60"/>
+    <mergeCell ref="E53:E54"/>
+    <mergeCell ref="A57:D58"/>
+    <mergeCell ref="E57:E58"/>
+    <mergeCell ref="C51:D52"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="B53:B54"/>
+    <mergeCell ref="C53:D54"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:D38"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="F37:F38"/>
+    <mergeCell ref="G37:G38"/>
+    <mergeCell ref="G53:G54"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A41:D42"/>
+    <mergeCell ref="E41:E42"/>
+    <mergeCell ref="F41:F42"/>
+    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="B47:B48"/>
+    <mergeCell ref="C47:D48"/>
+    <mergeCell ref="E47:E48"/>
+    <mergeCell ref="F47:F48"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A46"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="F45:F46"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="G31:G32"/>
+    <mergeCell ref="G27:G28"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="G35:G36"/>
+    <mergeCell ref="G39:G40"/>
+    <mergeCell ref="F59:F60"/>
+    <mergeCell ref="G47:G48"/>
+    <mergeCell ref="G55:G56"/>
+    <mergeCell ref="F53:F54"/>
+    <mergeCell ref="F57:F58"/>
+    <mergeCell ref="F51:F52"/>
+    <mergeCell ref="G45:G46"/>
+    <mergeCell ref="G57:G58"/>
+    <mergeCell ref="F103:F104"/>
+    <mergeCell ref="E103:E104"/>
+    <mergeCell ref="G41:G42"/>
+    <mergeCell ref="E43:E44"/>
+    <mergeCell ref="F43:F44"/>
+    <mergeCell ref="G43:G44"/>
+    <mergeCell ref="E45:E46"/>
+    <mergeCell ref="E51:E52"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="G51:G52"/>
+    <mergeCell ref="G103:G104"/>
+    <mergeCell ref="G97:G98"/>
+    <mergeCell ref="G67:G68"/>
+    <mergeCell ref="G83:G84"/>
+    <mergeCell ref="E79:E80"/>
+    <mergeCell ref="F79:F80"/>
+    <mergeCell ref="G79:G80"/>
+    <mergeCell ref="E49:E50"/>
+    <mergeCell ref="F49:F50"/>
+    <mergeCell ref="G49:G50"/>
+    <mergeCell ref="E33:E34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:D16"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="G101:G102"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="G99:G100"/>
+    <mergeCell ref="G33:G34"/>
+    <mergeCell ref="F101:F102"/>
+    <mergeCell ref="E101:E102"/>
+    <mergeCell ref="B49:D50"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="B25:D26"/>
+    <mergeCell ref="C27:D28"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="B33:D34"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:D36"/>
+    <mergeCell ref="E35:E36"/>
+    <mergeCell ref="F35:F36"/>
+    <mergeCell ref="B43:D44"/>
+    <mergeCell ref="B45:B46"/>
+    <mergeCell ref="C45:D46"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="B9:D10"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="A7:D8"/>
+    <mergeCell ref="G7:G8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="F1:F4"/>
+    <mergeCell ref="G11:G12"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="F19:F20"/>
+    <mergeCell ref="G19:G20"/>
+    <mergeCell ref="E9:E10"/>
+    <mergeCell ref="E11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="E13:E14"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="G17:G18"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:D14"/>
+    <mergeCell ref="C11:D12"/>
+    <mergeCell ref="R1:S1"/>
+    <mergeCell ref="R2:S2"/>
+    <mergeCell ref="L2:M2"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="P2:Q2"/>
+    <mergeCell ref="L1:M1"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="P1:Q1"/>
+    <mergeCell ref="P3:Q3"/>
+    <mergeCell ref="R3:S3"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="K1:K4"/>
+    <mergeCell ref="G1:G4"/>
+    <mergeCell ref="G9:G10"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="G13:G14"/>
+    <mergeCell ref="J1:J4"/>
+    <mergeCell ref="I1:I4"/>
+    <mergeCell ref="E1:E4"/>
+    <mergeCell ref="H1:H4"/>
+    <mergeCell ref="E25:E26"/>
+    <mergeCell ref="A23:D24"/>
+    <mergeCell ref="E17:E18"/>
+    <mergeCell ref="C31:D32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="E31:E32"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:D20"/>
+    <mergeCell ref="E27:E28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C29:D30"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:D18"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="E19:E20"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="E99:E100"/>
+    <mergeCell ref="A91:A92"/>
+    <mergeCell ref="B91:D92"/>
+    <mergeCell ref="E91:E92"/>
+    <mergeCell ref="F91:F92"/>
+    <mergeCell ref="A99:A100"/>
+    <mergeCell ref="B99:D100"/>
+    <mergeCell ref="A79:A80"/>
+    <mergeCell ref="B79:B80"/>
+    <mergeCell ref="C79:D80"/>
+    <mergeCell ref="A81:A82"/>
+    <mergeCell ref="B81:B82"/>
+    <mergeCell ref="C81:D82"/>
+    <mergeCell ref="E81:E82"/>
+    <mergeCell ref="F81:F82"/>
+    <mergeCell ref="A89:A90"/>
+    <mergeCell ref="B89:B90"/>
+    <mergeCell ref="C89:D90"/>
+    <mergeCell ref="E89:E90"/>
+    <mergeCell ref="F89:F90"/>
     <mergeCell ref="A49:A50"/>
     <mergeCell ref="C39:D40"/>
     <mergeCell ref="E39:E40"/>
@@ -6339,281 +6962,16 @@
     <mergeCell ref="B101:B102"/>
     <mergeCell ref="C101:D102"/>
     <mergeCell ref="E67:E68"/>
-    <mergeCell ref="F99:F100"/>
-    <mergeCell ref="E99:E100"/>
-    <mergeCell ref="A91:A92"/>
-    <mergeCell ref="B91:D92"/>
-    <mergeCell ref="E91:E92"/>
-    <mergeCell ref="F91:F92"/>
-    <mergeCell ref="A99:A100"/>
-    <mergeCell ref="B99:D100"/>
-    <mergeCell ref="A79:A80"/>
-    <mergeCell ref="B79:B80"/>
-    <mergeCell ref="C79:D80"/>
-    <mergeCell ref="A81:A82"/>
-    <mergeCell ref="B81:B82"/>
-    <mergeCell ref="C81:D82"/>
-    <mergeCell ref="E81:E82"/>
-    <mergeCell ref="F81:F82"/>
-    <mergeCell ref="A89:A90"/>
-    <mergeCell ref="B89:B90"/>
-    <mergeCell ref="C89:D90"/>
-    <mergeCell ref="E89:E90"/>
-    <mergeCell ref="F89:F90"/>
-    <mergeCell ref="E25:E26"/>
-    <mergeCell ref="A23:D24"/>
-    <mergeCell ref="E17:E18"/>
-    <mergeCell ref="C31:D32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="E31:E32"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:D20"/>
-    <mergeCell ref="E27:E28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C29:D30"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:D18"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:D14"/>
-    <mergeCell ref="C11:D12"/>
-    <mergeCell ref="R1:S1"/>
-    <mergeCell ref="R2:S2"/>
-    <mergeCell ref="L2:M2"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="P2:Q2"/>
-    <mergeCell ref="L1:M1"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="P1:Q1"/>
-    <mergeCell ref="P3:Q3"/>
-    <mergeCell ref="R3:S3"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="K1:K4"/>
-    <mergeCell ref="G1:G4"/>
-    <mergeCell ref="G9:G10"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="J1:J4"/>
-    <mergeCell ref="I1:I4"/>
-    <mergeCell ref="E1:E4"/>
-    <mergeCell ref="H1:H4"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="E9:E10"/>
-    <mergeCell ref="E11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="E15:E16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="G17:G18"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="A1:D4"/>
-    <mergeCell ref="B9:D10"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="A7:D8"/>
-    <mergeCell ref="G7:G8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="F1:F4"/>
-    <mergeCell ref="G11:G12"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:D16"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="G101:G102"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="G99:G100"/>
-    <mergeCell ref="G33:G34"/>
-    <mergeCell ref="F101:F102"/>
-    <mergeCell ref="E101:E102"/>
-    <mergeCell ref="B49:D50"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="C27:D28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="B33:D34"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:D36"/>
-    <mergeCell ref="E35:E36"/>
-    <mergeCell ref="F35:F36"/>
-    <mergeCell ref="B43:D44"/>
-    <mergeCell ref="B45:B46"/>
-    <mergeCell ref="C45:D46"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="F103:F104"/>
-    <mergeCell ref="E103:E104"/>
-    <mergeCell ref="G41:G42"/>
-    <mergeCell ref="E43:E44"/>
-    <mergeCell ref="F43:F44"/>
-    <mergeCell ref="G43:G44"/>
-    <mergeCell ref="E45:E46"/>
-    <mergeCell ref="E51:E52"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="G51:G52"/>
-    <mergeCell ref="G103:G104"/>
-    <mergeCell ref="G97:G98"/>
-    <mergeCell ref="G67:G68"/>
-    <mergeCell ref="G83:G84"/>
-    <mergeCell ref="E79:E80"/>
-    <mergeCell ref="F79:F80"/>
-    <mergeCell ref="G79:G80"/>
-    <mergeCell ref="E49:E50"/>
-    <mergeCell ref="F49:F50"/>
-    <mergeCell ref="G49:G50"/>
-    <mergeCell ref="E33:E34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="G31:G32"/>
-    <mergeCell ref="G27:G28"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="G25:G26"/>
-    <mergeCell ref="G35:G36"/>
-    <mergeCell ref="G39:G40"/>
-    <mergeCell ref="F59:F60"/>
-    <mergeCell ref="G47:G48"/>
-    <mergeCell ref="G55:G56"/>
-    <mergeCell ref="F53:F54"/>
-    <mergeCell ref="F57:F58"/>
-    <mergeCell ref="F51:F52"/>
-    <mergeCell ref="G45:G46"/>
-    <mergeCell ref="G57:G58"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
-    <mergeCell ref="B53:B54"/>
-    <mergeCell ref="C53:D54"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:D38"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="F37:F38"/>
-    <mergeCell ref="G37:G38"/>
-    <mergeCell ref="G53:G54"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="A41:D42"/>
-    <mergeCell ref="E41:E42"/>
-    <mergeCell ref="F41:F42"/>
-    <mergeCell ref="A47:A48"/>
-    <mergeCell ref="B47:B48"/>
-    <mergeCell ref="C47:D48"/>
-    <mergeCell ref="E47:E48"/>
-    <mergeCell ref="F47:F48"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="A45:A46"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="F45:F46"/>
-    <mergeCell ref="A55:A56"/>
-    <mergeCell ref="B55:B56"/>
-    <mergeCell ref="C55:D56"/>
-    <mergeCell ref="E55:E56"/>
-    <mergeCell ref="F55:F56"/>
-    <mergeCell ref="A51:A52"/>
-    <mergeCell ref="B51:B52"/>
-    <mergeCell ref="G59:G60"/>
-    <mergeCell ref="A61:A62"/>
-    <mergeCell ref="B61:B62"/>
-    <mergeCell ref="C61:D62"/>
-    <mergeCell ref="E61:E62"/>
-    <mergeCell ref="F61:F62"/>
-    <mergeCell ref="G61:G62"/>
-    <mergeCell ref="A59:A60"/>
-    <mergeCell ref="B59:D60"/>
-    <mergeCell ref="E59:E60"/>
-    <mergeCell ref="E53:E54"/>
-    <mergeCell ref="A57:D58"/>
-    <mergeCell ref="E57:E58"/>
-    <mergeCell ref="C51:D52"/>
-    <mergeCell ref="G63:G64"/>
-    <mergeCell ref="E63:E64"/>
-    <mergeCell ref="F63:F64"/>
-    <mergeCell ref="A63:A64"/>
-    <mergeCell ref="B63:B64"/>
-    <mergeCell ref="C63:D64"/>
-    <mergeCell ref="F67:F68"/>
-    <mergeCell ref="A67:A68"/>
-    <mergeCell ref="B67:D68"/>
-    <mergeCell ref="E73:E74"/>
-    <mergeCell ref="F73:F74"/>
-    <mergeCell ref="F71:F72"/>
-    <mergeCell ref="G71:G72"/>
-    <mergeCell ref="A65:A66"/>
-    <mergeCell ref="B65:B66"/>
-    <mergeCell ref="C65:D66"/>
-    <mergeCell ref="E65:E66"/>
-    <mergeCell ref="F65:F66"/>
-    <mergeCell ref="G65:G66"/>
-    <mergeCell ref="A69:A70"/>
-    <mergeCell ref="B69:B70"/>
-    <mergeCell ref="C69:D70"/>
-    <mergeCell ref="E69:E70"/>
-    <mergeCell ref="F69:F70"/>
-    <mergeCell ref="G69:G70"/>
-    <mergeCell ref="A71:A72"/>
-    <mergeCell ref="A73:A74"/>
-    <mergeCell ref="B73:B74"/>
-    <mergeCell ref="C73:D74"/>
-    <mergeCell ref="B71:B72"/>
-    <mergeCell ref="C71:D72"/>
-    <mergeCell ref="E71:E72"/>
-    <mergeCell ref="G73:G74"/>
-    <mergeCell ref="G81:G82"/>
-    <mergeCell ref="A83:D84"/>
-    <mergeCell ref="E83:E84"/>
-    <mergeCell ref="F83:F84"/>
-    <mergeCell ref="G85:G86"/>
-    <mergeCell ref="A87:A88"/>
-    <mergeCell ref="B87:B88"/>
-    <mergeCell ref="C87:D88"/>
-    <mergeCell ref="E87:E88"/>
-    <mergeCell ref="F87:F88"/>
-    <mergeCell ref="G87:G88"/>
-    <mergeCell ref="A75:D76"/>
-    <mergeCell ref="E75:E76"/>
-    <mergeCell ref="F75:F76"/>
-    <mergeCell ref="G75:G76"/>
-    <mergeCell ref="A77:A78"/>
-    <mergeCell ref="B77:D78"/>
-    <mergeCell ref="E77:E78"/>
-    <mergeCell ref="F77:F78"/>
-    <mergeCell ref="G77:G78"/>
-    <mergeCell ref="G89:G90"/>
-    <mergeCell ref="A85:A86"/>
-    <mergeCell ref="B85:D86"/>
-    <mergeCell ref="E85:E86"/>
-    <mergeCell ref="F85:F86"/>
-    <mergeCell ref="G91:G92"/>
-    <mergeCell ref="A95:A96"/>
-    <mergeCell ref="B95:B96"/>
-    <mergeCell ref="C95:D96"/>
-    <mergeCell ref="E95:E96"/>
-    <mergeCell ref="F95:F96"/>
-    <mergeCell ref="G95:G96"/>
-    <mergeCell ref="A93:A94"/>
-    <mergeCell ref="B93:B94"/>
-    <mergeCell ref="C93:D94"/>
-    <mergeCell ref="E93:E94"/>
-    <mergeCell ref="F93:F94"/>
-    <mergeCell ref="G93:G94"/>
+    <mergeCell ref="F109:F110"/>
+    <mergeCell ref="G109:G110"/>
+    <mergeCell ref="F105:F106"/>
+    <mergeCell ref="B105:D106"/>
+    <mergeCell ref="A107:A108"/>
+    <mergeCell ref="B107:B108"/>
+    <mergeCell ref="A109:A110"/>
+    <mergeCell ref="B109:B110"/>
+    <mergeCell ref="C109:D110"/>
+    <mergeCell ref="E109:E110"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="L85:S96 L99:S110 L43:S52 L54:S54 L9:S12 M13:S13 L14:S18 L53:T53 L55:T55 L56:S56 L25:S34 L77:S79 L81:S82 L80:T80">
@@ -6701,6 +7059,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101007C0656FF5EC7EF489D1EE3B2A7A4879D" ma:contentTypeVersion="10" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="c9f6ca54e784802800d293eef09570a9">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="ef71c9de-9867-437c-8375-3a1a59bfe133" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4c51f8709e62defe7f0f38684106f309" ns2:_="">
     <xsd:import namespace="ef71c9de-9867-437c-8375-3a1a59bfe133"/>
@@ -6884,15 +7251,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5BFC8D0-70B3-418F-A12A-6C2F248A8F27}">
   <ds:schemaRefs>
@@ -6903,6 +7261,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{89F0FFFF-D441-4664-93A0-244B234195EC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6918,12 +7284,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{58BC725F-A06B-4C45-A100-64A02A509E62}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>